--- a/ui_data/blibli.xlsx
+++ b/ui_data/blibli.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Product Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Product Data" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,13 +432,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="97" customWidth="1" min="4" max="4"/>
+    <col width="147" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="224" customWidth="1" min="6" max="6"/>
+    <col width="276" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="559" customWidth="1" min="8" max="8"/>
+    <col width="582" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,7 +486,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLW-60022-01270</t>
+          <t>VAM-60047-00028</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>BLYTHE</t>
+          <t>VAYA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BLYTHE Karet Rambut Pack Isi 5 pcs Karet Rambut Elastis Korea Cantik VCA Alhambra - Multi Color</t>
+          <t>Vaya Celana Dalam Wanita Art 105</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -509,60 +509,60 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-102263832/blythe_blythe_karet_rambut_pack_isi_5_pcs_karet_rambut_elastis_korea_cantik_vca_alhambra_-_multi_color_full02_pirek09q.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//113/MTA-7946897/vaya_vaya_celana_dalam_wanita_art_105_full07_tsegjxpc.jpg</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/blythe-karet-rambut-pack-isi-5-pcs-karet-rambut-elastis-korea-cantik-vca-alhambra-multi-color/ps--BLW-60022-01270?ds=BLW-60022-01270-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq+T2r7fOYNS0fn24lYkspaBl5vfrmHU5Q8bT/ocNrObpFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/A+bVy57sPYICbagrfTX85ws4+rWZ7zCXM6RAaC0DCw0MKQ9PlM/Q98GUugQJNGaO371+Fx1GV9QkiSnx+YzhKM=&amp;cnc=false&amp;pickupPointCode=PP-3047949&amp;pid1=BLW-60022-01270</t>
+          <t>https://www.blibli.com/p/vaya-celana-dalam-wanita-art-105/ps--VAM-60047-00028?ds=VAM-60047-00028-00022&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq+T2r7fOYNS0fn24lYkspaBOiFJzBdj5bpigceDw0uA91esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A8s4+rWZ7zCXM6RAaC0DCw0e2Pllk5UNg4gE0pn1fUaDcWA2XVscKi/tVwIPhWxnEMPPjVhhyLHi3omjt/pcgmB&amp;cnc=false&amp;pickupPointCode=PP-3191339&amp;pid1=VAM-60047-00028</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NEB-60027-01137</t>
+          <t>INS-28338-00021</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>New Balance</t>
+          <t>Muscle Fit</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>New Balance Men Running Impact Run 5 Inch Short Celana Olahraga Pria [NEWAMS21268N]</t>
+          <t>Muscle Fit MFBX-110 Boxer Celana Dalam Pria - Hitam [3 Pcs]</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>390000</v>
+        <v>74307</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-96602598/new_balance_new_balance_men_running_impact_run_5_inch_short_celana_olahraga_pria_-newams21268n-_full02_sxuehwox.png</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//109/MTA-15939099/muscle_fit_muscle_fit_mfbx-110_boxer_celana_dalam_pria_-_hitam_-3_pcs-_full04_b2eqjl6u.jpg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/new-balance-men-running-impact-run-5-inch-short-celana-olahraga-pria-newams21268n/ps--NEB-60027-01137?ds=NEB-60027-01137-00003&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM438H5hXXWkF0dKfPGTdZQcdlwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/A+bVy57sPYICbagrfTX85wkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDkaTmXM5ymgQU76aQtitcsKDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3526013&amp;pid1=NEB-60027-01137</t>
+          <t>https://www.blibli.com/p/muscle-fit-mfbx-110-boxer-celana-dalam-pria-hitam-3-pcs/ps--INS-28338-00021?ds=INS-28338-00021-00005&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6+ofzQPca16/hNKbnSDAJ7iA6KyoMcwEkeRG65oyOFiCGlgPeK8rUlktyavu3C5T2lLxoLaHsRAJv8lj0ZJ+KKWyiBVV+ZSlXxNvPz9a8MHT9B348TZH4FhxuSDbhHbW94ZoZgYUZh/bnPUJo2NrB1YDqIYcOPQIbVM7pUbxxlrUYgNp1+TEJCf8Aed76MVhhAzI+1iWJG3a3RJebe09mkKDBhcJWU7Wh6Q+zs/xW9UK75dCgVySnSnFnHvJRwecg==&amp;cnc=false&amp;pickupPointCode=PP-3004512&amp;pid1=INS-28338-00021</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FLM-22188-00903</t>
+          <t>EVO-70024-00184</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -572,35 +572,35 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Flyman</t>
+          <t>EVERNEXT</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Flyman Celana Dalam Pria Katun CD Briefs laki segitiga 1 Pcs FM 3378</t>
+          <t>EVERNEXT - CELANA BOXER CAVERO PRIA CELANA PENDEK SANTAI PRIA CELANA JOGGING RUNNING PRIA CELANA OLAHRAGA DDISTRO PRIA</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30500</v>
+        <v>28000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-47588965/flyman_flyman_celana_dalam_pria_katun_cd_briefs_laki_segitiga_1_pcs_fm_3378_full01_jlj77yur.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-78904222/evernext_evernext_-_celana_boxer_cavero_pria_celana_pendek_santai_pria_celana_jogging_running_pria_celana_olahraga_ddistro_pria_full01_f2j2m289.jpeg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.9</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/flyman-celana-dalam-pria-katun-cd-briefs-laki-segitiga-1-pcs-fm-3378/ps--FLM-22188-00903?ds=FLM-22188-00903-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EO/HAkxoVke7cxJ4LyInlLe6L7IRaSZ3iwh0M268aXvN1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+UvM5rYQ2b7sWjAIjInNGfymSid4UzDSJt9ecE9c7PeUrDNQbMrsAMmfYB7gn+SuipPH0QkIWnpynVxqg5n9k7czb4iFkMm3ZXxtmElZqnPw=&amp;cnc=false&amp;pickupPointCode=FLM-22188-001&amp;pid1=FLM-22188-00903</t>
+          <t>https://www.blibli.com/p/evernext-celana-boxer-cavero-pria-celana-pendek-santai-pria-celana-jogging-running-pria-celana-olahraga-ddistro-pria/ps--EVO-70024-00184?ds=EVO-70024-00184-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxhotWbalOJK1bAKb4JrdH6T2r7fOYNS0fn24lYkspaB4MPWdDoQWfSgMTYkozeBy1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaXkpaMig9WMN+9MyN3AaEzqoZ4Vvz6LpzbeNJ0g0IKxs=&amp;cnc=false&amp;pickupPointCode=PP-3357698&amp;pid1=EVO-70024-00184</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FLM-22188-00917</t>
+          <t>LIF-60029-00060</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -610,58 +610,58 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Flyman</t>
+          <t>LOKKAL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Flyman Celana Dalam Boxer Sport Cool Mesh Pria Clana Dalem CD Bokser Cowok 1 PCS FM 3385</t>
+          <t>Basic Boxer Unisex - Blue</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35600</v>
+        <v>39000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-61498611/flyman_flyman_celana_dalam_boxer_sport_cool_mesh_pria_clana_dalem_cd_bokser_cowok_1_pcs_fm_3385_full01_qcjo6rko.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-74315404/lokkal_basic_boxer_unisex_-_blue_full06_uo8fe0j7.jpeg</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/flyman-celana-dalam-boxer-sport-cool-mesh-pria-clana-dalem-cd-bokser-cowok-1-pcs-fm-3385/ps--FLM-22188-00917?ds=FLM-22188-00917-00009&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiFnh6wQ6PEr8y5kW/jpBoqaAXvRQdB/K7sS63OLVknJIJbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtb3hmhmBhRmH9uc9QmjY2sHdREAk1W9SMQMEM8jORiHHlRiA2nX5MQkJ/wB53voxWGEDMj7WJYkbdrdEl5t7T2aQoMGFwlZTtaHpD7Oz/Fb1Qrvl0KBXJKdKcWce8lHB5y&amp;cnc=false&amp;pickupPointCode=FLM-22188-001&amp;pid1=FLM-22188-00917</t>
+          <t>https://www.blibli.com/p/basic-boxer-unisex-blue/ps--LIF-60029-00060?ds=LIF-60029-00060-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43+T2r7fOYNS0fn24lYkspaB+FOpWmW16LNrO62Nx2PgulesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3519937&amp;pid1=LIF-60029-00060</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GUC-70082-00023</t>
+          <t>INP-60076-00116</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Mainan, Buku &amp; Stationery</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Guten Inc</t>
+          <t>Hobby Boss</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Guten Inc - Celana Pendek Thin Boxer Black</t>
+          <t>Hobby Boss 83405 USS Boxer LHD-4 Model Kit [1:700]</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26500</v>
+        <v>513000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/107/MTA-159506880/guten_inc_guten_inc_-_celana_pendek_thin_boxer_black_full05_m9nwmh8g.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//105/MTA-29995610/hobby-boss_hobby-boss-uss-boxer-lhd-4--1-700--83405_full02.jpg</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -669,90 +669,90 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/guten-inc-celana-pendek-thin-boxer-black/ps--GUC-70082-00023?ds=GUC-70082-00023-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy/HAkxoVke7cxJ4LyInlLelIueRS9s/tGUhVEdqo5+5VesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/A+bVy57sPYICbagrfTX85y/lyaCEV2cLuob29BhL/vaPnDwMFHBNkZD96z2eBGIU/0PfvP+DsPv5wKBaYVD+nM=&amp;cnc=false&amp;pickupPointCode=PP-3522123&amp;pid1=GUC-70082-00023</t>
+          <t>https://www.blibli.com/p/hobby-boss-83405-uss-boxer-lhd-4-model-kit-1-700/ps--INP-60076-00116?ds=INP-60076-00116-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/zjMYmgLdOqahjgDqbPvascL69AJjeZ+MXw+OZq4PdaU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNKLEGimk7iYf456duVuew0UVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3380297&amp;pid1=INP-60076-00116</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GUC-70082-00021</t>
+          <t>INP-60076-02694</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Mainan, Buku &amp; Stationery</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Guten Inc</t>
+          <t>Hobby Boss</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Guten Inc - Celana Underwear Pria Pendek Alan GREY</t>
+          <t>Hobby Boss 83405 USS Boxer LHD-4 Model Kit [1:700]</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>35000</v>
+        <v>399000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-159506662/guten_inc_guten_inc_-_celana_underwear_pria_pendek_alan_grey_full01_mcecwt3g.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-159533844/hobby-boss_hobby-boss-uss-boxer-lhd-4--1-700--83405_full02.jpg</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/guten-inc-celana-underwear-pria-pendek-alan-grey/ps--GUC-70082-00021?ds=GUC-70082-00021-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGT2r7fOYNS0fn24lYkspaBEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74Axnpn5uUjYeSavSjwxFyeYHMulcALaTPcKQsPMie104BLn0jdNeGBFFsHx5DkZbeFIFHBTh0UcYxsAONNaWLB2YMGu7X5WeWbqQCCLU+XnM=&amp;cnc=false&amp;pickupPointCode=PP-3522123&amp;pid1=GUC-70082-00021</t>
+          <t>https://www.blibli.com/p/hobby-boss-83405-uss-boxer-lhd-4-model-kit-1-700/ps--INP-60076-02694?ds=INP-60076-02694-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43+GkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNKLEGimk7iYf456duVuew0UVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3380297&amp;pid1=INP-60076-02694</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OFI-70005-00087</t>
+          <t>INP-60076-01480</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Mainan, Buku &amp; Stationery</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Offspring</t>
+          <t>Aurora</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Offspring Popok Bayi Diaper SAP Bebas Klorin - Triple Pack Celana L36 x3</t>
+          <t>Aurora World Anjing Boxer Dog XXL Plush Toy Boneka Anak XXL-2</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>356333</v>
+        <v>216000</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/95/MTA-141213848/offspring_triple_pack_offspring_fashion_diapers_pants_popok_bayi_celana_bebas_klorin_-_l_-108pcs-_full01_hw4pewuy.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//111/MTA-58188882/aurora_aurora_world_anjing_boxer_dog_xxl_plush_toy_boneka_anak__xxl-2_full01_rd9mjwde.jpg</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/offspring-popok-bayi-diaper-sap-bebas-klorin-triple-pack-celana-l36-x3/ps--OFI-70005-00087?ds=OFI-70005-00087-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiHD0Ph7y4AQIxNTJ6MlP49q1jjHdHUy2ZlC0z6akf4iE+Wk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKhFRUDY7LArWqkV+AxOUq3WAegSItxabBVc/56PQyMrgankehYe5gM2XTsam362Zd9Q99NxEe4jU/YNHa8ykRiZbpBQB0IqoKZalbuEoFFziZxxZARbp9ORhpBOmAaQtRQ==&amp;cnc=false&amp;pickupPointCode=PP-3454732&amp;pid1=OFI-70005-00087</t>
+          <t>https://www.blibli.com/p/aurora-world-anjing-boxer-dog-xxl-plush-toy-boneka-anak-xxl-2/ps--INP-60076-01480?ds=INP-60076-01480-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goIJcaEJLcqsH3r6UABTq0TLU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNmx4cAQvCFu40hbphYlPEe4TodBPeru5IipRxn8umZ90=&amp;cnc=false&amp;pickupPointCode=PP-3380297&amp;pid1=INP-60076-01480</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HUP-60027-02994</t>
+          <t>INS-28338-00494</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -762,35 +762,35 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hush Puppies</t>
+          <t>Muscle Fit</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hush Puppies Rum 3 Terry Jogger Pants Pria 01</t>
+          <t>Celana dalam Boxer Anak Cowok - 1 pcs</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>293020</v>
+        <v>15900</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/99/MTA-112702877/hush_puppies_hush_puppies_rum_3_terry_jogger_pants_pria_01_full01_f4kx679b.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//105/MTA-35638737/muscle_fit_celana_dalam_boxer_anak_cowok_-_1_pcs_full01_tjg0ghi3.jpg</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/hush-puppies-rum-3-terry-jogger-pants-pria-01/ps--HUP-60027-02994?ds=HUP-60027-02994-00005&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwIcYjJhUkfzuki5iW9SKA+DepsSX6NPsAnT86Kcx4IUMt/3c2rmpbvxfTWQ1SJQeFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/A+bVy57sPYICbagrfTX85y/lyaCEV2cLuob29BhL/vaXkpaMig9WMN+9MyN3AaEzjfGE4yVZ/ypRJ/1UooaqOY=&amp;cnc=false&amp;pickupPointCode=PP-3095796&amp;pid1=HUP-60027-02994</t>
+          <t>https://www.blibli.com/p/celana-dalam-boxer-anak-cowok-1-pcs/ps--INS-28338-00494?ds=INS-28338-00494-00005&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9tiwxYVs41tNENObWAga5GIIGmm33viDj/+hYQaGlpdJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3004512&amp;pid1=INS-28338-00494&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GUC-70082-00509</t>
+          <t>BLG-70029-03629</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -800,20 +800,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Guten Inc</t>
+          <t>no brand</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Guteninc - Strap Sandal YELLOW BLACK Sendal Pria Slipper</t>
+          <t>Go Celana Dalam Pria Disposable - White</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>86500</v>
+        <v>29000</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/100/MTA-160690814/brd-28051_guteninc-strap-sandal-yellow-black-sendal-pria-slipper_full03-44f8736f.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-95317676/no_brand_celana_dalam_pria_disposable_white_full04_okqua4k5.jpeg</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -821,37 +821,37 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/guteninc-strap-sandal-yellow-black-sendal-pria-slipper/ps--GUC-70082-00509?ds=GUC-70082-00509-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7cMd/CdFKsQOTiElOFgtVS/HAkxoVke7cxJ4LyInlLeEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74Axnpn5uUjYeSavSjwxFyeYHMulcALaTPcKQsPMie104BLn0jdNeGBFFsHx5DkZbetmindxAjsrBzvXL0TzEINNJBzoPbzcvGyeutJypmYTc=&amp;cnc=false&amp;pickupPointCode=PP-3522123&amp;pid1=GUC-70082-00509</t>
+          <t>https://www.blibli.com/p/go-celana-dalam-pria-disposable-white/ps--BLG-70029-03629?ds=BLG-70029-03629-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwIcYjJhUkfzuki5iW9SKA+T2r7fOYNS0fn24lYkspaBeDjUvNSdi2pMgvjOUAWtGlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3526957&amp;pid1=BLG-70029-03629</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SCY-70003-00016</t>
+          <t>LIF-60029-00055</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Scomfy</t>
+          <t>LOKKAL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Scomfy Hannah Pants Celana Wanita - Olive</t>
+          <t>Basic Boxer Unisex - Checkered Blue</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>50000</v>
+        <v>39000</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-40662221/scomfy_scomfy_wide_leg_pants__celana_wanita_-_olive_full02_ccf2kh11.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-74309952/lokkal_basic_boxer_unisex_-_checkered_blue_full09_luvblje0.jpeg</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -859,37 +859,37 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/scomfy-hannah-pants-celana-wanita-olive/ps--SCY-70003-00016?ds=SCY-70003-00016-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7H99hTZSOJNePuhl5sgJ5OT2r7fOYNS0fn24lYkspaBH6O7uYSEzakzVw5tVcdvv1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKRossEAoUMZC/Ol+lg8c+HU2ZEeIuBn14TxfdO6++3xlRvUANPiMrWsA04si+GB3y0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3415535&amp;pid1=SCY-70003-00016</t>
+          <t>https://www.blibli.com/p/basic-boxer-unisex-checkered-blue/ps--LIF-60029-00055?ds=LIF-60029-00055-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3526302&amp;pid1=LIF-60029-00055</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OTD-70015-00027</t>
+          <t>BLI-15014-19548</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Oto</t>
+          <t>Velvet Junior</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Oto Adult Pants Popok Celana Dewasa Size M [5 pcs]</t>
+          <t>Velvet Junior Girl Boxer AOP 2 - [3pcs/pack]</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36000</v>
+        <v>96895</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112159395/oto_oto_adult_pants_popok_celana_dewasa_size_m_-5_pcs-_full02_s9tc4ozw.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//91/MTA-28301066/velvet-junior_velvet-junior_full01.jpg</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -897,90 +897,90 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/oto-adult-pants-popok-celana-dewasa-size-m-5-pcs/ps--OTD-70015-00027?ds=OTD-70015-00027-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCGT2r7fOYNS0fn24lYkspaBBdU+DX/zi5ZcJnSvGHVgcFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnoThlFy2kzD3CtMxiZ12p+UZRSYItc+S7ThhBJv21jGa0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3482728&amp;pid1=OTD-70015-00027</t>
+          <t>https://www.blibli.com/p/velvet-junior-girl-boxer-aop-2-3pcs-pack/ps--BLI-15014-19548?ds=BLI-15014-19548-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxrRKGh9Gzd1bEF4U1oZrL48vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfE8Fq3Y7FQDm7GSllvB0EzwRUapLx/yCmHBm+F6S9MPxAR75Szd5AvP5iOPg1fnThfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3523009&amp;pid1=BLI-15014-19548</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OTD-70015-00018</t>
+          <t>LIF-60029-00062</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Oto</t>
+          <t>LOKKAL</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Oto Adult Pants Popok Celana Dewasa Size M [Karton/12 x 8 pcs]</t>
+          <t>Basic Boxer Unisex - Tosca</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>718500</v>
+        <v>39000</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112143309/oto_oto_adult_pants_popok_celana_dewasa_size_m_-karton-12_x_8_pcs-_full02_2fnalqv.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-74315901/lokkal_basic_boxer_unisex_-_tosca_full05_h7wg6kdj.jpeg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/oto-adult-pants-popok-celana-dewasa-size-m-karton-12-x-8-pcs/ps--OTD-70015-00018?ds=OTD-70015-00018-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6RXpYt557pWi7AhEmIfSHVk2WJGJ23OQq5oDpk4nsrgwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnoThlFy2kzD3CtMxiZ12p+UZRSYItc+S7ThhBJv21jGa0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3482728&amp;pid1=OTD-70015-00018</t>
+          <t>https://www.blibli.com/p/basic-boxer-unisex-tosca/ps--LIF-60029-00062?ds=LIF-60029-00062-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3526302&amp;pid1=LIF-60029-00062</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OTD-70015-00035</t>
+          <t>LIF-60029-00064</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Oto</t>
+          <t>LOKKAL</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Oto Adult Pants Popok Celana Dewasa Size L [Karton/6 x 16 pcs]</t>
+          <t>Basic Boxer Unisex - Bundle Checkered</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>724600</v>
+        <v>50000</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112178817/oto_oto_adult_pants_popok_celana_dewasa_size_l_-karton-6_x_16_pcs-_full02_ogo9m985.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-74359562/lokkal_basic_boxer_unisex_-_bundle_checkered_full08_jqdfdnyt.jpeg</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/oto-adult-pants-popok-celana-dewasa-size-l-karton-6-x-16-pcs/ps--OTD-70015-00035?ds=OTD-70015-00035-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3Rpfx4BeUxhHN8ir7wH+Lxg65eTsQZO+TcmnPZYkc0ZMt/3c2rmpbvxfTWQ1SJQeFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnoThlFy2kzD3CtMxiZ12p+UZRSYItc+S7ThhBJv21jGa0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3482728&amp;pid1=OTD-70015-00035</t>
+          <t>https://www.blibli.com/p/basic-boxer-unisex-bundle-checkered/ps--LIF-60029-00064?ds=LIF-60029-00064-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7H99hTZSOJNePuhl5sgJ5OT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3526302&amp;pid1=LIF-60029-00064</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ZWL-70001-00013</t>
+          <t>LIF-60029-00058</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -990,210 +990,210 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Zweckout</t>
+          <t>LOKKAL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ZWECKOUT - Celana Jeans Pria Panjang Hitam Pekat Slim Fit Skiny</t>
+          <t>Basic Boxer Unisex - Dusty Pink</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>149000</v>
+        <v>39000</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//100/MTA-57214738/zweckout_zweckout_-_celana_jeans_pria_panjang_hitam_pekat_slim_fit_skiny_full03_egu3f5ja.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-74311918/lokkal_basic_boxer_unisex_-_dusty_pink_full05_gmuzh68c.jpeg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/zweckout-celana-jeans-pria-panjang-hitam-pekat-slim-fit-skiny/ps--ZWL-70001-00013?ds=ZWL-70001-00013-00003&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushKGkIqt3bNpbYK+L444UhhhCAfbybkMLU8HnJV96GDkOlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52Np6XO8WKdHoYeMogok9fdMVdPPWazoH8NOe2rYSlzZRL77KPe7oWrAYbeKNJa1ek=&amp;cnc=false&amp;pickupPointCode=PP-3372711&amp;pid1=ZWL-70001-00013</t>
+          <t>https://www.blibli.com/p/basic-boxer-unisex-dusty-pink/ps--LIF-60029-00058?ds=LIF-60029-00058-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3519937&amp;pid1=LIF-60029-00058</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SWS-70058-00065</t>
+          <t>BOD-70081-00004</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sweety</t>
+          <t>boxr_id</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Surabaya - Sweety Bronze Dry X-Pert Pants Popok Bayi M 32s</t>
+          <t>Boxr_id Celana Dalam Pria Boxer Vibb Premium isi 3 pcs</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>50000</v>
+        <v>62099</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-158294709/sweety_surabaya_-_sweety_bronze_dry_x-pert_pants_popok_bayi_m_32s_full06_g4shwtz5.png</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/98/MTA-169225063/boxr-id_boxr-id_celana_dalam_pria_boxer_vibb_isi_3_pcs_full01_osa0kw18.jpg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/surabaya-sweety-bronze-dry-x-pert-pants-popok-bayi-m-32s/ps--SWS-70058-00065?ds=SWS-70058-00065-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7H99hTZSOJNePuhl5sgJ5OT2r7fOYNS0fn24lYkspaBpDKqaGEX00yummo0TbuMJlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHIrv2uRgEqoWSOjr4iVZ2UqQnwkUoFArHrsuBTMpULV2HurS6AB/A5le/nF9k9GOQM=&amp;cnc=false&amp;pickupPointCode=PP-3528240&amp;pid1=SWS-70058-00065</t>
+          <t>https://www.blibli.com/p/boxr-id-celana-dalam-pria-boxer-vibb-premium-isi-3-pcs/ps--BOD-70081-00004?ds=BOD-70081-00004-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9lYjsoWJEyQX0Th4y0Bu9Wjb5Ww3NVCPhuzfFnOG2I2JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3532932&amp;pid1=BOD-70081-00004&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SWS-70058-00007</t>
+          <t>BOD-70081-00001</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sweety</t>
+          <t>no brand</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Surabaya - Sweety Silver Pants Popok Bayi L 28 Pcs x 3 Pack</t>
+          <t>Boxr_id Celana Dalam Pria Boxer Vibb Premium</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>157700</v>
+        <v>68999</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/104/MTA-121967077/sweety_surabaya_-_sweety_silver_pants_popok_bayi_l_28_pcs_x_3_pack_full05_cmsr1wfz.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/100/MTA-168553503/no_brand_boxr-id_celana_dalam_boxer_pria_vibb_premium_3_pcs_full01_em8sv0s2.jpg</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/surabaya-sweety-silver-pants-popok-bayi-l-28-pcs-x-3-pack/ps--SWS-70058-00007?ds=SWS-70058-00007-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9tiwxYVs41tNENObWAga5FOSLm5WQ5rKmNtQadKtSabk2EJMN8VbdeaOfoDxq6aRFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50F+DpLndLhhyOgRHezlp9aMvr1jaPBGR1Dff4JpGI+sYg1DCagL+VwGISeGTKUZdPkJ+go0SyaO5+o9d2cyg+S74S3wwI6k8I7omGYAl+u5o+WiGxwQPrk3UJlQOsxrERiB8ZtKTtsFLe2XdLeEKDs&amp;cnc=false&amp;pickupPointCode=PP-3528240&amp;pid1=SWS-70058-00007</t>
+          <t>https://www.blibli.com/p/boxr-id-celana-dalam-pria-boxer-vibb-premium/ps--BOD-70081-00001?ds=BOD-70081-00001-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC4tTCBijc70K03wpOh0TemHOlHF/k5IdSxwaVC2xTLFWJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3532932&amp;pid1=BOD-70081-00001&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SWS-70058-00013</t>
+          <t>TAU-60025-01767</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sweety</t>
+          <t>Tally</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Surabaya - Sweety Silver Pants Boys Popok Bayi XL 26 Pcs x 3 Pack</t>
+          <t>TALLY Celana Dalam Hamil Bahan Katun Bambu Fit to L -XL Muat Kehamilan 0 - 9 Bulan Celana Maternity CD Wanita High Waist Pakaian Dalam Lembut</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>167700</v>
+        <v>39999</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/96/MTA-121983414/sweety_sweety_silver_pants_boys_popok_bayi_-size_xl-_3_x_26_pcs-_full03_qwo3b033.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/112/MTA-169583269/tally_tally_celana_dalam_hamil_bahan_katun_bambu_fit_to_l_-xl_muat_kehamilan_0_-_9_bulan_celana_maternity_cd_wanita_high_waist_pakaian_dalam_lembut_full01_lcxibazp.jpg</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/surabaya-sweety-silver-pants-boys-popok-bayi-xl-26-pcs-x-3-pack/ps--SWS-70058-00013?ds=SWS-70058-00013-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7Icmq1gsSXLUq8ZinzLw7tOSLm5WQ5rKmNtQadKtSabCAfbybkMLU8HnJV96GDkOlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50F+DpLndLhhyOgRHezlp9aMvr1jaPBGR1Dff4JpGI+sYg1DCagL+VwGISeGTKUZdPkJ+go0SyaO5+o9d2cyg+S74S3wwI6k8I7omGYAl+u5o+WiGxwQPrk3UJlQOsxrERiB8ZtKTtsFLe2XdLeEKDs&amp;cnc=false&amp;pickupPointCode=PP-3528240&amp;pid1=SWS-70058-00013</t>
+          <t>https://www.blibli.com/p/tally-celana-dalam-hamil-bahan-katun-bambu-fit-to-l-xl-muat-kehamilan-0-9-bulan-celana-maternity-cd-wanita-high-waist-pakaian-dalam-lembut/ps--TAU-60025-01767?ds=TAU-60025-01767-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/OlHF/k5IdSxwaVC2xTLFWJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3085543&amp;pid1=TAU-60025-01767&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SWS-70058-00014</t>
+          <t>TAU-60025-01774</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sweety</t>
+          <t>Tally</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Surabaya - Sweety Silver Pants Boys Popok Bayi L 28 Pcs x 3 Pack</t>
+          <t>TALLY Celana Dalam Wanita Bahan Katun Bambu fit to L - XL Cd Wanita Basic Super Lembut Pakaian Dalam Wanita Stretchable CD 1260</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>177000</v>
+        <v>25999</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/106/MTA-121983919/sweety_sweety_silver_pants_boys_popok_bayi_-size_l-_3_x_28_pcs-_full03_h1cxoo8a.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/100/MTA-169623181/tally_tally_celana_dalam_wanita_bahan_katun_bambu_fit_to_l_-_xl_cd_wanita_basic_super_lembut_pakaian_dalam_wanita_stretchable_cd_1260_full06_hyjkadze.jpg</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/surabaya-sweety-silver-pants-boys-popok-bayi-l-28-pcs-x-3-pack/ps--SWS-70058-00014?ds=SWS-70058-00014-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+V484ig9GGZ2RzcsQTFZUtmzzZ/8U3KjGLexZ+hPeKg01esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHIrv2uRgEqoWSOjr4iVZ2UqQnwkUoFArHrsuBTMpULV2LnIWRkU0YcQeCzMai3vt1gpf2IWziHLx7iDlUWZO4axleBsKjDSYYdNagV5MxwYWqZm5qTnquY9priXX1YScNPo0XRS9ppfUuESnkztTN78&amp;cnc=false&amp;pickupPointCode=PP-3528240&amp;pid1=SWS-70058-00014</t>
+          <t>https://www.blibli.com/p/tally-celana-dalam-wanita-bahan-katun-bambu-fit-to-l-xl-cd-wanita-basic-super-lembut-pakaian-dalam-wanita-stretchable-cd-1260/ps--TAU-60025-01774?ds=TAU-60025-01774-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzO4NENA+D3a2b160XD/ATDOlHF/k5IdSxwaVC2xTLFWJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3085543&amp;pid1=TAU-60025-01774&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SWS-70058-00012</t>
+          <t>HOO-10808-00428</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sweety</t>
+          <t>Rider</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Surabaya - Sweety Silver Pants Boys Popok Bayi XXL 24 Pcs x 3 Pack</t>
+          <t>Rider Boxer Sport Men's Underwear R763B (1 pcs)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>177500</v>
+        <v>38635</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/96/MTA-121983062/sweety_sweety_silver_pants_boys_popok_bayi_-size_xxl-_3_x_24_sheets-_full02_pplq6ai3.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//113/MTA-75269858/rider_rider_boxer_sport_men-s_underwear_r763b_-1_pcs-_full07_u9c3l9nv.jpg</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1201,52 +1201,52 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/surabaya-sweety-silver-pants-boys-popok-bayi-xxl-24-pcs-x-3-pack/ps--SWS-70058-00012?ds=SWS-70058-00012-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+Upz6Oltu5mExkNdyvoaObo1REXguDUy1GVQkblUMrMyVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50F+DpLndLhhyOgRHezlp9aMvr1jaPBGR1Dff4JpGI+sYg1DCagL+VwGISeGTKUZdPkJ+go0SyaO5+o9d2cyg+S74S3wwI6k8I7omGYAl+u5o+WiGxwQPrk3UJlQOsxrERiB8ZtKTtsFLe2XdLeEKDs&amp;cnc=false&amp;pickupPointCode=PP-3528240&amp;pid1=SWS-70058-00012</t>
+          <t>https://www.blibli.com/p/rider-boxer-sport-men-s-underwear-r763b-1-pcs/ps--HOO-10808-00428?ds=HOO-10808-00428-00012&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzrqhn2WeenYl70j0tMOsyi3gbHx1BRMw4TcnojR/1dYtSexjj4b6RjEfICBcSNGe1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50fyHCRn0/K8xKS6bnBZOgsceqJBE8+DUjBwsxdmjWQn2ghvZVulURit5M328K8mmU=&amp;cnc=false&amp;pickupPointCode=HOO-10808-002&amp;pid1=HOO-10808-00428</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SWS-70058-00008</t>
+          <t>SYU-60023-00446</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sweety</t>
+          <t>no brand</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Surabaya - Sweety Silver Pants Girl Popok Bayi XXL 24 Pcs x 3 Pack</t>
+          <t>Celana dalam anak ternyaman laki laki perempuan motif random</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>177500</v>
+        <v>16000</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/105/MTA-121968852/sweety_sweety_silver_pants_girl_popok_bayi_-size_xxl-_24_pcs-_3_pack-_full02_tfy1kxol.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/120/MTA-168838986/no-brand_celana-dalam-anak-ternyaman-laki-laki-perempuan-motif-random_full01.jpg</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/surabaya-sweety-silver-pants-girl-popok-bayi-xxl-24-pcs-x-3-pack/ps--SWS-70058-00008?ds=SWS-70058-00008-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+Upz6Oltu5mExkNdyvoaOboS2t0M8S3eAMOX0byvli/HFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50F+DpLndLhhyOgRHezlp9aMvr1jaPBGR1Dff4JpGI+sYg1DCagL+VwGISeGTKUZdPkJ+go0SyaO5+o9d2cyg+S74S3wwI6k8I7omGYAl+u5o+WiGxwQPrk3UJlQOsxrERiB8ZtKTtsFLe2XdLeEKDs&amp;cnc=false&amp;pickupPointCode=PP-3528240&amp;pid1=SWS-70058-00008</t>
+          <t>https://www.blibli.com/p/celana-dalam-anak-ternyaman-laki-laki-perempuan-motif-random/ps--SYU-60023-00446?ds=SYU-60023-00446-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7Icmq1gsSXLUq8ZinzLw7uT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfE8Fq3Y7FQDm7GSllvB0EzwRUapLx/yCmHBm+F6S9MPxAR75Szd5AvP5iOPg1fnThfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3124847&amp;pid1=SYU-60023-00446&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>THP-70006-00066</t>
+          <t>YOH-60025-00664</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1256,210 +1256,210 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Young Hearts</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sorex art. 15227 CD Kancut Remaja Cewek / Celana Dalam Basic Wanita Fit to L Bahan Katun</t>
+          <t>Young Hearts Panty (Celana Dalam) Marshmallow Kiss, Hipster Y27-000680</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10000</v>
+        <v>72000</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//99/MTA-43900936/sorex_sorex_art-_15227_cd_kancut_remaja_cewek_-_celana_dalam_basic_wanita_fit_to_l_bahan_katun_full01_gz6ffmkh.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/116/MTA-168869726/br-m036969-10134_young-hearts-panty-celana-dalam-marshmallow-kiss-hipster-y27-000680_full09-cff1eaac.jpg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-art-15227-cd-kancut-remaja-cewek-celana-dalam-basic-wanita-fit-to-l-bahan-katun/ps--THP-70006-00066?ds=THP-70006-00066-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq+T2r7fOYNS0fn24lYkspaBgTJ8MrOe6rxqTJ0SPzMiflX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+UvM5rYQ2b7sWjAIjInNGfymSid4UzDSJt9ecE9c7PeUrriCFOI5lmHqdKNgbp4eEVx4J/1iDNX0HaLHD3yW7Hb46duIZxGbk9mK36HGAl/uFLV40DCFINHOsYP0JA4zA&amp;cnc=false&amp;pickupPointCode=PP-3146962&amp;pid1=THP-70006-00066</t>
+          <t>https://www.blibli.com/p/young-hearts-panty-celana-dalam-marshmallow-kiss-hipster-y27-000680/ps--YOH-60025-00664?ds=YOH-60025-00664-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3Rpfx4BeUxhHN8ir7wH+LyT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3054594&amp;pid1=YOH-60025-00664&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>GBM-70000-00056</t>
+          <t>TAU-60025-01769</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MamyPoko</t>
+          <t>Tally</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MamyPoko Royal Soft Pant L34 Boy</t>
+          <t>TALLY Celana Korset Wanita Extra Shapping Ada Kait Bahan Rajut Fit to M/L - 3X/4XL Corset Elastis Lembut dan Nyaman Pakaian Dalam Wanita CST 1251</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>79200</v>
+        <v>89999</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//99/MTA-18075067/mamypoko_mamypoko_royal_soft_pant_l34_boy_full01_bhppemm5.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/106/MTA-169586152/tally_tally_celana_korset_wanita_extra_shapping_ada_kait_bahan_rajut_fit_to_m-l_-_3x-4xl_corset_elastis_lembut_dan_nyaman_pakaian_dalam_wanita_cst_1251_full11_u0lqnc0c.jpg</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/mamypoko-royal-soft-pant-l34-boy/ps--GBM-70000-00056?ds=GBM-70000-00056-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+lwajEQMliso6x+S1dlY1HG7ZKryzxMhLfm5+J6+v8bO/vnA5t9K0Dl2QdZxqhd3lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+UvM5rYQ2b7sWjAIjInNGfymSid4UzDSJt9ecE9c7PeV2gNMGFcfbof284avA3NXEQWjeZmb5HX82xAuernonhApLuJFId0/bnznE+dmC5y/pqZ4sYT5Dw65c9NjlZBD0GU6+X7Ca5v+MvVLTl6vIgMl1mgM4oDgEVStdMbvQNTM5zgFtHclGUARQ9ELsjSKFK75dCgVySnSnFnHvJRwecg==&amp;cnc=false&amp;pickupPointCode=PP-3182874&amp;pid1=GBM-70000-00056</t>
+          <t>https://www.blibli.com/p/tally-celana-korset-wanita-extra-shapping-ada-kait-bahan-rajut-fit-to-m-l-3x-4xl-corset-elastis-lembut-dan-nyaman-pakaian-dalam-wanita-cst-1251/ps--TAU-60025-01769?ds=TAU-60025-01769-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+vOlHF/k5IdSxwaVC2xTLFWJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9pbvmWihN1rLv6WEwT2nrqFfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3085543&amp;pid1=TAU-60025-01769&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GBM-70000-00054</t>
+          <t>BLI-60043-01827</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Baby Happy</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Baby Happy XXL24</t>
+          <t>Bloods Series Boxer Signals Black</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>46700</v>
+        <v>139000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-10488055/baby_happy_baby_happy_xxl24_full01_kll2frq6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-168861047/brd-09186_bloods-series-boxer-signals-black_full01-a1b60144.jpg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/baby-happy-xxl24/ps--GBM-70000-00054?ds=GBM-70000-00054-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14udEXuxqXaNFOM6xK9miVb8jXK5lZ8k4OWZwl0EVYR8zZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtb3hmhmBhRmH9uc9QmjY2sHdREAk1W9SMQMEM8jORiHHnxkaTwRuRc1M87T35afQYSIY8zCUZTQMImZcXrQqatmMlXVzCnW+9h51z9RDvnHdUrvl0KBXJKdKcWce8lHB5y&amp;cnc=false&amp;pickupPointCode=PP-3182874&amp;pid1=GBM-70000-00054</t>
+          <t>https://www.blibli.com/p/bloods-series-boxer-signals-black/ps--BLI-60043-01827?ds=BLI-60043-01827-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01827&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SCY-70003-00017</t>
+          <t>BLI-60043-01824</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Scomfy</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Scomfy Hannah Pants Celana Wanita - Light Grey</t>
+          <t>Bloods Series Boxer Taked Black</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>59700</v>
+        <v>139000</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-40662223/scomfy_scomfy_wide_leg_pants__celana_wanita_-_light_grey_full02_lwd5lv4p.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/102/MTA-168861044/brd-09186_bloods-series-boxer-taked-black_full01-20f1bf18.jpg</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/scomfy-hannah-pants-celana-wanita-light-grey/ps--SCY-70003-00017?ds=SCY-70003-00017-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ZM94ezkueJan8UnJr3rVmdEXuxqXaNFOM6xK9miVb8BI+SgwT0bjuIBd7LA3Wgh1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKRossEAoUMZC/Ol+lg8c+HU2ZEeIuBn14TxfdO6++3xlRvUANPiMrWsA04si+GB3y0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3415535&amp;pid1=SCY-70003-00017</t>
+          <t>https://www.blibli.com/p/bloods-series-boxer-taked-black/ps--BLI-60043-01824?ds=BLI-60043-01824-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01824&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DIT-60030-00407</t>
+          <t>BLI-60043-01821</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Diadora</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Diadora Women Training Tights Ganis Legging Fitness Wanita [DIAPN230101B]</t>
+          <t>Bloods Series Boxer Wonde White</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>225000</v>
+        <v>139000</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-99225419/diadora_diadora_women_training_tights_ganis_legging_fitness_wanita_-diapn230101b-_full05_hyhazkl9.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-168855224/brd-09186_bloods-series-boxer-wonde-white_full01-6a76e226.jpg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/diadora-women-training-tights-ganis-legging-fitness-wanita-diapn230101b/ps--DIT-60030-00407?ds=DIT-60030-00407-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q80wn7+82bYRdE+2sGGRS84T/uxVTkHJrdC+NFZb+f6u1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt53gqhxMcK8WFN2S236B9Kw9dczJ2dZl0GF+fKX+a5i6arCqKzRr8lLllAusTqHk6aA=&amp;cnc=false&amp;pickupPointCode=PP-3526146&amp;pid1=DIT-60030-00407</t>
+          <t>https://www.blibli.com/p/bloods-series-boxer-wonde-white/ps--BLI-60043-01821?ds=BLI-60043-01821-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01821&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OTD-70015-00031</t>
+          <t>BLI-60043-01822</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Oto</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Oto Adult Pants Popok Celana Dewasa Size XL [3 pcs]</t>
+          <t>Bloods Series Boxer Hatred Black</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29300</v>
+        <v>139000</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112175387/oto_oto_adult_pants_popok_celana_dewasa_size_xl_-3_pcs-_full02_iamaeq0r.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/99/MTA-168861041/brd-09186_bloods-series-boxer-hatred-black_full01-88dd0211.jpg</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1467,37 +1467,37 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/oto-adult-pants-popok-celana-dewasa-size-xl-3-pcs/ps--OTD-70015-00031?ds=OTD-70015-00031-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwIcYjJhUkfzuki5iW9SKA8PkCU6Vf0gJqVxNGwMfC4mZ8ko3/0ZpJ68wdWEBuKJXVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnoThlFy2kzD3CtMxiZ12p+UZRSYItc+S7ThhBJv21jGa0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3482728&amp;pid1=OTD-70015-00031</t>
+          <t>https://www.blibli.com/p/bloods-series-boxer-hatred-black/ps--BLI-60043-01822?ds=BLI-60043-01822-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01822&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>OTD-70015-00022</t>
+          <t>BLI-60043-01823</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Oto</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Oto Adult Pants Popok Celana Dewasa Size XL [Karton/12 x 8 pcs]</t>
+          <t>Bloods Series Boxer Cheydo Black</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>750800</v>
+        <v>139000</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112159326/oto_oto_adult_pants_popok_celana_dewasa_size_xl_-karton-12_x_8_pcs-_full02_jv5z8dbl.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/100/MTA-168861042/brd-09186_bloods-series-boxer-cheydo-black_full01-f6d15114.jpg</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1505,37 +1505,37 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/oto-adult-pants-popok-celana-dewasa-size-xl-karton-12-x-8-pcs/ps--OTD-70015-00022?ds=OTD-70015-00022-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCycpTyS3V4Bt86XaxsYSf79UK3Q12Gibu3N0BIMtAAAGzzZ/8U3KjGLexZ+hPeKg01esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnoThlFy2kzD3CtMxiZ12p+UZRSYItc+S7ThhBJv21jGa0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3482728&amp;pid1=OTD-70015-00022</t>
+          <t>https://www.blibli.com/p/bloods-series-boxer-cheydo-black/ps--BLI-60043-01823?ds=BLI-60043-01823-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01823&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OTD-70015-00020</t>
+          <t>BLI-60043-01826</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Oto</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Oto Adult Pants Popok Celana Dewasa Size L [Karton/12 x 8 pcs]</t>
+          <t>Bloods Series Boxer Bitan Black</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>790900</v>
+        <v>139000</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112143344/oto_oto_adult_pants_popok_celana_dewasa_size_l_-karton-12_x_8_pcs-_full02_pc9sj99v.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-168861046/brd-09186_bloods-series-boxer-bitan-black_full01-79adfa97.jpg</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1543,463 +1543,463 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/oto-adult-pants-popok-celana-dewasa-size-l-karton-12-x-8-pcs/ps--OTD-70015-00020?ds=OTD-70015-00020-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+lwajEQMliso6x+S1dlY1EH3qS6KEp2/0vyLR+xTfJHU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnoThlFy2kzD3CtMxiZ12p+UZRSYItc+S7ThhBJv21jGa0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3482728&amp;pid1=OTD-70015-00020</t>
+          <t>https://www.blibli.com/p/bloods-series-boxer-bitan-black/ps--BLI-60043-01826?ds=BLI-60043-01826-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01826&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BLG-70029-07204</t>
+          <t>BLI-60043-01809</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fitti</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fitti Pants Popok Celana XL-40</t>
+          <t>Bloods Pants Boardshort Boxer Testuo Series</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>82100</v>
+        <v>175000</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/104/MTA-145691059/fitti_fitti_pants_xl-40_popok_celana_full01_syl4whp.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/107/MTA-168852581/brd-09186_bloods-pants-boardshort-boxer-testuo-series_full02-5b7bb777.jpg</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/fitti-pants-popok-celana-xl-40/ps--BLG-70029-07204?ds=BLG-70029-07204-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8tpUbp7kIfoUBwX3mSt48UmbE/LLJy7W3VwRB8pUx8xb5r2p5qDtWVXqVc7GY1hBFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHIrv2uRgEqoWSOjr4iVZ2UqQnwkUoFArHrsuBTMpULV2HurS6AB/A5le/nF9k9GOQM=&amp;cnc=false&amp;pickupPointCode=PP-3526957&amp;pid1=BLG-70029-07204</t>
+          <t>https://www.blibli.com/p/bloods-pants-boardshort-boxer-testuo-series/ps--BLI-60043-01809?ds=BLI-60043-01809-00006&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLzpIPdxAyKrk/S8s/bCYGWSTkAjo33L6F9xnpFG8B7gmdsB5KTRJ+AvjEIVvrsQdY=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01809&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BLI-60051-00153</t>
+          <t>BLI-60043-01819</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fitti</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Fitti Pants M-32 Popok Celana</t>
+          <t>Bloods Series Boxer Barbed 02 Black</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43500</v>
+        <v>129000</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//113/MTA-66772859/fitti_fitti_pants_m-32_popok_celana_full01_lc0aaueq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-168854230/brd-09186_bloods-series-boxer-barbed-02-black_full01-b74725a5.jpg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/fitti-pants-m-32-popok-celana/ps--BLI-60051-00153?ds=BLI-60051-00153-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7D5EnLGW/JufRUomLn7UXW/HAkxoVke7cxJ4LyInlLextyGfwhgQK76PRFevbPZllotyG7K9fuf6GhuhBg1qx5fpZP/HlAo0kBDTb857XQHO00wcIcM43S5kDh1UxrTh35uVJiiuCPRdlV4aliGvlC4/N0ykXdPBQ+Zmpzx07ptbgsUlSAp08Shy7kn+K2jxfTqqqGcrvj1CCDxi0R3X7jevLXBnmN3FEqYdm+HSwzK&amp;cnc=false&amp;pickupPointCode=PP-3137074&amp;pid1=BLI-60051-00153</t>
+          <t>https://www.blibli.com/p/bloods-series-boxer-barbed-02-black/ps--BLI-60043-01819?ds=BLI-60043-01819-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeCGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01819&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BLS-60079-00384</t>
+          <t>BLI-60043-01820</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Confidence</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Confidence Popok Celana XXL 10</t>
+          <t>Bloods Series Boxer Barbed 02 Black</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>172900</v>
+        <v>129000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-87371076/confidence_confidence_premium_pants_xxl_10s_full01_kje6iw2v.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-168854231/brd-09186_bloods-series-boxer-barbed-02-black_full01-bf2e3fbb.jpg</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/confidence-popok-celana-xxl-10/ps--BLS-60079-00384?ds=BLS-60079-00384-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+UYK73rVv9KyKDdReFaYxbBFT6wOPPQz1WLVq0UoKjafJbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV59D3SjmueOfuYI/9W6zNJ4IDdMZLWnhXStRTEeVO4x1AuyDCwvEqOrKbGk02DOZSDwuJ0N+bwReUSR+pQh3lm5HHD7YxzuYdR4OGGpazCTKM5vVH7BzxqFyIibOEPK4xWeNw9uVSuVU2SAe4f07oEPZ2wHkpNEn4C+MQhW+uxB1g==&amp;cnc=false&amp;pickupPointCode=PP-3131546&amp;pid1=BLS-60079-00384</t>
+          <t>https://www.blibli.com/p/bloods-series-boxer-barbed-02-black/ps--BLI-60043-01820?ds=BLI-60043-01820-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeCGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01820&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOT-70038-00019</t>
+          <t>BLI-60043-01825</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sovlo</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sovlo Sada Pants Celana Wanita  - Classic</t>
+          <t>Bloods Series Boxer Paper White Black</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>139600</v>
+        <v>139000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-38242854/sovlo_sovlo_sada_pants_celana_wanita__-_classic_full02_gv4cq690.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/103/MTA-168861045/brd-09186_bloods-series-boxer-paper-white-black_full01-f50caff3.jpg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sovlo-sada-pants-celana-wanita-classic/ps--SOT-70038-00019?ds=SOT-70038-00019-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCItJfcCJiE9DzJp296UAYGk/DHoqKmYsTFC9Iv89Ei/0YlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x3MY/P1JCPR+VkZon1oF3vi6tL37cibBqpyoQOG6RAO1AbP/grvbJLIA0ySMLKu2DEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3521260&amp;pid1=SOT-70038-00019</t>
+          <t>https://www.blibli.com/p/bloods-series-boxer-paper-white-black/ps--BLI-60043-01825?ds=BLI-60043-01825-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01825&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BLI-60051-00152</t>
+          <t>BLI-60043-01818</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fitti</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Fitti Pants Popok Celana S-40</t>
+          <t>Bloods Series Boxer Barbed 01 Grey</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43500</v>
+        <v>129000</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//105/MTA-66771546/fitti_fitti_pants_s-40_popok_celana_full01_bnpzc0pn.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/107/MTA-168854228/brd-09186_bloods-series-boxer-barbed-01-grey_full01-33f3f2cb.jpg</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/fitti-pants-popok-celana-s-40/ps--BLI-60051-00152?ds=BLI-60051-00152-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7D5EnLGW/JufRUomLn7UXW/HAkxoVke7cxJ4LyInlLe0NB2shiGJwkqZeuan2yTXVotyG7K9fuf6GhuhBg1qx5fpZP/HlAo0kBDTb857XQHO00wcIcM43S5kDh1UxrTh35uVJiiuCPRdlV4aliGvlC4/N0ykXdPBQ+Zmpzx07ptbgsUlSAp08Shy7kn+K2jxfTqqqGcrvj1CCDxi0R3X7jevLXBnmN3FEqYdm+HSwzK&amp;cnc=false&amp;pickupPointCode=PP-3137074&amp;pid1=BLI-60051-00152</t>
+          <t>https://www.blibli.com/p/bloods-series-boxer-barbed-01-grey/ps--BLI-60043-01818?ds=BLI-60043-01818-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeCGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01818&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BLI-60051-00143</t>
+          <t>BLI-60043-01810</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fitti</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Fitti Pants Popok Celana XL-40</t>
+          <t>Bloods Pants Boardshort Boxer Testuo 01 Black</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>62400</v>
+        <v>175000</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//100/MTA-43492951/fitti_fitti_pants_xl-40_popok_celana_full01_syl4whp.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/113/MTA-168852587/brd-09186_bloods-pants-boardshort-boxer-testuo-01-black_full01-7292e1e4.jpg</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/fitti-pants-popok-celana-xl-40/ps--BLI-60051-00143?ds=BLI-60051-00143-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9lYjsoWJEyQX0Th4y0Bu9WX0LAHVJZ7EB+ox4oiZlNa6IImyrG79Dj2ct38qAiaJlotyG7K9fuf6GhuhBg1qx5fpZP/HlAo0kBDTb857XQHO00wcIcM43S5kDh1UxrTh35uVJiiuCPRdlV4aliGvlC4/N0ykXdPBQ+Zmpzx07ptbgsUlSAp08Shy7kn+K2jxfTqqqGcrvj1CCDxi0R3X7hTjBkITjtP4HiCHcESGOu9XpzEDZeRtkXgJo9qBPLejiQ5jyPy/a+1FRux7LeZEfwciMB3crEVshwW5gB3OxwZXrw/kjQPLGoA/IvdC3F8cA==&amp;cnc=false&amp;pickupPointCode=PP-3137074&amp;pid1=BLI-60051-00143</t>
+          <t>https://www.blibli.com/p/bloods-pants-boardshort-boxer-testuo-01-black/ps--BLI-60043-01810?ds=BLI-60043-01810-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01810&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BLG-70029-00910</t>
+          <t>BLI-60043-01816</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MamyPoko</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mamypoko Pants Skin Comfort Popok Celana [L-28]</t>
+          <t>Bloods Series Pants Boardshort Boxer Waish 01 Black</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>73400</v>
+        <v>175000</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-50827042/mamypoko_mamypoko_pants_skin_comfort_l-28_popok_celana_full02_gsyk5yl4.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/103/MTA-168854016/brd-09186_bloods-series-pants-boardshort-boxer-waish-01-black_full01-31623d62.jpg</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/mamypoko-pants-skin-comfort-popok-celana-l-28/ps--BLG-70029-00910?ds=BLG-70029-00910-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9nxsCWE66IToY6H/3TEJYiX0LAHVJZ7EB+ox4oiZlNafZP/GG3kitIJQ18VZrlDPVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50F+DpLndLhhyOgRHezlp9aMvr1jaPBGR1Dff4JpGI+sYg1DCagL+VwGISeGTKUZdPkJ+go0SyaO5+o9d2cyg+S74S3wwI6k8I7omGYAl+u5o+WiGxwQPrk3UJlQOsxrERiB8ZtKTtsFLe2XdLeEKDs&amp;cnc=false&amp;pickupPointCode=PP-3329095&amp;pid1=BLG-70029-00910</t>
+          <t>https://www.blibli.com/p/bloods-series-pants-boardshort-boxer-waish-01-black/ps--BLI-60043-01816?ds=BLI-60043-01816-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLzpIPdxAyKrk/S8s/bCYGWSTkAjo33L6F9xnpFG8B7gmdsB5KTRJ+AvjEIVvrsQdY=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01816&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BLI-60051-00141</t>
+          <t>BLI-60043-01815</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fitti</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Fitti Pants Popok Celana L-46</t>
+          <t>Bloods Series Pants Boardshort Boxer Waish 02 Navy</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>62400</v>
+        <v>175000</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//101/MTA-43492673/fitti_fitti_pants_l-46_popok_celana_full01_y5xrnyo.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/102/MTA-168854015/brd-09186_bloods-series-pants-boardshort-boxer-waish-02-navy_full01-3c1cda22.jpg</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/fitti-pants-popok-celana-l-46/ps--BLI-60051-00141?ds=BLI-60051-00141-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9lYjsoWJEyQX0Th4y0Bu9WX0LAHVJZ7EB+ox4oiZlNazpZF87QAsrFpzqYTQqEjKJbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV6RJE4ryhs06fLidM+cAquoHfBjEULBfnPoMmI29KfUcrnWWHSsHM025lxc3a63JKE0YV6u4r6FHicjbNcfVIc5L8CuvvxNJQ0/xyIPqlVvyWd6dXDOQsttc82GbzPziJcxsCd03D4eBZi5acWIGP6X&amp;cnc=false&amp;pickupPointCode=PP-3137074&amp;pid1=BLI-60051-00141</t>
+          <t>https://www.blibli.com/p/bloods-series-pants-boardshort-boxer-waish-02-navy/ps--BLI-60043-01815?ds=BLI-60043-01815-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLzpIPdxAyKrk/S8s/bCYGWSTkAjo33L6F9xnpFG8B7gmdsB5KTRJ+AvjEIVvrsQdY=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01815&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BLI-60051-00155</t>
+          <t>BLI-60043-01813</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fitti</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Fitti Pants L-28 Popok Celana</t>
+          <t>Bloods Series Pants Boardshort Boxer Gramce 03 Black</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43500</v>
+        <v>175000</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//108/MTA-66774528/fitti_fitti_pants_l-28_popok_celana_full01_la2csv61.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/109/MTA-168853915/brd-09186_bloods-series-pants-boardshort-boxer-gramce-03-black_full03-e55b3e15.jpg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/fitti-pants-l-28-popok-celana/ps--BLI-60051-00155?ds=BLI-60051-00155-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7D5EnLGW/JufRUomLn7UXW/HAkxoVke7cxJ4LyInlLe+A636cuMmlSWwRxmlI+9F1otyG7K9fuf6GhuhBg1qx5fpZP/HlAo0kBDTb857XQHO00wcIcM43S5kDh1UxrTh35uVJiiuCPRdlV4aliGvlC4/N0ykXdPBQ+Zmpzx07ptbgsUlSAp08Shy7kn+K2jxfTqqqGcrvj1CCDxi0R3X7jevLXBnmN3FEqYdm+HSwzK&amp;cnc=false&amp;pickupPointCode=PP-3137074&amp;pid1=BLI-60051-00155</t>
+          <t>https://www.blibli.com/p/bloods-series-pants-boardshort-boxer-gramce-03-black/ps--BLI-60043-01813?ds=BLI-60043-01813-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01813&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BLI-60051-00157</t>
+          <t>BLI-60043-01811</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fitti</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Fitti Pants Popok Celana XL-26</t>
+          <t>Bloods Series Pants Boardshort Boxer Gramce 02 Misty</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>49200</v>
+        <v>175000</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//115/MTA-66776479/fitti_fitti_pants_xl-26_popok_celana_full01_em7mpap2.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-168853911/brd-09186_bloods-series-pants-boardshort-boxer-gramce-02-misty_full01-7e08c04b.jpg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/fitti-pants-popok-celana-xl-26/ps--BLI-60051-00157?ds=BLI-60051-00157-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRnG7ZKryzxMhLfm5+J6+v8bIScvAZZWbsACaRFot3j/AlotyG7K9fuf6GhuhBg1qx5fpZP/HlAo0kBDTb857XQHO00wcIcM43S5kDh1UxrTh35uVJiiuCPRdlV4aliGvlC4/N0ykXdPBQ+Zmpzx07ptbgsUlSAp08Shy7kn+K2jxfTqqqGcrvj1CCDxi0R3X7jevLXBnmN3FEqYdm+HSwzK&amp;cnc=false&amp;pickupPointCode=PP-3137074&amp;pid1=BLI-60051-00157</t>
+          <t>https://www.blibli.com/p/bloods-series-pants-boardshort-boxer-gramce-02-misty/ps--BLI-60043-01811?ds=BLI-60043-01811-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLzpIPdxAyKrk/S8s/bCYGWSTkAjo33L6F9xnpFG8B7gmdsB5KTRJ+AvjEIVvrsQdY=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01811&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BLI-60051-00154</t>
+          <t>BLI-60043-01812</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fitti</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Fitti Pants M-32 Popok Celana - 3 Packs</t>
+          <t>Bloods Series Pants Boardshort Boxer Gramce 01 Navy</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>130700</v>
+        <v>175000</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//111/MTA-66773649/fitti_fitti_pants_m-32_popok_celana_-_3_packs_full01_ck3cs7y8.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/107/MTA-168853913/brd-09186_bloods-series-pants-boardshort-boxer-gramce-01-navy_full01-552792fa.jpg</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/fitti-pants-m-32-popok-celana-3-packs/ps--BLI-60051-00154?ds=BLI-60051-00154-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIvC3B+deCLZjcmojlYJayMnmp8jZiT09CnDGiL5QFb0F+Wk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxA1ZBkU0NcX4uiXe/YPsHDKqnA5D4DcAHjNP9dlSC5zDcBe4P5AIu+eFkdqNkTRIAr&amp;cnc=false&amp;pickupPointCode=PP-3137074&amp;pid1=BLI-60051-00154</t>
+          <t>https://www.blibli.com/p/bloods-series-pants-boardshort-boxer-gramce-01-navy/ps--BLI-60043-01812?ds=BLI-60043-01812-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01812&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BLI-60051-00140</t>
+          <t>BLI-60043-01817</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fitti</t>
+          <t>Bloods</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Fitti Pants M-52 Popok Celana - 4 Packs</t>
+          <t>Bloods Series Pants Boardshort Boxer Waish 03 Dark Grey</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>259700</v>
+        <v>175000</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-43492516/fitti_fitti_pants_m-52_popok_celana_-_4_packs_full01_iuwxylzh.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/108/MTA-168854039/brd-09186_bloods-series-pants-boardshort-boxer-waish-03-dark-grey_full01-056e9377.jpg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/fitti-pants-m-52-popok-celana-4-packs/ps--BLI-60051-00140?ds=BLI-60051-00140-00001&amp;source=SEARCH&amp;sid=1629777a4a0387e4&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzO4NENA+D3a2b160XD/ATD26SWwN3NVPmUUl3LL6fRhM0NJV/28Uln3kFK/gRH/wOWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxA1ZBkU0NcX4uiXe/YPsHDKqnA5D4DcAHjNP9dlSC5zDcBe4P5AIu+eFkdqNkTRIAr&amp;cnc=false&amp;pickupPointCode=PP-3137074&amp;pid1=BLI-60051-00140</t>
+          <t>https://www.blibli.com/p/bloods-series-pants-boardshort-boxer-waish-03-dark-grey/ps--BLI-60043-01817?ds=BLI-60043-01817-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLzpIPdxAyKrk/S8s/bCYGWSTkAjo33L6F9xnpFG8B7gmdsB5KTRJ+AvjEIVvrsQdY=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01817&amp;tag=new</t>
         </is>
       </c>
     </row>

--- a/ui_data/blibli.xlsx
+++ b/ui_data/blibli.xlsx
@@ -432,13 +432,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="147" customWidth="1" min="4" max="4"/>
+    <col width="98" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="276" customWidth="1" min="6" max="6"/>
+    <col width="228" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="582" customWidth="1" min="8" max="8"/>
+    <col width="597" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,144 +486,145 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VAM-60047-00028</t>
+          <t>BLI-60060-00017</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>VAYA</t>
+          <t>S-26</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Vaya Celana Dalam Wanita Art 105</t>
+          <t xml:space="preserve">S-26 Promise Tahap 4 Susu Formula [1400 g x 3 pcs] 
+</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10000</v>
+        <v>840000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//113/MTA-7946897/vaya_vaya_celana_dalam_wanita_art_105_full07_tsegjxpc.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//100/MTA-6816178/S26_S26_Promise_Tahap_4_Susu_Formula_-1400_g-_x_3_Pcs_full01_n2gaw9ux.jpg</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/vaya-celana-dalam-wanita-art-105/ps--VAM-60047-00028?ds=VAM-60047-00028-00022&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq+T2r7fOYNS0fn24lYkspaBOiFJzBdj5bpigceDw0uA91esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A8s4+rWZ7zCXM6RAaC0DCw0e2Pllk5UNg4gE0pn1fUaDcWA2XVscKi/tVwIPhWxnEMPPjVhhyLHi3omjt/pcgmB&amp;cnc=false&amp;pickupPointCode=PP-3191339&amp;pid1=VAM-60047-00028</t>
+          <t>https://www.blibli.com/p/s-26-promise-tahap-4-susu-formula-1400-g-x-3-pcs/ps--BLI-60060-00017?ds=BLI-60060-00017-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+9KgQwIVJt8z/dR363VuzwH5hXXWkF0dKfPGTdZQcdl+cGcreNGPDrmTP7Ktv5yJNldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdEBnb9qyL5HQbNMV2/+3IhSDwF+P/lDvyT3bjUeeQy534fdprL2an9+zGt6lCF7URnQgdYn7q211GPDma9F6OBOnmGXFanEBshpSoYFwZaF8Gy7v8OIeE3eVAfqXOI+h1X8lHI6X0LWwx6iahbExNOw==&amp;cnc=false&amp;pickupPointCode=PP-3162573&amp;pid1=BLI-60060-00017</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INS-28338-00021</t>
+          <t>BLI-60054-00163</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Muscle Fit</t>
+          <t>SGM</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Muscle Fit MFBX-110 Boxer Celana Dalam Pria - Hitam [3 Pcs]</t>
+          <t>SGM Ananda 2 (6-12 Bulan) Susu Formula [600 g]</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>74307</v>
+        <v>58200</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//109/MTA-15939099/muscle_fit_muscle_fit_mfbx-110_boxer_celana_dalam_pria_-_hitam_-3_pcs-_full04_b2eqjl6u.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-6338547/sgm_sgm_ananda_2_-6-12_bulan-_susu_formula_-600_g-_full13_bkwj7928.jpeg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/muscle-fit-mfbx-110-boxer-celana-dalam-pria-hitam-3-pcs/ps--INS-28338-00021?ds=INS-28338-00021-00005&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6+ofzQPca16/hNKbnSDAJ7iA6KyoMcwEkeRG65oyOFiCGlgPeK8rUlktyavu3C5T2lLxoLaHsRAJv8lj0ZJ+KKWyiBVV+ZSlXxNvPz9a8MHT9B348TZH4FhxuSDbhHbW94ZoZgYUZh/bnPUJo2NrB1YDqIYcOPQIbVM7pUbxxlrUYgNp1+TEJCf8Aed76MVhhAzI+1iWJG3a3RJebe09mkKDBhcJWU7Wh6Q+zs/xW9UK75dCgVySnSnFnHvJRwecg==&amp;cnc=false&amp;pickupPointCode=PP-3004512&amp;pid1=INS-28338-00021</t>
+          <t>https://www.blibli.com/p/sgm-ananda-2-6-12-bulan-susu-formula-600-g/ps--BLI-60054-00163?ds=BLI-60054-00163-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b/G7ZKryzxMhLfm5+J6+v8b1a+8iQty2s7WQ/5m9moOdZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV6RJE4ryhs06fLidM+cAquoweejFuSR+ejFuz0MPHOoPqeae2Mr7kUSCRhQl4RITCZjUqFP11h9zlqNWNkuhtN0vavFjQW+Hi0U1g5VsfADeL+0KlWZP9TCw01G7E1sRkY=&amp;cnc=false&amp;pickupPointCode=PP-3137092&amp;pid1=BLI-60054-00163</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EVO-70024-00184</t>
+          <t>MA9-60026-00512</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EVERNEXT</t>
+          <t>Diamond</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EVERNEXT - CELANA BOXER CAVERO PRIA CELANA PENDEK SANTAI PRIA CELANA JOGGING RUNNING PRIA CELANA OLAHRAGA DDISTRO PRIA</t>
+          <t>Diamond Full Cream Susu UHT 1000 mL</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28000</v>
+        <v>16990</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-78904222/evernext_evernext_-_celana_boxer_cavero_pria_celana_pendek_santai_pria_celana_jogging_running_pria_celana_olahraga_ddistro_pria_full01_f2j2m289.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//99/MTA-59116824/diamond_diamond_uht_1_liter_full01_f750ec45.jpg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/evernext-celana-boxer-cavero-pria-celana-pendek-santai-pria-celana-jogging-running-pria-celana-olahraga-ddistro-pria/ps--EVO-70024-00184?ds=EVO-70024-00184-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxhotWbalOJK1bAKb4JrdH6T2r7fOYNS0fn24lYkspaB4MPWdDoQWfSgMTYkozeBy1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaXkpaMig9WMN+9MyN3AaEzqoZ4Vvz6LpzbeNJ0g0IKxs=&amp;cnc=false&amp;pickupPointCode=PP-3357698&amp;pid1=EVO-70024-00184</t>
+          <t>https://www.blibli.com/p/diamond-full-cream-susu-uht-1000-ml/ps--MA9-60026-00512?ds=MA9-60026-00512-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7Icmq1gsSXLUq8ZinzLw7v+oLJqLy/XvDHMcpKt+HY66c5Rv2pwKiFp//o451F+FJbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV7gVFzNUgTsVxnEJaAi206QylkZHer+F/DmhPZJvYm9VGEkj8u/5h4Kyn3dAqlMr+Xi4YSCsa/SsFeuwwC/3BZ9vavFjQW+Hi0U1g5VsfADeL+0KlWZP9TCw01G7E1sRkY=&amp;cnc=false&amp;pickupPointCode=PP-3525762&amp;pid1=MA9-60026-00512</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LIF-60029-00060</t>
+          <t>BLG-70029-06124</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LOKKAL</t>
+          <t>Ultra Jaya</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Basic Boxer Unisex - Blue</t>
+          <t>Clearance - Ultra Milk Low Fat Chocolate Susu UHT [1000ml]</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>39000</v>
+        <v>19200</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-74315404/lokkal_basic_boxer_unisex_-_blue_full06_uo8fe0j7.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/106/MTA-134387079/ultra_jaya_ultra_milk_low_fat_chocolate_100ml_full05_vb5kqszl.jpg</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -631,189 +632,189 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/basic-boxer-unisex-blue/ps--LIF-60029-00060?ds=LIF-60029-00060-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43+T2r7fOYNS0fn24lYkspaB+FOpWmW16LNrO62Nx2PgulesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3519937&amp;pid1=LIF-60029-00060</t>
+          <t>https://www.blibli.com/p/clearance-ultra-milk-low-fat-chocolate-susu-uht-1000ml/ps--BLG-70029-06124?ds=BLG-70029-06124-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1LG7ZKryzxMhLfm5+J6+v8bT4SwC3dPYQxOfUGC+4Sn7VesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHIopPuOXO3ZPFXx1Ozq+hxbn0t+Z31N/tG70rzxf062H4Scv7qvXlsLo00FBKrsBre0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3526957&amp;pid1=BLG-70029-06124</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INP-60076-00116</t>
+          <t>BLG-70029-00032</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mainan, Buku &amp; Stationery</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hobby Boss</t>
+          <t>Indomilk</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hobby Boss 83405 USS Boxer LHD-4 Model Kit [1:700]</t>
+          <t>Indomilk Full Cream Plain Susu UHT [950 mL] - D</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>513000</v>
+        <v>17000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//105/MTA-29995610/hobby-boss_hobby-boss-uss-boxer-lhd-4--1-700--83405_full02.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//99/MTA-42236388/indomilk_indomilk_full_cream_plain_susu_uht_-950_ml-_full05_c9ijxfq.jpg</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/hobby-boss-83405-uss-boxer-lhd-4-model-kit-1-700/ps--INP-60076-00116?ds=INP-60076-00116-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/zjMYmgLdOqahjgDqbPvascL69AJjeZ+MXw+OZq4PdaU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNKLEGimk7iYf456duVuew0UVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3380297&amp;pid1=INP-60076-00116</t>
+          <t>https://www.blibli.com/p/indomilk-full-cream-plain-susu-uht-950-ml-d/ps--BLG-70029-00032?ds=BLG-70029-00032-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WT2r7fOYNS0fn24lYkspaBvQ+zpQtxgrRypwW88+WUuFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt53nU4Dp3uhlwixflscAf8XVNd9Qdrb3QWYxenklePSJm24qiwzrO6nWnHsxgeryKb/ltUNk96VTdqdjG4caO5Q1wCaCWmOutPc0eIowrS/xtbSlp5iaPRa3auHKDapyNXA=&amp;cnc=false&amp;pickupPointCode=PP-3526957&amp;pid1=BLG-70029-00032</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INP-60076-02694</t>
+          <t>RAM-70107-01154</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mainan, Buku &amp; Stationery</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hobby Boss</t>
+          <t>Greenfields</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hobby Boss 83405 USS Boxer LHD-4 Model Kit [1:700]</t>
+          <t>Greenfields uht full cream 1lt tta</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>399000</v>
+        <v>18500</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-159533844/hobby-boss_hobby-boss-uss-boxer-lhd-4--1-700--83405_full02.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//96/MTA-21517269/greenfields_greenfields_uht_full_cream___1lt_tta_full01_kzb8pgtf.jpg</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/hobby-boss-83405-uss-boxer-lhd-4-model-kit-1-700/ps--INP-60076-02694?ds=INP-60076-02694-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43+GkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNKLEGimk7iYf456duVuew0UVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3380297&amp;pid1=INP-60076-02694</t>
+          <t>https://www.blibli.com/p/greenfields-uht-full-cream-1lt-tta/ps--RAM-70107-01154?ds=RAM-70107-01154-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC83UCraFZ0P7NET872xC0wi/HAkxoVke7cxJ4LyInlLe47tJ7v5exg+yWovfFoMw1ZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV7gVFzNUgTsVxnEJaAi206QylkZHer+F/DmhPZJvYm9VGEkj8u/5h4Kyn3dAqlMr+Xi4YSCsa/SsFeuwwC/3BZ9vavFjQW+Hi0U1g5VsfADeL+0KlWZP9TCw01G7E1sRkY=&amp;cnc=false&amp;pickupPointCode=PP-3507456&amp;pid1=RAM-70107-01154</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INP-60076-01480</t>
+          <t>MIU-60036-00152</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mainan, Buku &amp; Stationery</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aurora</t>
+          <t>MilkLife</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Aurora World Anjing Boxer Dog XXL Plush Toy Boneka Anak XXL-2</t>
+          <t>MilkLife UHT Chocolate Milk 1000 mL</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>216000</v>
+        <v>19200</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//111/MTA-58188882/aurora_aurora_world_anjing_boxer_dog_xxl_plush_toy_boneka_anak__xxl-2_full01_rd9mjwde.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-96886606/milklife_milklife_uht_chocolate_milk_-_susu_cokelat_-1000_ml-_full01_mfw3cdmh.jpeg</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/aurora-world-anjing-boxer-dog-xxl-plush-toy-boneka-anak-xxl-2/ps--INP-60076-01480?ds=INP-60076-01480-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goIJcaEJLcqsH3r6UABTq0TLU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNmx4cAQvCFu40hbphYlPEe4TodBPeru5IipRxn8umZ90=&amp;cnc=false&amp;pickupPointCode=PP-3380297&amp;pid1=INP-60076-01480</t>
+          <t>https://www.blibli.com/p/milklife-uht-chocolate-milk-1000-ml/ps--MIU-60036-00152?ds=MIU-60036-00152-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1LG7ZKryzxMhLfm5+J6+v8b4PQDwO5jLIz1mN9xTajwh1otyG7K9fuf6GhuhBg1qx5fpZP/HlAo0kBDTb857XQHO00wcIcM43S5kDh1UxrTh35uVJiiuCPRdlV4aliGvlC4/N0ykXdPBQ+Zmpzx07ptbgsUlSAp08Shy7kn+K2jxU/1fLwUXvMEGcJP8vYHs+i70aAZfLEhItHKJnBRk5mOXfqn7ztN/d1UPKnyy4npw4ALYVsVJ0CULUmRipV0cZnFS2Bs6MqaweAs0BMvmAIOK75dCgVySnSnFnHvJRwecg==&amp;cnc=false&amp;pickupPointCode=PP-3243836&amp;pid1=MIU-60036-00152</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INS-28338-00494</t>
+          <t>BLD-60037-00350</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Muscle Fit</t>
+          <t>Frisian Flag</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Celana dalam Boxer Anak Cowok - 1 pcs</t>
+          <t>WHS - Frisian Flag Purefarm Susu UHT Sereal Cokelat [225 mL]</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>15900</v>
+        <v>4400</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//105/MTA-35638737/muscle_fit_celana_dalam_boxer_anak_cowok_-_1_pcs_full01_tjg0ghi3.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/92/MTA-128028214/frisian_flag_frisian_flag_purefarm_susu_uht_sereal_cokelat_-225_ml-_full01_dgqxv6tx.jpg</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/celana-dalam-boxer-anak-cowok-1-pcs/ps--INS-28338-00494?ds=INS-28338-00494-00005&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9tiwxYVs41tNENObWAga5GIIGmm33viDj/+hYQaGlpdJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3004512&amp;pid1=INS-28338-00494&amp;tag=new</t>
+          <t>https://www.blibli.com/p/whs-frisian-flag-purefarm-susu-uht-sereal-cokelat-225-ml/ps--BLD-60037-00350?ds=BLD-60037-00350-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKO3VQ2WlzHp9deWrxqynfgSKG/XOj6f7+guuhEd6Le9MOjqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXeDioWrdqW2jVDexSAU462NTDhvU2dGTHXFRrWe7cayKOxVR1NKRIdNH5nx1LcA2EBgK3eW+Zh5x4g6PLMg3Mki3xH6A1SDCPhEv9COJBZsutoKTrVSRDI+tQZ6wB+l2Bk=&amp;cnc=false&amp;pickupPointCode=PP-3098866&amp;pid1=BLD-60037-00350</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BLG-70029-03629</t>
+          <t>BLG-70029-06975</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>no brand</t>
+          <t>Indomilk</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Go Celana Dalam Pria Disposable - White</t>
+          <t>Indomilk Strawberry Susu UHT 115 mL</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29000</v>
+        <v>2600</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-95317676/no_brand_celana_dalam_pria_disposable_white_full04_okqua4k5.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/98/MTA-145643138/indomilk_indomilk_strawberry_susu_uht_-115_ml-_full07_bsx9t01i.jpg</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -821,37 +822,37 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/go-celana-dalam-pria-disposable-white/ps--BLG-70029-03629?ds=BLG-70029-03629-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwIcYjJhUkfzuki5iW9SKA+T2r7fOYNS0fn24lYkspaBeDjUvNSdi2pMgvjOUAWtGlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3526957&amp;pid1=BLG-70029-03629</t>
+          <t>https://www.blibli.com/p/indomilk-strawberry-susu-uht-115-ml/ps--BLG-70029-06975?ds=BLG-70029-06975-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy3VQ2WlzHp9deWrxqynfgSxHz9g6yXVsVL9UZIHPpNiFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHIopPuOXO3ZPFXx1Ozq+hxbn0t+Z31N/tG70rzxf062H4Scv7qvXlsLo00FBKrsBre0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3329095&amp;pid1=BLG-70029-06975</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LIF-60029-00055</t>
+          <t>BLG-70029-03091</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LOKKAL</t>
+          <t>Indomilk</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Basic Boxer Unisex - Checkered Blue</t>
+          <t>Indomilk Vanila Susu UHT [115 mL]</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>39000</v>
+        <v>2600</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-74309952/lokkal_basic_boxer_unisex_-_checkered_blue_full09_luvblje0.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//94/MTA-90082451/indomilk_indomilk_vanila_susu_uht_-115_ml-_full07_el00nnve.jpg</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -859,37 +860,37 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/basic-boxer-unisex-checkered-blue/ps--LIF-60029-00055?ds=LIF-60029-00055-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3526302&amp;pid1=LIF-60029-00055</t>
+          <t>https://www.blibli.com/p/indomilk-vanila-susu-uht-115-ml/ps--BLG-70029-03091?ds=BLG-70029-03091-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy3VQ2WlzHp9deWrxqynfgSUOva+erg1zhRP8ORuqdB0Fa8f1JvScJ6DrHwqmhDSmJ38pLvQtrJkjvO7Vji06N5Y/z3GNGYn0VDwoIIPnDgZ5AnoLYwmKE1R7OS9+9VGfqViJT0I/qzo1dSRzxYbUZ/ex2pbIx4kQWkh1axBx2JSth7xMW6cmCR+WDrARSDFb7+rUtXImUPAV3D58kpwIYQ3+aoZiWtW16AA4AzyHvVpdxcinYBStTbM0E99KPslfQaUy5QgCcBieU0mQhMExcU&amp;cnc=false&amp;pickupPointCode=PP-3528098&amp;pid1=BLG-70029-03091</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BLI-15014-19548</t>
+          <t>BLG-70029-08747</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Velvet Junior</t>
+          <t>MilkLife</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Velvet Junior Girl Boxer AOP 2 - [3pcs/pack]</t>
+          <t>Clearance - MilkLife UHT Teens Tetra Slim Leaf Coklat 200 ml</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>96895</v>
+        <v>3400</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//91/MTA-28301066/velvet-junior_velvet-junior_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/114/MTA-156375987/milklife_milklife_coklat_-_uht_teens_-1_pcs-tetra_slim_leaf_200ml-_full01_s44emxbn.jpg</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -897,227 +898,227 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/velvet-junior-girl-boxer-aop-2-3pcs-pack/ps--BLI-15014-19548?ds=BLI-15014-19548-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxrRKGh9Gzd1bEF4U1oZrL48vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfE8Fq3Y7FQDm7GSllvB0EzwRUapLx/yCmHBm+F6S9MPxAR75Szd5AvP5iOPg1fnThfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3523009&amp;pid1=BLI-15014-19548</t>
+          <t>https://www.blibli.com/p/clearance-milklife-uht-teens-tetra-slim-leaf-coklat-200-ml/ps--BLG-70029-08747?ds=BLG-70029-08747-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxf/gWNGqtNIgQNID6HXdHW3VQ2WlzHp9deWrxqynfgSinxpZe4IAZruTtQd1TO7UejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXeDioWrdqW2jVDexSAU462NTDhvU2dGTHXFRrWe7cayKPgUkBrNSd1kvoEoL27Ax4FfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3527109&amp;pid1=BLG-70029-08747</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LIF-60029-00062</t>
+          <t>INS-60055-00082</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>LOKKAL</t>
+          <t>Indomilk</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Basic Boxer Unisex - Tosca</t>
+          <t>Indomilk Cokelat Susu UHT [115 mL]</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>39000</v>
+        <v>2600</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-74315901/lokkal_basic_boxer_unisex_-_tosca_full05_h7wg6kdj.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-2487622/indomilk_indomilk_cokelat_susu_uht_-115_ml-_full06_eq5jfkm7.jpeg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/basic-boxer-unisex-tosca/ps--LIF-60029-00062?ds=LIF-60029-00062-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3526302&amp;pid1=LIF-60029-00062</t>
+          <t>https://www.blibli.com/p/indomilk-cokelat-susu-uht-115-ml/ps--INS-60055-00082?ds=INS-60055-00082-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy3VQ2WlzHp9deWrxqynfgSmvX4tmylQG5Pvg43d5IsBbLBaB3tLseqCRU/10V6Qi4m/0gcuiAdTNyGqjLqLXjMVB0Z19F5S3OJm6xVPOQF+fYfYBdOaXUoSWEt7LUZrj8LXARBWNQVKjys2JWHCCuMwzUD/lqOnyWXlD/Zv/Ri6mB7LWEVRbLB5XRbQAog8mSC8ycDqzLGV84f5/SfYa6lUbjBPcmbjFwQFSuE8B89Lvv8mC0e9lRvXyQh+Na3LdQ=&amp;cnc=false&amp;pickupPointCode=PP-3043179&amp;pid1=INS-60055-00082</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LIF-60029-00064</t>
+          <t>BLD-60037-00015</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LOKKAL</t>
+          <t>Frisian Flag</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Basic Boxer Unisex - Bundle Checkered</t>
+          <t>Frisian Flag Low Fat French Vanilla Susu UHT [225 mL]</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50000</v>
+        <v>6500</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-74359562/lokkal_basic_boxer_unisex_-_bundle_checkered_full08_jqdfdnyt.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-2663309/frisian_flag_frisian_flag_low_fat_french_vanilla_susu_uht_-225_ml-_full06_hevsxxnz.jpeg</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/basic-boxer-unisex-bundle-checkered/ps--LIF-60029-00064?ds=LIF-60029-00064-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7H99hTZSOJNePuhl5sgJ5OT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3526302&amp;pid1=LIF-60029-00064</t>
+          <t>https://www.blibli.com/p/frisian-flag-low-fat-french-vanilla-susu-uht-225-ml/ps--BLD-60037-00015?ds=BLD-60037-00015-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1R4AsY2zbEuPf0mEleNTFm3VQ2WlzHp9deWrxqynfgSqYpB9c1FKqQoXgFDUcveu1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt53nU4Dp3uhlwixflscAf8XVNd9Qdrb3QWYxenklePSJm24qiwzrO6nWnHsxgeryKb/ltUNk96VTdqdjG4caO5Q1wCaCWmOutPc0eIowrS/xtbSlp5iaPRa3auHKDapyNXA=&amp;cnc=false&amp;pickupPointCode=PP-3098866&amp;pid1=BLD-60037-00015</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LIF-60029-00058</t>
+          <t>BLB-60045-00045</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LOKKAL</t>
+          <t>Huki</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Basic Boxer Unisex - Dusty Pink</t>
+          <t>Huki Botol Susu PP Baby Animal Orthodontic - Random [240 mL]</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>39000</v>
+        <v>20000</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-74311918/lokkal_basic_boxer_unisex_-_dusty_pink_full05_gmuzh68c.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-73185224/huki_huki_botol_susu_pp_baby_animal_orthodontic_-_random_-240_ml-_full11_r1paei7p.jpeg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/basic-boxer-unisex-dusty-pink/ps--LIF-60029-00058?ds=LIF-60029-00058-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3519937&amp;pid1=LIF-60029-00058</t>
+          <t>https://www.blibli.com/p/huki-botol-susu-pp-baby-animal-orthodontic-random-240-ml/ps--BLB-60045-00045?ds=BLB-60045-00045-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2T2r7fOYNS0fn24lYkspaB1VERKv4BBdBPFnhK63tfIejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74Axnpn5uUjYeSavSjwxFyeVCwq7vqJ42QPgBkY5BSoK0QGdv2rIvkdBs0xXb/7ciFIPAX4/+UO/JPduNR55DLnWF3+BJGgihk+Yk70VLJAfg3K1aYZAD0duLDi004fByjgbik78uUwj2VNiTmH/F8XDYolYQZzFnWMJuVJS4GZD0Gn6h/X6Ctr/9KCaAg44n9j+7L3Wik+RTA5iNCdr8f2A==&amp;cnc=false&amp;pickupPointCode=PP-3165865&amp;pid1=BLB-60045-00045</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BOD-70081-00004</t>
+          <t>INS-60055-00209</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>boxr_id</t>
+          <t>Indomilk</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Boxr_id Celana Dalam Pria Boxer Vibb Premium isi 3 pcs</t>
+          <t>Indomilk Full Cream Plain Susu UHT 115 mL</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>62099</v>
+        <v>2600</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/98/MTA-169225063/boxr-id_boxr-id_celana_dalam_pria_boxer_vibb_isi_3_pcs_full01_osa0kw18.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-3950259/indomilk_indomilk_full_cream_plain_susu_uht_-115_ml-_full04_bdnw7yzd.jpeg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/boxr-id-celana-dalam-pria-boxer-vibb-premium-isi-3-pcs/ps--BOD-70081-00004?ds=BOD-70081-00004-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9lYjsoWJEyQX0Th4y0Bu9Wjb5Ww3NVCPhuzfFnOG2I2JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3532932&amp;pid1=BOD-70081-00004&amp;tag=new</t>
+          <t>https://www.blibli.com/p/indomilk-full-cream-plain-susu-uht-115-ml/ps--INS-60055-00209?ds=INS-60055-00209-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy3VQ2WlzHp9deWrxqynfgSwwPzIYAGMqXEEIH06KVrrZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV7gVFzNUgTsVxnEJaAi206QylkZHer+F/DmhPZJvYm9VGEkj8u/5h4Kyn3dAqlMr+Xi4YSCsa/SsFeuwwC/3BZ9vavFjQW+Hi0U1g5VsfADeL+0KlWZP9TCw01G7E1sRkY=&amp;cnc=false&amp;pickupPointCode=PP-3043179&amp;pid1=INS-60055-00209</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BOD-70081-00001</t>
+          <t>MEG-60041-00002</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>no brand</t>
+          <t>Greenfields</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Boxr_id Celana Dalam Pria Boxer Vibb Premium</t>
+          <t>Medan - Greenfields UHT Fullcream Susu [1000 mL]</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>68999</v>
+        <v>22000</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/100/MTA-168553503/no_brand_boxr-id_celana_dalam_boxer_pria_vibb_premium_3_pcs_full01_em8sv0s2.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12991980/greenfields_medan_-_greenfields_uht_fullcream_susu_-1000_ml-_full01_jvqzwe8i.jpg</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/boxr-id-celana-dalam-pria-boxer-vibb-premium/ps--BOD-70081-00001?ds=BOD-70081-00001-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC4tTCBijc70K03wpOh0TemHOlHF/k5IdSxwaVC2xTLFWJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3532932&amp;pid1=BOD-70081-00001&amp;tag=new</t>
+          <t>https://www.blibli.com/p/medan-greenfields-uht-fullcream-susu-1000-ml/ps--MEG-60041-00002?ds=MEG-60041-00002-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+T2r7fOYNS0fn24lYkspaBRE8oGmciCQ8xRUBc/m4bnVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt53nU4Dp3uhlwixflscAf8XVNd9Qdrb3QWYxenklePSJm24qiwzrO6nWnHsxgeryKb/ltUNk96VTdqdjG4caO5Q1EKRLV3Hac94zMayA3P2OPUaUYMkdIQYfNaoycLYqosk=&amp;cnc=false&amp;pickupPointCode=PP-3525989&amp;pid1=MEG-60041-00002</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TAU-60025-01767</t>
+          <t>BLG-70029-09374</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tally</t>
+          <t>Greenfields</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>TALLY Celana Dalam Hamil Bahan Katun Bambu Fit to L -XL Muat Kehamilan 0 - 9 Bulan Celana Maternity CD Wanita High Waist Pakaian Dalam Lembut</t>
+          <t>Clearance - Greenfields UHT Strawberry Minuman Susu [200 mL]</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>39999</v>
+        <v>4500</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/112/MTA-169583269/tally_tally_celana_dalam_hamil_bahan_katun_bambu_fit_to_l_-xl_muat_kehamilan_0_-_9_bulan_celana_maternity_cd_wanita_high_waist_pakaian_dalam_lembut_full01_lcxibazp.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/112/MTA-166078875/greenfields_greenfields_uht_strawberry_minuman_susu_-200_ml-_full04_zx2y0rx.jpg</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1125,759 +1126,759 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/tally-celana-dalam-hamil-bahan-katun-bambu-fit-to-l-xl-muat-kehamilan-0-9-bulan-celana-maternity-cd-wanita-high-waist-pakaian-dalam-lembut/ps--TAU-60025-01767?ds=TAU-60025-01767-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/OlHF/k5IdSxwaVC2xTLFWJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3085543&amp;pid1=TAU-60025-01767&amp;tag=new</t>
+          <t>https://www.blibli.com/p/clearance-greenfields-uht-strawberry-minuman-susu-200-ml/ps--BLG-70029-09374?ds=BLG-70029-09374-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfe3VQ2WlzHp9deWrxqynfgSXGwa1ZG0g99cMvoGAXvCEQSIEitAq/1WrQRC4F6yTsDlurVX7NrCB6MjjGzbuCOvw664EUevDp9eL6Ws+MzDLl0wE3gvXVJ3bf5C00nZu7gtJcVjQwK0YoIlqayUmPpM/rE1RDVspHjbMfc0GxnrrMcXor3TIJbXyW2l+BVCrAErvl0KBXJKdKcWce8lHB5y&amp;cnc=false&amp;pickupPointCode=PP-3526957&amp;pid1=BLG-70029-09374</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TAU-60025-01774</t>
+          <t>LMS-60022-00338</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Kesehatan &amp; Kecantikan</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tally</t>
+          <t>L-Men</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TALLY Celana Dalam Wanita Bahan Katun Bambu fit to L - XL Cd Wanita Basic Super Lembut Pakaian Dalam Wanita Stretchable CD 1260</t>
+          <t>Gym Starter Pack: L-Men Platinum Strawberry 800gr &amp; L-Men Isopower Creatine Stargizing 30 Sachet</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25999</v>
+        <v>365600</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/100/MTA-169623181/tally_tally_celana_dalam_wanita_bahan_katun_bambu_fit_to_l_-_xl_cd_wanita_basic_super_lembut_pakaian_dalam_wanita_stretchable_cd_1260_full06_hyjkadze.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-155674721/l-men_gym_starter_pack_-_l-men_platinum_strawberry_800gr_-_l-men_isopower_creatine_stargizing_30_sachet_full07_cyixkg26.jpg</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/tally-celana-dalam-wanita-bahan-katun-bambu-fit-to-l-xl-cd-wanita-basic-super-lembut-pakaian-dalam-wanita-stretchable-cd-1260/ps--TAU-60025-01774?ds=TAU-60025-01774-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzO4NENA+D3a2b160XD/ATDOlHF/k5IdSxwaVC2xTLFWJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3085543&amp;pid1=TAU-60025-01774&amp;tag=new</t>
+          <t>https://www.blibli.com/p/gym-starter-pack-l-men-platinum-strawberry-800gr-l-men-isopower-creatine-stargizing-30-sachet/ps--LMS-60022-00338?ds=LMS-60022-00338-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFiR8g8McAxsDs2Q1fRxwov+jueud2FI92c8YAiS/TajVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+UvM5rYQ2b7sWjAIjInNGf9EzhaeZDpTR/fAyKgGVxs4Jb3XHBYDwr/rpsPgJumBr9pLkKEidQpCVEgJe2GcmIgb3zNcKWRrHOP3cRGuonLQ=&amp;cnc=false&amp;pickupPointCode=PP-3495578&amp;pid1=LMS-60022-00338</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HOO-10808-00428</t>
+          <t>BLD-60037-00187</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Rider</t>
+          <t>Frisian Flag</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rider Boxer Sport Men's Underwear R763B (1 pcs)</t>
+          <t>Frisian Flag Purefarm Full Cream Susu UHT 946 mL</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>38635</v>
+        <v>18600</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//113/MTA-75269858/rider_rider_boxer_sport_men-s_underwear_r763b_-1_pcs-_full07_u9c3l9nv.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//105/MTA-39783372/frisian_flag_frisian_flag_purefarm_full_cream_susu_uht_-946_ml-_full01_oum3b4t1.jpg</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/rider-boxer-sport-men-s-underwear-r763b-1-pcs/ps--HOO-10808-00428?ds=HOO-10808-00428-00012&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzrqhn2WeenYl70j0tMOsyi3gbHx1BRMw4TcnojR/1dYtSexjj4b6RjEfICBcSNGe1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50fyHCRn0/K8xKS6bnBZOgsceqJBE8+DUjBwsxdmjWQn2ghvZVulURit5M328K8mmU=&amp;cnc=false&amp;pickupPointCode=HOO-10808-002&amp;pid1=HOO-10808-00428</t>
+          <t>https://www.blibli.com/p/frisian-flag-purefarm-full-cream-susu-uht-946-ml/ps--BLD-60037-00187?ds=BLD-60037-00187-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC83UCraFZ0P7NET872xC0whnh6wQ6PEr8y5kW/jpBoqa4jSPc0dx0L2nwfZhTbnE/rLBaB3tLseqCRU/10V6Qi4m/0gcuiAdTNyGqjLqLXjMVB0Z19F5S3OJm6xVPOQF+fYfYBdOaXUoSWEt7LUZrj8LXARBWNQVKjys2JWHCCuMwzUD/lqOnyWXlD/Zv/Ri6mB7LWEVRbLB5XRbQAog8mSC8ycDqzLGV84f5/SfYa6lKQVM5o2dZyqdFHEDP2wFPLs3aCsEU1E4Ung/d448uEI=&amp;cnc=false&amp;pickupPointCode=PP-3098866&amp;pid1=BLD-60037-00187</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SYU-60023-00446</t>
+          <t>NUT-60023-00092</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>no brand</t>
+          <t>Hilo</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Celana dalam anak ternyaman laki laki perempuan motif random</t>
+          <t>HiLo Gold Susu Tinggi Kalsium Rendah Lemak Chocolate [500 g ]</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16000</v>
+        <v>85100</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/120/MTA-168838986/no-brand_celana-dalam-anak-ternyaman-laki-laki-perempuan-motif-random_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-1989097/hilo_hilo_gold_susu_tinggi_kalsium_rendah_lemak_chocolate_-500_g_-__full01_u6yh6qqj.jpg</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/celana-dalam-anak-ternyaman-laki-laki-perempuan-motif-random/ps--SYU-60023-00446?ds=SYU-60023-00446-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7Icmq1gsSXLUq8ZinzLw7uT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfE8Fq3Y7FQDm7GSllvB0EzwRUapLx/yCmHBm+F6S9MPxAR75Szd5AvP5iOPg1fnThfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3124847&amp;pid1=SYU-60023-00446&amp;tag=new</t>
+          <t>https://www.blibli.com/p/hilo-gold-susu-tinggi-kalsium-rendah-lemak-chocolate-500-g/ps--NUT-60023-00092?ds=NUT-60023-00092-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC4jqhVUYBGnRHB2dDFMPniwmbE/LLJy7W3VwRB8pUx8xHDgDXETBrL/3N9/aupe551X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt537CBlnldB1rbcOtYX5GcZpQng5UHb8zzKVhV9+Dw3QAKK1M+GoNdrP6ar75oze0NMAEuBGo/nw/sRN6/giFL7Lqsa6b+xuvla6E9/DzyQNRNsqkUK+CvLdAAXsjpTQQrPp5hlxWpxAbIaUqGBcGWhfBsu7/DiHhN3lQH6lziPodV/JRyOl9C1sMeomoWxMTTs=&amp;cnc=false&amp;pickupPointCode=PP-3495802&amp;pid1=NUT-60023-00092</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>YOH-60025-00664</t>
+          <t>BLD-60037-00394</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Young Hearts</t>
+          <t>Frisian Flag</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Young Hearts Panty (Celana Dalam) Marshmallow Kiss, Hipster Y27-000680</t>
+          <t>Frisian Flag Nutribrain Omega Susu Uht Chocolate [115 mL]</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>72000</v>
+        <v>2800</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/116/MTA-168869726/br-m036969-10134_young-hearts-panty-celana-dalam-marshmallow-kiss-hipster-y27-000680_full09-cff1eaac.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/106/MTA-156459093/frisian_flag_frisian_flag_nutribrain_omega_susu_uht_chocolate_-115_ml-_full01_xvbdwy0.jpg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/young-hearts-panty-celana-dalam-marshmallow-kiss-hipster-y27-000680/ps--YOH-60025-00664?ds=YOH-60025-00664-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3Rpfx4BeUxhHN8ir7wH+LyT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3054594&amp;pid1=YOH-60025-00664&amp;tag=new</t>
+          <t>https://www.blibli.com/p/frisian-flag-nutribrain-omega-susu-uht-chocolate-115-ml/ps--BLD-60037-00394?ds=BLD-60037-00394-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxhotWbalOJK1bAKb4JrdH63VQ2WlzHp9deWrxqynfgSO1H2k8MmzxAQeKiypkJuPlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHIopPuOXO3ZPFXx1Ozq+hxbn0t+Z31N/tG70rzxf062H4Scv7qvXlsLo00FBKrsBre0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3098866&amp;pid1=BLD-60037-00394</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TAU-60025-01769</t>
+          <t>TEJ-70084-00247</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tally</t>
+          <t>Vidoran</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TALLY Celana Korset Wanita Extra Shapping Ada Kait Bahan Rajut Fit to M/L - 3X/4XL Corset Elastis Lembut dan Nyaman Pakaian Dalam Wanita CST 1251</t>
+          <t>SMG/JOG/SOLO - Vidoran Xmart 3+ Madu Susu Formula 700 g</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>89999</v>
+        <v>51000</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/106/MTA-169586152/tally_tally_celana_korset_wanita_extra_shapping_ada_kait_bahan_rajut_fit_to_m-l_-_3x-4xl_corset_elastis_lembut_dan_nyaman_pakaian_dalam_wanita_cst_1251_full11_u0lqnc0c.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/105/MTA-117803579/vidoran_smg-jog-solo_-_vidoran_xmart_3-_madu_susu_formula_700_g_full01_r0wttkjc.jpg</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/tally-celana-korset-wanita-extra-shapping-ada-kait-bahan-rajut-fit-to-m-l-3x-4xl-corset-elastis-lembut-dan-nyaman-pakaian-dalam-wanita-cst-1251/ps--TAU-60025-01769?ds=TAU-60025-01769-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+vOlHF/k5IdSxwaVC2xTLFWJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9pbvmWihN1rLv6WEwT2nrqFfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3085543&amp;pid1=TAU-60025-01769&amp;tag=new</t>
+          <t>https://www.blibli.com/p/smg-jog-solo-vidoran-xmart-3-madu-susu-formula-700-g/ps--TEJ-70084-00247?ds=TEJ-70084-00247-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/zjMYmgLdOqahjgDqbPvauT2r7fOYNS0fn24lYkspaB77cR3O357HYtLFjlWroZqeWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxA1ZBkU0NcX4uiXe/YPsHDKlaVTxNVKJtaXT+VmH890/Z50OgtOryTnW5cLdVxnS6XKKZohZrEj62hpwjPOPOeKefuNxBe1fmWzvRIc0H9ev6iqEzTFzwXsOb0sxDit2/B&amp;cnc=false&amp;pickupPointCode=PP-3528924&amp;pid1=TEJ-70084-00247</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BLI-60043-01827</t>
+          <t>LOI-36586-01266</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>LocknLock</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bloods Series Boxer Signals Black</t>
+          <t>LocknLock One Touch Clip Tumbler 550ML - LHC3249</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>139000</v>
+        <v>181000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-168861047/brd-09186_bloods-series-boxer-signals-black_full01-a1b60144.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//92/MTA-20657304/locknlock_locknlock_one_touch_clip_tumbler_550ml_-_lhc3249_full02_m6cxf9vm.jpg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-boxer-signals-black/ps--BLI-60043-01827?ds=BLI-60043-01827-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01827&amp;tag=new</t>
+          <t>https://www.blibli.com/p/locknlock-one-touch-clip-tumbler-550ml-lhc3249/ps--LOI-36586-01266?ds=LOI-36586-01266-00003&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC83UCraFZ0P7NET872xC0wh5LPrP51EEqEiLRjy53GKhWuEYT17AdwWUL3SlGLwkEuWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKhFRUDY7LArWqkV+AxOUq3VZ3JdAFGVbl5JSlY27jovfankehYe5gM2XTsam362ZdwNgGo3aFoz5nxXptjUARwtq+xgJseBgpvTygmxlBheFKxOnOrNxJdcBnW3+29tfvE+Y4uvtuoyjPRzfflxja6A=&amp;cnc=false&amp;pickupPointCode=PP-3009820&amp;pid1=LOI-36586-01266</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BLI-60043-01824</t>
+          <t>MIU-60036-00016</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>MilkLife</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bloods Series Boxer Taked Black</t>
+          <t>MilkLife Classic Choco UHT Kids Tetra Slim Leaf 115mL</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>139000</v>
+        <v>2900</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/102/MTA-168861044/brd-09186_bloods-series-boxer-taked-black_full01-20f1bf18.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-23409426/milklife_milklife_classic_cokelat_-_uht_kids_-1_pcs-_tetra_slim_leaf_115ml-_full01_retjowk1.jpeg</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-boxer-taked-black/ps--BLI-60043-01824?ds=BLI-60043-01824-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01824&amp;tag=new</t>
+          <t>https://www.blibli.com/p/milklife-classic-choco-uht-kids-tetra-slim-leaf-115ml/ps--MIU-60036-00016?ds=MIU-60036-00016-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwIcYjJhUkfzuki5iW9SKA+3VQ2WlzHp9deWrxqynfgSLfww3oC3M3hWNmwsypEKmJbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV7gVFzNUgTsVxnEJaAi206QylkZHer+F/DmhPZJvYm9VGEkj8u/5h4Kyn3dAqlMr+Xi4YSCsa/SsFeuwwC/3BZ9vavFjQW+Hi0U1g5VsfADeL+0KlWZP9TCw01G7E1sRkY=&amp;cnc=false&amp;pickupPointCode=PP-3243836&amp;pid1=MIU-60036-00016</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BLI-60043-01821</t>
+          <t>BLG-70029-00111</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>MilkLife</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bloods Series Boxer Wonde White</t>
+          <t>MilkLife Stroberi Milkshake Susu UHT Kids [1 pcs/ Tetra Slim Leaf 125]</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>139000</v>
+        <v>2900</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-168855224/brd-09186_bloods-series-boxer-wonde-white_full01-6a76e226.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//88/MTA-42240435/milklife_milklife_uht_strawberry_milkshake_-125_ml-_full01_e79qur2b.jpg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-boxer-wonde-white/ps--BLI-60043-01821?ds=BLI-60043-01821-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01821&amp;tag=new</t>
+          <t>https://www.blibli.com/p/milklife-stroberi-milkshake-susu-uht-kids-1-pcs-tetra-slim-leaf-125/ps--BLG-70029-00111?ds=BLG-70029-00111-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwIcYjJhUkfzuki5iW9SKA+3VQ2WlzHp9deWrxqynfgSeaqSka2vuLZuhqd7pSHzIFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHIopPuOXO3ZPFXx1Ozq+hxbn0t+Z31N/tG70rzxf062H4Scv7qvXlsLo00FBKrsBreaNnpcWSO8NdJ4uY4f8r+nzG9GyVyKk94kpU7EioE4b7g1igoiRuGLR3dNi3eSKPU=&amp;cnc=false&amp;pickupPointCode=PP-3527470&amp;pid1=BLG-70029-00111</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BLI-60043-01822</t>
+          <t>MIU-60036-00069</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>MilkLife</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bloods Series Boxer Hatred Black</t>
+          <t>MilkLife UHT Lactose Free [200 mL]</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>139000</v>
+        <v>4400</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/99/MTA-168861041/brd-09186_bloods-series-boxer-hatred-black_full01-88dd0211.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-41391161/milklife_milklife_uht_lactose_free_-200_ml-_full01_ql8ywk8z.jpg</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-boxer-hatred-black/ps--BLI-60043-01822?ds=BLI-60043-01822-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01822&amp;tag=new</t>
+          <t>https://www.blibli.com/p/milklife-uht-lactose-free-200-ml/ps--MIU-60036-00069?ds=MIU-60036-00069-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKO3VQ2WlzHp9deWrxqynfgSFhQAZzCJLQLk+plWA2r1mlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt53nU4Dp3uhlwixflscAf8XVNd9Qdrb3QWYxenklePSJm24qiwzrO6nWnHsxgeryKb/ltUNk96VTdqdjG4caO5Q1wCaCWmOutPc0eIowrS/xtbSlp5iaPRa3auHKDapyNXA=&amp;cnc=false&amp;pickupPointCode=PP-3243836&amp;pid1=MIU-60036-00069</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BLI-60043-01823</t>
+          <t>TOT-70382-00006</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>Tommee Tippee</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bloods Series Boxer Cheydo Black</t>
+          <t>TommeeTippee Botol PP Close to Nature Black -  260ML/9oz  - Botol Susu Bayi</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>139000</v>
+        <v>107928</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/100/MTA-168861042/brd-09186_bloods-series-boxer-cheydo-black_full01-f6d15114.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//105/MTA-47575572/tommee-tippee_tommee-tippee_full01.jpg</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-boxer-cheydo-black/ps--BLI-60043-01823?ds=BLI-60043-01823-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01823&amp;tag=new</t>
+          <t>https://www.blibli.com/p/tommeetippee-botol-pp-close-to-nature-black-260ml-9oz-botol-susu-bayi/ps--TOT-70382-00006?ds=TOT-70382-00006-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9gT1UYg0nHAvO+SFBeo4zuXqC6GJTmxkMPb5Wt+Q/hMFotyG7K9fuf6GhuhBg1qx5fpZP/HlAo0kBDTb857XQHO00wcIcM43S5kDh1UxrTh35uVJiiuCPRdlV4aliGvlC4/N0ykXdPBQ+Zmpzx07ptQYI2cttpewMJPj5goBPQRx15ZaBw7V58wFuGCPkAmWqPSV/DPGPfxgvN8/0Krqev&amp;cnc=false&amp;pickupPointCode=PP-3527181&amp;pid1=TOT-70382-00006</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BLI-60043-01826</t>
+          <t>TOT-70382-00008</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>Tommee Tippee</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bloods Series Boxer Bitan Black</t>
+          <t>TommeeTippee Botol PP Close to Nature Pink 260ML/9oz - Botol Susu Bayi</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>139000</v>
+        <v>107928</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-168861046/brd-09186_bloods-series-boxer-bitan-black_full01-79adfa97.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//108/MTA-47575665/tommee-tippee_tommee-tippee_full01.jpg</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-boxer-bitan-black/ps--BLI-60043-01826?ds=BLI-60043-01826-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01826&amp;tag=new</t>
+          <t>https://www.blibli.com/p/tommeetippee-botol-pp-close-to-nature-pink-260ml-9oz-botol-susu-bayi/ps--TOT-70382-00008?ds=TOT-70382-00008-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9gT1UYg0nHAvO+SFBeo4zuvF4GJK6mx13yhfoPe2I6AOWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxAQdi2olXdtgt1P6+kbTziFbtEYHN8Z96N9EmgMub/2Ja79XCc5bYDgXVnw8KN9Bji&amp;cnc=false&amp;pickupPointCode=PP-3527181&amp;pid1=TOT-70382-00008</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BLI-60043-01809</t>
+          <t>TOT-70382-00009</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>Tommee Tippee</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bloods Pants Boardshort Boxer Testuo Series</t>
+          <t>TommeeTippee Botol PP Close to Nature Lime Green-  260ML/9oz  - Botol Susu Bayi</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>175000</v>
+        <v>122918</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/107/MTA-168852581/brd-09186_bloods-pants-boardshort-boxer-testuo-series_full02-5b7bb777.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//111/MTA-47575965/tommee-tippee_tommee-tippee_full01.jpg</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-pants-boardshort-boxer-testuo-series/ps--BLI-60043-01809?ds=BLI-60043-01809-00006&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLzpIPdxAyKrk/S8s/bCYGWSTkAjo33L6F9xnpFG8B7gmdsB5KTRJ+AvjEIVvrsQdY=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01809&amp;tag=new</t>
+          <t>https://www.blibli.com/p/tommeetippee-botol-pp-close-to-nature-lime-green-260ml-9oz-botol-susu-bayi/ps--TOT-70382-00009?ds=TOT-70382-00009-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeC0lBlb77cMs6jcxr+f+IK39JvkEqCAqa4feXKpvDGvZla8f1JvScJ6DrHwqmhDSmJ38pLvQtrJkjvO7Vji06N5Y/z3GNGYn0VDwoIIPnDgZ5AnoLYwmKE1R7OS9+9VGfqViJT0I/qzo1dSRzxYbUZ/DGAybPeyfXm8q+SIgg++Ls1UV1sbzkIRtS1HuTjW8OB0cwAv5tbcj9Ui2cthtuZZ&amp;cnc=false&amp;pickupPointCode=PP-3527181&amp;pid1=TOT-70382-00009</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BLI-60043-01819</t>
+          <t>PIB-70060-00154</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>Pigeon</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Bloods Series Boxer Barbed 02 Black</t>
+          <t>Pigeon Botol PP Wide Neck with P-Plus Nipple Botol Susu [240 mL] PR010318</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>129000</v>
+        <v>99600</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-168854230/brd-09186_bloods-series-boxer-barbed-02-black_full01-b74725a5.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/99/MTA-118819143/pigeon_pigeon_botol_pp_wide_neck_with_p-plus_nipple_botol_susu_-240_ml-_pr010318_full05_h20sx2k.jpg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-boxer-barbed-02-black/ps--BLI-60043-01819?ds=BLI-60043-01819-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeCGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01819&amp;tag=new</t>
+          <t>https://www.blibli.com/p/pigeon-botol-pp-wide-neck-with-p-plus-nipple-botol-susu-240-ml-pr010318/ps--PIB-70060-00154?ds=PIB-70060-00154-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHxnh6wQ6PEr8y5kW/jpBoqadAnVTXMTPyuU5CGuMSVWXVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHJdqJUNsHaqc/xrX/8eUT87D9X7JvQu62DvXKUCWSGFikKVlKV88zLDyNjH30/J/VI=&amp;cnc=false&amp;pickupPointCode=PP-3491245&amp;pid1=PIB-70060-00154</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BLI-60043-01820</t>
+          <t>TOT-70382-00003</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>Tommee Tippee</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Bloods Series Boxer Barbed 02 Black</t>
+          <t>TommeeTippee Botol PP Close to Nature Clear 260ML/9oz- isi 2 - Botol Susu Bayi</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>129000</v>
+        <v>176328</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-168854231/brd-09186_bloods-series-boxer-barbed-02-black_full01-bf2e3fbb.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//101/MTA-47575235/tommee-tippee_tommee-tippee_full01.jpg</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-boxer-barbed-02-black/ps--BLI-60043-01820?ds=BLI-60043-01820-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeCGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01820&amp;tag=new</t>
+          <t>https://www.blibli.com/p/tommeetippee-botol-pp-close-to-nature-clear-260ml-9oz-isi-2-botol-susu-bayi/ps--TOT-70382-00003?ds=TOT-70382-00003-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+UyRx2NB90AvgZAzR/Au2fsa6jWV42laeO3V9LtJs1QYOWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxAQdi2olXdtgt1P6+kbTziFbtEYHN8Z96N9EmgMub/2Ja79XCc5bYDgXVnw8KN9Bji&amp;cnc=false&amp;pickupPointCode=PP-3527181&amp;pid1=TOT-70382-00003</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLI-60043-01825</t>
+          <t>TOT-70382-00019</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>Tommee Tippee</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Bloods Series Boxer Paper White Black</t>
+          <t>TommeeTippee Botol PP Close to Nature Blue 260ML/9oz - isi 2 - Botol Susu Bayi</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>139000</v>
+        <v>203920</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/103/MTA-168861045/brd-09186_bloods-series-boxer-paper-white-black_full01-f50caff3.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//104/MTA-47576803/tommee-tippee_tommee-tippee_full01.jpg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-boxer-paper-white-black/ps--BLI-60043-01825?ds=BLI-60043-01825-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIuGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01825&amp;tag=new</t>
+          <t>https://www.blibli.com/p/tommeetippee-botol-pp-close-to-nature-blue-260ml-9oz-isi-2-botol-susu-bayi/ps--TOT-70382-00019?ds=TOT-70382-00019-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt1tsXYn3L1ksKYsCVRC7VEtRgjclo41Bv7m06q1VtnIFla8f1JvScJ6DrHwqmhDSmJ38pLvQtrJkjvO7Vji06N5Y/z3GNGYn0VDwoIIPnDgZ5AnoLYwmKE1R7OS9+9VGfqViJT0I/qzo1dSRzxYbUZ/DGAybPeyfXm8q+SIgg++Ls1UV1sbzkIRtS1HuTjW8OB0cwAv5tbcj9Ui2cthtuZZ&amp;cnc=false&amp;pickupPointCode=PP-3527181&amp;pid1=TOT-70382-00019</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BLI-60043-01818</t>
+          <t>PIB-70060-00096</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>Pigeon</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bloods Series Boxer Barbed 01 Grey</t>
+          <t>Pigeon PR010807 PP Clear Streamline with S-Type Nipple Size M Botol Susu [250 mL]</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>129000</v>
+        <v>53618</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/107/MTA-168854228/brd-09186_bloods-series-boxer-barbed-01-grey_full01-33f3f2cb.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/105/MTA-118811895/pigeon_pigeon_pr010807_pp_clear_streamline_with_s-type_nipple_size_m_botol_susu_-250_ml-_full11_cfbxgswr.jpg</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-boxer-barbed-01-grey/ps--BLI-60043-01818?ds=BLI-60043-01818-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeCGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01818&amp;tag=new</t>
+          <t>https://www.blibli.com/p/pigeon-pr010807-pp-clear-streamline-with-s-type-nipple-size-m-botol-susu-250-ml/ps--PIB-70060-00096?ds=PIB-70060-00096-00002&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxaO742P7KkmPAljo7+jfY/7bP+X+ATPnCC1i/iQNMrmJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmN4q/YrhOrAyjv307X3FLxrTAREenyKb84DVg8LJlYzA=&amp;cnc=false&amp;pickupPointCode=PP-3491245&amp;pid1=PIB-70060-00096</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BLI-60043-01810</t>
+          <t>PIB-70060-00065</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>Pigeon</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bloods Pants Boardshort Boxer Testuo 01 Black</t>
+          <t>Pigeon PR010399 BTL PP Wide Neck W-P-PLUS Nipple Botol Susu - Purple [330 mL]</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>175000</v>
+        <v>103916</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/113/MTA-168852587/brd-09186_bloods-pants-boardshort-boxer-testuo-01-black_full01-7292e1e4.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/101/MTA-118801459/pigeon_pigeon_pr010399_btl_pp_wide_neck_w-p-plus_nipple_botol_susu_-_purple_-330_ml-_full05_84io0na.jpg</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-pants-boardshort-boxer-testuo-01-black/ps--BLI-60043-01810?ds=BLI-60043-01810-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01810&amp;tag=new</t>
+          <t>https://www.blibli.com/p/pigeon-pr010399-btl-pp-wide-neck-w-p-plus-nipple-botol-susu-purple-330-ml/ps--PIB-70060-00065?ds=PIB-70060-00065-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq+nXPZ3fvtXLkonE4D380C6U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHJdqJUNsHaqc/xrX/8eUT87D9X7JvQu62DvXKUCWSGFikKVlKV88zLDyNjH30/J/VI=&amp;cnc=false&amp;pickupPointCode=PP-3491245&amp;pid1=PIB-70060-00065</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BLI-60043-01816</t>
+          <t>PIB-70060-00256</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>Pigeon</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bloods Series Pants Boardshort Boxer Waish 01 Black</t>
+          <t>Pigeon PR010111 Wide Neck Botol Susu with P-Plus Nipple - White [160 mL]</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>175000</v>
+        <v>157617</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/103/MTA-168854016/brd-09186_bloods-series-pants-boardshort-boxer-waish-01-black_full01-31623d62.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/101/MTA-118844246/pigeon_pigeon-pr010111-wide-neck-botol-susu-with-p-plus-nipple---white--160-ml-_full03.jpg</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-pants-boardshort-boxer-waish-01-black/ps--BLI-60043-01816?ds=BLI-60043-01816-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLzpIPdxAyKrk/S8s/bCYGWSTkAjo33L6F9xnpFG8B7gmdsB5KTRJ+AvjEIVvrsQdY=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01816&amp;tag=new</t>
+          <t>https://www.blibli.com/p/pigeon-pr010111-wide-neck-botol-susu-with-p-plus-nipple-white-160-ml/ps--PIB-70060-00256?ds=PIB-70060-00256-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9tiwxYVs41tNENObWAga5H6p8GGLNysbH/ekoSRyKYQU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHJdqJUNsHaqc/xrX/8eUT87D9X7JvQu62DvXKUCWSGFikKVlKV88zLDyNjH30/J/VI=&amp;cnc=false&amp;pickupPointCode=PP-3491245&amp;pid1=PIB-70060-00256</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BLI-60043-01815</t>
+          <t>SUB-70131-00001</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>V-SOY</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bloods Series Pants Boardshort Boxer Waish 02 Navy</t>
+          <t>V-Soy Soya Bean Milk Multi-Grain 200 mL</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>175000</v>
+        <v>7600</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/102/MTA-168854015/brd-09186_bloods-series-pants-boardshort-boxer-waish-02-navy_full01-3c1cda22.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-37181572/v-soy_v-soy-multi-grain-soya-bean-milk--200-ml-_full54.jpg</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-pants-boardshort-boxer-waish-02-navy/ps--BLI-60043-01815?ds=BLI-60043-01815-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLzpIPdxAyKrk/S8s/bCYGWSTkAjo33L6F9xnpFG8B7gmdsB5KTRJ+AvjEIVvrsQdY=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01815&amp;tag=new</t>
+          <t>https://www.blibli.com/p/v-soy-soya-bean-milk-multi-grain-200-ml/ps--SUB-70131-00001?ds=SUB-70131-00001-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3iBiFb6oLnHLQNEBDHZ7zi3VQ2WlzHp9deWrxqynfgSWu0SW4+dXt77eUDTP9Ij0lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt53nU4Dp3uhlwixflscAf8XVNd9Qdrb3QWYxenklePSJm2YIMI0lPmD6FoI5NoCioInltUNk96VTdqdjG4caO5Q1wCaCWmOutPc0eIowrS/xtVANmgzGmpkcTWih3zwHJGFy2lQHLum2Le2M2zPi58xKW3JybDOOru79yMazz2iAGV/JRyOl9C1sMeomoWxMTTs=&amp;cnc=false&amp;pickupPointCode=PP-3309290&amp;pid1=SUB-70131-00001</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BLI-60043-01813</t>
+          <t>MIU-60035-00479</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>MilkLife</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Bloods Series Pants Boardshort Boxer Gramce 03 Black</t>
+          <t>WHS - SMG/JOG/SOLO -MilkLife UHT Chocolate Milk - Susu Cokelat 1 liter</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>175000</v>
+        <v>19000</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/109/MTA-168853915/brd-09186_bloods-series-pants-boardshort-boxer-gramce-03-black_full03-e55b3e15.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/100/MTA-166162608/milklife_smg-jog-solo_-_milklife_uht_chocolate_milk_-_susu_cokelat_1_liter__full01_vu4ouru7.jpg</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1885,121 +1886,121 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-pants-boardshort-boxer-gramce-03-black/ps--BLI-60043-01813?ds=BLI-60043-01813-00003&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01813&amp;tag=new</t>
+          <t>https://www.blibli.com/p/whs-smg-jog-solo-milklife-uht-chocolate-milk-susu-cokelat-1-liter/ps--MIU-60035-00479?ds=MIU-60035-00479-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1KT2r7fOYNS0fn24lYkspaBKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXeDioWrdqW2jVDexSAU462NTDhvU2dGTHXFRrWe7cayKPgUkBrNSd1kvoEoL27Ax4FfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3528657&amp;pid1=MIU-60035-00479</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BLI-60043-01811</t>
+          <t>PIB-70060-00112</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>Pigeon</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Bloods Series Pants Boardshort Boxer Gramce 02 Misty</t>
+          <t>Pigeon Training Toothbrush Lesson 2 Orange</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>175000</v>
+        <v>27823</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-168853911/brd-09186_bloods-series-pants-boardshort-boxer-gramce-02-misty_full01-7e08c04b.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/109/MTA-118811998/pigeon_pigeon_full01.jpg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-pants-boardshort-boxer-gramce-02-misty/ps--BLI-60043-01811?ds=BLI-60043-01811-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLzpIPdxAyKrk/S8s/bCYGWSTkAjo33L6F9xnpFG8B7gmdsB5KTRJ+AvjEIVvrsQdY=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01811&amp;tag=new</t>
+          <t>https://www.blibli.com/p/pigeon-training-toothbrush-lesson-2-orange/ps--PIB-70060-00112?ds=PIB-70060-00112-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwXkXh0R7dL5+fNlrKiyDwx0O+Xum4AbLEfftyx0BpG8CehKQbsgVGraUizdU4xFCnHOL7ft1r2B8la4jhSYbiSNDYUCs2SDfIC9YxZFA4sR5e7y1I67HStc8otBBiK5XJSts5Ttmig5MtQNiW9Bh+kRCVEuomQmWAa8P70g52bCzk7fy2rvv+ow0YbqKM95HqQMXWaXOtSuMstJ6IABr+yVoV04qa0eYQjwc63Ch+ZJt30CNpx08CSls6cI1xwZCWWiZ0O2Mr8xqHu5eFiAfS8ZznBLAQ2nP1eCjEfaGKnbecIPcotNC9ds+ZQfRejTug==&amp;cnc=false&amp;pickupPointCode=PP-3491245&amp;pid1=PIB-70060-00112</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BLI-60043-01812</t>
+          <t>PIB-70060-00111</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>Pigeon</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bloods Series Pants Boardshort Boxer Gramce 01 Navy</t>
+          <t>Pigeon Training Toothbrush Lesson 3 Pink</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>175000</v>
+        <v>44381</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/107/MTA-168853913/brd-09186_bloods-series-pants-boardshort-boxer-gramce-01-navy_full01-552792fa.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/106/MTA-118811995/pigeon_pigeon_full01.jpg</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-pants-boardshort-boxer-gramce-01-navy/ps--BLI-60043-01812?ds=BLI-60043-01812-00001&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL9sb/8qEo2WC/FC2pJ0cgq9PvGCTEFtDAoi9ApC7l/76GluLHL7sh8udwFskycmSs=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01812&amp;tag=new</t>
+          <t>https://www.blibli.com/p/pigeon-training-toothbrush-lesson-3-pink/ps--PIB-70060-00111?ds=PIB-70060-00111-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKOo4B78dMCZh3/QzUsVUDMFCehKQbsgVGraUizdU4xFCnHOL7ft1r2B8la4jhSYbiSNDYUCs2SDfIC9YxZFA4sR5e7y1I67HStc8otBBiK5XJSts5Ttmig5MtQNiW9Bh+kRCVEuomQmWAa8P70g52bCzk7fy2rvv+ow0YbqKM95HqQMXWaXOtSuMstJ6IABr+yVoV04qa0eYQjwc63Ch+ZJt30CNpx08CSls6cI1xwZCWWiZ0O2Mr8xqHu5eFiAfS8ZznBLAQ2nP1eCjEfaGKnbecIPcotNC9ds+ZQfRejTug==&amp;cnc=false&amp;pickupPointCode=PP-3491245&amp;pid1=PIB-70060-00111</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BLI-60043-01817</t>
+          <t>PIB-70060-00114</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Bloods</t>
+          <t>Pigeon</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bloods Series Pants Boardshort Boxer Waish 03 Dark Grey</t>
+          <t>Pigeon Training Toothbrush Lesson 3 Blue</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>175000</v>
+        <v>44381</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/108/MTA-168854039/brd-09186_bloods-series-pants-boardshort-boxer-waish-03-dark-grey_full01-056e9377.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/94/MTA-118812008/pigeon_pigeon_full01.jpg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bloods-series-pants-boardshort-boxer-waish-03-dark-grey/ps--BLI-60043-01817?ds=BLI-60043-01817-00002&amp;source=SEARCH&amp;sid=eb3344a674df186d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+U0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLzpIPdxAyKrk/S8s/bCYGWSTkAjo33L6F9xnpFG8B7gmdsB5KTRJ+AvjEIVvrsQdY=&amp;cnc=false&amp;pickupPointCode=PP-3521786&amp;pid1=BLI-60043-01817&amp;tag=new</t>
+          <t>https://www.blibli.com/p/pigeon-training-toothbrush-lesson-3-blue/ps--PIB-70060-00114?ds=PIB-70060-00114-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKOo4B78dMCZh3/QzUsVUDMFCehKQbsgVGraUizdU4xFCnHOL7ft1r2B8la4jhSYbiSNDYUCs2SDfIC9YxZFA4sR5e7y1I67HStc8otBBiK5XJSts5Ttmig5MtQNiW9Bh+kRCVEuomQmWAa8P70g52bCzk7fy2rvv+ow0YbqKM95HqQMXWaXOtSuMstJ6IABr+yVoV04qa0eYQjwc63Ch+ZJt30CNpx08CSls6cI1xwZCWWiZ0O2Mr8xqHu5eFiAfS8ZznBLAQ2nP1eCjEfaGKnbecIPcotNC9ds+ZQfRejTug==&amp;cnc=false&amp;pickupPointCode=PP-3528888&amp;pid1=PIB-70060-00114</t>
         </is>
       </c>
     </row>

--- a/ui_data/blibli.xlsx
+++ b/ui_data/blibli.xlsx
@@ -432,13 +432,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="98" customWidth="1" min="4" max="4"/>
+    <col width="93" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="228" customWidth="1" min="6" max="6"/>
+    <col width="214" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="597" customWidth="1" min="8" max="8"/>
+    <col width="531" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,107 +486,106 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BLI-60060-00017</t>
+          <t>SOO-60051-01043</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S-26</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">S-26 Promise Tahap 4 Susu Formula [1400 g x 3 pcs] 
-</t>
+          <t>Sorex Bra Seamless Tanpa Kawat Kait 2 Cup A-B Busa Tipis BH 65004</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>840000</v>
+        <v>61600</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//100/MTA-6816178/S26_S26_Promise_Tahap_4_Susu_Formula_-1400_g-_x_3_Pcs_full01_n2gaw9ux.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-159825520/sorex_sorex_bra_seamless_tanpa_kawat_kait_2_cup_a-b_busa_tipis_bh_65004_full02_ds94bo75.jpg</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/s-26-promise-tahap-4-susu-formula-1400-g-x-3-pcs/ps--BLI-60060-00017?ds=BLI-60060-00017-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+9KgQwIVJt8z/dR363VuzwH5hXXWkF0dKfPGTdZQcdl+cGcreNGPDrmTP7Ktv5yJNldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdEBnb9qyL5HQbNMV2/+3IhSDwF+P/lDvyT3bjUeeQy534fdprL2an9+zGt6lCF7URnQgdYn7q211GPDma9F6OBOnmGXFanEBshpSoYFwZaF8Gy7v8OIeE3eVAfqXOI+h1X8lHI6X0LWwx6iahbExNOw==&amp;cnc=false&amp;pickupPointCode=PP-3162573&amp;pid1=BLI-60060-00017</t>
+          <t>https://www.blibli.com/p/sorex-bra-seamless-tanpa-kawat-kait-2-cup-a-b-busa-tipis-bh-65004/ps--SOO-60051-01043?ds=SOO-60051-01043-00007&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH5nh6wQ6PEr8y5kW/jpBoqaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01043</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BLI-60054-00163</t>
+          <t>SOO-60051-00995</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SGM</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SGM Ananda 2 (6-12 Bulan) Susu Formula [600 g]</t>
+          <t>(2 PCS) Sorex Man Lifetyle Boxer Pria Celana Dalam Cowo Adem Trunk LK 38285</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>58200</v>
+        <v>69000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-6338547/sgm_sgm_ananda_2_-6-12_bulan-_susu_formula_-600_g-_full13_bkwj7928.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/103/MTA-147676135/sorex_-2_pcs-_sorex_man_lifetyle_boxer_pria_celana_dalam_cowo_adem_trunk_lk_38285_full04_futs8yik.jpg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sgm-ananda-2-6-12-bulan-susu-formula-600-g/ps--BLI-60054-00163?ds=BLI-60054-00163-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b/G7ZKryzxMhLfm5+J6+v8b1a+8iQty2s7WQ/5m9moOdZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV6RJE4ryhs06fLidM+cAquoweejFuSR+ejFuz0MPHOoPqeae2Mr7kUSCRhQl4RITCZjUqFP11h9zlqNWNkuhtN0vavFjQW+Hi0U1g5VsfADeL+0KlWZP9TCw01G7E1sRkY=&amp;cnc=false&amp;pickupPointCode=PP-3137092&amp;pid1=BLI-60054-00163</t>
+          <t>https://www.blibli.com/p/2-pcs-sorex-man-lifetyle-boxer-pria-celana-dalam-cowo-adem-trunk-lk-38285/ps--SOO-60051-00995?ds=SOO-60051-00995-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OT2r7fOYNS0fn24lYkspaBA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00995</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MA9-60026-00512</t>
+          <t>SOO-60051-00913</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Diamond</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Diamond Full Cream Susu UHT 1000 mL</t>
+          <t>Sorex Young Miniset Anak Remaja Step 1 Tanpa Kawat Visha Y 1013</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>16990</v>
+        <v>25800</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//99/MTA-59116824/diamond_diamond_uht_1_liter_full01_f750ec45.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/97/MTA-136183074/sorex_sorex_young_miniset_anak_remaja_step_1_tanpa_kawat_visha_y_1013_full02_ummhstw2.jpg</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -594,37 +593,37 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/diamond-full-cream-susu-uht-1000-ml/ps--MA9-60026-00512?ds=MA9-60026-00512-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7Icmq1gsSXLUq8ZinzLw7v+oLJqLy/XvDHMcpKt+HY66c5Rv2pwKiFp//o451F+FJbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV7gVFzNUgTsVxnEJaAi206QylkZHer+F/DmhPZJvYm9VGEkj8u/5h4Kyn3dAqlMr+Xi4YSCsa/SsFeuwwC/3BZ9vavFjQW+Hi0U1g5VsfADeL+0KlWZP9TCw01G7E1sRkY=&amp;cnc=false&amp;pickupPointCode=PP-3525762&amp;pid1=MA9-60026-00512</t>
+          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-tanpa-kawat-visha-y-1013/ps--SOO-60051-00913?ds=SOO-60051-00913-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzO4NENA+D3a2b160XD/ATBl2MnZWZ1TwAwuODpbBDUV/judXluBkrGQbYL5wQ1heujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfE8Fq3Y7FQDm7GSllvB0EzwRUapLx/yCmHBm+F6S9MPxAR75Szd5AvP5iOPg1fnThfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00913</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLG-70029-06124</t>
+          <t>SOO-60051-00861</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ultra Jaya</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Clearance - Ultra Milk Low Fat Chocolate Susu UHT [1000ml]</t>
+          <t>Sorex Celana Dalam Katun Basic Cutting Midi Polos Shape Up CD 9075</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>19200</v>
+        <v>36800</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/106/MTA-134387079/ultra_jaya_ultra_milk_low_fat_chocolate_100ml_full05_vb5kqszl.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112996396/sorex_sorex_celana_dalam_katun_basic_cutting_midi_polos_shape_up_cd_9075_full02_kdz4sy7w.jpg</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -632,151 +631,151 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/clearance-ultra-milk-low-fat-chocolate-susu-uht-1000ml/ps--BLG-70029-06124?ds=BLG-70029-06124-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1LG7ZKryzxMhLfm5+J6+v8bT4SwC3dPYQxOfUGC+4Sn7VesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHIopPuOXO3ZPFXx1Ozq+hxbn0t+Z31N/tG70rzxf062H4Scv7qvXlsLo00FBKrsBre0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3526957&amp;pid1=BLG-70029-06124</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-katun-basic-cutting-midi-polos-shape-up-cd-9075/ps--SOO-60051-00861?ds=SOO-60051-00861-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFl2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00861</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLG-70029-00032</t>
+          <t>SOO-60051-00829</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Indomilk</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Indomilk Full Cream Plain Susu UHT [950 mL] - D</t>
+          <t>Sorex Celana Dalam Wanita Hamil Midi Maternity Panty Freesize CD 1145</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17000</v>
+        <v>33075</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//99/MTA-42236388/indomilk_indomilk_full_cream_plain_susu_uht_-950_ml-_full05_c9ijxfq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-70479327/sorex_sorex_celana_dalam_wanita_hamil_midi_maternity_panty_freesize_cd_1145_full02_hb7mng6q.jpeg</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/indomilk-full-cream-plain-susu-uht-950-ml-d/ps--BLG-70029-00032?ds=BLG-70029-00032-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WT2r7fOYNS0fn24lYkspaBvQ+zpQtxgrRypwW88+WUuFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt53nU4Dp3uhlwixflscAf8XVNd9Qdrb3QWYxenklePSJm24qiwzrO6nWnHsxgeryKb/ltUNk96VTdqdjG4caO5Q1wCaCWmOutPc0eIowrS/xtbSlp5iaPRa3auHKDapyNXA=&amp;cnc=false&amp;pickupPointCode=PP-3526957&amp;pid1=BLG-70029-00032</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-freesize-cd-1145/ps--SOO-60051-00829?ds=SOO-60051-00829-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HqWD619BPrHnoq4EdKnykUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00829</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RAM-70107-01154</t>
+          <t>SOO-60051-00769</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Greenfields</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Greenfields uht full cream 1lt tta</t>
+          <t>Sorex Celana Dalam Wanita Hamil Midi Maternity Panty Fit To L-XXL CD 1148</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18500</v>
+        <v>41895</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//96/MTA-21517269/greenfields_greenfields_uht_full_cream___1lt_tta_full01_kzb8pgtf.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-46523947/sorex_sorex_celana_dalam_wanita_hamil_midi_maternity_panty_fit_to_l-xxl_cd_1148_full01_r4vls97f.jpg</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/greenfields-uht-full-cream-1lt-tta/ps--RAM-70107-01154?ds=RAM-70107-01154-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC83UCraFZ0P7NET872xC0wi/HAkxoVke7cxJ4LyInlLe47tJ7v5exg+yWovfFoMw1ZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV7gVFzNUgTsVxnEJaAi206QylkZHer+F/DmhPZJvYm9VGEkj8u/5h4Kyn3dAqlMr+Xi4YSCsa/SsFeuwwC/3BZ9vavFjQW+Hi0U1g5VsfADeL+0KlWZP9TCw01G7E1sRkY=&amp;cnc=false&amp;pickupPointCode=PP-3507456&amp;pid1=RAM-70107-01154</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-fit-to-l-xxl-cd-1148/ps--SOO-60051-00769?ds=SOO-60051-00769-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxg8vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00769</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MIU-60036-00152</t>
+          <t>SOO-60051-00471</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>MilkLife</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MilkLife UHT Chocolate Milk 1000 mL</t>
+          <t>Sorex 17232 Casual Style Bra - Cup B</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>19200</v>
+        <v>39004</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-96886606/milklife_milklife_uht_chocolate_milk_-_susu_cokelat_-1000_ml-_full01_mfw3cdmh.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12493876/sorex_sorex_bra_busa_tanpa_kawat_kait_2_setara_cup_b_bh_harian_casual_style_bra_17232_full01_rx5utll6.jpg</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/milklife-uht-chocolate-milk-1000-ml/ps--MIU-60036-00152?ds=MIU-60036-00152-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1LG7ZKryzxMhLfm5+J6+v8b4PQDwO5jLIz1mN9xTajwh1otyG7K9fuf6GhuhBg1qx5fpZP/HlAo0kBDTb857XQHO00wcIcM43S5kDh1UxrTh35uVJiiuCPRdlV4aliGvlC4/N0ykXdPBQ+Zmpzx07ptbgsUlSAp08Shy7kn+K2jxU/1fLwUXvMEGcJP8vYHs+i70aAZfLEhItHKJnBRk5mOXfqn7ztN/d1UPKnyy4npw4ALYVsVJ0CULUmRipV0cZnFS2Bs6MqaweAs0BMvmAIOK75dCgVySnSnFnHvJRwecg==&amp;cnc=false&amp;pickupPointCode=PP-3243836&amp;pid1=MIU-60036-00152</t>
+          <t>https://www.blibli.com/p/sorex-17232-casual-style-bra-cup-b/ps--SOO-60051-00471?ds=SOO-60051-00471-00008&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/eggqgMiupqXxacM5eGPWfJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00471</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BLD-60037-00350</t>
+          <t>SOO-60051-00552</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Frisian Flag</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>WHS - Frisian Flag Purefarm Susu UHT Sereal Cokelat [225 mL]</t>
+          <t>Sorex CD wanita Midi Super Soft Adem Lembut CD 15232</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4400</v>
+        <v>20580</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/92/MTA-128028214/frisian_flag_frisian_flag_purefarm_susu_uht_sereal_cokelat_-225_ml-_full01_dgqxv6tx.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-20762030/sorex_sorex_cd_wanita_midi_super_soft_adem_lembut_cd_15232_full02_rfcio72k.jpeg</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -784,37 +783,37 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/whs-frisian-flag-purefarm-susu-uht-sereal-cokelat-225-ml/ps--BLD-60037-00350?ds=BLD-60037-00350-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKO3VQ2WlzHp9deWrxqynfgSKG/XOj6f7+guuhEd6Le9MOjqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXeDioWrdqW2jVDexSAU462NTDhvU2dGTHXFRrWe7cayKOxVR1NKRIdNH5nx1LcA2EBgK3eW+Zh5x4g6PLMg3Mki3xH6A1SDCPhEv9COJBZsutoKTrVSRDI+tQZ6wB+l2Bk=&amp;cnc=false&amp;pickupPointCode=PP-3098866&amp;pid1=BLD-60037-00350</t>
+          <t>https://www.blibli.com/p/sorex-cd-wanita-midi-super-soft-adem-lembut-cd-15232/ps--SOO-60051-00552?ds=SOO-60051-00552-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2aqponFxzbpAb1YzoA8RzrJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00552</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BLG-70029-06975</t>
+          <t>SOO-60051-00012</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Indomilk</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Indomilk Strawberry Susu UHT 115 mL</t>
+          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2600</v>
+        <v>37044</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/98/MTA-145643138/indomilk_indomilk_strawberry_susu_uht_-115_ml-_full07_bsx9t01i.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709188/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_m8u3eoep.jpg</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -822,37 +821,37 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/indomilk-strawberry-susu-uht-115-ml/ps--BLG-70029-06975?ds=BLG-70029-06975-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy3VQ2WlzHp9deWrxqynfgSxHz9g6yXVsVL9UZIHPpNiFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHIopPuOXO3ZPFXx1Ozq+hxbn0t+Z31N/tG70rzxf062H4Scv7qvXlsLo00FBKrsBre0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3329095&amp;pid1=BLG-70029-06975</t>
+          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00012?ds=SOO-60051-00012-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00012</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BLG-70029-03091</t>
+          <t>SOO-60051-00362</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Indomilk</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Indomilk Vanila Susu UHT [115 mL]</t>
+          <t>Sorex Celana Dalam Wanita Ibu Hamil Maxi Katun Maternity Panty Freesize CD 1138</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2600</v>
+        <v>36260</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//94/MTA-90082451/indomilk_indomilk_vanila_susu_uht_-115_ml-_full07_el00nnve.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-10651111/sorex_sorex_celana_dalam_wanita_ibu_hamil_maxi_katun_maternity_panty_freesize_cd_1138_full02_ptla6keg.jpg</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -860,37 +859,37 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/indomilk-vanila-susu-uht-115-ml/ps--BLG-70029-03091?ds=BLG-70029-03091-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy3VQ2WlzHp9deWrxqynfgSUOva+erg1zhRP8ORuqdB0Fa8f1JvScJ6DrHwqmhDSmJ38pLvQtrJkjvO7Vji06N5Y/z3GNGYn0VDwoIIPnDgZ5AnoLYwmKE1R7OS9+9VGfqViJT0I/qzo1dSRzxYbUZ/ex2pbIx4kQWkh1axBx2JSth7xMW6cmCR+WDrARSDFb7+rUtXImUPAV3D58kpwIYQ3+aoZiWtW16AA4AzyHvVpdxcinYBStTbM0E99KPslfQaUy5QgCcBieU0mQhMExcU&amp;cnc=false&amp;pickupPointCode=PP-3528098&amp;pid1=BLG-70029-03091</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-ibu-hamil-maxi-katun-maternity-panty-freesize-cd-1138/ps--SOO-60051-00362?ds=SOO-60051-00362-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFdn+zDqrhLdjITE3plPTXXJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00362</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BLG-70029-08747</t>
+          <t>SOO-60051-00061</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MilkLife</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Clearance - MilkLife UHT Teens Tetra Slim Leaf Coklat 200 ml</t>
+          <t>Sorex Celana Dalam Hamil Motif Katun Lembut Maternity Panty CD 1140</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3400</v>
+        <v>33320</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/114/MTA-156375987/milklife_milklife_coklat_-_uht_teens_-1_pcs-tetra_slim_leaf_200ml-_full01_s44emxbn.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7895759/sorex_sorex_celana_dalam_hamil_motif_katun_lembut_maternity_panty_cd_1140_full02_j2ua28na.jpg</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -898,151 +897,151 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/clearance-milklife-uht-teens-tetra-slim-leaf-coklat-200-ml/ps--BLG-70029-08747?ds=BLG-70029-08747-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxf/gWNGqtNIgQNID6HXdHW3VQ2WlzHp9deWrxqynfgSinxpZe4IAZruTtQd1TO7UejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXeDioWrdqW2jVDexSAU462NTDhvU2dGTHXFRrWe7cayKPgUkBrNSd1kvoEoL27Ax4FfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3527109&amp;pid1=BLG-70029-08747</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-hamil-motif-katun-lembut-maternity-panty-cd-1140/ps--SOO-60051-00061?ds=SOO-60051-00061-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HcTUF9bqmkuAK1tOmfkDJzJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00061</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INS-60055-00082</t>
+          <t>SOO-60051-00574</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Indomilk</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Indomilk Cokelat Susu UHT [115 mL]</t>
+          <t>Sorex Celana Dalam Wanita Midi Basic Comfort Chic Adem Lembut Pori-pori CD 1260</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2600</v>
+        <v>24255</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-2487622/indomilk_indomilk_cokelat_susu_uht_-115_ml-_full06_eq5jfkm7.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-21977111/sorex_sorex_celana_dalam_wanita_midi_basic_comfort_chic_adem_lembut_pori-pori_cd_1260_full02_e9br0e3e.jpg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/indomilk-cokelat-susu-uht-115-ml/ps--INS-60055-00082?ds=INS-60055-00082-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy3VQ2WlzHp9deWrxqynfgSmvX4tmylQG5Pvg43d5IsBbLBaB3tLseqCRU/10V6Qi4m/0gcuiAdTNyGqjLqLXjMVB0Z19F5S3OJm6xVPOQF+fYfYBdOaXUoSWEt7LUZrj8LXARBWNQVKjys2JWHCCuMwzUD/lqOnyWXlD/Zv/Ri6mB7LWEVRbLB5XRbQAog8mSC8ycDqzLGV84f5/SfYa6lUbjBPcmbjFwQFSuE8B89Lvv8mC0e9lRvXyQh+Na3LdQ=&amp;cnc=false&amp;pickupPointCode=PP-3043179&amp;pid1=INS-60055-00082</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-midi-basic-comfort-chic-adem-lembut-pori-pori-cd-1260/ps--SOO-60051-00574?ds=SOO-60051-00574-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4agIrFT0SP5wuYJuKSH3/MKJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00574</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BLD-60037-00015</t>
+          <t>SOO-60051-00042</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Frisian Flag</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Frisian Flag Low Fat French Vanilla Susu UHT [225 mL]</t>
+          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6500</v>
+        <v>37044</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-2663309/frisian_flag_frisian_flag_low_fat_french_vanilla_susu_uht_-225_ml-_full06_hevsxxnz.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7886901/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_g40b4t61.jpg</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/frisian-flag-low-fat-french-vanilla-susu-uht-225-ml/ps--BLD-60037-00015?ds=BLD-60037-00015-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1R4AsY2zbEuPf0mEleNTFm3VQ2WlzHp9deWrxqynfgSqYpB9c1FKqQoXgFDUcveu1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt53nU4Dp3uhlwixflscAf8XVNd9Qdrb3QWYxenklePSJm24qiwzrO6nWnHsxgeryKb/ltUNk96VTdqdjG4caO5Q1wCaCWmOutPc0eIowrS/xtbSlp5iaPRa3auHKDapyNXA=&amp;cnc=false&amp;pickupPointCode=PP-3098866&amp;pid1=BLD-60037-00015</t>
+          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00042?ds=SOO-60051-00042-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00042</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BLB-60045-00045</t>
+          <t>SOO-60051-00427</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Huki</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Huki Botol Susu PP Baby Animal Orthodontic - Random [240 mL]</t>
+          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Pita Mungil Miniset Y 1103</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20000</v>
+        <v>30870</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-73185224/huki_huki_botol_susu_pp_baby_animal_orthodontic_-_random_-240_ml-_full11_r1paei7p.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-11560139/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_pita_mungil_miniset_y_1103_full01_m3k9nvkz.jpg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/huki-botol-susu-pp-baby-animal-orthodontic-random-240-ml/ps--BLB-60045-00045?ds=BLB-60045-00045-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2T2r7fOYNS0fn24lYkspaB1VERKv4BBdBPFnhK63tfIejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74Axnpn5uUjYeSavSjwxFyeVCwq7vqJ42QPgBkY5BSoK0QGdv2rIvkdBs0xXb/7ciFIPAX4/+UO/JPduNR55DLnWF3+BJGgihk+Yk70VLJAfg3K1aYZAD0duLDi004fByjgbik78uUwj2VNiTmH/F8XDYolYQZzFnWMJuVJS4GZD0Gn6h/X6Ctr/9KCaAg44n9j+7L3Wik+RTA5iNCdr8f2A==&amp;cnc=false&amp;pickupPointCode=PP-3165865&amp;pid1=BLB-60045-00045</t>
+          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-pita-mungil-miniset-y-1103/ps--SOO-60051-00427?ds=SOO-60051-00427-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EOacJbj2cXRya+Q0SCnBRoFJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00427</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INS-60055-00209</t>
+          <t>SOO-60051-00274</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Indomilk</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Indomilk Full Cream Plain Susu UHT 115 mL</t>
+          <t>Sorex CD Basic Midi Katun Mix 1179</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2600</v>
+        <v>26460</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-3950259/indomilk_indomilk_full_cream_plain_susu_uht_-115_ml-_full04_bdnw7yzd.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-8385514/sorex_sorex_cd_basic_midi_katun_mix_1179_full01_f8nmyoy6.jpg</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1050,151 +1049,151 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/indomilk-full-cream-plain-susu-uht-115-ml/ps--INS-60055-00209?ds=INS-60055-00209-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy3VQ2WlzHp9deWrxqynfgSwwPzIYAGMqXEEIH06KVrrZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV7gVFzNUgTsVxnEJaAi206QylkZHer+F/DmhPZJvYm9VGEkj8u/5h4Kyn3dAqlMr+Xi4YSCsa/SsFeuwwC/3BZ9vavFjQW+Hi0U1g5VsfADeL+0KlWZP9TCw01G7E1sRkY=&amp;cnc=false&amp;pickupPointCode=PP-3043179&amp;pid1=INS-60055-00209</t>
+          <t>https://www.blibli.com/p/sorex-cd-basic-midi-katun-mix-1179/ps--SOO-60051-00274?ds=SOO-60051-00274-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPzIOwJf81+FzoG8lPia/LMVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00274</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MEG-60041-00002</t>
+          <t>SOO-60051-00013</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Greenfields</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Medan - Greenfields UHT Fullcream Susu [1000 mL]</t>
+          <t>Sorex Basic Super Soft 1255 Celana Dalam Wanita - Multicolor</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>22000</v>
+        <v>22785</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12991980/greenfields_medan_-_greenfields_uht_fullcream_susu_-1000_ml-_full01_jvqzwe8i.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709258/sorex_sorex_basic_super_soft_1255_celana_dalam_wanita_-__multicolor_full01_t4dg2gm7.jpg</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/medan-greenfields-uht-fullcream-susu-1000-ml/ps--MEG-60041-00002?ds=MEG-60041-00002-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+T2r7fOYNS0fn24lYkspaBRE8oGmciCQ8xRUBc/m4bnVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt53nU4Dp3uhlwixflscAf8XVNd9Qdrb3QWYxenklePSJm24qiwzrO6nWnHsxgeryKb/ltUNk96VTdqdjG4caO5Q1EKRLV3Hac94zMayA3P2OPUaUYMkdIQYfNaoycLYqosk=&amp;cnc=false&amp;pickupPointCode=PP-3525989&amp;pid1=MEG-60041-00002</t>
+          <t>https://www.blibli.com/p/sorex-basic-super-soft-1255-celana-dalam-wanita-multicolor/ps--SOO-60051-00013?ds=SOO-60051-00013-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q8xmBGsZhEvfPzU+A1f7vo+JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00013</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLG-70029-09374</t>
+          <t>SOO-60051-00175</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Greenfields</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Clearance - Greenfields UHT Strawberry Minuman Susu [200 mL]</t>
+          <t>Sorex Bra Extra Comfort Busa Sedang Kawat Kait 3 Setara Cup B BH 3262</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4500</v>
+        <v>55125</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/112/MTA-166078875/greenfields_greenfields_uht_strawberry_minuman_susu_-200_ml-_full04_zx2y0rx.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7994480/sorex_sorex_bra_extra_comfort_busa_sedang_kawat_kait_3_setara_cup_b_bh_3262_full03_bpk5yj9s.jpeg</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/clearance-greenfields-uht-strawberry-minuman-susu-200-ml/ps--BLG-70029-09374?ds=BLG-70029-09374-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfe3VQ2WlzHp9deWrxqynfgSXGwa1ZG0g99cMvoGAXvCEQSIEitAq/1WrQRC4F6yTsDlurVX7NrCB6MjjGzbuCOvw664EUevDp9eL6Ws+MzDLl0wE3gvXVJ3bf5C00nZu7gtJcVjQwK0YoIlqayUmPpM/rE1RDVspHjbMfc0GxnrrMcXor3TIJbXyW2l+BVCrAErvl0KBXJKdKcWce8lHB5y&amp;cnc=false&amp;pickupPointCode=PP-3526957&amp;pid1=BLG-70029-09374</t>
+          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-sedang-kawat-kait-3-setara-cup-b-bh-3262/ps--SOO-60051-00175?ds=SOO-60051-00175-00014&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00175</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LMS-60022-00338</t>
+          <t>SOO-60051-00295</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Kesehatan &amp; Kecantikan</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>L-Men</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Gym Starter Pack: L-Men Platinum Strawberry 800gr &amp; L-Men Isopower Creatine Stargizing 30 Sachet</t>
+          <t>Sorex Celana Dalam Wanita Basic Mini Super Soft Lembut Nyaman Dipakai CD 1257</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>365600</v>
+        <v>19992</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-155674721/l-men_gym_starter_pack_-_l-men_platinum_strawberry_800gr_-_l-men_isopower_creatine_stargizing_30_sachet_full07_cyixkg26.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18327672/sorex_sorex_celana_dalam_wanita_basic_mini_super_soft_lembut_nyaman_dipakai_cd_1257_full02_cqx8djmw.jpg</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/gym-starter-pack-l-men-platinum-strawberry-800gr-l-men-isopower-creatine-stargizing-30-sachet/ps--LMS-60022-00338?ds=LMS-60022-00338-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFiR8g8McAxsDs2Q1fRxwov+jueud2FI92c8YAiS/TajVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+UvM5rYQ2b7sWjAIjInNGf9EzhaeZDpTR/fAyKgGVxs4Jb3XHBYDwr/rpsPgJumBr9pLkKEidQpCVEgJe2GcmIgb3zNcKWRrHOP3cRGuonLQ=&amp;cnc=false&amp;pickupPointCode=PP-3495578&amp;pid1=LMS-60022-00338</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-mini-super-soft-lembut-nyaman-dipakai-cd-1257/ps--SOO-60051-00295?ds=SOO-60051-00295-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JSivqeb4HprTDVqcGV3PQCJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00295</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BLD-60037-00187</t>
+          <t>SOO-60051-00004</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Frisian Flag</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Frisian Flag Purefarm Full Cream Susu UHT 946 mL</t>
+          <t>Sorex Celana Dalam Wanita Basic Midi Soft &amp; Comfort CD 1228 Katun Mix Adem</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>18600</v>
+        <v>26754</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//105/MTA-39783372/frisian_flag_frisian_flag_purefarm_full_cream_susu_uht_-946_ml-_full01_oum3b4t1.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7700289/sorex_sorex_celana_dalam_wanita_basic_midi_soft_-_comfort_cd_1228_katun_mix_adem_full02_nnq90z7s.jpg</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1202,151 +1201,151 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/frisian-flag-purefarm-full-cream-susu-uht-946-ml/ps--BLD-60037-00187?ds=BLD-60037-00187-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC83UCraFZ0P7NET872xC0whnh6wQ6PEr8y5kW/jpBoqa4jSPc0dx0L2nwfZhTbnE/rLBaB3tLseqCRU/10V6Qi4m/0gcuiAdTNyGqjLqLXjMVB0Z19F5S3OJm6xVPOQF+fYfYBdOaXUoSWEt7LUZrj8LXARBWNQVKjys2JWHCCuMwzUD/lqOnyWXlD/Zv/Ri6mB7LWEVRbLB5XRbQAog8mSC8ycDqzLGV84f5/SfYa6lKQVM5o2dZyqdFHEDP2wFPLs3aCsEU1E4Ung/d448uEI=&amp;cnc=false&amp;pickupPointCode=PP-3098866&amp;pid1=BLD-60037-00187</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-midi-soft-comfort-cd-1228-katun-mix-adem/ps--SOO-60051-00004?ds=SOO-60051-00004-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy/kEEC5/YmxIZLZ3qqgiVyJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00004</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NUT-60023-00092</t>
+          <t>SOO-60051-00010</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Hilo</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>HiLo Gold Susu Tinggi Kalsium Rendah Lemak Chocolate [500 g ]</t>
+          <t>Sorex Cd Basic Bahan Super Soft 1251 Celana dalam Wanita</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>85100</v>
+        <v>23667</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-1989097/hilo_hilo_gold_susu_tinggi_kalsium_rendah_lemak_chocolate_-500_g_-__full01_u6yh6qqj.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7708515/sorex_sorex_cd_basic_bahan_super_soft_1251_celana_dalam_wanita_full03_t1r1rwvf.jpg</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/hilo-gold-susu-tinggi-kalsium-rendah-lemak-chocolate-500-g/ps--NUT-60023-00092?ds=NUT-60023-00092-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC4jqhVUYBGnRHB2dDFMPniwmbE/LLJy7W3VwRB8pUx8xHDgDXETBrL/3N9/aupe551X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt537CBlnldB1rbcOtYX5GcZpQng5UHb8zzKVhV9+Dw3QAKK1M+GoNdrP6ar75oze0NMAEuBGo/nw/sRN6/giFL7Lqsa6b+xuvla6E9/DzyQNRNsqkUK+CvLdAAXsjpTQQrPp5hlxWpxAbIaUqGBcGWhfBsu7/DiHhN3lQH6lziPodV/JRyOl9C1sMeomoWxMTTs=&amp;cnc=false&amp;pickupPointCode=PP-3495802&amp;pid1=NUT-60023-00092</t>
+          <t>https://www.blibli.com/p/sorex-cd-basic-bahan-super-soft-1251-celana-dalam-wanita/ps--SOO-60051-00010?ds=SOO-60051-00010-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73OhY4+eXFWJ8a6ITW30cbFkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00010</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BLD-60037-00394</t>
+          <t>SOO-60051-00258</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Frisian Flag</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Frisian Flag Nutribrain Omega Susu Uht Chocolate [115 mL]</t>
+          <t>Sorex CD 1230 Basic Katun WARNA</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2800</v>
+        <v>21900</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/106/MTA-156459093/frisian_flag_frisian_flag_nutribrain_omega_susu_uht_chocolate_-115_ml-_full01_xvbdwy0.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8247465/sorex_sorex_cd_1230_basic_katun_warna_full02_dcmpebfb.jpg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/frisian-flag-nutribrain-omega-susu-uht-chocolate-115-ml/ps--BLD-60037-00394?ds=BLD-60037-00394-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxhotWbalOJK1bAKb4JrdH63VQ2WlzHp9deWrxqynfgSO1H2k8MmzxAQeKiypkJuPlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHIopPuOXO3ZPFXx1Ozq+hxbn0t+Z31N/tG70rzxf062H4Scv7qvXlsLo00FBKrsBre0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3098866&amp;pid1=BLD-60037-00394</t>
+          <t>https://www.blibli.com/p/sorex-cd-1230-basic-katun-warna/ps--SOO-60051-00258?ds=SOO-60051-00258-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goKIIGmm33viDj/+hYQaGlpdxFbcOmnv9bSync5a5kF4+lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00258</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TEJ-70084-00247</t>
+          <t>SOO-60051-00079</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Vidoran</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SMG/JOG/SOLO - Vidoran Xmart 3+ Madu Susu Formula 700 g</t>
+          <t>Sorex Bra Tanpa Kawat Super Soft Busa Sedang Setara Cup B 17238 BH Harian Simple Polos</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>51000</v>
+        <v>37240</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/105/MTA-117803579/vidoran_smg-jog-solo_-_vidoran_xmart_3-_madu_susu_formula_700_g_full01_r0wttkjc.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240855/sorex_sorex_bra_tanpa_kawat_super_soft_busa_sedang_setara_cup_b_17238_bh_harian_simple_polos_full02_t2k386dq.jpg</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/smg-jog-solo-vidoran-xmart-3-madu-susu-formula-700-g/ps--TEJ-70084-00247?ds=TEJ-70084-00247-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/zjMYmgLdOqahjgDqbPvauT2r7fOYNS0fn24lYkspaB77cR3O357HYtLFjlWroZqeWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxA1ZBkU0NcX4uiXe/YPsHDKlaVTxNVKJtaXT+VmH890/Z50OgtOryTnW5cLdVxnS6XKKZohZrEj62hpwjPOPOeKefuNxBe1fmWzvRIc0H9ev6iqEzTFzwXsOb0sxDit2/B&amp;cnc=false&amp;pickupPointCode=PP-3528924&amp;pid1=TEJ-70084-00247</t>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-super-soft-busa-sedang-setara-cup-b-17238-bh-harian-simple-polos/ps--SOO-60051-00079?ds=SOO-60051-00079-00011&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZukJoT8NV2nfifVvZEWfKxkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00079</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LOI-36586-01266</t>
+          <t>SOO-60051-00467</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LocknLock</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LocknLock One Touch Clip Tumbler 550ML - LHC3249</t>
+          <t>Sorex Bra Tanpa Kawat Busa Kait 3 Setara Cup B Bra Harian Casual Comfort BH 65001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>181000</v>
+        <v>52920</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//92/MTA-20657304/locknlock_locknlock_one_touch_clip_tumbler_550ml_-_lhc3249_full02_m6cxf9vm.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-12228968/sorex_sorex_bra_tanpa_kawat_busa_kait_3_setara_cup_b_bra_harian_casual_comfort_bh_65001_full02_br99daxr.jpeg</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1354,166 +1353,166 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/locknlock-one-touch-clip-tumbler-550ml-lhc3249/ps--LOI-36586-01266?ds=LOI-36586-01266-00003&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC83UCraFZ0P7NET872xC0wh5LPrP51EEqEiLRjy53GKhWuEYT17AdwWUL3SlGLwkEuWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKhFRUDY7LArWqkV+AxOUq3VZ3JdAFGVbl5JSlY27jovfankehYe5gM2XTsam362ZdwNgGo3aFoz5nxXptjUARwtq+xgJseBgpvTygmxlBheFKxOnOrNxJdcBnW3+29tfvE+Y4uvtuoyjPRzfflxja6A=&amp;cnc=false&amp;pickupPointCode=PP-3009820&amp;pid1=LOI-36586-01266</t>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-busa-kait-3-setara-cup-b-bra-harian-casual-comfort-bh-65001/ps--SOO-60051-00467?ds=SOO-60051-00467-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+iQM9MJM8LcOV1edc2sOTJmjateuiD2bQM1xoGRlYR/5LByD0g7hF2jEY9iKzbkb1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+GmfylN82DRKT97iLHHfPs20XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00467</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MIU-60036-00016</t>
+          <t>SOO-60051-00125</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MilkLife</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>MilkLife Classic Choco UHT Kids Tetra Slim Leaf 115mL</t>
+          <t>Sorex Bra Extra Comfort Busa Tanpa Kawat Kait 2 Setara Cup B BH 9850</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2900</v>
+        <v>55125</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-23409426/milklife_milklife_classic_cokelat_-_uht_kids_-1_pcs-_tetra_slim_leaf_115ml-_full01_retjowk1.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-18247352/sorex_sorex_bra_extra_comfort_busa_tanpa_kawat_kait_2_setara_cup_b_bh_9850_full01_n9w2qvqq.jpg</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/milklife-classic-choco-uht-kids-tetra-slim-leaf-115ml/ps--MIU-60036-00016?ds=MIU-60036-00016-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwIcYjJhUkfzuki5iW9SKA+3VQ2WlzHp9deWrxqynfgSLfww3oC3M3hWNmwsypEKmJbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV7gVFzNUgTsVxnEJaAi206QylkZHer+F/DmhPZJvYm9VGEkj8u/5h4Kyn3dAqlMr+Xi4YSCsa/SsFeuwwC/3BZ9vavFjQW+Hi0U1g5VsfADeL+0KlWZP9TCw01G7E1sRkY=&amp;cnc=false&amp;pickupPointCode=PP-3243836&amp;pid1=MIU-60036-00016</t>
+          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-tanpa-kawat-kait-2-setara-cup-b-bh-9850/ps--SOO-60051-00125?ds=SOO-60051-00125-00009&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00125</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BLG-70029-00111</t>
+          <t>SOO-60051-00090</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MilkLife</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>MilkLife Stroberi Milkshake Susu UHT Kids [1 pcs/ Tetra Slim Leaf 125]</t>
+          <t>Bra Sorex Tanpa Kawat Busa Sedang Cup Setara Cup B Casual Comfort 65003 Basic</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2900</v>
+        <v>54880</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//88/MTA-42240435/milklife_milklife_uht_strawberry_milkshake_-125_ml-_full01_e79qur2b.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240575/sorex_bra_sorex_tanpa_kawat_busa_sedang_cup_setara_cup_b_casual_comfort_65003_basic_full02_jqezgsad.jpeg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/milklife-stroberi-milkshake-susu-uht-kids-1-pcs-tetra-slim-leaf-125/ps--BLG-70029-00111?ds=BLG-70029-00111-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwIcYjJhUkfzuki5iW9SKA+3VQ2WlzHp9deWrxqynfgSeaqSka2vuLZuhqd7pSHzIFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHIopPuOXO3ZPFXx1Ozq+hxbn0t+Z31N/tG70rzxf062H4Scv7qvXlsLo00FBKrsBreaNnpcWSO8NdJ4uY4f8r+nzG9GyVyKk94kpU7EioE4b7g1igoiRuGLR3dNi3eSKPU=&amp;cnc=false&amp;pickupPointCode=PP-3527470&amp;pid1=BLG-70029-00111</t>
+          <t>https://www.blibli.com/p/bra-sorex-tanpa-kawat-busa-sedang-cup-setara-cup-b-casual-comfort-65003-basic/ps--SOO-60051-00090?ds=SOO-60051-00090-00005&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJWc8Qg5cJ1du71Plk4CIHX7JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00090</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MIU-60036-00069</t>
+          <t>SOO-60051-00098</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MilkLife</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>MilkLife UHT Lactose Free [200 mL]</t>
+          <t>Sorex Bra Menyusui Busa Tipis Cup B Motif Bunga Cantik 8110 Kait 3</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4400</v>
+        <v>45570</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-41391161/milklife_milklife_uht_lactose_free_-200_ml-_full01_ql8ywk8z.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-7932623/sorex_sorex_bh_menyusui_busa_tipis_motif_bunga_cantik_8110_kait_3_full02_rbxn2xa8.jpg</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/milklife-uht-lactose-free-200-ml/ps--MIU-60036-00069?ds=MIU-60036-00069-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKO3VQ2WlzHp9deWrxqynfgSFhQAZzCJLQLk+plWA2r1mlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt53nU4Dp3uhlwixflscAf8XVNd9Qdrb3QWYxenklePSJm24qiwzrO6nWnHsxgeryKb/ltUNk96VTdqdjG4caO5Q1wCaCWmOutPc0eIowrS/xtbSlp5iaPRa3auHKDapyNXA=&amp;cnc=false&amp;pickupPointCode=PP-3243836&amp;pid1=MIU-60036-00069</t>
+          <t>https://www.blibli.com/p/sorex-bra-menyusui-busa-tipis-cup-b-motif-bunga-cantik-8110-kait-3/ps--SOO-60051-00098?ds=SOO-60051-00098-00006&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlffhwMx40T52kBXuWAkJBYDIJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3RRAWlR/9fNhebCXAETnnd&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00098</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TOT-70382-00006</t>
+          <t>SOO-60051-00356</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tommee Tippee</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TommeeTippee Botol PP Close to Nature Black -  260ML/9oz  - Botol Susu Bayi</t>
+          <t>Sorex CD Wanita Melange Collection 15023 BH 11105, 11106 dan 11115</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>107928</v>
+        <v>24990</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//105/MTA-47575572/tommee-tippee_tommee-tippee_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10634356/sorex_sorex_cd_wanita_melange_collection_15023_bh_11105-_11106_dan_11115_full01_ftwsj520.jpg</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/tommeetippee-botol-pp-close-to-nature-black-260ml-9oz-botol-susu-bayi/ps--TOT-70382-00006?ds=TOT-70382-00006-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9gT1UYg0nHAvO+SFBeo4zuXqC6GJTmxkMPb5Wt+Q/hMFotyG7K9fuf6GhuhBg1qx5fpZP/HlAo0kBDTb857XQHO00wcIcM43S5kDh1UxrTh35uVJiiuCPRdlV4aliGvlC4/N0ykXdPBQ+Zmpzx07ptQYI2cttpewMJPj5goBPQRx15ZaBw7V58wFuGCPkAmWqPSV/DPGPfxgvN8/0Krqev&amp;cnc=false&amp;pickupPointCode=PP-3527181&amp;pid1=TOT-70382-00006</t>
+          <t>https://www.blibli.com/p/sorex-cd-wanita-melange-collection-15023-bh-11105-11106-dan-11115/ps--SOO-60051-00356?ds=SOO-60051-00356-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4b+oLJqLy/XvDHMcpKt+HY6JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00356</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TOT-70382-00008</t>
+          <t>SOO-60051-00183</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1523,35 +1522,35 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Tommee Tippee</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TommeeTippee Botol PP Close to Nature Pink 260ML/9oz - Botol Susu Bayi</t>
+          <t>Sorex Corset ShapeUp Korset Celana Paha Highwaist Shapewear Stagen 13189</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>107928</v>
+        <v>93100</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//108/MTA-47575665/tommee-tippee_tommee-tippee_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8072733/sorex_sorex_corset_shapeup_korset_celana_paha_highwaist_shapewear_stagen_13189_full01_j8iugqbd.jpg</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/tommeetippee-botol-pp-close-to-nature-pink-260ml-9oz-botol-susu-bayi/ps--TOT-70382-00008?ds=TOT-70382-00008-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9gT1UYg0nHAvO+SFBeo4zuvF4GJK6mx13yhfoPe2I6AOWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxAQdi2olXdtgt1P6+kbTziFbtEYHN8Z96N9EmgMub/2Ja79XCc5bYDgXVnw8KN9Bji&amp;cnc=false&amp;pickupPointCode=PP-3527181&amp;pid1=TOT-70382-00008</t>
+          <t>https://www.blibli.com/p/sorex-corset-shapeup-korset-celana-paha-highwaist-shapewear-stagen-13189/ps--SOO-60051-00183?ds=SOO-60051-00183-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0udwtGfjMBHkzcQHN9WHgcmbE/LLJy7W3VwRB8pUx8xJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00183</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TOT-70382-00009</t>
+          <t>SOO-60051-00157</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1561,446 +1560,446 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tommee Tippee</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>TommeeTippee Botol PP Close to Nature Lime Green-  260ML/9oz  - Botol Susu Bayi</t>
+          <t>Sorex Corset Shapewear Korset Tulang Reguler Size Stagen 1052 Pengecil Perut</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>122918</v>
+        <v>78400</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//111/MTA-47575965/tommee-tippee_tommee-tippee_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7975883/sorex_sorex_corset_shapewear_korset_tulang_reguler_size_stagen_1052_pengecil_perut_full01_q5k3eby6.jpg</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/tommeetippee-botol-pp-close-to-nature-lime-green-260ml-9oz-botol-susu-bayi/ps--TOT-70382-00009?ds=TOT-70382-00009-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeC0lBlb77cMs6jcxr+f+IK39JvkEqCAqa4feXKpvDGvZla8f1JvScJ6DrHwqmhDSmJ38pLvQtrJkjvO7Vji06N5Y/z3GNGYn0VDwoIIPnDgZ5AnoLYwmKE1R7OS9+9VGfqViJT0I/qzo1dSRzxYbUZ/DGAybPeyfXm8q+SIgg++Ls1UV1sbzkIRtS1HuTjW8OB0cwAv5tbcj9Ui2cthtuZZ&amp;cnc=false&amp;pickupPointCode=PP-3527181&amp;pid1=TOT-70382-00009</t>
+          <t>https://www.blibli.com/p/sorex-corset-shapewear-korset-tulang-reguler-size-stagen-1052-pengecil-perut/ps--SOO-60051-00157?ds=SOO-60051-00157-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1v82AvnOYi0a9q7D8u1KCCX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00157</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PIB-70060-00154</t>
+          <t>LAB-70212-05594</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Pigeon</t>
+          <t>no brand</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Pigeon Botol PP Wide Neck with P-Plus Nipple Botol Susu [240 mL] PR010318</t>
+          <t>Sorex Busa Tipis Cantik Motif Kait Bh 3 Bunga Menyusui 8110, Ukuran Bra 40/90</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>99600</v>
+        <v>35500</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/99/MTA-118819143/pigeon_pigeon_botol_pp_wide_neck_with_p-plus_nipple_botol_susu_-240_ml-_pr010318_full05_h20sx2k.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/109/MTA-165769470/brd-44261_sorex-busa-tipis-cantik-motif-kait-bh-3-bunga-menyusui-8110-ukuran-bra-40-90_full01-857c7e11.jpg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/pigeon-botol-pp-wide-neck-with-p-plus-nipple-botol-susu-240-ml-pr010318/ps--PIB-70060-00154?ds=PIB-70060-00154-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHxnh6wQ6PEr8y5kW/jpBoqadAnVTXMTPyuU5CGuMSVWXVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHJdqJUNsHaqc/xrX/8eUT87D9X7JvQu62DvXKUCWSGFikKVlKV88zLDyNjH30/J/VI=&amp;cnc=false&amp;pickupPointCode=PP-3491245&amp;pid1=PIB-70060-00154</t>
+          <t>https://www.blibli.com/p/sorex-busa-tipis-cantik-motif-kait-bh-3-bunga-menyusui-8110-ukuran-bra-40-90/ps--LAB-70212-05594?ds=LAB-70212-05594-00003&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiG/HAkxoVke7cxJ4LyInlLeCehKQbsgVGraUizdU4xFCnHOL7ft1r2B8la4jhSYbiSNDYUCs2SDfIC9YxZFA4sR5e7y1I67HStc8otBBiK5XJSts5Ttmig5MtQNiW9Bh+kRCVEuomQmWAa8P70g52bCaki4eOIxBkoZxlgI0gvu5v0lswRRcaDx8z50fOWMvOhM2TuCGo9wlT4OmaRfcPlvMg5yN2tby8UNstwdND2jMw==&amp;cnc=false&amp;pickupPointCode=PP-3499445&amp;pid1=LAB-70212-05594</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TOT-70382-00003</t>
+          <t>SOO-60051-00497</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Tommee Tippee</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TommeeTippee Botol PP Close to Nature Clear 260ML/9oz- isi 2 - Botol Susu Bayi</t>
+          <t>Sorex Mystery Box Special Bra Cantik Kawat/Tanpa Kawat Setara cup B</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>176328</v>
+        <v>58800</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//101/MTA-47575235/tommee-tippee_tommee-tippee_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-13765543/sorex_sorex_mystery_box_special_bra_cantik_kawat-tanpa_kawat__setara_cup_b_full03_h94hmgrl.jpg</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/tommeetippee-botol-pp-close-to-nature-clear-260ml-9oz-isi-2-botol-susu-bayi/ps--TOT-70382-00003?ds=TOT-70382-00003-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+UyRx2NB90AvgZAzR/Au2fsa6jWV42laeO3V9LtJs1QYOWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxAQdi2olXdtgt1P6+kbTziFbtEYHN8Z96N9EmgMub/2Ja79XCc5bYDgXVnw8KN9Bji&amp;cnc=false&amp;pickupPointCode=PP-3527181&amp;pid1=TOT-70382-00003</t>
+          <t>https://www.blibli.com/p/sorex-mystery-box-special-bra-cantik-kawat-tanpa-kawat-setara-cup-b/ps--SOO-60051-00497?ds=SOO-60051-00497-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b9l2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00497</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TOT-70382-00019</t>
+          <t>SOO-60051-00280</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Tommee Tippee</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TommeeTippee Botol PP Close to Nature Blue 260ML/9oz - isi 2 - Botol Susu Bayi</t>
+          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Cute Ribbon Brukat Bunga BT 7002</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>203920</v>
+        <v>102312</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//104/MTA-47576803/tommee-tippee_tommee-tippee_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-8395621/sorex_sorex_lingerie_baju_tidur_premium_satin_look_cute_ribbon_brukat_bunga_bt_7002_full01_pbu0j5i7.jpg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/tommeetippee-botol-pp-close-to-nature-blue-260ml-9oz-isi-2-botol-susu-bayi/ps--TOT-70382-00019?ds=TOT-70382-00019-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt1tsXYn3L1ksKYsCVRC7VEtRgjclo41Bv7m06q1VtnIFla8f1JvScJ6DrHwqmhDSmJ38pLvQtrJkjvO7Vji06N5Y/z3GNGYn0VDwoIIPnDgZ5AnoLYwmKE1R7OS9+9VGfqViJT0I/qzo1dSRzxYbUZ/DGAybPeyfXm8q+SIgg++Ls1UV1sbzkIRtS1HuTjW8OB0cwAv5tbcj9Ui2cthtuZZ&amp;cnc=false&amp;pickupPointCode=PP-3527181&amp;pid1=TOT-70382-00019</t>
+          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-cute-ribbon-brukat-bunga-bt-7002/ps--SOO-60051-00280?ds=SOO-60051-00280-00003&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9e2UdUDLB5ofwWKbsz373iU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00280</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PIB-70060-00096</t>
+          <t>SOO-60051-01066</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Pigeon</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Pigeon PR010807 PP Clear Streamline with S-Type Nipple Size M Botol Susu [250 mL]</t>
+          <t>Sorex Bra Tanpa Kawat Cup B Busa Sedang Cup 3/4 Nilon Bra Harian BH 33506</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>53618</v>
+        <v>41200</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/105/MTA-118811895/pigeon_pigeon_pr010807_pp_clear_streamline_with_s-type_nipple_size_m_botol_susu_-250_ml-_full11_cfbxgswr.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/106/MTA-166158385/sorex_sorex_bra_tanpa_kawat_cup_b_busa_sedang_cup_3-4_nilon_bra_harian_bh_33506_full02_u8si6sir.jpg</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/pigeon-pr010807-pp-clear-streamline-with-s-type-nipple-size-m-botol-susu-250-ml/ps--PIB-70060-00096?ds=PIB-70060-00096-00002&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxaO742P7KkmPAljo7+jfY/7bP+X+ATPnCC1i/iQNMrmJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmN4q/YrhOrAyjv307X3FLxrTAREenyKb84DVg8LJlYzA=&amp;cnc=false&amp;pickupPointCode=PP-3491245&amp;pid1=PIB-70060-00096</t>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-cup-b-busa-sedang-cup-3-4-nilon-bra-harian-bh-33506/ps--SOO-60051-01066?ds=SOO-60051-01066-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxjG7ZKryzxMhLfm5+J6+v8bJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01066</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PIB-70060-00065</t>
+          <t>SOO-60051-01064</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Pigeon</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Pigeon PR010399 BTL PP Wide Neck W-P-PLUS Nipple Botol Susu - Purple [330 mL]</t>
+          <t>(PILIH WARNA) Sorex Celana Dalam Wanita Basic Midi Nara Super Soft CD OF 003</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>103916</v>
+        <v>25800</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/101/MTA-118801459/pigeon_pigeon_pr010399_btl_pp_wide_neck_w-p-plus_nipple_botol_susu_-_purple_-330_ml-_full05_84io0na.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/94/MTA-166085102/sorex_-pilih_warna-_sorex_celana_dalam_wanita_basic_midi_nara_super_soft_cd_of_003_full04_kk9iitlq.jpg</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/pigeon-pr010399-btl-pp-wide-neck-w-p-plus-nipple-botol-susu-purple-330-ml/ps--PIB-70060-00065?ds=PIB-70060-00065-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq+nXPZ3fvtXLkonE4D380C6U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHJdqJUNsHaqc/xrX/8eUT87D9X7JvQu62DvXKUCWSGFikKVlKV88zLDyNjH30/J/VI=&amp;cnc=false&amp;pickupPointCode=PP-3491245&amp;pid1=PIB-70060-00065</t>
+          <t>https://www.blibli.com/p/pilih-warna-sorex-celana-dalam-wanita-basic-midi-nara-super-soft-cd-of-003/ps--SOO-60051-01064?ds=SOO-60051-01064-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzO4NENA+D3a2b160XD/ATBl2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01064</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PIB-70060-00256</t>
+          <t>SOO-60051-01063</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Pigeon</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Pigeon PR010111 Wide Neck Botol Susu with P-Plus Nipple - White [160 mL]</t>
+          <t>(PILIH WARNA) Sorex Celana Dalam Wanita Basic Midi Comfort Yori Katun Mix CD OF 002</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>157617</v>
+        <v>29400</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/101/MTA-118844246/pigeon_pigeon-pr010111-wide-neck-botol-susu-with-p-plus-nipple---white--160-ml-_full03.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/111/MTA-166084778/sorex_sorex_celana_dalam_wanita_basic_midi_comfort_yori_katun_mix_cd_of_002_full03_uugzz21e.jpg</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/pigeon-pr010111-wide-neck-botol-susu-with-p-plus-nipple-white-160-ml/ps--PIB-70060-00256?ds=PIB-70060-00256-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9tiwxYVs41tNENObWAga5H6p8GGLNysbH/ekoSRyKYQU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHJdqJUNsHaqc/xrX/8eUT87D9X7JvQu62DvXKUCWSGFikKVlKV88zLDyNjH30/J/VI=&amp;cnc=false&amp;pickupPointCode=PP-3491245&amp;pid1=PIB-70060-00256</t>
+          <t>https://www.blibli.com/p/pilih-warna-sorex-celana-dalam-wanita-basic-midi-comfort-yori-katun-mix-cd-of-002/ps--SOO-60051-01063?ds=SOO-60051-01063-00018&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwIcYjJhUkfzuki5iW9SKA+X0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01063</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SUB-70131-00001</t>
+          <t>LAB-70212-05592</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>V-SOY</t>
+          <t>no brand</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>V-Soy Soya Bean Milk Multi-Grain 200 mL</t>
+          <t>Sorex Busa Tipis Cantik Motif Kait Bh 3 Bunga Menyusui 8110, Ukuran Bra 38/85</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>7600</v>
+        <v>35500</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-37181572/v-soy_v-soy-multi-grain-soya-bean-milk--200-ml-_full54.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/116/MTA-165769469/brd-44261_sorex-busa-tipis-cantik-motif-kait-bh-3-bunga-menyusui-8110-ukuran-bra-38-85_full01-fb7fdff3.jpg</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/v-soy-soya-bean-milk-multi-grain-200-ml/ps--SUB-70131-00001?ds=SUB-70131-00001-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3iBiFb6oLnHLQNEBDHZ7zi3VQ2WlzHp9deWrxqynfgSWu0SW4+dXt77eUDTP9Ij0lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt53nU4Dp3uhlwixflscAf8XVNd9Qdrb3QWYxenklePSJm2YIMI0lPmD6FoI5NoCioInltUNk96VTdqdjG4caO5Q1wCaCWmOutPc0eIowrS/xtVANmgzGmpkcTWih3zwHJGFy2lQHLum2Le2M2zPi58xKW3JybDOOru79yMazz2iAGV/JRyOl9C1sMeomoWxMTTs=&amp;cnc=false&amp;pickupPointCode=PP-3309290&amp;pid1=SUB-70131-00001</t>
+          <t>https://www.blibli.com/p/sorex-busa-tipis-cantik-motif-kait-bh-3-bunga-menyusui-8110-ukuran-bra-38-85/ps--LAB-70212-05592?ds=LAB-70212-05592-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiG/HAkxoVke7cxJ4LyInlLeCehKQbsgVGraUizdU4xFCnHOL7ft1r2B8la4jhSYbiSNDYUCs2SDfIC9YxZFA4sR5e7y1I67HStc8otBBiK5XJSts5Ttmig5MtQNiW9Bh+kRCVEuomQmWAa8P70g52bCaki4eOIxBkoZxlgI0gvu5v0lswRRcaDx8z50fOWMvOhM2TuCGo9wlT4OmaRfcPlvMg5yN2tby8UNstwdND2jMw==&amp;cnc=false&amp;pickupPointCode=PP-3499445&amp;pid1=LAB-70212-05592</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MIU-60035-00479</t>
+          <t>BAG-70027-00459</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MilkLife</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>WHS - SMG/JOG/SOLO -MilkLife UHT Chocolate Milk - Susu Cokelat 1 liter</t>
+          <t>Handuk Bayi | Handuk Anak | Sorex Towel 100 X 50</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>19000</v>
+        <v>69400</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/100/MTA-166162608/milklife_smg-jog-solo_-_milklife_uht_chocolate_milk_-_susu_cokelat_1_liter__full01_vu4ouru7.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//78/MTA-11021170/sorex_handuk_bayi_-_handuk_anak_-_sorex_towel_100_x_50_-_full01_3d2184d8.jpg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/whs-smg-jog-solo-milklife-uht-chocolate-milk-susu-cokelat-1-liter/ps--MIU-60035-00479?ds=MIU-60035-00479-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1KT2r7fOYNS0fn24lYkspaBKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXeDioWrdqW2jVDexSAU462NTDhvU2dGTHXFRrWe7cayKPgUkBrNSd1kvoEoL27Ax4FfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3528657&amp;pid1=MIU-60035-00479</t>
+          <t>https://www.blibli.com/p/handuk-bayi-handuk-anak-sorex-towel-100-x-50/ps--BAG-70027-00459?ds=BAG-70027-00459-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OX0LAHVJZ7EB+ox4oiZlNaEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmDdmyk291xKlcwhaoJiafSwI6rvWM2fME09xrH8SZaRY=&amp;cnc=false&amp;pickupPointCode=PP-3172350&amp;pid1=BAG-70027-00459</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PIB-70060-00112</t>
+          <t>SOO-60051-01061</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Pigeon</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Pigeon Training Toothbrush Lesson 2 Orange</t>
+          <t>Sorex Bra Tanpa Kawat Full Cup B Busa Sedang Kait 3 Nilon Mix Bra Harian BH 34235</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>27823</v>
+        <v>85000</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/109/MTA-118811998/pigeon_pigeon_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-165480746/sorex_sorex_bra_tanpa_kawat_full_cup_b_busa_sedang_kait_3_nilon_mix_bra_harian_bh_34235_full02_usrhnjca.jpg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/pigeon-training-toothbrush-lesson-2-orange/ps--PIB-70060-00112?ds=PIB-70060-00112-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwXkXh0R7dL5+fNlrKiyDwx0O+Xum4AbLEfftyx0BpG8CehKQbsgVGraUizdU4xFCnHOL7ft1r2B8la4jhSYbiSNDYUCs2SDfIC9YxZFA4sR5e7y1I67HStc8otBBiK5XJSts5Ttmig5MtQNiW9Bh+kRCVEuomQmWAa8P70g52bCzk7fy2rvv+ow0YbqKM95HqQMXWaXOtSuMstJ6IABr+yVoV04qa0eYQjwc63Ch+ZJt30CNpx08CSls6cI1xwZCWWiZ0O2Mr8xqHu5eFiAfS8ZznBLAQ2nP1eCjEfaGKnbecIPcotNC9ds+ZQfRejTug==&amp;cnc=false&amp;pickupPointCode=PP-3491245&amp;pid1=PIB-70060-00112</t>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-full-cup-b-busa-sedang-kait-3-nilon-mix-bra-harian-bh-34235/ps--SOO-60051-01061?ds=SOO-60051-01061-00005&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC4jqhVUYBGnRHB2dDFMPniyT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01061</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PIB-70060-00111</t>
+          <t>SOO-60051-00825</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Pigeon</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Pigeon Training Toothbrush Lesson 3 Pink</t>
+          <t>Sorex CD Seamless Cutting Midi Extra Size L-XL Anti Nyeplak Tanpa Jahitan EA 510</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>44381</v>
+        <v>33000</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/106/MTA-118811995/pigeon_pigeon_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-70468312/sorex_sorex_cd_seamless_cutting_midi_extra_size_jumbo_anti_nyeplak_tanpa_jahitan_ea_510_full01_tw5up5u7.jpg</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/pigeon-training-toothbrush-lesson-3-pink/ps--PIB-70060-00111?ds=PIB-70060-00111-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKOo4B78dMCZh3/QzUsVUDMFCehKQbsgVGraUizdU4xFCnHOL7ft1r2B8la4jhSYbiSNDYUCs2SDfIC9YxZFA4sR5e7y1I67HStc8otBBiK5XJSts5Ttmig5MtQNiW9Bh+kRCVEuomQmWAa8P70g52bCzk7fy2rvv+ow0YbqKM95HqQMXWaXOtSuMstJ6IABr+yVoV04qa0eYQjwc63Ch+ZJt30CNpx08CSls6cI1xwZCWWiZ0O2Mr8xqHu5eFiAfS8ZznBLAQ2nP1eCjEfaGKnbecIPcotNC9ds+ZQfRejTug==&amp;cnc=false&amp;pickupPointCode=PP-3491245&amp;pid1=PIB-70060-00111</t>
+          <t>https://www.blibli.com/p/sorex-cd-seamless-cutting-midi-extra-size-l-xl-anti-nyeplak-tanpa-jahitan-ea-510/ps--SOO-60051-00825?ds=SOO-60051-00825-00011&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5GT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00825</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PIB-70060-00114</t>
+          <t>SOO-60051-01059</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Pigeon</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Pigeon Training Toothbrush Lesson 3 Blue</t>
+          <t>Sorex Invisible Bra Busa Sedang Tanpa Kawat Kait 1 Nilon Seamless Cup B 3/4 BH 34239</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>44381</v>
+        <v>71600</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/94/MTA-118812008/pigeon_pigeon_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/94/MTA-165474112/sorex_sorex_invisible_bra_busa_sedang_tanpa_kawat_kait_1_nilon_seamless_cup_b_3-4_bh_34239_full02_e7q9oqh8.jpg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/pigeon-training-toothbrush-lesson-3-blue/ps--PIB-70060-00114?ds=PIB-70060-00114-00001&amp;source=SEARCH&amp;sid=e132f3cdc0f57c22&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKOo4B78dMCZh3/QzUsVUDMFCehKQbsgVGraUizdU4xFCnHOL7ft1r2B8la4jhSYbiSNDYUCs2SDfIC9YxZFA4sR5e7y1I67HStc8otBBiK5XJSts5Ttmig5MtQNiW9Bh+kRCVEuomQmWAa8P70g52bCzk7fy2rvv+ow0YbqKM95HqQMXWaXOtSuMstJ6IABr+yVoV04qa0eYQjwc63Ch+ZJt30CNpx08CSls6cI1xwZCWWiZ0O2Mr8xqHu5eFiAfS8ZznBLAQ2nP1eCjEfaGKnbecIPcotNC9ds+ZQfRejTug==&amp;cnc=false&amp;pickupPointCode=PP-3528888&amp;pid1=PIB-70060-00114</t>
+          <t>https://www.blibli.com/p/sorex-invisible-bra-busa-sedang-tanpa-kawat-kait-1-nilon-seamless-cup-b-3-4-bh-34239/ps--SOO-60051-01059?ds=SOO-60051-01059-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6RXpYt557pWi7AhEmIfSHVnh6wQ6PEr8y5kW/jpBoqaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01059</t>
         </is>
       </c>
     </row>

--- a/ui_data/blibli.xlsx
+++ b/ui_data/blibli.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -434,11 +434,11 @@
     <col width="17" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="93" customWidth="1" min="4" max="4"/>
+    <col width="94" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="214" customWidth="1" min="6" max="6"/>
+    <col width="212" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="531" customWidth="1" min="8" max="8"/>
+    <col width="523" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,7 +486,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOO-60051-01043</t>
+          <t>WIO-70008-00004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -501,35 +501,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sorex Bra Seamless Tanpa Kawat Kait 2 Cup A-B Busa Tipis BH 65004</t>
+          <t>B549 | CELANA DALAM WANITA SOREX 1238 SIZE M - XXL</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>61600</v>
+        <v>17900</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-159825520/sorex_sorex_bra_seamless_tanpa_kawat_kait_2_cup_a-b_busa_tipis_bh_65004_full02_ds94bo75.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-10235637/sorex_b549_-_celana_dalam_wanita_sorex_1238_size_m_-_xxl_full03_dzx51bne.jpg</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-seamless-tanpa-kawat-kait-2-cup-a-b-busa-tipis-bh-65004/ps--SOO-60051-01043?ds=SOO-60051-01043-00007&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH5nh6wQ6PEr8y5kW/jpBoqaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01043</t>
+          <t>https://www.blibli.com/p/b549-celana-dalam-wanita-sorex-1238-size-m-xxl/ps--WIO-70008-00004?ds=WIO-70008-00004-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WIIGmm33viDj/+hYQaGlpdnNcxv6ypS7E4ynJ64PnbwlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00004</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOO-60051-00995</t>
+          <t>MOI-70007-00595</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,35 +539,35 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(2 PCS) Sorex Man Lifetyle Boxer Pria Celana Dalam Cowo Adem Trunk LK 38285</t>
+          <t>Sorex Celana Dalam Wanita - CD 1257 - Mini Panty - Super Soft - M - XXL</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>69000</v>
+        <v>13464</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/103/MTA-147676135/sorex_-2_pcs-_sorex_man_lifetyle_boxer_pria_celana_dalam_cowo_adem_trunk_lk_38285_full04_futs8yik.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-50903517/br-m036969-05088_sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl_full01.jpg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/2-pcs-sorex-man-lifetyle-boxer-pria-celana-dalam-cowo-adem-trunk-lk-38285/ps--SOO-60051-00995?ds=SOO-60051-00995-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OT2r7fOYNS0fn24lYkspaBA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00995</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl/ps--MOI-70007-00595?ds=MOI-70007-00595-00050&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIsG3614SFgY9ax7qJJTMRKNj/JAGGKMjevlfkFhtVG7gFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00595</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOO-60051-00913</t>
+          <t>SOO-60051-01043</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,15 +577,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sorex Young Miniset Anak Remaja Step 1 Tanpa Kawat Visha Y 1013</t>
+          <t>Sorex Bra Seamless Tanpa Kawat Kait 2 Cup A-B Busa Tipis BH 65004</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25800</v>
+        <v>61600</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/97/MTA-136183074/sorex_sorex_young_miniset_anak_remaja_step_1_tanpa_kawat_visha_y_1013_full02_ummhstw2.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-159825520/sorex_sorex_bra_seamless_tanpa_kawat_kait_2_cup_a-b_busa_tipis_bh_65004_full02_ds94bo75.jpg</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -593,19 +593,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-tanpa-kawat-visha-y-1013/ps--SOO-60051-00913?ds=SOO-60051-00913-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzO4NENA+D3a2b160XD/ATBl2MnZWZ1TwAwuODpbBDUV/judXluBkrGQbYL5wQ1heujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfE8Fq3Y7FQDm7GSllvB0EzwRUapLx/yCmHBm+F6S9MPxAR75Szd5AvP5iOPg1fnThfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00913</t>
+          <t>https://www.blibli.com/p/sorex-bra-seamless-tanpa-kawat-kait-2-cup-a-b-busa-tipis-bh-65004/ps--SOO-60051-01043?ds=SOO-60051-01043-00017&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH5nh6wQ6PEr8y5kW/jpBoqaA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01043</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOO-60051-00861</t>
+          <t>SOO-60051-00995</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,15 +615,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Katun Basic Cutting Midi Polos Shape Up CD 9075</t>
+          <t>(2 PCS) Sorex Man Lifetyle Boxer Pria Celana Dalam Cowo Adem Trunk LK 38285</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36800</v>
+        <v>69000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112996396/sorex_sorex_celana_dalam_katun_basic_cutting_midi_polos_shape_up_cd_9075_full02_kdz4sy7w.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/103/MTA-147676135/sorex_-2_pcs-_sorex_man_lifetyle_boxer_pria_celana_dalam_cowo_adem_trunk_lk_38285_full04_futs8yik.jpg</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -631,14 +631,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-katun-basic-cutting-midi-polos-shape-up-cd-9075/ps--SOO-60051-00861?ds=SOO-60051-00861-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFl2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00861</t>
+          <t>https://www.blibli.com/p/2-pcs-sorex-man-lifetyle-boxer-pria-celana-dalam-cowo-adem-trunk-lk-38285/ps--SOO-60051-00995?ds=SOO-60051-00995-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OT2r7fOYNS0fn24lYkspaBA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00995</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOO-60051-00829</t>
+          <t>SOO-60051-00861</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -653,15 +653,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Hamil Midi Maternity Panty Freesize CD 1145</t>
+          <t>Sorex Celana Dalam Katun Basic Cutting Midi Polos Shape Up CD 9075</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>33075</v>
+        <v>36800</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-70479327/sorex_sorex_celana_dalam_wanita_hamil_midi_maternity_panty_freesize_cd_1145_full02_hb7mng6q.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112996396/sorex_sorex_celana_dalam_katun_basic_cutting_midi_polos_shape_up_cd_9075_full02_kdz4sy7w.jpg</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -669,7 +669,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-freesize-cd-1145/ps--SOO-60051-00829?ds=SOO-60051-00829-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HqWD619BPrHnoq4EdKnykUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00829</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-katun-basic-cutting-midi-polos-shape-up-cd-9075/ps--SOO-60051-00861?ds=SOO-60051-00861-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFl2MnZWZ1TwAwuODpbBDUVuyoMNIQ+r4z5DJ9oW5/gjVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00861</t>
         </is>
       </c>
     </row>
@@ -707,14 +707,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-fit-to-l-xxl-cd-1148/ps--SOO-60051-00769?ds=SOO-60051-00769-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxg8vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00769</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-fit-to-l-xxl-cd-1148/ps--SOO-60051-00769?ds=SOO-60051-00769-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxg8vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00769</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOO-60051-00471</t>
+          <t>SOO-60051-00568</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -729,15 +729,15 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sorex 17232 Casual Style Bra - Cup B</t>
+          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Cute Y 1006</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>39004</v>
+        <v>20286</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12493876/sorex_sorex_bra_busa_tanpa_kawat_kait_2_setara_cup_b_bh_harian_casual_style_bra_17232_full01_rx5utll6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-21173323/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_cute_y_1006_full02_3b2ive6.jpg</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -745,14 +745,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-17232-casual-style-bra-cup-b/ps--SOO-60051-00471?ds=SOO-60051-00471-00008&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/eggqgMiupqXxacM5eGPWfJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00471</t>
+          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-cute-y-1006/ps--SOO-60051-00568?ds=SOO-60051-00568-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt0whBxl0y0A/lKFMfuSR+YzJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00568</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOO-60051-00552</t>
+          <t>SOO-60051-00634</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -767,15 +767,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sorex CD wanita Midi Super Soft Adem Lembut CD 15232</t>
+          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Gorgeous Nightgown Brukat BT 7008</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20580</v>
+        <v>116424</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-20762030/sorex_sorex_cd_wanita_midi_super_soft_adem_lembut_cd_15232_full02_rfcio72k.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-24930571/sorex_sorex_lingerie_lovely_series_baju_tidur_premium_satin_look_gorgeous_nightgown_brukat_bt_7008_full05_uy3lb726.jpg</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -783,7 +783,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-wanita-midi-super-soft-adem-lembut-cd-15232/ps--SOO-60051-00552?ds=SOO-60051-00552-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2aqponFxzbpAb1YzoA8RzrJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00552</t>
+          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-gorgeous-nightgown-brukat-bt-7008/ps--SOO-60051-00634?ds=SOO-60051-00634-00002&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIORipaXzN/Cai///2rmGlQVrU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00634</t>
         </is>
       </c>
     </row>
@@ -821,19 +821,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00012?ds=SOO-60051-00012-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00012</t>
+          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00012?ds=SOO-60051-00012-00002&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOcJUl07vjZHSHboXNQRMjgVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00012</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOO-60051-00362</t>
+          <t>SOO-60051-00360</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -843,15 +843,15 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Ibu Hamil Maxi Katun Maternity Panty Freesize CD 1138</t>
+          <t>Sorex Bra Kawat Busa Kait 2 Setara Cup B Bra Polos BH 11108</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36260</v>
+        <v>65660</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-10651111/sorex_sorex_celana_dalam_wanita_ibu_hamil_maxi_katun_maternity_panty_freesize_cd_1138_full02_ptla6keg.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10647376/sorex_sorex_bra_kawat_busa_kait_2_setara_cup_b_bra_polos_bh_11108_full03_j1xc7du0.jpg</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -859,19 +859,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-ibu-hamil-maxi-katun-maternity-panty-freesize-cd-1138/ps--SOO-60051-00362?ds=SOO-60051-00362-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFdn+zDqrhLdjITE3plPTXXJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00362</t>
+          <t>https://www.blibli.com/p/sorex-bra-kawat-busa-kait-2-setara-cup-b-bra-polos-bh-11108/ps--SOO-60051-00360?ds=SOO-60051-00360-00012&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1R4AsY2zbEuPf0mEleNTFlvp6v2ww3rMJNM2z4cVX8YJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00360</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOO-60051-00061</t>
+          <t>SOO-60051-00042</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -881,15 +881,15 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Hamil Motif Katun Lembut Maternity Panty CD 1140</t>
+          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>33320</v>
+        <v>37044</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7895759/sorex_sorex_celana_dalam_hamil_motif_katun_lembut_maternity_panty_cd_1140_full02_j2ua28na.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7886901/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_g40b4t61.jpg</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -897,19 +897,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-hamil-motif-katun-lembut-maternity-panty-cd-1140/ps--SOO-60051-00061?ds=SOO-60051-00061-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HcTUF9bqmkuAK1tOmfkDJzJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00061</t>
+          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00042?ds=SOO-60051-00042-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOPTsyyIDmFh47MtBFYuGtqVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00042</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOO-60051-00574</t>
+          <t>SOO-60051-00061</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Midi Basic Comfort Chic Adem Lembut Pori-pori CD 1260</t>
+          <t>Sorex Celana Dalam Hamil Motif Katun Lembut Maternity Panty CD 1140</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>24255</v>
+        <v>33320</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-21977111/sorex_sorex_celana_dalam_wanita_midi_basic_comfort_chic_adem_lembut_pori-pori_cd_1260_full02_e9br0e3e.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7895759/sorex_sorex_celana_dalam_hamil_motif_katun_lembut_maternity_panty_cd_1140_full02_j2ua28na.jpg</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -935,14 +935,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-midi-basic-comfort-chic-adem-lembut-pori-pori-cd-1260/ps--SOO-60051-00574?ds=SOO-60051-00574-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4agIrFT0SP5wuYJuKSH3/MKJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00574</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-hamil-motif-katun-lembut-maternity-panty-cd-1140/ps--SOO-60051-00061?ds=SOO-60051-00061-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HcTUF9bqmkuAK1tOmfkDJzySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE9Nv1SOi0krVWYDfqxiBKGaaf+79sqnkYv3mggmh/hvP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00061</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOO-60051-00042</t>
+          <t>SOO-60051-00427</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -957,15 +957,15 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Pita Mungil Miniset Y 1103</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>37044</v>
+        <v>30870</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7886901/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_g40b4t61.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-11560139/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_pita_mungil_miniset_y_1103_full01_m3k9nvkz.jpg</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -973,14 +973,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00042?ds=SOO-60051-00042-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00042</t>
+          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-pita-mungil-miniset-y-1103/ps--SOO-60051-00427?ds=SOO-60051-00427-00003&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EOacJbj2cXRya+Q0SCnBRoFYw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+GmfylN82DRKT97iLHHfPs20XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00427</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOO-60051-00427</t>
+          <t>SOO-60051-00274</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -995,30 +995,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Pita Mungil Miniset Y 1103</t>
+          <t>Sorex CD Basic Midi Katun Mix 1179</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30870</v>
+        <v>26460</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-11560139/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_pita_mungil_miniset_y_1103_full01_m3k9nvkz.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-8385514/sorex_sorex_cd_basic_midi_katun_mix_1179_full01_f8nmyoy6.jpg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-pita-mungil-miniset-y-1103/ps--SOO-60051-00427?ds=SOO-60051-00427-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EOacJbj2cXRya+Q0SCnBRoFJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00427</t>
+          <t>https://www.blibli.com/p/sorex-cd-basic-midi-katun-mix-1179/ps--SOO-60051-00274?ds=SOO-60051-00274-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPzIOwJf81+FzoG8lPia/LMVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00274</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOO-60051-00274</t>
+          <t>SOO-60051-00013</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1033,15 +1033,15 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Midi Katun Mix 1179</t>
+          <t>Sorex Basic Super Soft 1255 Celana Dalam Wanita - Multicolor</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26460</v>
+        <v>22785</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-8385514/sorex_sorex_cd_basic_midi_katun_mix_1179_full01_f8nmyoy6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709258/sorex_sorex_basic_super_soft_1255_celana_dalam_wanita_-__multicolor_full01_t4dg2gm7.jpg</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1049,14 +1049,14 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-midi-katun-mix-1179/ps--SOO-60051-00274?ds=SOO-60051-00274-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPzIOwJf81+FzoG8lPia/LMVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00274</t>
+          <t>https://www.blibli.com/p/sorex-basic-super-soft-1255-celana-dalam-wanita-multicolor/ps--SOO-60051-00013?ds=SOO-60051-00013-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q8xmBGsZhEvfPzU+A1f7vo+JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00013</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOO-60051-00013</t>
+          <t>SOO-60051-00295</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1071,15 +1071,15 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sorex Basic Super Soft 1255 Celana Dalam Wanita - Multicolor</t>
+          <t>Sorex Celana Dalam Wanita Basic Mini Super Soft Lembut Nyaman Dipakai CD 1257</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>22785</v>
+        <v>19992</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709258/sorex_sorex_basic_super_soft_1255_celana_dalam_wanita_-__multicolor_full01_t4dg2gm7.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18327672/sorex_sorex_celana_dalam_wanita_basic_mini_super_soft_lembut_nyaman_dipakai_cd_1257_full02_cqx8djmw.jpg</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-basic-super-soft-1255-celana-dalam-wanita-multicolor/ps--SOO-60051-00013?ds=SOO-60051-00013-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q8xmBGsZhEvfPzU+A1f7vo+JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00013</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-mini-super-soft-lembut-nyaman-dipakai-cd-1257/ps--SOO-60051-00295?ds=SOO-60051-00295-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JSivqeb4HprTDVqcGV3PQCI/EEoP3uESdSpv1I9i7XJFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00295</t>
         </is>
       </c>
     </row>
@@ -1125,14 +1125,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-sedang-kawat-kait-3-setara-cup-b-bh-3262/ps--SOO-60051-00175?ds=SOO-60051-00175-00014&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00175</t>
+          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-sedang-kawat-kait-3-setara-cup-b-bh-3262/ps--SOO-60051-00175?ds=SOO-60051-00175-00014&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00175</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOO-60051-00295</t>
+          <t>SOO-60051-00010</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1147,15 +1147,15 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Basic Mini Super Soft Lembut Nyaman Dipakai CD 1257</t>
+          <t>Sorex Cd Basic Bahan Super Soft 1251 Celana dalam Wanita</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>19992</v>
+        <v>23667</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18327672/sorex_sorex_celana_dalam_wanita_basic_mini_super_soft_lembut_nyaman_dipakai_cd_1257_full02_cqx8djmw.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7708515/sorex_sorex_cd_basic_bahan_super_soft_1251_celana_dalam_wanita_full03_t1r1rwvf.jpg</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-mini-super-soft-lembut-nyaman-dipakai-cd-1257/ps--SOO-60051-00295?ds=SOO-60051-00295-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JSivqeb4HprTDVqcGV3PQCJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00295</t>
+          <t>https://www.blibli.com/p/sorex-cd-basic-bahan-super-soft-1251-celana-dalam-wanita/ps--SOO-60051-00010?ds=SOO-60051-00010-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73OhY4+eXFWJ8a6ITW30cbFkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00010</t>
         </is>
       </c>
     </row>
@@ -1201,14 +1201,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-midi-soft-comfort-cd-1228-katun-mix-adem/ps--SOO-60051-00004?ds=SOO-60051-00004-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy/kEEC5/YmxIZLZ3qqgiVyJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00004</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-midi-soft-comfort-cd-1228-katun-mix-adem/ps--SOO-60051-00004?ds=SOO-60051-00004-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy/kEEC5/YmxIZLZ3qqgiVystYhaTIOsJmPMG3J3j/VXFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00004</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOO-60051-00010</t>
+          <t>SOO-60051-00258</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1223,30 +1223,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sorex Cd Basic Bahan Super Soft 1251 Celana dalam Wanita</t>
+          <t>Sorex CD 1230 Basic Katun WARNA</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23667</v>
+        <v>21900</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7708515/sorex_sorex_cd_basic_bahan_super_soft_1251_celana_dalam_wanita_full03_t1r1rwvf.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8247465/sorex_sorex_cd_1230_basic_katun_warna_full02_dcmpebfb.jpg</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-bahan-super-soft-1251-celana-dalam-wanita/ps--SOO-60051-00010?ds=SOO-60051-00010-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73OhY4+eXFWJ8a6ITW30cbFkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00010</t>
+          <t>https://www.blibli.com/p/sorex-cd-1230-basic-katun-warna/ps--SOO-60051-00258?ds=SOO-60051-00258-00003&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goKIIGmm33viDj/+hYQaGlpdxFbcOmnv9bSync5a5kF4+lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00258</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOO-60051-00258</t>
+          <t>SOO-60051-00467</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1261,15 +1261,15 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sorex CD 1230 Basic Katun WARNA</t>
+          <t>Sorex Bra Tanpa Kawat Busa Kait 3 Setara Cup B Bra Harian Casual Comfort BH 65001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21900</v>
+        <v>52920</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8247465/sorex_sorex_cd_1230_basic_katun_warna_full02_dcmpebfb.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-12228968/sorex_sorex_bra_tanpa_kawat_busa_kait_3_setara_cup_b_bra_harian_casual_comfort_bh_65001_full02_br99daxr.jpeg</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1277,14 +1277,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-1230-basic-katun-warna/ps--SOO-60051-00258?ds=SOO-60051-00258-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goKIIGmm33viDj/+hYQaGlpdxFbcOmnv9bSync5a5kF4+lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00258</t>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-busa-kait-3-setara-cup-b-bra-harian-casual-comfort-bh-65001/ps--SOO-60051-00467?ds=SOO-60051-00467-00002&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+iQM9MJM8LcOV1edc2sOTJmjateuiD2bQM1xoGRlYR/JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00467</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOO-60051-00079</t>
+          <t>SOO-60051-00125</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1299,15 +1299,15 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sorex Bra Tanpa Kawat Super Soft Busa Sedang Setara Cup B 17238 BH Harian Simple Polos</t>
+          <t>Sorex Bra Extra Comfort Busa Tanpa Kawat Kait 2 Setara Cup B BH 9850</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>37240</v>
+        <v>55125</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240855/sorex_sorex_bra_tanpa_kawat_super_soft_busa_sedang_setara_cup_b_17238_bh_harian_simple_polos_full02_t2k386dq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-18247352/sorex_sorex_bra_extra_comfort_busa_tanpa_kawat_kait_2_setara_cup_b_bh_9850_full01_n9w2qvqq.jpg</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1315,14 +1315,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-super-soft-busa-sedang-setara-cup-b-17238-bh-harian-simple-polos/ps--SOO-60051-00079?ds=SOO-60051-00079-00011&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZukJoT8NV2nfifVvZEWfKxkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00079</t>
+          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-tanpa-kawat-kait-2-setara-cup-b-bh-9850/ps--SOO-60051-00125?ds=SOO-60051-00125-00009&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faV9hz/XQzSqIR3H2JQztKk1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00125</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOO-60051-00467</t>
+          <t>SOO-60051-00090</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1337,15 +1337,15 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Sorex Bra Tanpa Kawat Busa Kait 3 Setara Cup B Bra Harian Casual Comfort BH 65001</t>
+          <t>Bra Sorex Tanpa Kawat Busa Sedang Cup Setara Cup B Casual Comfort 65003 Basic</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>52920</v>
+        <v>54880</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-12228968/sorex_sorex_bra_tanpa_kawat_busa_kait_3_setara_cup_b_bra_harian_casual_comfort_bh_65001_full02_br99daxr.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240575/sorex_bra_sorex_tanpa_kawat_busa_sedang_cup_setara_cup_b_casual_comfort_65003_basic_full02_jqezgsad.jpeg</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1353,14 +1353,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-busa-kait-3-setara-cup-b-bra-harian-casual-comfort-bh-65001/ps--SOO-60051-00467?ds=SOO-60051-00467-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+iQM9MJM8LcOV1edc2sOTJmjateuiD2bQM1xoGRlYR/5LByD0g7hF2jEY9iKzbkb1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+GmfylN82DRKT97iLHHfPs20XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00467</t>
+          <t>https://www.blibli.com/p/bra-sorex-tanpa-kawat-busa-sedang-cup-setara-cup-b-casual-comfort-65003-basic/ps--SOO-60051-00090?ds=SOO-60051-00090-00005&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJWc8Qg5cJ1du71Plk4CIHX7JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00090</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOO-60051-00125</t>
+          <t>SOO-60051-00079</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1375,15 +1375,15 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sorex Bra Extra Comfort Busa Tanpa Kawat Kait 2 Setara Cup B BH 9850</t>
+          <t>Sorex Bra Tanpa Kawat Super Soft Busa Sedang Setara Cup B 17238 BH Harian Simple Polos</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>55125</v>
+        <v>37240</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-18247352/sorex_sorex_bra_extra_comfort_busa_tanpa_kawat_kait_2_setara_cup_b_bh_9850_full01_n9w2qvqq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240855/sorex_sorex_bra_tanpa_kawat_super_soft_busa_sedang_setara_cup_b_17238_bh_harian_simple_polos_full02_t2k386dq.jpg</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1391,14 +1391,14 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-tanpa-kawat-kait-2-setara-cup-b-bh-9850/ps--SOO-60051-00125?ds=SOO-60051-00125-00009&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00125</t>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-super-soft-busa-sedang-setara-cup-b-17238-bh-harian-simple-polos/ps--SOO-60051-00079?ds=SOO-60051-00079-00012&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZukJoT8NV2nfifVvZEWfKxk9myWj6eICtISZacjXXHqNFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00079</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOO-60051-00090</t>
+          <t>SOO-60051-00356</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1413,30 +1413,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Bra Sorex Tanpa Kawat Busa Sedang Cup Setara Cup B Casual Comfort 65003 Basic</t>
+          <t>Sorex CD Wanita Melange Collection 15023 BH 11105, 11106 dan 11115</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>54880</v>
+        <v>24990</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240575/sorex_bra_sorex_tanpa_kawat_busa_sedang_cup_setara_cup_b_casual_comfort_65003_basic_full02_jqezgsad.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10634356/sorex_sorex_cd_wanita_melange_collection_15023_bh_11105-_11106_dan_11115_full01_ftwsj520.jpg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bra-sorex-tanpa-kawat-busa-sedang-cup-setara-cup-b-casual-comfort-65003-basic/ps--SOO-60051-00090?ds=SOO-60051-00090-00005&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJWc8Qg5cJ1du71Plk4CIHX7JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00090</t>
+          <t>https://www.blibli.com/p/sorex-cd-wanita-melange-collection-15023-bh-11105-11106-dan-11115/ps--SOO-60051-00356?ds=SOO-60051-00356-00002&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4b+oLJqLy/XvDHMcpKt+HY6JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00356</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOO-60051-00098</t>
+          <t>SOO-60051-00183</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1451,35 +1451,35 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sorex Bra Menyusui Busa Tipis Cup B Motif Bunga Cantik 8110 Kait 3</t>
+          <t>Sorex Corset ShapeUp Korset Celana Paha Highwaist Shapewear Stagen 13189</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>45570</v>
+        <v>93100</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-7932623/sorex_sorex_bh_menyusui_busa_tipis_motif_bunga_cantik_8110_kait_3_full02_rbxn2xa8.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8072733/sorex_sorex_corset_shapeup_korset_celana_paha_highwaist_shapewear_stagen_13189_full01_j8iugqbd.jpg</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-menyusui-busa-tipis-cup-b-motif-bunga-cantik-8110-kait-3/ps--SOO-60051-00098?ds=SOO-60051-00098-00006&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlffhwMx40T52kBXuWAkJBYDIJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3RRAWlR/9fNhebCXAETnnd&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00098</t>
+          <t>https://www.blibli.com/p/sorex-corset-shapeup-korset-celana-paha-highwaist-shapewear-stagen-13189/ps--SOO-60051-00183?ds=SOO-60051-00183-00002&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0udwtGfjMBHkzcQHN9WHgcmbE/LLJy7W3VwRB8pUx8xBI+SgwT0bjuIBd7LA3Wgh1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE6NhASY2tUdrki83wetKin+0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00183</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOO-60051-00356</t>
+          <t>SOO-60051-00157</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1489,15 +1489,15 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sorex CD Wanita Melange Collection 15023 BH 11105, 11106 dan 11115</t>
+          <t>Sorex Corset Shapewear Korset Tulang Reguler Size Stagen 1052 Pengecil Perut</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>24990</v>
+        <v>78400</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10634356/sorex_sorex_cd_wanita_melange_collection_15023_bh_11105-_11106_dan_11115_full01_ftwsj520.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7975883/sorex_sorex_corset_shapewear_korset_tulang_reguler_size_stagen_1052_pengecil_perut_full01_q5k3eby6.jpg</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1505,19 +1505,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-wanita-melange-collection-15023-bh-11105-11106-dan-11115/ps--SOO-60051-00356?ds=SOO-60051-00356-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4b+oLJqLy/XvDHMcpKt+HY6JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00356</t>
+          <t>https://www.blibli.com/p/sorex-corset-shapewear-korset-tulang-reguler-size-stagen-1052-pengecil-perut/ps--SOO-60051-00157?ds=SOO-60051-00157-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1v82AvnOYi0a9q7D8u1KCCX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00157</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOO-60051-00183</t>
+          <t>SOO-60051-00497</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1527,35 +1527,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sorex Corset ShapeUp Korset Celana Paha Highwaist Shapewear Stagen 13189</t>
+          <t>Sorex Mystery Box Special Bra Cantik Kawat/Tanpa Kawat Setara cup B</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>93100</v>
+        <v>58800</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8072733/sorex_sorex_corset_shapeup_korset_celana_paha_highwaist_shapewear_stagen_13189_full01_j8iugqbd.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-13765543/sorex_sorex_mystery_box_special_bra_cantik_kawat-tanpa_kawat__setara_cup_b_full03_h94hmgrl.jpg</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-shapeup-korset-celana-paha-highwaist-shapewear-stagen-13189/ps--SOO-60051-00183?ds=SOO-60051-00183-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0udwtGfjMBHkzcQHN9WHgcmbE/LLJy7W3VwRB8pUx8xJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00183</t>
+          <t>https://www.blibli.com/p/sorex-mystery-box-special-bra-cantik-kawat-tanpa-kawat-setara-cup-b/ps--SOO-60051-00497?ds=SOO-60051-00497-00003&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b9l2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00497</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOO-60051-00157</t>
+          <t>SOO-60051-00471</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1565,30 +1565,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sorex Corset Shapewear Korset Tulang Reguler Size Stagen 1052 Pengecil Perut</t>
+          <t>Sorex 17232 Casual Style Bra - Cup B</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>78400</v>
+        <v>39004</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7975883/sorex_sorex_corset_shapewear_korset_tulang_reguler_size_stagen_1052_pengecil_perut_full01_q5k3eby6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12493876/sorex_sorex_bra_busa_tanpa_kawat_kait_2_setara_cup_b_bh_harian_casual_style_bra_17232_full01_rx5utll6.jpg</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-shapewear-korset-tulang-reguler-size-stagen-1052-pengecil-perut/ps--SOO-60051-00157?ds=SOO-60051-00157-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1v82AvnOYi0a9q7D8u1KCCX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00157</t>
+          <t>https://www.blibli.com/p/sorex-17232-casual-style-bra-cup-b/ps--SOO-60051-00471?ds=SOO-60051-00471-00005&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/eggqgMiupqXxacM5eGPWfSu4IWA9I8NZxGRTYuIBep1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00471</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LAB-70212-05594</t>
+          <t>SOO-60051-00280</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1598,40 +1598,40 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>no brand</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sorex Busa Tipis Cantik Motif Kait Bh 3 Bunga Menyusui 8110, Ukuran Bra 40/90</t>
+          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Cute Ribbon Brukat Bunga BT 7002</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>35500</v>
+        <v>102312</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/109/MTA-165769470/brd-44261_sorex-busa-tipis-cantik-motif-kait-bh-3-bunga-menyusui-8110-ukuran-bra-40-90_full01-857c7e11.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-8395621/sorex_sorex_lingerie_baju_tidur_premium_satin_look_cute_ribbon_brukat_bunga_bt_7002_full01_pbu0j5i7.jpg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-busa-tipis-cantik-motif-kait-bh-3-bunga-menyusui-8110-ukuran-bra-40-90/ps--LAB-70212-05594?ds=LAB-70212-05594-00003&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiG/HAkxoVke7cxJ4LyInlLeCehKQbsgVGraUizdU4xFCnHOL7ft1r2B8la4jhSYbiSNDYUCs2SDfIC9YxZFA4sR5e7y1I67HStc8otBBiK5XJSts5Ttmig5MtQNiW9Bh+kRCVEuomQmWAa8P70g52bCaki4eOIxBkoZxlgI0gvu5v0lswRRcaDx8z50fOWMvOhM2TuCGo9wlT4OmaRfcPlvMg5yN2tby8UNstwdND2jMw==&amp;cnc=false&amp;pickupPointCode=PP-3499445&amp;pid1=LAB-70212-05594</t>
+          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-cute-ribbon-brukat-bunga-bt-7002/ps--SOO-60051-00280?ds=SOO-60051-00280-00003&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9e2UdUDLB5ofwWKbsz373i7/ZVxa2kFaxpfYcDtaKNmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00280</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOO-60051-00497</t>
+          <t>BAG-70027-00459</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1641,30 +1641,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Sorex Mystery Box Special Bra Cantik Kawat/Tanpa Kawat Setara cup B</t>
+          <t>Handuk Bayi | Handuk Anak | Sorex Towel 100 X 50</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>58800</v>
+        <v>69400</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-13765543/sorex_sorex_mystery_box_special_bra_cantik_kawat-tanpa_kawat__setara_cup_b_full03_h94hmgrl.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//78/MTA-11021170/sorex_handuk_bayi_-_handuk_anak_-_sorex_towel_100_x_50_-_full01_3d2184d8.jpg</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-mystery-box-special-bra-cantik-kawat-tanpa-kawat-setara-cup-b/ps--SOO-60051-00497?ds=SOO-60051-00497-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b9l2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00497</t>
+          <t>https://www.blibli.com/p/handuk-bayi-handuk-anak-sorex-towel-100-x-50/ps--BAG-70027-00459?ds=BAG-70027-00459-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmDdmyk291xKlcwhaoJiafSwI6rvWM2fME09xrH8SZaRY=&amp;cnc=false&amp;pickupPointCode=PP-3172350&amp;pid1=BAG-70027-00459</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOO-60051-00280</t>
+          <t>SOO-60051-00552</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1679,30 +1679,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Cute Ribbon Brukat Bunga BT 7002</t>
+          <t>Sorex CD wanita Midi Super Soft Adem Lembut CD 15232</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>102312</v>
+        <v>20580</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-8395621/sorex_sorex_lingerie_baju_tidur_premium_satin_look_cute_ribbon_brukat_bunga_bt_7002_full01_pbu0j5i7.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-20762030/sorex_sorex_cd_wanita_midi_super_soft_adem_lembut_cd_15232_full02_rfcio72k.jpeg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-cute-ribbon-brukat-bunga-bt-7002/ps--SOO-60051-00280?ds=SOO-60051-00280-00003&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9e2UdUDLB5ofwWKbsz373iU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00280</t>
+          <t>https://www.blibli.com/p/sorex-cd-wanita-midi-super-soft-adem-lembut-cd-15232/ps--SOO-60051-00552?ds=SOO-60051-00552-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2aqponFxzbpAb1YzoA8RzrTwV2wi/WgIu36XET8QmhnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00552</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOO-60051-01066</t>
+          <t>SOO-60051-00574</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1717,35 +1717,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sorex Bra Tanpa Kawat Cup B Busa Sedang Cup 3/4 Nilon Bra Harian BH 33506</t>
+          <t>Sorex Celana Dalam Wanita Midi Basic Comfort Chic Adem Lembut Pori-pori CD 1260</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>41200</v>
+        <v>24255</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/106/MTA-166158385/sorex_sorex_bra_tanpa_kawat_cup_b_busa_sedang_cup_3-4_nilon_bra_harian_bh_33506_full02_u8si6sir.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-21977111/sorex_sorex_celana_dalam_wanita_midi_basic_comfort_chic_adem_lembut_pori-pori_cd_1260_full02_e9br0e3e.jpg</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-cup-b-busa-sedang-cup-3-4-nilon-bra-harian-bh-33506/ps--SOO-60051-01066?ds=SOO-60051-01066-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxjG7ZKryzxMhLfm5+J6+v8bJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01066</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-midi-basic-comfort-chic-adem-lembut-pori-pori-cd-1260/ps--SOO-60051-00574?ds=SOO-60051-00574-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4agIrFT0SP5wuYJuKSH3/MKIivnlZfmSl5m7OY9r1lyLVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00574</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOO-60051-01064</t>
+          <t>BAK-24890-01845</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1755,30 +1755,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>(PILIH WARNA) Sorex Celana Dalam Wanita Basic Midi Nara Super Soft CD OF 003</t>
+          <t>Sorex Stagen 8052 - Slimming Corset Korset Pelangsing</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25800</v>
+        <v>69500</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/94/MTA-166085102/sorex_-pilih_warna-_sorex_celana_dalam_wanita_basic_midi_nara_super_soft_cd_of_003_full04_kk9iitlq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//91/MTA-8106732/sorex_sorex_stagen_8052_-_slimming_corset_korset_pelangsing_full02_k0q4f928.jpg</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/pilih-warna-sorex-celana-dalam-wanita-basic-midi-nara-super-soft-cd-of-003/ps--SOO-60051-01064?ds=SOO-60051-01064-00002&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzO4NENA+D3a2b160XD/ATBl2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01064</t>
+          <t>https://www.blibli.com/p/sorex-stagen-8052-slimming-corset-korset-pelangsing/ps--BAK-24890-01845?ds=BAK-24890-01845-00004&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70O/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURovYCHtpJ9m77Mt/1K6pUZq5DmAz1A2e+8nO/jzyY+jFw=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01845&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOO-60051-01063</t>
+          <t>SOO-60051-00415</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1793,73 +1793,73 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>(PILIH WARNA) Sorex Celana Dalam Wanita Basic Midi Comfort Yori Katun Mix CD OF 002</t>
+          <t>Sorex Celana Dalam Wanita Basic Maxi Super Soft Polos CD 1250</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29400</v>
+        <v>22050</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/111/MTA-166084778/sorex_sorex_celana_dalam_wanita_basic_midi_comfort_yori_katun_mix_cd_of_002_full03_uugzz21e.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//92/MTA-11457236/sorex_sorex_cd_wanita_basic_maxi_super_soft_polos_cd_1250_full02_h25v300t.jpg</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/pilih-warna-sorex-celana-dalam-wanita-basic-midi-comfort-yori-katun-mix-cd-of-002/ps--SOO-60051-01063?ds=SOO-60051-01063-00018&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwIcYjJhUkfzuki5iW9SKA+X0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01063</t>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-maxi-super-soft-polos-cd-1250/ps--SOO-60051-00415?ds=SOO-60051-00415-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+M7n3m+RcH5pfuq34yOwEpJ5DwTCoYZ7pKxqIR1psUuFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00415</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LAB-70212-05592</t>
+          <t>BAK-24890-01842</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>no brand</t>
+          <t>Sorex</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sorex Busa Tipis Cantik Motif Kait Bh 3 Bunga Menyusui 8110, Ukuran Bra 38/85</t>
+          <t>Sorex Corset 4431 Korset Pasca Melahirkan</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35500</v>
+        <v>73500</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/116/MTA-165769469/brd-44261_sorex-busa-tipis-cantik-motif-kait-bh-3-bunga-menyusui-8110-ukuran-bra-38-85_full01-fb7fdff3.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//101/MTA-8077654/sorex_sorex_corset_4431_korset_pasca_melahirkan_full01_ejmfoega.jpg</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-busa-tipis-cantik-motif-kait-bh-3-bunga-menyusui-8110-ukuran-bra-38-85/ps--LAB-70212-05592?ds=LAB-70212-05592-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiG/HAkxoVke7cxJ4LyInlLeCehKQbsgVGraUizdU4xFCnHOL7ft1r2B8la4jhSYbiSNDYUCs2SDfIC9YxZFA4sR5e7y1I67HStc8otBBiK5XJSts5Ttmig5MtQNiW9Bh+kRCVEuomQmWAa8P70g52bCaki4eOIxBkoZxlgI0gvu5v0lswRRcaDx8z50fOWMvOhM2TuCGo9wlT4OmaRfcPlvMg5yN2tby8UNstwdND2jMw==&amp;cnc=false&amp;pickupPointCode=PP-3499445&amp;pid1=LAB-70212-05592</t>
+          <t>https://www.blibli.com/p/sorex-corset-4431-korset-pasca-melahirkan/ps--BAK-24890-01842?ds=BAK-24890-01842-00004&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9nxsCWE66IToY6H/3TEJYi/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURo6N0sa75uwpeazB0wvCSQYtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01842</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BAG-70027-00459</t>
+          <t>MAM-60109-00113</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1869,15 +1869,15 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Handuk Bayi | Handuk Anak | Sorex Towel 100 X 50</t>
+          <t>CD SOREX 1239 Celana Dalam Wanita</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>69400</v>
+        <v>14500</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//78/MTA-11021170/sorex_handuk_bayi_-_handuk_anak_-_sorex_towel_100_x_50_-_full01_3d2184d8.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-155195754/sorex_cd-sorex-1239-celana-dalam-wanita_full01.jpg</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -1885,14 +1885,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/handuk-bayi-handuk-anak-sorex-towel-100-x-50/ps--BAG-70027-00459?ds=BAG-70027-00459-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OX0LAHVJZ7EB+ox4oiZlNaEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmDdmyk291xKlcwhaoJiafSwI6rvWM2fME09xrH8SZaRY=&amp;cnc=false&amp;pickupPointCode=PP-3172350&amp;pid1=BAG-70027-00459</t>
+          <t>https://www.blibli.com/p/cd-sorex-1239-celana-dalam-wanita/ps--MAM-60109-00113?ds=MAM-60109-00113-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushK/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3094603&amp;pid1=MAM-60109-00113</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOO-60051-01061</t>
+          <t>MOI-70007-00855</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1907,30 +1907,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sorex Bra Tanpa Kawat Full Cup B Busa Sedang Kait 3 Nilon Mix Bra Harian BH 34235</t>
+          <t>Sorex 1250 CD Celana Dalam Wanita - Maxi Panty - Super Soft | BISA PILIH WARNA</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>85000</v>
+        <v>17127</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-165480746/sorex_sorex_bra_tanpa_kawat_full_cup_b_busa_sedang_kait_3_nilon_mix_bra_harian_bh_34235_full02_usrhnjca.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-154953940/sorex_sorex_1250_cd_celana_dalam_wanita_-_maxi_panty_-_super_soft_-_bisa_pilih_warna_full01_jm7mqm90.jpg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-full-cup-b-busa-sedang-kait-3-nilon-mix-bra-harian-bh-34235/ps--SOO-60051-01061?ds=SOO-60051-01061-00005&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC4jqhVUYBGnRHB2dDFMPniyT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01061</t>
+          <t>https://www.blibli.com/p/sorex-1250-cd-celana-dalam-wanita-maxi-panty-super-soft-bisa-pilih-warna/ps--MOI-70007-00855?ds=MOI-70007-00855-00020&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+VDd0aEb2mnEzhIWyggW8h5Yw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00855</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOO-60051-00825</t>
+          <t>WIO-70008-00368</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1945,30 +1945,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sorex CD Seamless Cutting Midi Extra Size L-XL Anti Nyeplak Tanpa Jahitan EA 510</t>
+          <t>B501 | Celana Dalam Wanita Sorex - Sorex 1239</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>33000</v>
+        <v>43860</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-70468312/sorex_sorex_cd_seamless_cutting_midi_extra_size_jumbo_anti_nyeplak_tanpa_jahitan_ea_510_full01_tw5up5u7.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/102/MTA-145016957/sorex_b501_-_celana_dalam_wanita_sorex_-__sorex_1239_full24_djih1f55.jpg</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-seamless-cutting-midi-extra-size-l-xl-anti-nyeplak-tanpa-jahitan-ea-510/ps--SOO-60051-00825?ds=SOO-60051-00825-00011&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5GT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00825</t>
+          <t>https://www.blibli.com/p/b501-celana-dalam-wanita-sorex-sorex-1239/ps--WIO-70008-00368?ds=WIO-70008-00368-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7D5EnLGW/JufRUomLn7UXUhvPhx3NWvvw1KpDH3qrKOEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00368</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOO-60051-01059</t>
+          <t>WIO-70008-00425</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1983,23 +1983,6103 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sorex Invisible Bra Busa Sedang Tanpa Kawat Kait 1 Nilon Seamless Cup B 3/4 BH 34239</t>
+          <t>B165 - Sorex Camisol Tanktop Tali Lebar Renda Brukat Free Size</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>71600</v>
+        <v>69360</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/94/MTA-165474112/sorex_sorex_invisible_bra_busa_sedang_tanpa_kawat_kait_1_nilon_seamless_cup_b_3-4_bh_34239_full02_e7q9oqh8.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/98/MTA-148414570/sorex_b165_-_sorex_camisol_tanktop_tali_lebar_renda_brukat__free_size_full04_fx3z1ejy.jpg</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-invisible-bra-busa-sedang-tanpa-kawat-kait-1-nilon-seamless-cup-b-3-4-bh-34239/ps--SOO-60051-01059?ds=SOO-60051-01059-00001&amp;source=SEARCH&amp;sid=6250e0eb050ab5a0&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6RXpYt557pWi7AhEmIfSHVnh6wQ6PEr8y5kW/jpBoqaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01059</t>
+          <t>https://www.blibli.com/p/b165-sorex-camisol-tanktop-tali-lebar-renda-brukat-free-size/ps--WIO-70008-00425?ds=WIO-70008-00425-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70NR/YYwHagZb1LHNFss5QDsA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKOsT7WmHaYlyEM/a8kAvWoJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00425</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>WIO-70008-00004</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>B549 | CELANA DALAM WANITA SOREX 1238 SIZE M - XXL</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>17900</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-10235637/sorex_b549_-_celana_dalam_wanita_sorex_1238_size_m_-_xxl_full03_dzx51bne.jpg</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/b549-celana-dalam-wanita-sorex-1238-size-m-xxl/ps--WIO-70008-00004?ds=WIO-70008-00004-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WIIGmm33viDj/+hYQaGlpdnNcxv6ypS7E4ynJ64PnbwlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00004</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MOI-70007-00595</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita - CD 1257 - Mini Panty - Super Soft - M - XXL</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>13464</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-50903517/br-m036969-05088_sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl_full01.jpg</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl/ps--MOI-70007-00595?ds=MOI-70007-00595-00050&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIsG3614SFgY9ax7qJJTMRKNj/JAGGKMjevlfkFhtVG7gFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00595</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SOO-60051-01043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Sorex Bra Seamless Tanpa Kawat Kait 2 Cup A-B Busa Tipis BH 65004</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>61600</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-159825520/sorex_sorex_bra_seamless_tanpa_kawat_kait_2_cup_a-b_busa_tipis_bh_65004_full02_ds94bo75.jpg</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>5</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-seamless-tanpa-kawat-kait-2-cup-a-b-busa-tipis-bh-65004/ps--SOO-60051-01043?ds=SOO-60051-01043-00017&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH5nh6wQ6PEr8y5kW/jpBoqaA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01043</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SOO-60051-00995</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Fashion Pria</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>(2 PCS) Sorex Man Lifetyle Boxer Pria Celana Dalam Cowo Adem Trunk LK 38285</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>69000</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/103/MTA-147676135/sorex_-2_pcs-_sorex_man_lifetyle_boxer_pria_celana_dalam_cowo_adem_trunk_lk_38285_full04_futs8yik.jpg</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>5</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/2-pcs-sorex-man-lifetyle-boxer-pria-celana-dalam-cowo-adem-trunk-lk-38285/ps--SOO-60051-00995?ds=SOO-60051-00995-00001&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OT2r7fOYNS0fn24lYkspaBA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00995</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SOO-60051-00861</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Katun Basic Cutting Midi Polos Shape Up CD 9075</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>36800</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112996396/sorex_sorex_celana_dalam_katun_basic_cutting_midi_polos_shape_up_cd_9075_full02_kdz4sy7w.jpg</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>5</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-katun-basic-cutting-midi-polos-shape-up-cd-9075/ps--SOO-60051-00861?ds=SOO-60051-00861-00001&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFl2MnZWZ1TwAwuODpbBDUVuyoMNIQ+r4z5DJ9oW5/gjVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00861</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SOO-60051-00769</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Hamil Midi Maternity Panty Fit To L-XXL CD 1148</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>41895</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-46523947/sorex_sorex_celana_dalam_wanita_hamil_midi_maternity_panty_fit_to_l-xxl_cd_1148_full01_r4vls97f.jpg</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-fit-to-l-xxl-cd-1148/ps--SOO-60051-00769?ds=SOO-60051-00769-00001&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxg8vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00769</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SOO-60051-00568</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Cute Y 1006</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>20286</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-21173323/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_cute_y_1006_full02_3b2ive6.jpg</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>5</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-cute-y-1006/ps--SOO-60051-00568?ds=SOO-60051-00568-00001&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt0whBxl0y0A/lKFMfuSR+YzJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00568</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SOO-60051-00634</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Gorgeous Nightgown Brukat BT 7008</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>116424</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-24930571/sorex_sorex_lingerie_lovely_series_baju_tidur_premium_satin_look_gorgeous_nightgown_brukat_bt_7008_full05_uy3lb726.jpg</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>5</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-gorgeous-nightgown-brukat-bt-7008/ps--SOO-60051-00634?ds=SOO-60051-00634-00002&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIORipaXzN/Cai///2rmGlQVrU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00634</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SOO-60051-00012</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>37044</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709188/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_m8u3eoep.jpg</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>5</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00012?ds=SOO-60051-00012-00002&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOcJUl07vjZHSHboXNQRMjgVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00012</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SOO-60051-00360</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Sorex Bra Kawat Busa Kait 2 Setara Cup B Bra Polos BH 11108</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>65660</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10647376/sorex_sorex_bra_kawat_busa_kait_2_setara_cup_b_bra_polos_bh_11108_full03_j1xc7du0.jpg</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>5</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-kawat-busa-kait-2-setara-cup-b-bra-polos-bh-11108/ps--SOO-60051-00360?ds=SOO-60051-00360-00012&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1R4AsY2zbEuPf0mEleNTFlvp6v2ww3rMJNM2z4cVX8YJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00360</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SOO-60051-00042</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>37044</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7886901/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_g40b4t61.jpg</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>5</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00042?ds=SOO-60051-00042-00001&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOPTsyyIDmFh47MtBFYuGtqVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00042</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SOO-60051-00061</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Hamil Motif Katun Lembut Maternity Panty CD 1140</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>33320</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7895759/sorex_sorex_celana_dalam_hamil_motif_katun_lembut_maternity_panty_cd_1140_full02_j2ua28na.jpg</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>5</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-hamil-motif-katun-lembut-maternity-panty-cd-1140/ps--SOO-60051-00061?ds=SOO-60051-00061-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HcTUF9bqmkuAK1tOmfkDJzySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE9Nv1SOi0krVWYDfqxiBKGaaf+79sqnkYv3mggmh/hvP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00061</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SOO-60051-00427</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Pita Mungil Miniset Y 1103</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>30870</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-11560139/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_pita_mungil_miniset_y_1103_full01_m3k9nvkz.jpg</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>5</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-pita-mungil-miniset-y-1103/ps--SOO-60051-00427?ds=SOO-60051-00427-00003&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EOacJbj2cXRya+Q0SCnBRoFYw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+GmfylN82DRKT97iLHHfPs20XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00427</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SOO-60051-00274</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Sorex CD Basic Midi Katun Mix 1179</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>26460</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-8385514/sorex_sorex_cd_basic_midi_katun_mix_1179_full01_f8nmyoy6.jpg</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-midi-katun-mix-1179/ps--SOO-60051-00274?ds=SOO-60051-00274-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPzIOwJf81+FzoG8lPia/LMVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00274</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SOO-60051-00013</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Sorex Basic Super Soft 1255 Celana Dalam Wanita - Multicolor</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>22785</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709258/sorex_sorex_basic_super_soft_1255_celana_dalam_wanita_-__multicolor_full01_t4dg2gm7.jpg</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-basic-super-soft-1255-celana-dalam-wanita-multicolor/ps--SOO-60051-00013?ds=SOO-60051-00013-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q8xmBGsZhEvfPzU+A1f7vo+JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00013</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SOO-60051-00295</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Basic Mini Super Soft Lembut Nyaman Dipakai CD 1257</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>19992</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18327672/sorex_sorex_celana_dalam_wanita_basic_mini_super_soft_lembut_nyaman_dipakai_cd_1257_full02_cqx8djmw.jpg</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-mini-super-soft-lembut-nyaman-dipakai-cd-1257/ps--SOO-60051-00295?ds=SOO-60051-00295-00001&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JSivqeb4HprTDVqcGV3PQCI/EEoP3uESdSpv1I9i7XJFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00295</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SOO-60051-00175</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Sorex Bra Extra Comfort Busa Sedang Kawat Kait 3 Setara Cup B BH 3262</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>55125</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7994480/sorex_sorex_bra_extra_comfort_busa_sedang_kawat_kait_3_setara_cup_b_bh_3262_full03_bpk5yj9s.jpeg</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-sedang-kawat-kait-3-setara-cup-b-bh-3262/ps--SOO-60051-00175?ds=SOO-60051-00175-00014&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00175</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SOO-60051-00010</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Sorex Cd Basic Bahan Super Soft 1251 Celana dalam Wanita</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>23667</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7708515/sorex_sorex_cd_basic_bahan_super_soft_1251_celana_dalam_wanita_full03_t1r1rwvf.jpg</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-bahan-super-soft-1251-celana-dalam-wanita/ps--SOO-60051-00010?ds=SOO-60051-00010-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73OhY4+eXFWJ8a6ITW30cbFkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00010</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SOO-60051-00004</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Basic Midi Soft &amp; Comfort CD 1228 Katun Mix Adem</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>26754</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7700289/sorex_sorex_celana_dalam_wanita_basic_midi_soft_-_comfort_cd_1228_katun_mix_adem_full02_nnq90z7s.jpg</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-midi-soft-comfort-cd-1228-katun-mix-adem/ps--SOO-60051-00004?ds=SOO-60051-00004-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy/kEEC5/YmxIZLZ3qqgiVystYhaTIOsJmPMG3J3j/VXFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00004</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SOO-60051-00258</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Sorex CD 1230 Basic Katun WARNA</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>21900</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8247465/sorex_sorex_cd_1230_basic_katun_warna_full02_dcmpebfb.jpg</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-1230-basic-katun-warna/ps--SOO-60051-00258?ds=SOO-60051-00258-00003&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goKIIGmm33viDj/+hYQaGlpdxFbcOmnv9bSync5a5kF4+lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00258</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SOO-60051-00467</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sorex Bra Tanpa Kawat Busa Kait 3 Setara Cup B Bra Harian Casual Comfort BH 65001</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>52920</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-12228968/sorex_sorex_bra_tanpa_kawat_busa_kait_3_setara_cup_b_bra_harian_casual_comfort_bh_65001_full02_br99daxr.jpeg</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-busa-kait-3-setara-cup-b-bra-harian-casual-comfort-bh-65001/ps--SOO-60051-00467?ds=SOO-60051-00467-00002&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+iQM9MJM8LcOV1edc2sOTJmjateuiD2bQM1xoGRlYR/JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00467</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SOO-60051-00125</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Sorex Bra Extra Comfort Busa Tanpa Kawat Kait 2 Setara Cup B BH 9850</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>55125</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-18247352/sorex_sorex_bra_extra_comfort_busa_tanpa_kawat_kait_2_setara_cup_b_bh_9850_full01_n9w2qvqq.jpg</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-tanpa-kawat-kait-2-setara-cup-b-bh-9850/ps--SOO-60051-00125?ds=SOO-60051-00125-00009&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faV9hz/XQzSqIR3H2JQztKk1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00125</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SOO-60051-00090</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Bra Sorex Tanpa Kawat Busa Sedang Cup Setara Cup B Casual Comfort 65003 Basic</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>54880</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240575/sorex_bra_sorex_tanpa_kawat_busa_sedang_cup_setara_cup_b_casual_comfort_65003_basic_full02_jqezgsad.jpeg</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/bra-sorex-tanpa-kawat-busa-sedang-cup-setara-cup-b-casual-comfort-65003-basic/ps--SOO-60051-00090?ds=SOO-60051-00090-00005&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJWc8Qg5cJ1du71Plk4CIHX7JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00090</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SOO-60051-00079</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sorex Bra Tanpa Kawat Super Soft Busa Sedang Setara Cup B 17238 BH Harian Simple Polos</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>37240</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240855/sorex_sorex_bra_tanpa_kawat_super_soft_busa_sedang_setara_cup_b_17238_bh_harian_simple_polos_full02_t2k386dq.jpg</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-super-soft-busa-sedang-setara-cup-b-17238-bh-harian-simple-polos/ps--SOO-60051-00079?ds=SOO-60051-00079-00012&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZukJoT8NV2nfifVvZEWfKxk9myWj6eICtISZacjXXHqNFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00079</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SOO-60051-00356</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Sorex CD Wanita Melange Collection 15023 BH 11105, 11106 dan 11115</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>24990</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10634356/sorex_sorex_cd_wanita_melange_collection_15023_bh_11105-_11106_dan_11115_full01_ftwsj520.jpg</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-wanita-melange-collection-15023-bh-11105-11106-dan-11115/ps--SOO-60051-00356?ds=SOO-60051-00356-00002&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4b+oLJqLy/XvDHMcpKt+HY6JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00356</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>SOO-60051-00183</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Sorex Corset ShapeUp Korset Celana Paha Highwaist Shapewear Stagen 13189</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>93100</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8072733/sorex_sorex_corset_shapeup_korset_celana_paha_highwaist_shapewear_stagen_13189_full01_j8iugqbd.jpg</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-corset-shapeup-korset-celana-paha-highwaist-shapewear-stagen-13189/ps--SOO-60051-00183?ds=SOO-60051-00183-00002&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0udwtGfjMBHkzcQHN9WHgcmbE/LLJy7W3VwRB8pUx8xBI+SgwT0bjuIBd7LA3Wgh1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE6NhASY2tUdrki83wetKin+0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00183</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SOO-60051-00157</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Sorex Corset Shapewear Korset Tulang Reguler Size Stagen 1052 Pengecil Perut</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>78400</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7975883/sorex_sorex_corset_shapewear_korset_tulang_reguler_size_stagen_1052_pengecil_perut_full01_q5k3eby6.jpg</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-corset-shapewear-korset-tulang-reguler-size-stagen-1052-pengecil-perut/ps--SOO-60051-00157?ds=SOO-60051-00157-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1v82AvnOYi0a9q7D8u1KCCX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00157</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SOO-60051-00497</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Sorex Mystery Box Special Bra Cantik Kawat/Tanpa Kawat Setara cup B</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>58800</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-13765543/sorex_sorex_mystery_box_special_bra_cantik_kawat-tanpa_kawat__setara_cup_b_full03_h94hmgrl.jpg</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-mystery-box-special-bra-cantik-kawat-tanpa-kawat-setara-cup-b/ps--SOO-60051-00497?ds=SOO-60051-00497-00003&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b9l2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00497</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SOO-60051-00471</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Sorex 17232 Casual Style Bra - Cup B</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>39004</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12493876/sorex_sorex_bra_busa_tanpa_kawat_kait_2_setara_cup_b_bh_harian_casual_style_bra_17232_full01_rx5utll6.jpg</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>5</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-17232-casual-style-bra-cup-b/ps--SOO-60051-00471?ds=SOO-60051-00471-00005&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/eggqgMiupqXxacM5eGPWfSu4IWA9I8NZxGRTYuIBep1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00471</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SOO-60051-00280</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Cute Ribbon Brukat Bunga BT 7002</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>102312</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-8395621/sorex_sorex_lingerie_baju_tidur_premium_satin_look_cute_ribbon_brukat_bunga_bt_7002_full01_pbu0j5i7.jpg</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-cute-ribbon-brukat-bunga-bt-7002/ps--SOO-60051-00280?ds=SOO-60051-00280-00003&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9e2UdUDLB5ofwWKbsz373i7/ZVxa2kFaxpfYcDtaKNmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00280</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>BAG-70027-00459</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Handuk Bayi | Handuk Anak | Sorex Towel 100 X 50</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>69400</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//78/MTA-11021170/sorex_handuk_bayi_-_handuk_anak_-_sorex_towel_100_x_50_-_full01_3d2184d8.jpg</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>5</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/handuk-bayi-handuk-anak-sorex-towel-100-x-50/ps--BAG-70027-00459?ds=BAG-70027-00459-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmDdmyk291xKlcwhaoJiafSwI6rvWM2fME09xrH8SZaRY=&amp;cnc=false&amp;pickupPointCode=PP-3172350&amp;pid1=BAG-70027-00459</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>SOO-60051-00552</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sorex CD wanita Midi Super Soft Adem Lembut CD 15232</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>20580</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-20762030/sorex_sorex_cd_wanita_midi_super_soft_adem_lembut_cd_15232_full02_rfcio72k.jpeg</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>5</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-wanita-midi-super-soft-adem-lembut-cd-15232/ps--SOO-60051-00552?ds=SOO-60051-00552-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2aqponFxzbpAb1YzoA8RzrTwV2wi/WgIu36XET8QmhnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00552</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SOO-60051-00574</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Midi Basic Comfort Chic Adem Lembut Pori-pori CD 1260</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>24255</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-21977111/sorex_sorex_celana_dalam_wanita_midi_basic_comfort_chic_adem_lembut_pori-pori_cd_1260_full02_e9br0e3e.jpg</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>5</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-midi-basic-comfort-chic-adem-lembut-pori-pori-cd-1260/ps--SOO-60051-00574?ds=SOO-60051-00574-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4agIrFT0SP5wuYJuKSH3/MKIivnlZfmSl5m7OY9r1lyLVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00574</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>BAK-24890-01845</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Sorex Stagen 8052 - Slimming Corset Korset Pelangsing</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//91/MTA-8106732/sorex_sorex_stagen_8052_-_slimming_corset_korset_pelangsing_full02_k0q4f928.jpg</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-stagen-8052-slimming-corset-korset-pelangsing/ps--BAK-24890-01845?ds=BAK-24890-01845-00004&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70O/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURovYCHtpJ9m77Mt/1K6pUZq5DmAz1A2e+8nO/jzyY+jFw=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01845&amp;tag=new</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>SOO-60051-00415</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Basic Maxi Super Soft Polos CD 1250</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>22050</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//92/MTA-11457236/sorex_sorex_cd_wanita_basic_maxi_super_soft_polos_cd_1250_full02_h25v300t.jpg</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-maxi-super-soft-polos-cd-1250/ps--SOO-60051-00415?ds=SOO-60051-00415-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+M7n3m+RcH5pfuq34yOwEpJ5DwTCoYZ7pKxqIR1psUuFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00415</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BAK-24890-01842</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Sorex Corset 4431 Korset Pasca Melahirkan</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>73500</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//101/MTA-8077654/sorex_sorex_corset_4431_korset_pasca_melahirkan_full01_ejmfoega.jpg</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>5</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-corset-4431-korset-pasca-melahirkan/ps--BAK-24890-01842?ds=BAK-24890-01842-00004&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9nxsCWE66IToY6H/3TEJYi/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURo6N0sa75uwpeazB0wvCSQYtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01842</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MAM-60109-00113</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CD SOREX 1239 Celana Dalam Wanita</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>14500</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-155195754/sorex_cd-sorex-1239-celana-dalam-wanita_full01.jpg</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>5</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/cd-sorex-1239-celana-dalam-wanita/ps--MAM-60109-00113?ds=MAM-60109-00113-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushK/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3094603&amp;pid1=MAM-60109-00113</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MOI-70007-00855</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Sorex 1250 CD Celana Dalam Wanita - Maxi Panty - Super Soft | BISA PILIH WARNA</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>17127</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-154953940/sorex_sorex_1250_cd_celana_dalam_wanita_-_maxi_panty_-_super_soft_-_bisa_pilih_warna_full01_jm7mqm90.jpg</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>5</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-1250-cd-celana-dalam-wanita-maxi-panty-super-soft-bisa-pilih-warna/ps--MOI-70007-00855?ds=MOI-70007-00855-00020&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+VDd0aEb2mnEzhIWyggW8h5Yw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00855</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>WIO-70008-00368</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>B501 | Celana Dalam Wanita Sorex - Sorex 1239</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>43860</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/102/MTA-145016957/sorex_b501_-_celana_dalam_wanita_sorex_-__sorex_1239_full24_djih1f55.jpg</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>5</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/b501-celana-dalam-wanita-sorex-sorex-1239/ps--WIO-70008-00368?ds=WIO-70008-00368-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7D5EnLGW/JufRUomLn7UXUhvPhx3NWvvw1KpDH3qrKOEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00368</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>WIO-70008-00425</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>B165 - Sorex Camisol Tanktop Tali Lebar Renda Brukat Free Size</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>69360</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/98/MTA-148414570/sorex_b165_-_sorex_camisol_tanktop_tali_lebar_renda_brukat__free_size_full04_fx3z1ejy.jpg</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>5</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/b165-sorex-camisol-tanktop-tali-lebar-renda-brukat-free-size/ps--WIO-70008-00425?ds=WIO-70008-00425-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70NR/YYwHagZb1LHNFss5QDsA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKOsT7WmHaYlyEM/a8kAvWoJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00425</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>WIO-70008-00004</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>B549 | CELANA DALAM WANITA SOREX 1238 SIZE M - XXL</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>17900</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-10235637/sorex_b549_-_celana_dalam_wanita_sorex_1238_size_m_-_xxl_full03_dzx51bne.jpg</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/b549-celana-dalam-wanita-sorex-1238-size-m-xxl/ps--WIO-70008-00004?ds=WIO-70008-00004-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WIIGmm33viDj/+hYQaGlpdnNcxv6ypS7E4ynJ64PnbwlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00004</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MOI-70007-00595</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita - CD 1257 - Mini Panty - Super Soft - M - XXL</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>13464</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-50903517/br-m036969-05088_sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl_full01.jpg</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl/ps--MOI-70007-00595?ds=MOI-70007-00595-00050&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIsG3614SFgY9ax7qJJTMRKNj/JAGGKMjevlfkFhtVG7gFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00595</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>SOO-60051-01043</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Sorex Bra Seamless Tanpa Kawat Kait 2 Cup A-B Busa Tipis BH 65004</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>61600</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-159825520/sorex_sorex_bra_seamless_tanpa_kawat_kait_2_cup_a-b_busa_tipis_bh_65004_full02_ds94bo75.jpg</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>5</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-seamless-tanpa-kawat-kait-2-cup-a-b-busa-tipis-bh-65004/ps--SOO-60051-01043?ds=SOO-60051-01043-00017&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH5nh6wQ6PEr8y5kW/jpBoqaA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01043</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SOO-60051-00995</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Fashion Pria</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>(2 PCS) Sorex Man Lifetyle Boxer Pria Celana Dalam Cowo Adem Trunk LK 38285</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>69000</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/103/MTA-147676135/sorex_-2_pcs-_sorex_man_lifetyle_boxer_pria_celana_dalam_cowo_adem_trunk_lk_38285_full04_futs8yik.jpg</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>5</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/2-pcs-sorex-man-lifetyle-boxer-pria-celana-dalam-cowo-adem-trunk-lk-38285/ps--SOO-60051-00995?ds=SOO-60051-00995-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OT2r7fOYNS0fn24lYkspaBA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00995</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>SOO-60051-00861</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Katun Basic Cutting Midi Polos Shape Up CD 9075</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>36800</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112996396/sorex_sorex_celana_dalam_katun_basic_cutting_midi_polos_shape_up_cd_9075_full02_kdz4sy7w.jpg</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>5</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-katun-basic-cutting-midi-polos-shape-up-cd-9075/ps--SOO-60051-00861?ds=SOO-60051-00861-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFl2MnZWZ1TwAwuODpbBDUVuyoMNIQ+r4z5DJ9oW5/gjVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00861</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>SOO-60051-00769</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Hamil Midi Maternity Panty Fit To L-XXL CD 1148</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>41895</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-46523947/sorex_sorex_celana_dalam_wanita_hamil_midi_maternity_panty_fit_to_l-xxl_cd_1148_full01_r4vls97f.jpg</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>5</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-fit-to-l-xxl-cd-1148/ps--SOO-60051-00769?ds=SOO-60051-00769-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxg8vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00769</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>SOO-60051-00568</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Cute Y 1006</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>20286</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-21173323/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_cute_y_1006_full02_3b2ive6.jpg</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>5</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-cute-y-1006/ps--SOO-60051-00568?ds=SOO-60051-00568-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt0whBxl0y0A/lKFMfuSR+YzJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00568</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>SOO-60051-00634</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Gorgeous Nightgown Brukat BT 7008</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>116424</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-24930571/sorex_sorex_lingerie_lovely_series_baju_tidur_premium_satin_look_gorgeous_nightgown_brukat_bt_7008_full05_uy3lb726.jpg</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>5</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-gorgeous-nightgown-brukat-bt-7008/ps--SOO-60051-00634?ds=SOO-60051-00634-00002&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIORipaXzN/Cai///2rmGlQVrU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00634</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>SOO-60051-00012</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>37044</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709188/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_m8u3eoep.jpg</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>5</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00012?ds=SOO-60051-00012-00002&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOcJUl07vjZHSHboXNQRMjgVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00012</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SOO-60051-00360</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Sorex Bra Kawat Busa Kait 2 Setara Cup B Bra Polos BH 11108</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>65660</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10647376/sorex_sorex_bra_kawat_busa_kait_2_setara_cup_b_bra_polos_bh_11108_full03_j1xc7du0.jpg</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>5</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-kawat-busa-kait-2-setara-cup-b-bra-polos-bh-11108/ps--SOO-60051-00360?ds=SOO-60051-00360-00012&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1R4AsY2zbEuPf0mEleNTFlvp6v2ww3rMJNM2z4cVX8YJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00360</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SOO-60051-00042</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>37044</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7886901/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_g40b4t61.jpg</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>5</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00042?ds=SOO-60051-00042-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOPTsyyIDmFh47MtBFYuGtqVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00042</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>SOO-60051-00061</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Hamil Motif Katun Lembut Maternity Panty CD 1140</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>33320</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7895759/sorex_sorex_celana_dalam_hamil_motif_katun_lembut_maternity_panty_cd_1140_full02_j2ua28na.jpg</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>5</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-hamil-motif-katun-lembut-maternity-panty-cd-1140/ps--SOO-60051-00061?ds=SOO-60051-00061-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HcTUF9bqmkuAK1tOmfkDJzySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE9Nv1SOi0krVWYDfqxiBKGaaf+79sqnkYv3mggmh/hvP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00061</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SOO-60051-00427</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Pita Mungil Miniset Y 1103</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>30870</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-11560139/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_pita_mungil_miniset_y_1103_full01_m3k9nvkz.jpg</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>5</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-pita-mungil-miniset-y-1103/ps--SOO-60051-00427?ds=SOO-60051-00427-00003&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EOacJbj2cXRya+Q0SCnBRoFYw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+GmfylN82DRKT97iLHHfPs20XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00427</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>SOO-60051-00274</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Sorex CD Basic Midi Katun Mix 1179</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>26460</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-8385514/sorex_sorex_cd_basic_midi_katun_mix_1179_full01_f8nmyoy6.jpg</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-midi-katun-mix-1179/ps--SOO-60051-00274?ds=SOO-60051-00274-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPzIOwJf81+FzoG8lPia/LMVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00274</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>SOO-60051-00013</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Sorex Basic Super Soft 1255 Celana Dalam Wanita - Multicolor</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>22785</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709258/sorex_sorex_basic_super_soft_1255_celana_dalam_wanita_-__multicolor_full01_t4dg2gm7.jpg</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-basic-super-soft-1255-celana-dalam-wanita-multicolor/ps--SOO-60051-00013?ds=SOO-60051-00013-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q8xmBGsZhEvfPzU+A1f7vo+JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00013</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>SOO-60051-00295</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Basic Mini Super Soft Lembut Nyaman Dipakai CD 1257</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>19992</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18327672/sorex_sorex_celana_dalam_wanita_basic_mini_super_soft_lembut_nyaman_dipakai_cd_1257_full02_cqx8djmw.jpg</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-mini-super-soft-lembut-nyaman-dipakai-cd-1257/ps--SOO-60051-00295?ds=SOO-60051-00295-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JSivqeb4HprTDVqcGV3PQCI/EEoP3uESdSpv1I9i7XJFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00295</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SOO-60051-00175</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Sorex Bra Extra Comfort Busa Sedang Kawat Kait 3 Setara Cup B BH 3262</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>55125</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7994480/sorex_sorex_bra_extra_comfort_busa_sedang_kawat_kait_3_setara_cup_b_bh_3262_full03_bpk5yj9s.jpeg</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-sedang-kawat-kait-3-setara-cup-b-bh-3262/ps--SOO-60051-00175?ds=SOO-60051-00175-00014&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00175</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>SOO-60051-00010</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Sorex Cd Basic Bahan Super Soft 1251 Celana dalam Wanita</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>23667</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7708515/sorex_sorex_cd_basic_bahan_super_soft_1251_celana_dalam_wanita_full03_t1r1rwvf.jpg</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-bahan-super-soft-1251-celana-dalam-wanita/ps--SOO-60051-00010?ds=SOO-60051-00010-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73OhY4+eXFWJ8a6ITW30cbFkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00010</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SOO-60051-00004</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Basic Midi Soft &amp; Comfort CD 1228 Katun Mix Adem</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>26754</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7700289/sorex_sorex_celana_dalam_wanita_basic_midi_soft_-_comfort_cd_1228_katun_mix_adem_full02_nnq90z7s.jpg</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-midi-soft-comfort-cd-1228-katun-mix-adem/ps--SOO-60051-00004?ds=SOO-60051-00004-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy/kEEC5/YmxIZLZ3qqgiVystYhaTIOsJmPMG3J3j/VXFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00004</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SOO-60051-00258</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Sorex CD 1230 Basic Katun WARNA</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>21900</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8247465/sorex_sorex_cd_1230_basic_katun_warna_full02_dcmpebfb.jpg</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-1230-basic-katun-warna/ps--SOO-60051-00258?ds=SOO-60051-00258-00003&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goKIIGmm33viDj/+hYQaGlpdxFbcOmnv9bSync5a5kF4+lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00258</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>SOO-60051-00467</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Sorex Bra Tanpa Kawat Busa Kait 3 Setara Cup B Bra Harian Casual Comfort BH 65001</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>52920</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-12228968/sorex_sorex_bra_tanpa_kawat_busa_kait_3_setara_cup_b_bra_harian_casual_comfort_bh_65001_full02_br99daxr.jpeg</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-busa-kait-3-setara-cup-b-bra-harian-casual-comfort-bh-65001/ps--SOO-60051-00467?ds=SOO-60051-00467-00002&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+iQM9MJM8LcOV1edc2sOTJmjateuiD2bQM1xoGRlYR/JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00467</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>SOO-60051-00125</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Sorex Bra Extra Comfort Busa Tanpa Kawat Kait 2 Setara Cup B BH 9850</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>55125</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-18247352/sorex_sorex_bra_extra_comfort_busa_tanpa_kawat_kait_2_setara_cup_b_bh_9850_full01_n9w2qvqq.jpg</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-tanpa-kawat-kait-2-setara-cup-b-bh-9850/ps--SOO-60051-00125?ds=SOO-60051-00125-00009&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faV9hz/XQzSqIR3H2JQztKk1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00125</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>SOO-60051-00090</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Bra Sorex Tanpa Kawat Busa Sedang Cup Setara Cup B Casual Comfort 65003 Basic</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>54880</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240575/sorex_bra_sorex_tanpa_kawat_busa_sedang_cup_setara_cup_b_casual_comfort_65003_basic_full02_jqezgsad.jpeg</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/bra-sorex-tanpa-kawat-busa-sedang-cup-setara-cup-b-casual-comfort-65003-basic/ps--SOO-60051-00090?ds=SOO-60051-00090-00005&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJWc8Qg5cJ1du71Plk4CIHX7JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00090</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SOO-60051-00079</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Sorex Bra Tanpa Kawat Super Soft Busa Sedang Setara Cup B 17238 BH Harian Simple Polos</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>37240</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240855/sorex_sorex_bra_tanpa_kawat_super_soft_busa_sedang_setara_cup_b_17238_bh_harian_simple_polos_full02_t2k386dq.jpg</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-super-soft-busa-sedang-setara-cup-b-17238-bh-harian-simple-polos/ps--SOO-60051-00079?ds=SOO-60051-00079-00012&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZukJoT8NV2nfifVvZEWfKxk9myWj6eICtISZacjXXHqNFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00079</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>SOO-60051-00356</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Sorex CD Wanita Melange Collection 15023 BH 11105, 11106 dan 11115</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>24990</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10634356/sorex_sorex_cd_wanita_melange_collection_15023_bh_11105-_11106_dan_11115_full01_ftwsj520.jpg</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-wanita-melange-collection-15023-bh-11105-11106-dan-11115/ps--SOO-60051-00356?ds=SOO-60051-00356-00002&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4b+oLJqLy/XvDHMcpKt+HY6JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00356</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>SOO-60051-00183</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Sorex Corset ShapeUp Korset Celana Paha Highwaist Shapewear Stagen 13189</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>93100</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8072733/sorex_sorex_corset_shapeup_korset_celana_paha_highwaist_shapewear_stagen_13189_full01_j8iugqbd.jpg</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-corset-shapeup-korset-celana-paha-highwaist-shapewear-stagen-13189/ps--SOO-60051-00183?ds=SOO-60051-00183-00002&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0udwtGfjMBHkzcQHN9WHgcmbE/LLJy7W3VwRB8pUx8xBI+SgwT0bjuIBd7LA3Wgh1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE6NhASY2tUdrki83wetKin+0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00183</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>SOO-60051-00157</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Sorex Corset Shapewear Korset Tulang Reguler Size Stagen 1052 Pengecil Perut</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>78400</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7975883/sorex_sorex_corset_shapewear_korset_tulang_reguler_size_stagen_1052_pengecil_perut_full01_q5k3eby6.jpg</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-corset-shapewear-korset-tulang-reguler-size-stagen-1052-pengecil-perut/ps--SOO-60051-00157?ds=SOO-60051-00157-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1v82AvnOYi0a9q7D8u1KCCX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00157</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>SOO-60051-00497</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Sorex Mystery Box Special Bra Cantik Kawat/Tanpa Kawat Setara cup B</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>58800</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-13765543/sorex_sorex_mystery_box_special_bra_cantik_kawat-tanpa_kawat__setara_cup_b_full03_h94hmgrl.jpg</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-mystery-box-special-bra-cantik-kawat-tanpa-kawat-setara-cup-b/ps--SOO-60051-00497?ds=SOO-60051-00497-00003&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b9l2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00497</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>SOO-60051-00471</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Sorex 17232 Casual Style Bra - Cup B</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>39004</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12493876/sorex_sorex_bra_busa_tanpa_kawat_kait_2_setara_cup_b_bh_harian_casual_style_bra_17232_full01_rx5utll6.jpg</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>5</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-17232-casual-style-bra-cup-b/ps--SOO-60051-00471?ds=SOO-60051-00471-00005&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/eggqgMiupqXxacM5eGPWfSu4IWA9I8NZxGRTYuIBep1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00471</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>SOO-60051-00280</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Cute Ribbon Brukat Bunga BT 7002</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>102312</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-8395621/sorex_sorex_lingerie_baju_tidur_premium_satin_look_cute_ribbon_brukat_bunga_bt_7002_full01_pbu0j5i7.jpg</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>4</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-cute-ribbon-brukat-bunga-bt-7002/ps--SOO-60051-00280?ds=SOO-60051-00280-00003&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9e2UdUDLB5ofwWKbsz373i7/ZVxa2kFaxpfYcDtaKNmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00280</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>BAG-70027-00459</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Handuk Bayi | Handuk Anak | Sorex Towel 100 X 50</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>69400</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//78/MTA-11021170/sorex_handuk_bayi_-_handuk_anak_-_sorex_towel_100_x_50_-_full01_3d2184d8.jpg</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>5</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/handuk-bayi-handuk-anak-sorex-towel-100-x-50/ps--BAG-70027-00459?ds=BAG-70027-00459-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmDdmyk291xKlcwhaoJiafSwI6rvWM2fME09xrH8SZaRY=&amp;cnc=false&amp;pickupPointCode=PP-3172350&amp;pid1=BAG-70027-00459</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>SOO-60051-00552</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Sorex CD wanita Midi Super Soft Adem Lembut CD 15232</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>20580</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-20762030/sorex_sorex_cd_wanita_midi_super_soft_adem_lembut_cd_15232_full02_rfcio72k.jpeg</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>5</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-wanita-midi-super-soft-adem-lembut-cd-15232/ps--SOO-60051-00552?ds=SOO-60051-00552-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2aqponFxzbpAb1YzoA8RzrTwV2wi/WgIu36XET8QmhnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00552</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>SOO-60051-00574</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Midi Basic Comfort Chic Adem Lembut Pori-pori CD 1260</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>24255</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-21977111/sorex_sorex_celana_dalam_wanita_midi_basic_comfort_chic_adem_lembut_pori-pori_cd_1260_full02_e9br0e3e.jpg</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>5</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-midi-basic-comfort-chic-adem-lembut-pori-pori-cd-1260/ps--SOO-60051-00574?ds=SOO-60051-00574-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4agIrFT0SP5wuYJuKSH3/MKIivnlZfmSl5m7OY9r1lyLVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00574</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>BAK-24890-01845</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sorex Stagen 8052 - Slimming Corset Korset Pelangsing</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//91/MTA-8106732/sorex_sorex_stagen_8052_-_slimming_corset_korset_pelangsing_full02_k0q4f928.jpg</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-stagen-8052-slimming-corset-korset-pelangsing/ps--BAK-24890-01845?ds=BAK-24890-01845-00004&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70O/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURovYCHtpJ9m77Mt/1K6pUZq5DmAz1A2e+8nO/jzyY+jFw=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01845&amp;tag=new</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>SOO-60051-00415</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Basic Maxi Super Soft Polos CD 1250</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>22050</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//92/MTA-11457236/sorex_sorex_cd_wanita_basic_maxi_super_soft_polos_cd_1250_full02_h25v300t.jpg</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-maxi-super-soft-polos-cd-1250/ps--SOO-60051-00415?ds=SOO-60051-00415-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+M7n3m+RcH5pfuq34yOwEpJ5DwTCoYZ7pKxqIR1psUuFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00415</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>BAK-24890-01842</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Sorex Corset 4431 Korset Pasca Melahirkan</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>73500</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//101/MTA-8077654/sorex_sorex_corset_4431_korset_pasca_melahirkan_full01_ejmfoega.jpg</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>5</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-corset-4431-korset-pasca-melahirkan/ps--BAK-24890-01842?ds=BAK-24890-01842-00004&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9nxsCWE66IToY6H/3TEJYi/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURo6N0sa75uwpeazB0wvCSQYtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01842</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>MAM-60109-00113</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>CD SOREX 1239 Celana Dalam Wanita</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>14500</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-155195754/sorex_cd-sorex-1239-celana-dalam-wanita_full01.jpg</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>5</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/cd-sorex-1239-celana-dalam-wanita/ps--MAM-60109-00113?ds=MAM-60109-00113-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushK/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3094603&amp;pid1=MAM-60109-00113</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>MOI-70007-00855</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Sorex 1250 CD Celana Dalam Wanita - Maxi Panty - Super Soft | BISA PILIH WARNA</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>17127</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-154953940/sorex_sorex_1250_cd_celana_dalam_wanita_-_maxi_panty_-_super_soft_-_bisa_pilih_warna_full01_jm7mqm90.jpg</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>5</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-1250-cd-celana-dalam-wanita-maxi-panty-super-soft-bisa-pilih-warna/ps--MOI-70007-00855?ds=MOI-70007-00855-00020&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+VDd0aEb2mnEzhIWyggW8h5Yw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00855</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>WIO-70008-00368</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>B501 | Celana Dalam Wanita Sorex - Sorex 1239</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>43860</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/102/MTA-145016957/sorex_b501_-_celana_dalam_wanita_sorex_-__sorex_1239_full24_djih1f55.jpg</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>5</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/b501-celana-dalam-wanita-sorex-sorex-1239/ps--WIO-70008-00368?ds=WIO-70008-00368-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7D5EnLGW/JufRUomLn7UXUhvPhx3NWvvw1KpDH3qrKOEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00368</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>WIO-70008-00425</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>B165 - Sorex Camisol Tanktop Tali Lebar Renda Brukat Free Size</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>69360</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/98/MTA-148414570/sorex_b165_-_sorex_camisol_tanktop_tali_lebar_renda_brukat__free_size_full04_fx3z1ejy.jpg</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>5</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/b165-sorex-camisol-tanktop-tali-lebar-renda-brukat-free-size/ps--WIO-70008-00425?ds=WIO-70008-00425-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70NR/YYwHagZb1LHNFss5QDsA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKOsT7WmHaYlyEM/a8kAvWoJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00425</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>WIO-70008-00004</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>B549 | CELANA DALAM WANITA SOREX 1238 SIZE M - XXL</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>17900</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-10235637/sorex_b549_-_celana_dalam_wanita_sorex_1238_size_m_-_xxl_full03_dzx51bne.jpg</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/b549-celana-dalam-wanita-sorex-1238-size-m-xxl/ps--WIO-70008-00004?ds=WIO-70008-00004-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WIIGmm33viDj/+hYQaGlpdnNcxv6ypS7E4ynJ64PnbwlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00004</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>MOI-70007-00595</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita - CD 1257 - Mini Panty - Super Soft - M - XXL</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>13464</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-50903517/br-m036969-05088_sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl_full01.jpg</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl/ps--MOI-70007-00595?ds=MOI-70007-00595-00050&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIsG3614SFgY9ax7qJJTMRKNj/JAGGKMjevlfkFhtVG7gFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00595</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>SOO-60051-01043</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Sorex Bra Seamless Tanpa Kawat Kait 2 Cup A-B Busa Tipis BH 65004</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>61600</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-159825520/sorex_sorex_bra_seamless_tanpa_kawat_kait_2_cup_a-b_busa_tipis_bh_65004_full02_ds94bo75.jpg</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>5</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-seamless-tanpa-kawat-kait-2-cup-a-b-busa-tipis-bh-65004/ps--SOO-60051-01043?ds=SOO-60051-01043-00017&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH5nh6wQ6PEr8y5kW/jpBoqaA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01043</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>SOO-60051-00995</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Fashion Pria</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>(2 PCS) Sorex Man Lifetyle Boxer Pria Celana Dalam Cowo Adem Trunk LK 38285</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>69000</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/103/MTA-147676135/sorex_-2_pcs-_sorex_man_lifetyle_boxer_pria_celana_dalam_cowo_adem_trunk_lk_38285_full04_futs8yik.jpg</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>5</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/2-pcs-sorex-man-lifetyle-boxer-pria-celana-dalam-cowo-adem-trunk-lk-38285/ps--SOO-60051-00995?ds=SOO-60051-00995-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OT2r7fOYNS0fn24lYkspaBA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00995</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>SOO-60051-00861</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Katun Basic Cutting Midi Polos Shape Up CD 9075</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>36800</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112996396/sorex_sorex_celana_dalam_katun_basic_cutting_midi_polos_shape_up_cd_9075_full02_kdz4sy7w.jpg</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>5</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-katun-basic-cutting-midi-polos-shape-up-cd-9075/ps--SOO-60051-00861?ds=SOO-60051-00861-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFl2MnZWZ1TwAwuODpbBDUVuyoMNIQ+r4z5DJ9oW5/gjVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00861</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SOO-60051-00769</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Hamil Midi Maternity Panty Fit To L-XXL CD 1148</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>41895</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-46523947/sorex_sorex_celana_dalam_wanita_hamil_midi_maternity_panty_fit_to_l-xxl_cd_1148_full01_r4vls97f.jpg</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>5</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-fit-to-l-xxl-cd-1148/ps--SOO-60051-00769?ds=SOO-60051-00769-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxg8vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00769</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>SOO-60051-00568</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Cute Y 1006</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>20286</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-21173323/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_cute_y_1006_full02_3b2ive6.jpg</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>5</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-cute-y-1006/ps--SOO-60051-00568?ds=SOO-60051-00568-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt0whBxl0y0A/lKFMfuSR+YzJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00568</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>SOO-60051-00634</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Gorgeous Nightgown Brukat BT 7008</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>116424</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-24930571/sorex_sorex_lingerie_lovely_series_baju_tidur_premium_satin_look_gorgeous_nightgown_brukat_bt_7008_full05_uy3lb726.jpg</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>5</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-gorgeous-nightgown-brukat-bt-7008/ps--SOO-60051-00634?ds=SOO-60051-00634-00002&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIORipaXzN/Cai///2rmGlQVrU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00634</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>SOO-60051-00012</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>37044</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709188/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_m8u3eoep.jpg</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>5</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00012?ds=SOO-60051-00012-00002&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOcJUl07vjZHSHboXNQRMjgVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00012</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>SOO-60051-00360</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Sorex Bra Kawat Busa Kait 2 Setara Cup B Bra Polos BH 11108</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>65660</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10647376/sorex_sorex_bra_kawat_busa_kait_2_setara_cup_b_bra_polos_bh_11108_full03_j1xc7du0.jpg</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>5</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-kawat-busa-kait-2-setara-cup-b-bra-polos-bh-11108/ps--SOO-60051-00360?ds=SOO-60051-00360-00012&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1R4AsY2zbEuPf0mEleNTFlvp6v2ww3rMJNM2z4cVX8YJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00360</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>SOO-60051-00042</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>37044</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7886901/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_g40b4t61.jpg</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>5</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00042?ds=SOO-60051-00042-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOPTsyyIDmFh47MtBFYuGtqVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00042</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>SOO-60051-00061</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Hamil Motif Katun Lembut Maternity Panty CD 1140</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>33320</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7895759/sorex_sorex_celana_dalam_hamil_motif_katun_lembut_maternity_panty_cd_1140_full02_j2ua28na.jpg</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>5</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-hamil-motif-katun-lembut-maternity-panty-cd-1140/ps--SOO-60051-00061?ds=SOO-60051-00061-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HcTUF9bqmkuAK1tOmfkDJzySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE9Nv1SOi0krVWYDfqxiBKGaaf+79sqnkYv3mggmh/hvP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00061</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>SOO-60051-00427</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Pita Mungil Miniset Y 1103</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>30870</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-11560139/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_pita_mungil_miniset_y_1103_full01_m3k9nvkz.jpg</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>5</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-pita-mungil-miniset-y-1103/ps--SOO-60051-00427?ds=SOO-60051-00427-00003&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EOacJbj2cXRya+Q0SCnBRoFYw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+GmfylN82DRKT97iLHHfPs20XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00427</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>SOO-60051-00274</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Sorex CD Basic Midi Katun Mix 1179</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>26460</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-8385514/sorex_sorex_cd_basic_midi_katun_mix_1179_full01_f8nmyoy6.jpg</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-midi-katun-mix-1179/ps--SOO-60051-00274?ds=SOO-60051-00274-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPzIOwJf81+FzoG8lPia/LMVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00274</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>SOO-60051-00013</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Sorex Basic Super Soft 1255 Celana Dalam Wanita - Multicolor</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>22785</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709258/sorex_sorex_basic_super_soft_1255_celana_dalam_wanita_-__multicolor_full01_t4dg2gm7.jpg</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-basic-super-soft-1255-celana-dalam-wanita-multicolor/ps--SOO-60051-00013?ds=SOO-60051-00013-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q8xmBGsZhEvfPzU+A1f7vo+JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00013</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>SOO-60051-00295</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Basic Mini Super Soft Lembut Nyaman Dipakai CD 1257</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>19992</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18327672/sorex_sorex_celana_dalam_wanita_basic_mini_super_soft_lembut_nyaman_dipakai_cd_1257_full02_cqx8djmw.jpg</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-mini-super-soft-lembut-nyaman-dipakai-cd-1257/ps--SOO-60051-00295?ds=SOO-60051-00295-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JSivqeb4HprTDVqcGV3PQCI/EEoP3uESdSpv1I9i7XJFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00295</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>SOO-60051-00175</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Sorex Bra Extra Comfort Busa Sedang Kawat Kait 3 Setara Cup B BH 3262</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>55125</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7994480/sorex_sorex_bra_extra_comfort_busa_sedang_kawat_kait_3_setara_cup_b_bh_3262_full03_bpk5yj9s.jpeg</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-sedang-kawat-kait-3-setara-cup-b-bh-3262/ps--SOO-60051-00175?ds=SOO-60051-00175-00014&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00175</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>SOO-60051-00010</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Sorex Cd Basic Bahan Super Soft 1251 Celana dalam Wanita</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>23667</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7708515/sorex_sorex_cd_basic_bahan_super_soft_1251_celana_dalam_wanita_full03_t1r1rwvf.jpg</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-bahan-super-soft-1251-celana-dalam-wanita/ps--SOO-60051-00010?ds=SOO-60051-00010-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73OhY4+eXFWJ8a6ITW30cbFkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00010</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SOO-60051-00004</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Basic Midi Soft &amp; Comfort CD 1228 Katun Mix Adem</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>26754</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7700289/sorex_sorex_celana_dalam_wanita_basic_midi_soft_-_comfort_cd_1228_katun_mix_adem_full02_nnq90z7s.jpg</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-midi-soft-comfort-cd-1228-katun-mix-adem/ps--SOO-60051-00004?ds=SOO-60051-00004-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy/kEEC5/YmxIZLZ3qqgiVystYhaTIOsJmPMG3J3j/VXFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00004</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SOO-60051-00258</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Sorex CD 1230 Basic Katun WARNA</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>21900</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8247465/sorex_sorex_cd_1230_basic_katun_warna_full02_dcmpebfb.jpg</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-1230-basic-katun-warna/ps--SOO-60051-00258?ds=SOO-60051-00258-00003&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goKIIGmm33viDj/+hYQaGlpdxFbcOmnv9bSync5a5kF4+lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00258</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>SOO-60051-00467</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Sorex Bra Tanpa Kawat Busa Kait 3 Setara Cup B Bra Harian Casual Comfort BH 65001</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>52920</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-12228968/sorex_sorex_bra_tanpa_kawat_busa_kait_3_setara_cup_b_bra_harian_casual_comfort_bh_65001_full02_br99daxr.jpeg</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-busa-kait-3-setara-cup-b-bra-harian-casual-comfort-bh-65001/ps--SOO-60051-00467?ds=SOO-60051-00467-00002&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+iQM9MJM8LcOV1edc2sOTJmjateuiD2bQM1xoGRlYR/JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00467</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>SOO-60051-00125</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Sorex Bra Extra Comfort Busa Tanpa Kawat Kait 2 Setara Cup B BH 9850</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>55125</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-18247352/sorex_sorex_bra_extra_comfort_busa_tanpa_kawat_kait_2_setara_cup_b_bh_9850_full01_n9w2qvqq.jpg</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-tanpa-kawat-kait-2-setara-cup-b-bh-9850/ps--SOO-60051-00125?ds=SOO-60051-00125-00009&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faV9hz/XQzSqIR3H2JQztKk1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00125</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>SOO-60051-00090</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Bra Sorex Tanpa Kawat Busa Sedang Cup Setara Cup B Casual Comfort 65003 Basic</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>54880</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240575/sorex_bra_sorex_tanpa_kawat_busa_sedang_cup_setara_cup_b_casual_comfort_65003_basic_full02_jqezgsad.jpeg</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/bra-sorex-tanpa-kawat-busa-sedang-cup-setara-cup-b-casual-comfort-65003-basic/ps--SOO-60051-00090?ds=SOO-60051-00090-00005&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJWc8Qg5cJ1du71Plk4CIHX7JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00090</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>SOO-60051-00079</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Sorex Bra Tanpa Kawat Super Soft Busa Sedang Setara Cup B 17238 BH Harian Simple Polos</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>37240</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240855/sorex_sorex_bra_tanpa_kawat_super_soft_busa_sedang_setara_cup_b_17238_bh_harian_simple_polos_full02_t2k386dq.jpg</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-super-soft-busa-sedang-setara-cup-b-17238-bh-harian-simple-polos/ps--SOO-60051-00079?ds=SOO-60051-00079-00012&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZukJoT8NV2nfifVvZEWfKxk9myWj6eICtISZacjXXHqNFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00079</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SOO-60051-00356</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Sorex CD Wanita Melange Collection 15023 BH 11105, 11106 dan 11115</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>24990</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10634356/sorex_sorex_cd_wanita_melange_collection_15023_bh_11105-_11106_dan_11115_full01_ftwsj520.jpg</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-wanita-melange-collection-15023-bh-11105-11106-dan-11115/ps--SOO-60051-00356?ds=SOO-60051-00356-00002&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4b+oLJqLy/XvDHMcpKt+HY6JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00356</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>SOO-60051-00183</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Sorex Corset ShapeUp Korset Celana Paha Highwaist Shapewear Stagen 13189</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>93100</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8072733/sorex_sorex_corset_shapeup_korset_celana_paha_highwaist_shapewear_stagen_13189_full01_j8iugqbd.jpg</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-corset-shapeup-korset-celana-paha-highwaist-shapewear-stagen-13189/ps--SOO-60051-00183?ds=SOO-60051-00183-00002&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0udwtGfjMBHkzcQHN9WHgcmbE/LLJy7W3VwRB8pUx8xBI+SgwT0bjuIBd7LA3Wgh1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE6NhASY2tUdrki83wetKin+0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00183</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>SOO-60051-00157</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Sorex Corset Shapewear Korset Tulang Reguler Size Stagen 1052 Pengecil Perut</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>78400</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7975883/sorex_sorex_corset_shapewear_korset_tulang_reguler_size_stagen_1052_pengecil_perut_full01_q5k3eby6.jpg</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-corset-shapewear-korset-tulang-reguler-size-stagen-1052-pengecil-perut/ps--SOO-60051-00157?ds=SOO-60051-00157-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1v82AvnOYi0a9q7D8u1KCCX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00157</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>SOO-60051-00497</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Sorex Mystery Box Special Bra Cantik Kawat/Tanpa Kawat Setara cup B</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>58800</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-13765543/sorex_sorex_mystery_box_special_bra_cantik_kawat-tanpa_kawat__setara_cup_b_full03_h94hmgrl.jpg</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-mystery-box-special-bra-cantik-kawat-tanpa-kawat-setara-cup-b/ps--SOO-60051-00497?ds=SOO-60051-00497-00003&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b9l2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00497</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>SOO-60051-00471</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Sorex 17232 Casual Style Bra - Cup B</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>39004</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12493876/sorex_sorex_bra_busa_tanpa_kawat_kait_2_setara_cup_b_bh_harian_casual_style_bra_17232_full01_rx5utll6.jpg</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>5</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-17232-casual-style-bra-cup-b/ps--SOO-60051-00471?ds=SOO-60051-00471-00005&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/eggqgMiupqXxacM5eGPWfSu4IWA9I8NZxGRTYuIBep1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00471</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>SOO-60051-00280</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Cute Ribbon Brukat Bunga BT 7002</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>102312</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-8395621/sorex_sorex_lingerie_baju_tidur_premium_satin_look_cute_ribbon_brukat_bunga_bt_7002_full01_pbu0j5i7.jpg</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>4</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-cute-ribbon-brukat-bunga-bt-7002/ps--SOO-60051-00280?ds=SOO-60051-00280-00003&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9e2UdUDLB5ofwWKbsz373i7/ZVxa2kFaxpfYcDtaKNmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00280</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>BAG-70027-00459</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Handuk Bayi | Handuk Anak | Sorex Towel 100 X 50</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>69400</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//78/MTA-11021170/sorex_handuk_bayi_-_handuk_anak_-_sorex_towel_100_x_50_-_full01_3d2184d8.jpg</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>5</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/handuk-bayi-handuk-anak-sorex-towel-100-x-50/ps--BAG-70027-00459?ds=BAG-70027-00459-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmDdmyk291xKlcwhaoJiafSwI6rvWM2fME09xrH8SZaRY=&amp;cnc=false&amp;pickupPointCode=PP-3172350&amp;pid1=BAG-70027-00459</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>SOO-60051-00552</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Sorex CD wanita Midi Super Soft Adem Lembut CD 15232</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>20580</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-20762030/sorex_sorex_cd_wanita_midi_super_soft_adem_lembut_cd_15232_full02_rfcio72k.jpeg</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>5</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-wanita-midi-super-soft-adem-lembut-cd-15232/ps--SOO-60051-00552?ds=SOO-60051-00552-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2aqponFxzbpAb1YzoA8RzrTwV2wi/WgIu36XET8QmhnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00552</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>SOO-60051-00574</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Midi Basic Comfort Chic Adem Lembut Pori-pori CD 1260</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>24255</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-21977111/sorex_sorex_celana_dalam_wanita_midi_basic_comfort_chic_adem_lembut_pori-pori_cd_1260_full02_e9br0e3e.jpg</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>5</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-midi-basic-comfort-chic-adem-lembut-pori-pori-cd-1260/ps--SOO-60051-00574?ds=SOO-60051-00574-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4agIrFT0SP5wuYJuKSH3/MKIivnlZfmSl5m7OY9r1lyLVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00574</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>BAK-24890-01845</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Sorex Stagen 8052 - Slimming Corset Korset Pelangsing</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//91/MTA-8106732/sorex_sorex_stagen_8052_-_slimming_corset_korset_pelangsing_full02_k0q4f928.jpg</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-stagen-8052-slimming-corset-korset-pelangsing/ps--BAK-24890-01845?ds=BAK-24890-01845-00004&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70O/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURovYCHtpJ9m77Mt/1K6pUZq5DmAz1A2e+8nO/jzyY+jFw=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01845&amp;tag=new</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>SOO-60051-00415</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Basic Maxi Super Soft Polos CD 1250</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>22050</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//92/MTA-11457236/sorex_sorex_cd_wanita_basic_maxi_super_soft_polos_cd_1250_full02_h25v300t.jpg</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-maxi-super-soft-polos-cd-1250/ps--SOO-60051-00415?ds=SOO-60051-00415-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+M7n3m+RcH5pfuq34yOwEpJ5DwTCoYZ7pKxqIR1psUuFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00415</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>BAK-24890-01842</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Sorex Corset 4431 Korset Pasca Melahirkan</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>73500</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//101/MTA-8077654/sorex_sorex_corset_4431_korset_pasca_melahirkan_full01_ejmfoega.jpg</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>5</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-corset-4431-korset-pasca-melahirkan/ps--BAK-24890-01842?ds=BAK-24890-01842-00004&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9nxsCWE66IToY6H/3TEJYi/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURo6N0sa75uwpeazB0wvCSQYtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01842</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>MAM-60109-00113</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>CD SOREX 1239 Celana Dalam Wanita</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>14500</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-155195754/sorex_cd-sorex-1239-celana-dalam-wanita_full01.jpg</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>5</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/cd-sorex-1239-celana-dalam-wanita/ps--MAM-60109-00113?ds=MAM-60109-00113-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushK/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3094603&amp;pid1=MAM-60109-00113</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>MOI-70007-00855</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Sorex 1250 CD Celana Dalam Wanita - Maxi Panty - Super Soft | BISA PILIH WARNA</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>17127</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-154953940/sorex_sorex_1250_cd_celana_dalam_wanita_-_maxi_panty_-_super_soft_-_bisa_pilih_warna_full01_jm7mqm90.jpg</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>5</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-1250-cd-celana-dalam-wanita-maxi-panty-super-soft-bisa-pilih-warna/ps--MOI-70007-00855?ds=MOI-70007-00855-00020&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+VDd0aEb2mnEzhIWyggW8h5Yw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00855</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>WIO-70008-00368</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>B501 | Celana Dalam Wanita Sorex - Sorex 1239</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>43860</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/102/MTA-145016957/sorex_b501_-_celana_dalam_wanita_sorex_-__sorex_1239_full24_djih1f55.jpg</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>5</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/b501-celana-dalam-wanita-sorex-sorex-1239/ps--WIO-70008-00368?ds=WIO-70008-00368-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7D5EnLGW/JufRUomLn7UXUhvPhx3NWvvw1KpDH3qrKOEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00368</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>WIO-70008-00425</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>B165 - Sorex Camisol Tanktop Tali Lebar Renda Brukat Free Size</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>69360</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/98/MTA-148414570/sorex_b165_-_sorex_camisol_tanktop_tali_lebar_renda_brukat__free_size_full04_fx3z1ejy.jpg</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>5</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/b165-sorex-camisol-tanktop-tali-lebar-renda-brukat-free-size/ps--WIO-70008-00425?ds=WIO-70008-00425-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70NR/YYwHagZb1LHNFss5QDsA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKOsT7WmHaYlyEM/a8kAvWoJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00425</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>WIO-70008-00004</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>B549 | CELANA DALAM WANITA SOREX 1238 SIZE M - XXL</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>17900</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-10235637/sorex_b549_-_celana_dalam_wanita_sorex_1238_size_m_-_xxl_full03_dzx51bne.jpg</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/b549-celana-dalam-wanita-sorex-1238-size-m-xxl/ps--WIO-70008-00004?ds=WIO-70008-00004-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WIIGmm33viDj/+hYQaGlpdnNcxv6ypS7E4ynJ64PnbwlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00004</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>MOI-70007-00595</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita - CD 1257 - Mini Panty - Super Soft - M - XXL</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>13464</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-50903517/br-m036969-05088_sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl_full01.jpg</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl/ps--MOI-70007-00595?ds=MOI-70007-00595-00050&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIsG3614SFgY9ax7qJJTMRKNj/JAGGKMjevlfkFhtVG7gFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00595</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>SOO-60051-01043</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Sorex Bra Seamless Tanpa Kawat Kait 2 Cup A-B Busa Tipis BH 65004</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>61600</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-159825520/sorex_sorex_bra_seamless_tanpa_kawat_kait_2_cup_a-b_busa_tipis_bh_65004_full02_ds94bo75.jpg</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>5</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-seamless-tanpa-kawat-kait-2-cup-a-b-busa-tipis-bh-65004/ps--SOO-60051-01043?ds=SOO-60051-01043-00017&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH5nh6wQ6PEr8y5kW/jpBoqaA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01043</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>SOO-60051-00995</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Fashion Pria</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>(2 PCS) Sorex Man Lifetyle Boxer Pria Celana Dalam Cowo Adem Trunk LK 38285</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>69000</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/103/MTA-147676135/sorex_-2_pcs-_sorex_man_lifetyle_boxer_pria_celana_dalam_cowo_adem_trunk_lk_38285_full04_futs8yik.jpg</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>5</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/2-pcs-sorex-man-lifetyle-boxer-pria-celana-dalam-cowo-adem-trunk-lk-38285/ps--SOO-60051-00995?ds=SOO-60051-00995-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OT2r7fOYNS0fn24lYkspaBA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00995</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>SOO-60051-00861</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Katun Basic Cutting Midi Polos Shape Up CD 9075</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>36800</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112996396/sorex_sorex_celana_dalam_katun_basic_cutting_midi_polos_shape_up_cd_9075_full02_kdz4sy7w.jpg</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>5</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-katun-basic-cutting-midi-polos-shape-up-cd-9075/ps--SOO-60051-00861?ds=SOO-60051-00861-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFl2MnZWZ1TwAwuODpbBDUVuyoMNIQ+r4z5DJ9oW5/gjVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00861</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SOO-60051-00769</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Hamil Midi Maternity Panty Fit To L-XXL CD 1148</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>41895</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-46523947/sorex_sorex_celana_dalam_wanita_hamil_midi_maternity_panty_fit_to_l-xxl_cd_1148_full01_r4vls97f.jpg</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>5</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-fit-to-l-xxl-cd-1148/ps--SOO-60051-00769?ds=SOO-60051-00769-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxg8vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00769</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>SOO-60051-00568</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Cute Y 1006</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>20286</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-21173323/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_cute_y_1006_full02_3b2ive6.jpg</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>5</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-cute-y-1006/ps--SOO-60051-00568?ds=SOO-60051-00568-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt0whBxl0y0A/lKFMfuSR+YzJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00568</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>SOO-60051-00634</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Gorgeous Nightgown Brukat BT 7008</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>116424</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-24930571/sorex_sorex_lingerie_lovely_series_baju_tidur_premium_satin_look_gorgeous_nightgown_brukat_bt_7008_full05_uy3lb726.jpg</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>5</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-gorgeous-nightgown-brukat-bt-7008/ps--SOO-60051-00634?ds=SOO-60051-00634-00002&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIORipaXzN/Cai///2rmGlQVrU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00634</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>SOO-60051-00012</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>37044</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709188/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_m8u3eoep.jpg</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>5</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00012?ds=SOO-60051-00012-00002&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOcJUl07vjZHSHboXNQRMjgVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00012</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>SOO-60051-00042</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>37044</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7886901/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_g40b4t61.jpg</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>5</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00042?ds=SOO-60051-00042-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOPTsyyIDmFh47MtBFYuGtqVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00042</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>SOO-60051-00360</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Sorex Bra Kawat Busa Kait 2 Setara Cup B Bra Polos BH 11108</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>65660</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10647376/sorex_sorex_bra_kawat_busa_kait_2_setara_cup_b_bra_polos_bh_11108_full03_j1xc7du0.jpg</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>5</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-kawat-busa-kait-2-setara-cup-b-bra-polos-bh-11108/ps--SOO-60051-00360?ds=SOO-60051-00360-00012&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1R4AsY2zbEuPf0mEleNTFlvp6v2ww3rMJNM2z4cVX8YJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00360</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SOO-60051-00061</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Hamil Motif Katun Lembut Maternity Panty CD 1140</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>33320</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7895759/sorex_sorex_celana_dalam_hamil_motif_katun_lembut_maternity_panty_cd_1140_full02_j2ua28na.jpg</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>5</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-hamil-motif-katun-lembut-maternity-panty-cd-1140/ps--SOO-60051-00061?ds=SOO-60051-00061-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HcTUF9bqmkuAK1tOmfkDJzySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE9Nv1SOi0krVWYDfqxiBKGaaf+79sqnkYv3mggmh/hvP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00061</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>SOO-60051-00427</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Pita Mungil Miniset Y 1103</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>30870</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-11560139/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_pita_mungil_miniset_y_1103_full01_m3k9nvkz.jpg</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>5</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-pita-mungil-miniset-y-1103/ps--SOO-60051-00427?ds=SOO-60051-00427-00003&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EOacJbj2cXRya+Q0SCnBRoFYw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+GmfylN82DRKT97iLHHfPs20XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00427</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>SOO-60051-00274</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Sorex CD Basic Midi Katun Mix 1179</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>26460</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-8385514/sorex_sorex_cd_basic_midi_katun_mix_1179_full01_f8nmyoy6.jpg</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-midi-katun-mix-1179/ps--SOO-60051-00274?ds=SOO-60051-00274-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPzIOwJf81+FzoG8lPia/LMVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00274</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>SOO-60051-00013</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Sorex Basic Super Soft 1255 Celana Dalam Wanita - Multicolor</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>22785</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709258/sorex_sorex_basic_super_soft_1255_celana_dalam_wanita_-__multicolor_full01_t4dg2gm7.jpg</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-basic-super-soft-1255-celana-dalam-wanita-multicolor/ps--SOO-60051-00013?ds=SOO-60051-00013-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q8xmBGsZhEvfPzU+A1f7vo+JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00013</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>SOO-60051-00295</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Basic Mini Super Soft Lembut Nyaman Dipakai CD 1257</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>19992</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18327672/sorex_sorex_celana_dalam_wanita_basic_mini_super_soft_lembut_nyaman_dipakai_cd_1257_full02_cqx8djmw.jpg</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-mini-super-soft-lembut-nyaman-dipakai-cd-1257/ps--SOO-60051-00295?ds=SOO-60051-00295-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JSivqeb4HprTDVqcGV3PQCI/EEoP3uESdSpv1I9i7XJFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00295</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>SOO-60051-00175</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Sorex Bra Extra Comfort Busa Sedang Kawat Kait 3 Setara Cup B BH 3262</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>55125</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7994480/sorex_sorex_bra_extra_comfort_busa_sedang_kawat_kait_3_setara_cup_b_bh_3262_full03_bpk5yj9s.jpeg</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-sedang-kawat-kait-3-setara-cup-b-bh-3262/ps--SOO-60051-00175?ds=SOO-60051-00175-00014&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00175</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SOO-60051-00010</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Sorex Cd Basic Bahan Super Soft 1251 Celana dalam Wanita</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>23667</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7708515/sorex_sorex_cd_basic_bahan_super_soft_1251_celana_dalam_wanita_full03_t1r1rwvf.jpg</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-basic-bahan-super-soft-1251-celana-dalam-wanita/ps--SOO-60051-00010?ds=SOO-60051-00010-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73OhY4+eXFWJ8a6ITW30cbFkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00010</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SOO-60051-00004</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Basic Midi Soft &amp; Comfort CD 1228 Katun Mix Adem</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>26754</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7700289/sorex_sorex_celana_dalam_wanita_basic_midi_soft_-_comfort_cd_1228_katun_mix_adem_full02_nnq90z7s.jpg</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-midi-soft-comfort-cd-1228-katun-mix-adem/ps--SOO-60051-00004?ds=SOO-60051-00004-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy/kEEC5/YmxIZLZ3qqgiVystYhaTIOsJmPMG3J3j/VXFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00004</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>SOO-60051-00258</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Sorex CD 1230 Basic Katun WARNA</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>21900</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8247465/sorex_sorex_cd_1230_basic_katun_warna_full02_dcmpebfb.jpg</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-1230-basic-katun-warna/ps--SOO-60051-00258?ds=SOO-60051-00258-00003&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goKIIGmm33viDj/+hYQaGlpdxFbcOmnv9bSync5a5kF4+lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00258</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>SOO-60051-00467</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Sorex Bra Tanpa Kawat Busa Kait 3 Setara Cup B Bra Harian Casual Comfort BH 65001</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>52920</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-12228968/sorex_sorex_bra_tanpa_kawat_busa_kait_3_setara_cup_b_bra_harian_casual_comfort_bh_65001_full02_br99daxr.jpeg</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-busa-kait-3-setara-cup-b-bra-harian-casual-comfort-bh-65001/ps--SOO-60051-00467?ds=SOO-60051-00467-00002&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+iQM9MJM8LcOV1edc2sOTJmjateuiD2bQM1xoGRlYR/JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00467</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>SOO-60051-00125</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Sorex Bra Extra Comfort Busa Tanpa Kawat Kait 2 Setara Cup B BH 9850</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>55125</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-18247352/sorex_sorex_bra_extra_comfort_busa_tanpa_kawat_kait_2_setara_cup_b_bh_9850_full01_n9w2qvqq.jpg</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-tanpa-kawat-kait-2-setara-cup-b-bh-9850/ps--SOO-60051-00125?ds=SOO-60051-00125-00009&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faV9hz/XQzSqIR3H2JQztKk1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00125</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>SOO-60051-00090</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Bra Sorex Tanpa Kawat Busa Sedang Cup Setara Cup B Casual Comfort 65003 Basic</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>54880</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240575/sorex_bra_sorex_tanpa_kawat_busa_sedang_cup_setara_cup_b_casual_comfort_65003_basic_full02_jqezgsad.jpeg</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/bra-sorex-tanpa-kawat-busa-sedang-cup-setara-cup-b-casual-comfort-65003-basic/ps--SOO-60051-00090?ds=SOO-60051-00090-00005&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJWc8Qg5cJ1du71Plk4CIHX7JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00090</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SOO-60051-00079</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Sorex Bra Tanpa Kawat Super Soft Busa Sedang Setara Cup B 17238 BH Harian Simple Polos</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>37240</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240855/sorex_sorex_bra_tanpa_kawat_super_soft_busa_sedang_setara_cup_b_17238_bh_harian_simple_polos_full02_t2k386dq.jpg</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-super-soft-busa-sedang-setara-cup-b-17238-bh-harian-simple-polos/ps--SOO-60051-00079?ds=SOO-60051-00079-00012&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZukJoT8NV2nfifVvZEWfKxk9myWj6eICtISZacjXXHqNFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00079</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>SOO-60051-00356</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Sorex CD Wanita Melange Collection 15023 BH 11105, 11106 dan 11115</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>24990</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10634356/sorex_sorex_cd_wanita_melange_collection_15023_bh_11105-_11106_dan_11115_full01_ftwsj520.jpg</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-wanita-melange-collection-15023-bh-11105-11106-dan-11115/ps--SOO-60051-00356?ds=SOO-60051-00356-00002&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4b+oLJqLy/XvDHMcpKt+HY6JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00356</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>SOO-60051-00183</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Sorex Corset ShapeUp Korset Celana Paha Highwaist Shapewear Stagen 13189</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>93100</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8072733/sorex_sorex_corset_shapeup_korset_celana_paha_highwaist_shapewear_stagen_13189_full01_j8iugqbd.jpg</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-corset-shapeup-korset-celana-paha-highwaist-shapewear-stagen-13189/ps--SOO-60051-00183?ds=SOO-60051-00183-00002&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0udwtGfjMBHkzcQHN9WHgcmbE/LLJy7W3VwRB8pUx8xBI+SgwT0bjuIBd7LA3Wgh1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE6NhASY2tUdrki83wetKin+0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00183</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>SOO-60051-00157</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Sorex Corset Shapewear Korset Tulang Reguler Size Stagen 1052 Pengecil Perut</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>78400</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7975883/sorex_sorex_corset_shapewear_korset_tulang_reguler_size_stagen_1052_pengecil_perut_full01_q5k3eby6.jpg</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-corset-shapewear-korset-tulang-reguler-size-stagen-1052-pengecil-perut/ps--SOO-60051-00157?ds=SOO-60051-00157-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1v82AvnOYi0a9q7D8u1KCCX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00157</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>SOO-60051-00497</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Sorex Mystery Box Special Bra Cantik Kawat/Tanpa Kawat Setara cup B</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>58800</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-13765543/sorex_sorex_mystery_box_special_bra_cantik_kawat-tanpa_kawat__setara_cup_b_full03_h94hmgrl.jpg</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-mystery-box-special-bra-cantik-kawat-tanpa-kawat-setara-cup-b/ps--SOO-60051-00497?ds=SOO-60051-00497-00003&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b9l2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00497</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>SOO-60051-00471</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Sorex 17232 Casual Style Bra - Cup B</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>39004</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12493876/sorex_sorex_bra_busa_tanpa_kawat_kait_2_setara_cup_b_bh_harian_casual_style_bra_17232_full01_rx5utll6.jpg</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>5</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-17232-casual-style-bra-cup-b/ps--SOO-60051-00471?ds=SOO-60051-00471-00005&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/eggqgMiupqXxacM5eGPWfSu4IWA9I8NZxGRTYuIBep1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00471</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>SOO-60051-00280</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Cute Ribbon Brukat Bunga BT 7002</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>102312</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-8395621/sorex_sorex_lingerie_baju_tidur_premium_satin_look_cute_ribbon_brukat_bunga_bt_7002_full01_pbu0j5i7.jpg</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>4</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-cute-ribbon-brukat-bunga-bt-7002/ps--SOO-60051-00280?ds=SOO-60051-00280-00003&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9e2UdUDLB5ofwWKbsz373i7/ZVxa2kFaxpfYcDtaKNmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00280</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>BAG-70027-00459</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Handuk Bayi | Handuk Anak | Sorex Towel 100 X 50</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>69400</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//78/MTA-11021170/sorex_handuk_bayi_-_handuk_anak_-_sorex_towel_100_x_50_-_full01_3d2184d8.jpg</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>5</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/handuk-bayi-handuk-anak-sorex-towel-100-x-50/ps--BAG-70027-00459?ds=BAG-70027-00459-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmDdmyk291xKlcwhaoJiafSwI6rvWM2fME09xrH8SZaRY=&amp;cnc=false&amp;pickupPointCode=PP-3172350&amp;pid1=BAG-70027-00459</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>SOO-60051-00552</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Sorex CD wanita Midi Super Soft Adem Lembut CD 15232</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>20580</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-20762030/sorex_sorex_cd_wanita_midi_super_soft_adem_lembut_cd_15232_full02_rfcio72k.jpeg</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>5</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-cd-wanita-midi-super-soft-adem-lembut-cd-15232/ps--SOO-60051-00552?ds=SOO-60051-00552-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2aqponFxzbpAb1YzoA8RzrTwV2wi/WgIu36XET8QmhnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00552</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>SOO-60051-00574</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Midi Basic Comfort Chic Adem Lembut Pori-pori CD 1260</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>24255</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-21977111/sorex_sorex_celana_dalam_wanita_midi_basic_comfort_chic_adem_lembut_pori-pori_cd_1260_full02_e9br0e3e.jpg</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>5</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-midi-basic-comfort-chic-adem-lembut-pori-pori-cd-1260/ps--SOO-60051-00574?ds=SOO-60051-00574-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4agIrFT0SP5wuYJuKSH3/MKIivnlZfmSl5m7OY9r1lyLVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00574</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>BAK-24890-01845</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Sorex Stagen 8052 - Slimming Corset Korset Pelangsing</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>69500</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//91/MTA-8106732/sorex_sorex_stagen_8052_-_slimming_corset_korset_pelangsing_full02_k0q4f928.jpg</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-stagen-8052-slimming-corset-korset-pelangsing/ps--BAK-24890-01845?ds=BAK-24890-01845-00004&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70O/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURovYCHtpJ9m77Mt/1K6pUZq5DmAz1A2e+8nO/jzyY+jFw=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01845&amp;tag=new</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>SOO-60051-00415</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Sorex Celana Dalam Wanita Basic Maxi Super Soft Polos CD 1250</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>22050</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//92/MTA-11457236/sorex_sorex_cd_wanita_basic_maxi_super_soft_polos_cd_1250_full02_h25v300t.jpg</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-maxi-super-soft-polos-cd-1250/ps--SOO-60051-00415?ds=SOO-60051-00415-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+M7n3m+RcH5pfuq34yOwEpJ5DwTCoYZ7pKxqIR1psUuFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00415</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>BAK-24890-01842</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Ibu &amp; Anak</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Sorex Corset 4431 Korset Pasca Melahirkan</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>73500</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//101/MTA-8077654/sorex_sorex_corset_4431_korset_pasca_melahirkan_full01_ejmfoega.jpg</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>5</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-corset-4431-korset-pasca-melahirkan/ps--BAK-24890-01842?ds=BAK-24890-01842-00004&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9nxsCWE66IToY6H/3TEJYi/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURo6N0sa75uwpeazB0wvCSQYtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01842</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>MAM-60109-00113</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>CD SOREX 1239 Celana Dalam Wanita</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>14500</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-155195754/sorex_cd-sorex-1239-celana-dalam-wanita_full01.jpg</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>5</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/cd-sorex-1239-celana-dalam-wanita/ps--MAM-60109-00113?ds=MAM-60109-00113-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushK/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3094603&amp;pid1=MAM-60109-00113</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>MOI-70007-00855</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Sorex 1250 CD Celana Dalam Wanita - Maxi Panty - Super Soft | BISA PILIH WARNA</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>17127</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-154953940/sorex_sorex_1250_cd_celana_dalam_wanita_-_maxi_panty_-_super_soft_-_bisa_pilih_warna_full01_jm7mqm90.jpg</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>5</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/sorex-1250-cd-celana-dalam-wanita-maxi-panty-super-soft-bisa-pilih-warna/ps--MOI-70007-00855?ds=MOI-70007-00855-00020&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+VDd0aEb2mnEzhIWyggW8h5Yw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00855</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>WIO-70008-00368</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>B501 | Celana Dalam Wanita Sorex - Sorex 1239</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>43860</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/102/MTA-145016957/sorex_b501_-_celana_dalam_wanita_sorex_-__sorex_1239_full24_djih1f55.jpg</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>5</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/b501-celana-dalam-wanita-sorex-sorex-1239/ps--WIO-70008-00368?ds=WIO-70008-00368-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7D5EnLGW/JufRUomLn7UXUhvPhx3NWvvw1KpDH3qrKOEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00368</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>WIO-70008-00425</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Fashion Wanita</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Sorex</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>B165 - Sorex Camisol Tanktop Tali Lebar Renda Brukat Free Size</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>69360</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/98/MTA-148414570/sorex_b165_-_sorex_camisol_tanktop_tali_lebar_renda_brukat__free_size_full04_fx3z1ejy.jpg</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>5</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>https://www.blibli.com/p/b165-sorex-camisol-tanktop-tali-lebar-renda-brukat-free-size/ps--WIO-70008-00425?ds=WIO-70008-00425-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70NR/YYwHagZb1LHNFss5QDsA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKOsT7WmHaYlyEM/a8kAvWoJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00425</t>
         </is>
       </c>
     </row>

--- a/ui_data/blibli.xlsx
+++ b/ui_data/blibli.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -432,13 +432,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="94" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="212" customWidth="1" min="6" max="6"/>
+    <col width="149" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="277" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="523" customWidth="1" min="8" max="8"/>
+    <col width="578" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,106 +486,106 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WIO-70008-00004</t>
+          <t>BAH-70197-00002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Baby Hai</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>B549 | CELANA DALAM WANITA SOREX 1238 SIZE M - XXL</t>
+          <t>BABY HAI Rayya Series Ramadhan Abizar Series Color 2 - Baju Anak Laki - Laki Lengan Pendek Celana Panjang</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17900</v>
+        <v>30100</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-10235637/sorex_b549_-_celana_dalam_wanita_sorex_1238_size_m_-_xxl_full03_dzx51bne.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//112/MTA-94766386/baby_hai_baby_hai_rayya_series_ramadhan_abizar_series_color_2_-_baju_anak_laki_-_laki_lengan_pendek_celana_panjang_full01_he26rnqh.jpg</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/b549-celana-dalam-wanita-sorex-1238-size-m-xxl/ps--WIO-70008-00004?ds=WIO-70008-00004-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WIIGmm33viDj/+hYQaGlpdnNcxv6ypS7E4ynJ64PnbwlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00004</t>
+          <t>https://www.blibli.com/p/baby-hai-rayya-series-ramadhan-abizar-series-color-2-baju-anak-laki-laki-lengan-pendek-celana-panjang/ps--BAH-70197-00002?ds=BAH-70197-00002-00007&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EMmbE/LLJy7W3VwRB8pUx8xE+ELff8mp6Jxh05BtXdSLlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWuSVd/bvsBAZ/8InAAmnjqC0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3529390&amp;pid1=BAH-70197-00002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MOI-70007-00595</t>
+          <t>KOE-70078-00007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>KOZE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita - CD 1257 - Mini Panty - Super Soft - M - XXL</t>
+          <t>KOZE - Premium Comfort Green T-shirt - Kaos Polos Hijau</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13464</v>
+        <v>49500</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-50903517/br-m036969-05088_sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-99600694/koze_koze_-_premium_comfort_green_t-shirt_-_kaos_polos_hijau_full01_eukw1txs.jpg</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl/ps--MOI-70007-00595?ds=MOI-70007-00595-00050&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIsG3614SFgY9ax7qJJTMRKNj/JAGGKMjevlfkFhtVG7gFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00595</t>
+          <t>https://www.blibli.com/p/koze-premium-comfort-green-t-shirt-kaos-polos-hijau/ps--KOE-70078-00007?ds=KOE-70078-00007-00004&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLe3ycwbRnPkH0lW7Gv/QJVMlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGp04hRlADTLARbcEgnz4dqM=&amp;cnc=false&amp;pickupPointCode=PP-3472636&amp;pid1=KOE-70078-00007</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOO-60051-01043</t>
+          <t>LGM-60021-00230</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>LGS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Sorex Bra Seamless Tanpa Kawat Kait 2 Cup A-B Busa Tipis BH 65004</t>
+          <t>LGS Slim Fit Kaos Polo Pria - White Blue Green [JTS.325.M1846F.01.C]</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>61600</v>
+        <v>146000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-159825520/sorex_sorex_bra_seamless_tanpa_kawat_kait_2_cup_a-b_busa_tipis_bh_65004_full02_ds94bo75.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//85/MTA-1520625/lgs_lgs-slim-fit-kaos-polo-pria---white-blue-green--jts-325-m1846f-01-c-_full02.jpg</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -593,113 +593,113 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-seamless-tanpa-kawat-kait-2-cup-a-b-busa-tipis-bh-65004/ps--SOO-60051-01043?ds=SOO-60051-01043-00017&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH5nh6wQ6PEr8y5kW/jpBoqaA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01043</t>
+          <t>https://www.blibli.com/p/lgs-slim-fit-kaos-polo-pria-white-blue-green-jts-325-m1846f-01-c/ps--LGM-60021-00230?ds=LGM-60021-00230-00003&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushIJcaEJLcqsH3r6UABTq0TLwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3034126&amp;pid1=LGM-60021-00230</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOO-60051-00995</t>
+          <t>ELM-60027-00165</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>ELLIPSES INC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>(2 PCS) Sorex Man Lifetyle Boxer Pria Celana Dalam Cowo Adem Trunk LK 38285</t>
+          <t>ELLIPSESINC Kaos Oversize Wanita &amp; Pria BECCA EDITION</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>69000</v>
+        <v>35000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/103/MTA-147676135/sorex_-2_pcs-_sorex_man_lifetyle_boxer_pria_celana_dalam_cowo_adem_trunk_lk_38285_full04_futs8yik.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//104/MTA-21988625/ellipses_inc_ellipsesinc_kaos_oversize_wanita_-_pria_becca_edition_full24_si0ww14j.jpg</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/2-pcs-sorex-man-lifetyle-boxer-pria-celana-dalam-cowo-adem-trunk-lk-38285/ps--SOO-60051-00995?ds=SOO-60051-00995-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OT2r7fOYNS0fn24lYkspaBA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00995</t>
+          <t>https://www.blibli.com/p/ellipsesinc-kaos-oversize-wanita-pria-becca-edition/ps--ELM-60027-00165?ds=ELM-60027-00165-00007&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGT2r7fOYNS0fn24lYkspaBeeU8gA9woEea/RtkRh7ZnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A8s4+rWZ7zCXM6RAaC0DCw0Kkkafi+cjIiXcB4olXgzyFWbDfLF/5KnLYCxjUA9SQsd5cgi/2OYPwjclFVcBAkX&amp;cnc=false&amp;pickupPointCode=PP-3085683&amp;pid1=ELM-60027-00165</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOO-60051-00861</t>
+          <t>EVO-70024-00183</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>EVERNEXT</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Katun Basic Cutting Midi Polos Shape Up CD 9075</t>
+          <t>EVERNEXT - DOMPET KUNCI KENDARAAN KEY WALLET ARCO GANTUNGAN KUNCI MOBIL MOTOR DOMPET KARTU DOMPET STNK</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36800</v>
+        <v>45000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112996396/sorex_sorex_celana_dalam_katun_basic_cutting_midi_polos_shape_up_cd_9075_full02_kdz4sy7w.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//117/MTA-78887691/evernext_evernext_-_dompet_kunci_kendaraan_key_wallet_arco_gantungan_kunci_mobil_motor_dompet_kartu_dompet_stnk_full11_f18edunq.jpg</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-katun-basic-cutting-midi-polos-shape-up-cd-9075/ps--SOO-60051-00861?ds=SOO-60051-00861-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFl2MnZWZ1TwAwuODpbBDUVuyoMNIQ+r4z5DJ9oW5/gjVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00861</t>
+          <t>https://www.blibli.com/p/evernext-dompet-kunci-kendaraan-key-wallet-arco-gantungan-kunci-mobil-motor-dompet-kartu-dompet-stnk/ps--EVO-70024-00183?ds=EVO-70024-00183-00002&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBgmMdlWBN8y5Inger9NURmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vafHKVkJci5PAC/hnMA2UzpLyTJdReOx9JfHVI27hOzzM=&amp;cnc=false&amp;pickupPointCode=PP-3357698&amp;pid1=EVO-70024-00183</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOO-60051-00769</t>
+          <t>HUP-60027-03538</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Hush Puppies</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Hamil Midi Maternity Panty Fit To L-XXL CD 1148</t>
+          <t>Hush Puppies Farro 2 Polo Shirt Pria</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>41895</v>
+        <v>224420</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-46523947/sorex_sorex_celana_dalam_wanita_hamil_midi_maternity_panty_fit_to_l-xxl_cd_1148_full01_r4vls97f.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-159627197/hush-puppies_hush-puppies-farro-2-polo-shirt-pria_full01.jpg</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -707,90 +707,90 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-fit-to-l-xxl-cd-1148/ps--SOO-60051-00769?ds=SOO-60051-00769-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxg8vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00769</t>
+          <t>https://www.blibli.com/p/hush-puppies-farro-2-polo-shirt-pria/ps--HUP-60027-03538?ds=HUP-60027-03538-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q97B/omnSKxUeafXYYVk6xbwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3095796&amp;pid1=HUP-60027-03538</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOO-60051-00568</t>
+          <t>BLI-15014-16569</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>JP Collection</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Cute Y 1006</t>
+          <t>JP Collection OBSP-0285-TWOWHEELS Kaos Anak Laki-Laki</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>20286</v>
+        <v>30970</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-21173323/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_cute_y_1006_full02_3b2ive6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//79/MTA-3103224/jp-collection_jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki_full16.jpg</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-cute-y-1006/ps--SOO-60051-00568?ds=SOO-60051-00568-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt0whBxl0y0A/lKFMfuSR+YzJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00568</t>
+          <t>https://www.blibli.com/p/jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki/ps--BLI-15014-16569?ds=BLI-15014-16569-00029&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7ENfepXUSJ3qMPK5468+MysuJLWhzdnoh86j6S/07IpFSVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWg3ctvKPtt4ygLDf9aZr0F60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3523009&amp;pid1=BLI-15014-16569</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOO-60051-00634</t>
+          <t>BLM-60037-01195</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>BLYTHE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Gorgeous Nightgown Brukat BT 7008</t>
+          <t>Blythe Premium Jayden Flannel Shirt Kemeja Kotak Kotak Lengan Panjang Pria</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>116424</v>
+        <v>249000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-24930571/sorex_sorex_lingerie_lovely_series_baju_tidur_premium_satin_look_gorgeous_nightgown_brukat_bt_7008_full05_uy3lb726.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-155401690/blythe_blythe_premium_jayden_flannel_shirt_kemeja_kotak_kotak_lengan_panjang_pria_full18_itluztdu.jpeg</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-gorgeous-nightgown-brukat-bt-7008/ps--SOO-60051-00634?ds=SOO-60051-00634-00002&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIORipaXzN/Cai///2rmGlQVrU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00634</t>
+          <t>https://www.blibli.com/p/blythe-premium-jayden-flannel-shirt-kemeja-kotak-kotak-lengan-panjang-pria/ps--BLM-60037-01195?ds=BLM-60037-01195-00008&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444UhhhDHoqKmYsTFC9Iv89Ei/0YlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52Np6XO8WKdHoYeMogok9fdb2BUOOGusSvfBtxTrjv/cwqeaQg1dtTjyms/VfSkXqs=&amp;cnc=false&amp;pickupPointCode=PP-3525890&amp;pid1=BLM-60037-01195</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOO-60051-00012</t>
+          <t>KIK-70088-00020</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -800,20 +800,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Kiyora</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+          <t>Kiyora Sydney Atasan Wanita - Pink Crème</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>37044</v>
+        <v>89000</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709188/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_m8u3eoep.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044786/kiyora_kiyora_sydney_atasan_wanita_-_pink_cr-me_full01_kunyukph.jpeg</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -821,37 +821,37 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00012?ds=SOO-60051-00012-00002&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOcJUl07vjZHSHboXNQRMjgVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00012</t>
+          <t>https://www.blibli.com/p/kiyora-sydney-atasan-wanita-pink-cr-me/ps--KIK-70088-00020?ds=KIK-70088-00020-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uT2r7fOYNS0fn24lYkspaBKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKAe+OCLJmeyKGF1EdpUJUnlfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00020</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOO-60051-00360</t>
+          <t>LIS-14924-00806</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sorex Bra Kawat Busa Kait 2 Setara Cup B Bra Polos BH 11108</t>
+          <t>Lion Star Folding Hanger 24 Sticks Jemuran Baju</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>65660</v>
+        <v>64000</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10647376/sorex_sorex_bra_kawat_busa_kait_2_setara_cup_b_bra_polos_bh_11108_full03_j1xc7du0.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090270/lion_star_lion_star__folding_hanger_24_sticks_jemuran_baju_full01_o3vah5cz.jpg</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -859,37 +859,37 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-kawat-busa-kait-2-setara-cup-b-bra-polos-bh-11108/ps--SOO-60051-00360?ds=SOO-60051-00360-00012&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1R4AsY2zbEuPf0mEleNTFlvp6v2ww3rMJNM2z4cVX8YJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00360</t>
+          <t>https://www.blibli.com/p/lion-star-folding-hanger-24-sticks-jemuran-baju/ps--LIS-14924-00806?ds=LIS-14924-00806-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzw6DOMtn+gYi+5f5Iqa4pGT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00806</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOO-60051-00042</t>
+          <t>LIS-14924-00805</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+          <t>Lion Star Folding Hanger 16 Sticks Jemuran Baju</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37044</v>
+        <v>49500</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7886901/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_g40b4t61.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148088190/lion_star_lion_star_folding_hanger_16_sticks_jemuran_baju_full03_igkn11o8.jpg</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -897,37 +897,37 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00042?ds=SOO-60051-00042-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOPTsyyIDmFh47MtBFYuGtqVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00042</t>
+          <t>https://www.blibli.com/p/lion-star-folding-hanger-16-sticks-jemuran-baju/ps--LIS-14924-00805?ds=LIS-14924-00805-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00805</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOO-60051-00061</t>
+          <t>LIS-14924-00807</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Hamil Motif Katun Lembut Maternity Panty CD 1140</t>
+          <t>Lion Star Folding Hanger 30 Sticks Jemuran Baju</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>33320</v>
+        <v>74500</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7895759/sorex_sorex_celana_dalam_hamil_motif_katun_lembut_maternity_panty_cd_1140_full02_j2ua28na.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090286/lion_star_lion_star_folding_hanger_30_sticks_jemuran_baju_full02_tv6sxt04.jpg</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -935,37 +935,37 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-hamil-motif-katun-lembut-maternity-panty-cd-1140/ps--SOO-60051-00061?ds=SOO-60051-00061-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HcTUF9bqmkuAK1tOmfkDJzySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE9Nv1SOi0krVWYDfqxiBKGaaf+79sqnkYv3mggmh/hvP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00061</t>
+          <t>https://www.blibli.com/p/lion-star-folding-hanger-30-sticks-jemuran-baju/ps--LIS-14924-00807?ds=LIS-14924-00807-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6+ofzQPca16/hNKbnSDAJ6/HAkxoVke7cxJ4LyInlLenUcuWlxDj3lNx/vI4M4PH+jqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00807</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOO-60051-00427</t>
+          <t>LIS-14924-00733</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Pita Mungil Miniset Y 1103</t>
+          <t>Lion Star Jemuran Baju / Laundry Hanger Tripod</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>30870</v>
+        <v>198600</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-11560139/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_pita_mungil_miniset_y_1103_full01_m3k9nvkz.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-127266381/lion_star_lion_star_jemuran_baju_-_laundry_hanger_tripod_full01_odf238gk.jpg</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -973,14 +973,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-pita-mungil-miniset-y-1103/ps--SOO-60051-00427?ds=SOO-60051-00427-00003&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EOacJbj2cXRya+Q0SCnBRoFYw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+GmfylN82DRKT97iLHHfPs20XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00427</t>
+          <t>https://www.blibli.com/p/lion-star-jemuran-baju-laundry-hanger-tripod/ps--LIS-14924-00733?ds=LIS-14924-00733-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JHLgoC/MYdp69cMUdWFnV1U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHI/2j+o1IQC0bIBUNNPAppAtZ8uEOn0Ql/eC8q/oWrwBcHn0AWNhN6m5BpKP78qwDE=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00733</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOO-60051-00274</t>
+          <t>9TW-60021-01565</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -990,96 +990,96 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>9 to 12</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Midi Katun Mix 1179</t>
+          <t>9 to 12 Mia Linen Shirt Kemeja Lengan Panjang Linen Kantor Wanita</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26460</v>
+        <v>149000</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-8385514/sorex_sorex_cd_basic_midi_katun_mix_1179_full01_f8nmyoy6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-91217262/9_to_12_9_to_12_mia_linen_shirt_kemeja_wanita_full02_kcqs7mya.jpeg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-midi-katun-mix-1179/ps--SOO-60051-00274?ds=SOO-60051-00274-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPzIOwJf81+FzoG8lPia/LMVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00274</t>
+          <t>https://www.blibli.com/p/9-to-12-mia-linen-shirt-kemeja-lengan-panjang-linen-kantor-wanita/ps--9TW-60021-01565?ds=9TW-60021-01565-00003&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushKGkIqt3bNpbYK+L444UhhhHxbrE1ojlIiyeznGUhdMUeWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxAAm0Ky79H2kukIikI3WbdDfjQtllH9FlUcG3SRRgUPwaH9/p2g1nm/YLqDhhmudNewKd+f0eOUHKyU4XgeKwfPg==&amp;cnc=false&amp;pickupPointCode=PP-3519985&amp;pid1=9TW-60021-01565</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOO-60051-00013</t>
+          <t>LIS-14924-00572</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Sorex Basic Super Soft 1255 Celana Dalam Wanita - Multicolor</t>
+          <t>Lion Star Jepitan Baju JB-1 Laundry Clips (20 Pcs)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>22785</v>
+        <v>12500</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709258/sorex_sorex_basic_super_soft_1255_celana_dalam_wanita_-__multicolor_full01_t4dg2gm7.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-11691417/lion_star_lion_star_001_laundry_clips_full01_exf0fig2.jpg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-basic-super-soft-1255-celana-dalam-wanita-multicolor/ps--SOO-60051-00013?ds=SOO-60051-00013-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q8xmBGsZhEvfPzU+A1f7vo+JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00013</t>
+          <t>https://www.blibli.com/p/lion-star-jepitan-baju-jb-1-laundry-clips-20-pcs/ps--LIS-14924-00572?ds=LIS-14924-00572-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeC/HAkxoVke7cxJ4LyInlLeONM/pwQSpw/TgMoD9qDeE1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt51SPFgCl9oi27QotXy+Xqg7ncDBNXS0U6F+cIYt7Ox4Ox3lyCL/Y5g/CNyUVVwECRc=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00572</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOO-60051-00295</t>
+          <t>DAO-70167-00003</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Dacco</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Basic Mini Super Soft Lembut Nyaman Dipakai CD 1257</t>
+          <t>Dacco Mama Pad 3D Breastpad [24 pcs]</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19992</v>
+        <v>22000</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18327672/sorex_sorex_celana_dalam_wanita_basic_mini_super_soft_lembut_nyaman_dipakai_cd_1257_full02_cqx8djmw.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/92/MTA-127240561/dacco_dacco-mama-pad-breastpad-3d-isi-24pcs_full02.jpg</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1087,37 +1087,37 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-mini-super-soft-lembut-nyaman-dipakai-cd-1257/ps--SOO-60051-00295?ds=SOO-60051-00295-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JSivqeb4HprTDVqcGV3PQCI/EEoP3uESdSpv1I9i7XJFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00295</t>
+          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-24-pcs/ps--DAO-70167-00003?ds=DAO-70167-00003-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+T2r7fOYNS0fn24lYkspaB/A9+ItZOLJU0KYEdc1CW5NldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00003</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOO-60051-00175</t>
+          <t>DAO-70167-00004</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Dacco</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sorex Bra Extra Comfort Busa Sedang Kawat Kait 3 Setara Cup B BH 3262</t>
+          <t>Dacco Mama Pad 3D Breastpad [56 pcs]</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>55125</v>
+        <v>45000</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7994480/sorex_sorex_bra_extra_comfort_busa_sedang_kawat_kait_3_setara_cup_b_bh_3262_full03_bpk5yj9s.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/95/MTA-127240590/dacco_dacco-mama-pad-breastpad-3d-isi-56pcs_full02.jpg</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1125,14 +1125,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-sedang-kawat-kait-3-setara-cup-b-bh-3262/ps--SOO-60051-00175?ds=SOO-60051-00175-00014&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00175</t>
+          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-56-pcs/ps--DAO-70167-00004?ds=DAO-70167-00004-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBjgJtif7ZErD1A5G7Do9RH9ldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00004</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOO-60051-00010</t>
+          <t>KIK-70088-00045</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1142,111 +1142,111 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>KAORI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sorex Cd Basic Bahan Super Soft 1251 Celana dalam Wanita</t>
+          <t>Kaori Seira Cardigan Outer Wanita - Bata</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>23667</v>
+        <v>75000</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7708515/sorex_sorex_cd_basic_bahan_super_soft_1251_celana_dalam_wanita_full03_t1r1rwvf.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93066052/kaori_kaori_seira_cardigan_outer_wanita_-_bata_full01_njcswb4w.jpeg</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-bahan-super-soft-1251-celana-dalam-wanita/ps--SOO-60051-00010?ds=SOO-60051-00010-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73OhY4+eXFWJ8a6ITW30cbFkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00010</t>
+          <t>https://www.blibli.com/p/kaori-seira-cardigan-outer-wanita-bata/ps--KIK-70088-00045?ds=KIK-70088-00045-00002&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCycpTyS3V4Bt86XaxsYSf7+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJvUe1T40+jFxsL3RTfsG+znMf7cp48yL26Dsz2eCVLdZfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00045</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOO-60051-00004</t>
+          <t>INP-60076-02184</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Mainan, Buku &amp; Stationery</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Akedo</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Basic Midi Soft &amp; Comfort CD 1228 Katun Mix Adem</t>
+          <t>Legends of Akedo PowerStorm S4 Giants Action Figure 15190 - Assorted</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26754</v>
+        <v>179000</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7700289/sorex_sorex_celana_dalam_wanita_basic_midi_soft_-_comfort_cd_1228_katun_mix_adem_full02_nnq90z7s.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-95198657/akedo_legends_of_akedo_powerstorm_s4_giants_action_figure_15190_-_assorted_full02_jykgck93.jpeg</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-midi-soft-comfort-cd-1228-katun-mix-adem/ps--SOO-60051-00004?ds=SOO-60051-00004-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy/kEEC5/YmxIZLZ3qqgiVystYhaTIOsJmPMG3J3j/VXFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00004</t>
+          <t>https://www.blibli.com/p/legends-of-akedo-powerstorm-s4-giants-action-figure-15190-assorted/ps--INP-60076-02184?ds=INP-60076-02184-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNylnry4OkDBy9LifrRfNVhITodBPeru5IipRxn8umZ90=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-02184</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOO-60051-00258</t>
+          <t>INP-60076-01330</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Mainan, Buku &amp; Stationery</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Happy Toon</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sorex CD 1230 Basic Katun WARNA</t>
+          <t>Happy Toon NB-03900 Family Small Toys Iron Basket Mainan Anak</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21900</v>
+        <v>55000</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8247465/sorex_sorex_cd_1230_basic_katun_warna_full02_dcmpebfb.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-54407440/happy_toon_happy_toon_nb-03900_family_small_toys_iron_basket_mainan_anak_full06_extz21fi.jpg</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-1230-basic-katun-warna/ps--SOO-60051-00258?ds=SOO-60051-00258-00003&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goKIIGmm33viDj/+hYQaGlpdxFbcOmnv9bSync5a5kF4+lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00258</t>
+          <t>https://www.blibli.com/p/happy-toon-nb-03900-family-small-toys-iron-basket-mainan-anak/ps--INP-60076-01330?ds=INP-60076-01330-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdMvid824Op0k6a8gP8mZi4h3fZ0ly05AmuL0ur5cecCosM0GrDScBYeg5CPA4jmdc=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-01330</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOO-60051-00467</t>
+          <t>KIK-70088-00004</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1256,400 +1256,400 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Kiyora</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sorex Bra Tanpa Kawat Busa Kait 3 Setara Cup B Bra Harian Casual Comfort BH 65001</t>
+          <t>Kiyora Claude Atasan Wanita - Hitam</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>52920</v>
+        <v>99000</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-12228968/sorex_sorex_bra_tanpa_kawat_busa_kait_3_setara_cup_b_bra_harian_casual_comfort_bh_65001_full02_br99daxr.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044758/kiyora_kiyora_claude_atasan_wanita_-_hitam_full01_vkgwv5e0.jpeg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-busa-kait-3-setara-cup-b-bra-harian-casual-comfort-bh-65001/ps--SOO-60051-00467?ds=SOO-60051-00467-00002&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+iQM9MJM8LcOV1edc2sOTJmjateuiD2bQM1xoGRlYR/JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00467</t>
+          <t>https://www.blibli.com/p/kiyora-claude-atasan-wanita-hitam/ps--KIK-70088-00004?ds=KIK-70088-00004-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKODomkMVGOhLlHkEhAouZJtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00004</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOO-60051-00125</t>
+          <t>UNI-60025-01804</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>MOLTO</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sorex Bra Extra Comfort Busa Tanpa Kawat Kait 2 Setara Cup B BH 9850</t>
+          <t>Molto Pelembut &amp; Pewangi Pakaian Softener Parfum Boost Himalayan Honeysuckle [650 mL] + Molto Trika Floral Bliss [300ml/2 Pcs] Free Jade Chielo Box</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>55125</v>
+        <v>33500</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-18247352/sorex_sorex_bra_extra_comfort_busa_tanpa_kawat_kait_2_setara_cup_b_bh_9850_full01_n9w2qvqq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/98/MTA-167406424/molto_molto_pelembut_-_pewangi_pakaian_softener_parfum_boost_himalayan_honeysuckle_-650_ml-_-_molto_trika_floral_bliss_-300ml-2_pcs-_free_jade_chielo_box_full01_fgiz6m7c.jpg</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-tanpa-kawat-kait-2-setara-cup-b-bh-9850/ps--SOO-60051-00125?ds=SOO-60051-00125-00009&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faV9hz/XQzSqIR3H2JQztKk1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00125</t>
+          <t>https://www.blibli.com/p/molto-pelembut-pewangi-pakaian-softener-parfum-boost-himalayan-honeysuckle-650-ml-molto-trika-floral-bliss-300ml-2-pcs-free-jade-chielo-box/ps--UNI-60025-01804?ds=UNI-60025-01804-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5G/HAkxoVke7cxJ4LyInlLeKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcC/9RBdAtddAWdo2jQOkvIlWIVM7ED7wPBObjNJjF4PkDPK2nt+P+WStgCBz6tDLJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01804&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOO-60051-00090</t>
+          <t>NAD-70194-00022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Nadeea</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bra Sorex Tanpa Kawat Busa Sedang Cup Setara Cup B Casual Comfort 65003 Basic</t>
+          <t>Nadeea Jamilah Series Dress Dewasa - Black</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>54880</v>
+        <v>465000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240575/sorex_bra_sorex_tanpa_kawat_busa_sedang_cup_setara_cup_b_casual_comfort_65003_basic_full02_jqezgsad.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167020003/nadeea_nadeea_jamilah_series_dress_dewasa_-_black_full01_i7gjfa9c.jpg</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bra-sorex-tanpa-kawat-busa-sedang-cup-setara-cup-b-casual-comfort-65003-basic/ps--SOO-60051-00090?ds=SOO-60051-00090-00005&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJWc8Qg5cJ1du71Plk4CIHX7JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00090</t>
+          <t>https://www.blibli.com/p/nadeea-jamilah-series-dress-dewasa-black/ps--NAD-70194-00022?ds=NAD-70194-00022-00003&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14s0wn7+82bYRdE+2sGGRS84WyZ4Fa53DKe1xs2SeZpyh5bKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00022&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOO-60051-00079</t>
+          <t>NAD-70194-00021</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Nadeea</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Sorex Bra Tanpa Kawat Super Soft Busa Sedang Setara Cup B 17238 BH Harian Simple Polos</t>
+          <t>Nadeea Fatimah Series Dress Dewasa - Army</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>37240</v>
+        <v>395000</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240855/sorex_sorex_bra_tanpa_kawat_super_soft_busa_sedang_setara_cup_b_17238_bh_harian_simple_polos_full02_t2k386dq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167019838/nadeea_nadeea_fatimah_series_dress_dewasa_-_army_full01_qdyt3pad.jpg</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-super-soft-busa-sedang-setara-cup-b-17238-bh-harian-simple-polos/ps--SOO-60051-00079?ds=SOO-60051-00079-00012&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZukJoT8NV2nfifVvZEWfKxk9myWj6eICtISZacjXXHqNFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00079</t>
+          <t>https://www.blibli.com/p/nadeea-fatimah-series-dress-dewasa-army/ps--NAD-70194-00021?ds=NAD-70194-00021-00003&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM4380wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00021&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOO-60051-00356</t>
+          <t>UNI-60025-01784</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>RINSO</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Sorex CD Wanita Melange Collection 15023 BH 11105, 11106 dan 11115</t>
+          <t>Buy 2 - Rinso Detergent Cair Capsule Konsentrat Deterjen Matic Kapsul Sakura Blossom [168 G] Free Rinso Capsule Lavender Fresh [168 G]</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24990</v>
+        <v>97600</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10634356/sorex_sorex_cd_wanita_melange_collection_15023_bh_11105-_11106_dan_11115_full01_ftwsj520.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-166562849/rinso_buy_2_-_rinso_detergent_cair_capsule_konsentrat_deterjen_matic_kapsul_sakura_blossom_-168_g-_free_rinso_capsule_lavender_fresh_-168_g-_full16_efaa5k6d.jpg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-wanita-melange-collection-15023-bh-11105-11106-dan-11115/ps--SOO-60051-00356?ds=SOO-60051-00356-00002&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4b+oLJqLy/XvDHMcpKt+HY6JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00356</t>
+          <t>https://www.blibli.com/p/buy-2-rinso-detergent-cair-capsule-konsentrat-deterjen-matic-kapsul-sakura-blossom-168-g-free-rinso-capsule-lavender-fresh-168-g/ps--UNI-60025-01784?ds=UNI-60025-01784-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/Pdgj1B/QYBV7GBvNoJs6tnh6wQ6PEr8y5kW/jpBoqaySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnyMru0AcvpJJckDx5fLB9bbI0w8dmNEBfvLU7Yuo2KuO0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01784&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOO-60051-00183</t>
+          <t>JAO-70150-00036</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Sorex Corset ShapeUp Korset Celana Paha Highwaist Shapewear Stagen 13189</t>
+          <t>Javina Mahira Abaya Series - Maroon</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>93100</v>
+        <v>445000</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8072733/sorex_sorex_corset_shapeup_korset_celana_paha_highwaist_shapewear_stagen_13189_full01_j8iugqbd.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393203/javina_javina_mahira_abaya_series_-_maroon_full01_v7mv6ko3.jpg</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-shapeup-korset-celana-paha-highwaist-shapewear-stagen-13189/ps--SOO-60051-00183?ds=SOO-60051-00183-00002&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0udwtGfjMBHkzcQHN9WHgcmbE/LLJy7W3VwRB8pUx8xBI+SgwT0bjuIBd7LA3Wgh1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE6NhASY2tUdrki83wetKin+0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00183</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-maroon/ps--JAO-70150-00036?ds=JAO-70150-00036-00004&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS847UMMr9bs7lr/LvcGmfw73JbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00036&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOO-60051-00157</t>
+          <t>JAO-70150-00035</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Sorex Corset Shapewear Korset Tulang Reguler Size Stagen 1052 Pengecil Perut</t>
+          <t>Javina Mahira Abaya Series - Denim</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>78400</v>
+        <v>445000</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7975883/sorex_sorex_corset_shapewear_korset_tulang_reguler_size_stagen_1052_pengecil_perut_full01_q5k3eby6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393198/javina_javina_mahira_abaya_series_-_denim_full01_tsevq5at.jpg</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-shapewear-korset-tulang-reguler-size-stagen-1052-pengecil-perut/ps--SOO-60051-00157?ds=SOO-60051-00157-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1v82AvnOYi0a9q7D8u1KCCX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00157</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-denim/ps--JAO-70150-00035?ds=JAO-70150-00035-00002&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84JQFtqBINX0TZNUUazK+2eVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00035&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOO-60051-00497</t>
+          <t>JAO-70150-00034</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sorex Mystery Box Special Bra Cantik Kawat/Tanpa Kawat Setara cup B</t>
+          <t>Javina Mahira Abaya Series - Black</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>58800</v>
+        <v>445000</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-13765543/sorex_sorex_mystery_box_special_bra_cantik_kawat-tanpa_kawat__setara_cup_b_full03_h94hmgrl.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393151/javina_javina_mahira_abaya_series_-_black_full01_fk49x92r.jpg</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-mystery-box-special-bra-cantik-kawat-tanpa-kawat-setara-cup-b/ps--SOO-60051-00497?ds=SOO-60051-00497-00003&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b9l2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00497</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-black/ps--JAO-70150-00034?ds=JAO-70150-00034-00004&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00034&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOO-60051-00471</t>
+          <t>JAO-70150-00037</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sorex 17232 Casual Style Bra - Cup B</t>
+          <t>Javina Mahira Abaya Series - White Grey</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>39004</v>
+        <v>445000</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12493876/sorex_sorex_bra_busa_tanpa_kawat_kait_2_setara_cup_b_bh_harian_casual_style_bra_17232_full01_rx5utll6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393243/javina_javina_mahira_abaya_series_-_white_grey_full01_jrnl83ek.jpg</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-17232-casual-style-bra-cup-b/ps--SOO-60051-00471?ds=SOO-60051-00471-00005&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/eggqgMiupqXxacM5eGPWfSu4IWA9I8NZxGRTYuIBep1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00471</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-white-grey/ps--JAO-70150-00037?ds=JAO-70150-00037-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84k38AQ6fHfgUaMI8dYOo1vlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00037&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOO-60051-00280</t>
+          <t>NIE-12227-11677</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Cute Ribbon Brukat Bunga BT 7002</t>
+          <t>NIKE Men Basketball Jordan Essentials Holiday T-Shirt Kaos Basket Pria [FD7010-133]</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>102312</v>
+        <v>389000</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-8395621/sorex_sorex_lingerie_baju_tidur_premium_satin_look_cute_ribbon_brukat_bunga_bt_7002_full01_pbu0j5i7.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552999/nike_nike_men_basketball_jordan_essentials_holiday_t-shirt_kaos_basket_pria_-fd7010-133-_full02_lpte85hd.jpeg</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-cute-ribbon-brukat-bunga-bt-7002/ps--SOO-60051-00280?ds=SOO-60051-00280-00003&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9e2UdUDLB5ofwWKbsz373i7/ZVxa2kFaxpfYcDtaKNmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00280</t>
+          <t>https://www.blibli.com/p/nike-men-basketball-jordan-essentials-holiday-t-shirt-kaos-basket-pria-fd7010-133/ps--NIE-12227-11677?ds=NIE-12227-11677-00002&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzrqhn2WeenYl70j0tMOsyiGkIqt3bNpbYK+L444UhhhwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11677</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BAG-70027-00459</t>
+          <t>NIE-12227-11674</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Handuk Bayi | Handuk Anak | Sorex Towel 100 X 50</t>
+          <t>NIKE Men Running Dri-FIT Tee Trail T-Shirt Kaos Lari Pria [FN0826-010]</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>69400</v>
+        <v>325000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//78/MTA-11021170/sorex_handuk_bayi_-_handuk_anak_-_sorex_towel_100_x_50_-_full01_3d2184d8.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552995/nike_nike_men_running_dri-fit_tee_trail_t-shirt_kaos_lari_pria_-fn0826-010-_full03_mpilnh7y.jpeg</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1657,37 +1657,37 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/handuk-bayi-handuk-anak-sorex-towel-100-x-50/ps--BAG-70027-00459?ds=BAG-70027-00459-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmDdmyk291xKlcwhaoJiafSwI6rvWM2fME09xrH8SZaRY=&amp;cnc=false&amp;pickupPointCode=PP-3172350&amp;pid1=BAG-70027-00459</t>
+          <t>https://www.blibli.com/p/nike-men-running-dri-fit-tee-trail-t-shirt-kaos-lari-pria-fn0826-010/ps--NIE-12227-11674?ds=NIE-12227-11674-00003&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCy2vnCdR/EtZOI/3G854fFo0wn7+82bYRdE+2sGGRS84ijsaMV2OlAUratgIjx1Jq1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDkaTmXM5ymgQU76aQtitcsKDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11674</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOO-60051-00552</t>
+          <t>NIE-12227-11673</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Sorex CD wanita Midi Super Soft Adem Lembut CD 15232</t>
+          <t>NIKE Men Basketball Ja Max90 Long-Sleeve T-Shirt Kaos Basket Pria [FN0808-010]</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>20580</v>
+        <v>469000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-20762030/sorex_sorex_cd_wanita_midi_super_soft_adem_lembut_cd_15232_full02_rfcio72k.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552996/nike_nike_men_basketball_ja_max90_long-sleeve_t-shirt_kaos_basket_pria_-fn0808-010-_full03_rbr4mdgj.jpeg</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1695,37 +1695,37 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-wanita-midi-super-soft-adem-lembut-cd-15232/ps--SOO-60051-00552?ds=SOO-60051-00552-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2aqponFxzbpAb1YzoA8RzrTwV2wi/WgIu36XET8QmhnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00552</t>
+          <t>https://www.blibli.com/p/nike-men-basketball-ja-max90-long-sleeve-t-shirt-kaos-basket-pria-fn0808-010/ps--NIE-12227-11673?ds=NIE-12227-11673-00002&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14uGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11673</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOO-60051-00574</t>
+          <t>NIE-12227-11523</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Midi Basic Comfort Chic Adem Lembut Pori-pori CD 1260</t>
+          <t>NIKE Men Basketball Cleveland Cavaliers NBA T-shirt Basket [DR6369-680]</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24255</v>
+        <v>359000</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-21977111/sorex_sorex_celana_dalam_wanita_midi_basic_comfort_chic_adem_lembut_pori-pori_cd_1260_full02_e9br0e3e.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429261/nike_nike_men_basketball_cleveland_cavaliers_nba_t-shirt_basket_-dr6369-680-_full03_u6z1ye0p.jpeg</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1733,113 +1733,113 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-midi-basic-comfort-chic-adem-lembut-pori-pori-cd-1260/ps--SOO-60051-00574?ds=SOO-60051-00574-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4agIrFT0SP5wuYJuKSH3/MKIivnlZfmSl5m7OY9r1lyLVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00574</t>
+          <t>https://www.blibli.com/p/nike-men-basketball-cleveland-cavaliers-nba-t-shirt-basket-dr6369-680/ps--NIE-12227-11523?ds=NIE-12227-11523-00005&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGGkIqt3bNpbYK+L444UhhhzzZ/8U3KjGLexZ+hPeKg01esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3016028&amp;pid1=NIE-12227-11523</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BAK-24890-01845</t>
+          <t>HEL-60024-00658</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Heaven Lights</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sorex Stagen 8052 - Slimming Corset Korset Pelangsing</t>
+          <t>Heaven Lights Saiba Blouse - Royal Blue</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>69500</v>
+        <v>249000</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//91/MTA-8106732/sorex_sorex_stagen_8052_-_slimming_corset_korset_pelangsing_full02_k0q4f928.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/108/MTA-165507758/heaven_lights_heaven_lights_saiba_series_blouse_-_royal_blue_full02_pisk3vrj.jpg</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-stagen-8052-slimming-corset-korset-pelangsing/ps--BAK-24890-01845?ds=BAK-24890-01845-00004&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70O/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURovYCHtpJ9m77Mt/1K6pUZq5DmAz1A2e+8nO/jzyY+jFw=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01845&amp;tag=new</t>
+          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-royal-blue/ps--HEL-60024-00658?ds=HEL-60024-00658-00005&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh/BYfIayXYsLzJq+mx6RyfZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3525161&amp;pid1=HEL-60024-00658</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOO-60051-00415</t>
+          <t>NIE-12227-11638</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Basic Maxi Super Soft Polos CD 1250</t>
+          <t>NIKE Women Running Dri-FIT Swift Element UV Crew-Neck Top Pakaian Lari Wanita [FB4298-010]</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>22050</v>
+        <v>545000</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//92/MTA-11457236/sorex_sorex_cd_wanita_basic_maxi_super_soft_polos_cd_1250_full02_h25v300t.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429424/nike_nike_women_running_dri-fit_swift_element_uv_crew-neck_top_pakaian_lari_wanita_-fb4298-010-_full09_fqh7v9lc.jpeg</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-maxi-super-soft-polos-cd-1250/ps--SOO-60051-00415?ds=SOO-60051-00415-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+M7n3m+RcH5pfuq34yOwEpJ5DwTCoYZ7pKxqIR1psUuFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00415</t>
+          <t>https://www.blibli.com/p/nike-women-running-dri-fit-swift-element-uv-crew-neck-top-pakaian-lari-wanita-fb4298-010/ps--NIE-12227-11638?ds=NIE-12227-11638-00003&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJU0wn7+82bYRdE+2sGGRS84wOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDoiJJ1OU1JS2unXAZ1VoEmmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11638</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BAK-24890-01842</t>
+          <t>ADS-12698-13527</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sorex Corset 4431 Korset Pasca Melahirkan</t>
+          <t>adidas Men Football Jersey Training Messi Baju Bola Pria [IZ2996]</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>73500</v>
+        <v>425000</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//101/MTA-8077654/sorex_sorex_corset_4431_korset_pasca_melahirkan_full01_ejmfoega.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164875220/adidas_adidas_men_football_jersey_training_messi_baju_bola_pria_-iz2996-_full02_spr5ewl2.jpeg</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -1847,75 +1847,75 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-4431-korset-pasca-melahirkan/ps--BAK-24890-01842?ds=BAK-24890-01842-00004&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9nxsCWE66IToY6H/3TEJYi/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURo6N0sa75uwpeazB0wvCSQYtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01842</t>
+          <t>https://www.blibli.com/p/adidas-men-football-jersey-training-messi-baju-bola-pria-iz2996/ps--ADS-12698-13527?ds=ADS-12698-13527-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxIcZ42UdpGRIP9haxRfSXo0wn7+82bYRdE+2sGGRS84Mt/3c2rmpbvxfTWQ1SJQeFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13527</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MAM-60109-00113</t>
+          <t>HEL-60024-00657</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Heaven Lights</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CD SOREX 1239 Celana Dalam Wanita</t>
+          <t>Heaven Lights Saiba Blouse - Plum</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>14500</v>
+        <v>249000</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-155195754/sorex_cd-sorex-1239-celana-dalam-wanita_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/99/MTA-165507009/heaven_lights_heaven_lights_saiba_series_blouse_-_plum_full01_o6nkay6z.jpg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/cd-sorex-1239-celana-dalam-wanita/ps--MAM-60109-00113?ds=MAM-60109-00113-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushK/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3094603&amp;pid1=MAM-60109-00113</t>
+          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-plum/ps--HEL-60024-00657?ds=HEL-60024-00657-00002&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh3l+QY3wMrVJqg5NI5IcJapbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3501982&amp;pid1=HEL-60024-00657</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MOI-70007-00855</t>
+          <t>BEF-44369-01450</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Kesehatan &amp; Kecantikan</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Nivea</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Sorex 1250 CD Celana Dalam Wanita - Maxi Panty - Super Soft | BISA PILIH WARNA</t>
+          <t>WHS - NIVEA Extra White Anti Age Body Serum [180mL/ Twinpack]</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>17127</v>
+        <v>105930</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-154953940/sorex_sorex_1250_cd_celana_dalam_wanita_-_maxi_panty_-_super_soft_-_bisa_pilih_warna_full01_jm7mqm90.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/102/MTA-164580356/nivea_nivea_body_serum_extra_white_anti_age_spf33_180ml_twinpack_full02_f5ecp6kb.jpg</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -1923,37 +1923,37 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-1250-cd-celana-dalam-wanita-maxi-panty-super-soft-bisa-pilih-warna/ps--MOI-70007-00855?ds=MOI-70007-00855-00020&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+VDd0aEb2mnEzhIWyggW8h5Yw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00855</t>
+          <t>https://www.blibli.com/p/whs-nivea-extra-white-anti-age-body-serum-180ml-twinpack/ps--BEF-44369-01450?ds=BEF-44369-01450-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq/ovRQ0Z022L3Iu9yw6+ylB186d66YvaC2JQyxVan28sVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50HmOPOo9vK7ml77mG9hBQkQ2RD2hjh2mlEX+5RI/nJrbRlLYVOA1NrlZjxU92acsmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3013016&amp;pid1=BEF-44369-01450</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>WIO-70008-00368</t>
+          <t>ADS-12698-13483</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>B501 | Celana Dalam Wanita Sorex - Sorex 1239</t>
+          <t>adidas Men Football Polo Shirt Manchester United Tiro 24 Baju Bola Pria [IT2028]</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43860</v>
+        <v>552000</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/102/MTA-145016957/sorex_b501_-_celana_dalam_wanita_sorex_-__sorex_1239_full24_djih1f55.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114197/adidas_adidas_men_football_polo_shirt_manchester_united_tiro_24_baju_bola_pria_-it2028-_full03_ovnxbccg.jpeg</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -1961,37 +1961,37 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/b501-celana-dalam-wanita-sorex-sorex-1239/ps--WIO-70008-00368?ds=WIO-70008-00368-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7D5EnLGW/JufRUomLn7UXUhvPhx3NWvvw1KpDH3qrKOEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00368</t>
+          <t>https://www.blibli.com/p/adidas-men-football-polo-shirt-manchester-united-tiro-24-baju-bola-pria-it2028/ps--ADS-12698-13483?ds=ADS-12698-13483-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9edfIwrMRf6gYe7nhVvn27vDN9u2pSChajLuMWmnt1nzFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13483</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>WIO-70008-00425</t>
+          <t>ADS-12698-13451</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>B165 - Sorex Camisol Tanktop Tali Lebar Renda Brukat Free Size</t>
+          <t>adidas Men Football Jersey Arsenal Home 24/25 Baju Bola Pria [IT6141]</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>69360</v>
+        <v>1020000</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/98/MTA-148414570/sorex_b165_-_sorex_camisol_tanktop_tali_lebar_renda_brukat__free_size_full04_fx3z1ejy.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114157/adidas_adidas_men_football_jersey_arsenal_home_24-25_baju_bola_pria_-it6141-_full05_f1ymtfqk.jpeg</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1999,113 +1999,113 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/b165-sorex-camisol-tanktop-tali-lebar-renda-brukat-free-size/ps--WIO-70008-00425?ds=WIO-70008-00425-00001&amp;source=SEARCH&amp;sid=be5df0e8142e3c59&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70NR/YYwHagZb1LHNFss5QDsA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKOsT7WmHaYlyEM/a8kAvWoJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00425</t>
+          <t>https://www.blibli.com/p/adidas-men-football-jersey-arsenal-home-24-25-baju-bola-pria-it6141/ps--ADS-12698-13451?ds=ADS-12698-13451-00004&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq8BEYo4o198IKoVpkJZ1CNbAnAO3DeMVCIz5wjRuGXJuVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+UvM5rYQ2b7sWjAIjInNGfx9nPBIkgRjZAjSv9izhQ1pmwIpKMEQEhdOIn3G3lFnHYkG1UxvbL2nrGLalYS2G2RCnk+mz+9IdUNYHXY+enerZZHJddTpXmDglIJ8ujJq3&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13451</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>WIO-70008-00004</t>
+          <t>BAH-70197-00002</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Baby Hai</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>B549 | CELANA DALAM WANITA SOREX 1238 SIZE M - XXL</t>
+          <t>BABY HAI Rayya Series Ramadhan Abizar Series Color 2 - Baju Anak Laki - Laki Lengan Pendek Celana Panjang</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>17900</v>
+        <v>30100</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-10235637/sorex_b549_-_celana_dalam_wanita_sorex_1238_size_m_-_xxl_full03_dzx51bne.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//112/MTA-94766386/baby_hai_baby_hai_rayya_series_ramadhan_abizar_series_color_2_-_baju_anak_laki_-_laki_lengan_pendek_celana_panjang_full01_he26rnqh.jpg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/b549-celana-dalam-wanita-sorex-1238-size-m-xxl/ps--WIO-70008-00004?ds=WIO-70008-00004-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WIIGmm33viDj/+hYQaGlpdnNcxv6ypS7E4ynJ64PnbwlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00004</t>
+          <t>https://www.blibli.com/p/baby-hai-rayya-series-ramadhan-abizar-series-color-2-baju-anak-laki-laki-lengan-pendek-celana-panjang/ps--BAH-70197-00002?ds=BAH-70197-00002-00007&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EMmbE/LLJy7W3VwRB8pUx8xE+ELff8mp6Jxh05BtXdSLlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWuSVd/bvsBAZ/8InAAmnjqC0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3529390&amp;pid1=BAH-70197-00002</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MOI-70007-00595</t>
+          <t>KOE-70078-00007</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>KOZE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita - CD 1257 - Mini Panty - Super Soft - M - XXL</t>
+          <t>KOZE - Premium Comfort Green T-shirt - Kaos Polos Hijau</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>13464</v>
+        <v>49500</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-50903517/br-m036969-05088_sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-99600694/koze_koze_-_premium_comfort_green_t-shirt_-_kaos_polos_hijau_full01_eukw1txs.jpg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl/ps--MOI-70007-00595?ds=MOI-70007-00595-00050&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIsG3614SFgY9ax7qJJTMRKNj/JAGGKMjevlfkFhtVG7gFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00595</t>
+          <t>https://www.blibli.com/p/koze-premium-comfort-green-t-shirt-kaos-polos-hijau/ps--KOE-70078-00007?ds=KOE-70078-00007-00004&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLe3ycwbRnPkH0lW7Gv/QJVMlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGp04hRlADTLARbcEgnz4dqM=&amp;cnc=false&amp;pickupPointCode=PP-3472636&amp;pid1=KOE-70078-00007</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOO-60051-01043</t>
+          <t>LGM-60021-00230</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>LGS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sorex Bra Seamless Tanpa Kawat Kait 2 Cup A-B Busa Tipis BH 65004</t>
+          <t>LGS Slim Fit Kaos Polo Pria - White Blue Green [JTS.325.M1846F.01.C]</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>61600</v>
+        <v>146000</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-159825520/sorex_sorex_bra_seamless_tanpa_kawat_kait_2_cup_a-b_busa_tipis_bh_65004_full02_ds94bo75.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//85/MTA-1520625/lgs_lgs-slim-fit-kaos-polo-pria---white-blue-green--jts-325-m1846f-01-c-_full02.jpg</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -2113,113 +2113,113 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-seamless-tanpa-kawat-kait-2-cup-a-b-busa-tipis-bh-65004/ps--SOO-60051-01043?ds=SOO-60051-01043-00017&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH5nh6wQ6PEr8y5kW/jpBoqaA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01043</t>
+          <t>https://www.blibli.com/p/lgs-slim-fit-kaos-polo-pria-white-blue-green-jts-325-m1846f-01-c/ps--LGM-60021-00230?ds=LGM-60021-00230-00003&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushIJcaEJLcqsH3r6UABTq0TLwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3034126&amp;pid1=LGM-60021-00230</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOO-60051-00995</t>
+          <t>ELM-60027-00165</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>ELLIPSES INC</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>(2 PCS) Sorex Man Lifetyle Boxer Pria Celana Dalam Cowo Adem Trunk LK 38285</t>
+          <t>ELLIPSESINC Kaos Oversize Wanita &amp; Pria BECCA EDITION</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>69000</v>
+        <v>35000</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/103/MTA-147676135/sorex_-2_pcs-_sorex_man_lifetyle_boxer_pria_celana_dalam_cowo_adem_trunk_lk_38285_full04_futs8yik.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//104/MTA-21988625/ellipses_inc_ellipsesinc_kaos_oversize_wanita_-_pria_becca_edition_full24_si0ww14j.jpg</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/2-pcs-sorex-man-lifetyle-boxer-pria-celana-dalam-cowo-adem-trunk-lk-38285/ps--SOO-60051-00995?ds=SOO-60051-00995-00001&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OT2r7fOYNS0fn24lYkspaBA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00995</t>
+          <t>https://www.blibli.com/p/ellipsesinc-kaos-oversize-wanita-pria-becca-edition/ps--ELM-60027-00165?ds=ELM-60027-00165-00007&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGT2r7fOYNS0fn24lYkspaBeeU8gA9woEea/RtkRh7ZnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A8s4+rWZ7zCXM6RAaC0DCw0Kkkafi+cjIiXcB4olXgzyFWbDfLF/5KnLYCxjUA9SQsd5cgi/2OYPwjclFVcBAkX&amp;cnc=false&amp;pickupPointCode=PP-3085683&amp;pid1=ELM-60027-00165</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOO-60051-00861</t>
+          <t>EVO-70024-00183</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>EVERNEXT</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Katun Basic Cutting Midi Polos Shape Up CD 9075</t>
+          <t>EVERNEXT - DOMPET KUNCI KENDARAAN KEY WALLET ARCO GANTUNGAN KUNCI MOBIL MOTOR DOMPET KARTU DOMPET STNK</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36800</v>
+        <v>45000</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112996396/sorex_sorex_celana_dalam_katun_basic_cutting_midi_polos_shape_up_cd_9075_full02_kdz4sy7w.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//117/MTA-78887691/evernext_evernext_-_dompet_kunci_kendaraan_key_wallet_arco_gantungan_kunci_mobil_motor_dompet_kartu_dompet_stnk_full11_f18edunq.jpg</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-katun-basic-cutting-midi-polos-shape-up-cd-9075/ps--SOO-60051-00861?ds=SOO-60051-00861-00001&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFl2MnZWZ1TwAwuODpbBDUVuyoMNIQ+r4z5DJ9oW5/gjVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00861</t>
+          <t>https://www.blibli.com/p/evernext-dompet-kunci-kendaraan-key-wallet-arco-gantungan-kunci-mobil-motor-dompet-kartu-dompet-stnk/ps--EVO-70024-00183?ds=EVO-70024-00183-00002&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBgmMdlWBN8y5Inger9NURmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vafHKVkJci5PAC/hnMA2UzpLyTJdReOx9JfHVI27hOzzM=&amp;cnc=false&amp;pickupPointCode=PP-3357698&amp;pid1=EVO-70024-00183</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOO-60051-00769</t>
+          <t>HUP-60027-03538</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Hush Puppies</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Hamil Midi Maternity Panty Fit To L-XXL CD 1148</t>
+          <t>Hush Puppies Farro 2 Polo Shirt Pria</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>41895</v>
+        <v>224420</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-46523947/sorex_sorex_celana_dalam_wanita_hamil_midi_maternity_panty_fit_to_l-xxl_cd_1148_full01_r4vls97f.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-159627197/hush-puppies_hush-puppies-farro-2-polo-shirt-pria_full01.jpg</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -2227,90 +2227,90 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-fit-to-l-xxl-cd-1148/ps--SOO-60051-00769?ds=SOO-60051-00769-00001&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxg8vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00769</t>
+          <t>https://www.blibli.com/p/hush-puppies-farro-2-polo-shirt-pria/ps--HUP-60027-03538?ds=HUP-60027-03538-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q97B/omnSKxUeafXYYVk6xbwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3095796&amp;pid1=HUP-60027-03538</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOO-60051-00568</t>
+          <t>BLI-15014-16569</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>JP Collection</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Cute Y 1006</t>
+          <t>JP Collection OBSP-0285-TWOWHEELS Kaos Anak Laki-Laki</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>20286</v>
+        <v>30970</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-21173323/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_cute_y_1006_full02_3b2ive6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//79/MTA-3103224/jp-collection_jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki_full16.jpg</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-cute-y-1006/ps--SOO-60051-00568?ds=SOO-60051-00568-00001&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt0whBxl0y0A/lKFMfuSR+YzJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00568</t>
+          <t>https://www.blibli.com/p/jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki/ps--BLI-15014-16569?ds=BLI-15014-16569-00029&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7ENfepXUSJ3qMPK5468+MysuJLWhzdnoh86j6S/07IpFSVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWg3ctvKPtt4ygLDf9aZr0F60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3523009&amp;pid1=BLI-15014-16569</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOO-60051-00634</t>
+          <t>BLM-60037-01195</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>BLYTHE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Gorgeous Nightgown Brukat BT 7008</t>
+          <t>Blythe Premium Jayden Flannel Shirt Kemeja Kotak Kotak Lengan Panjang Pria</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>116424</v>
+        <v>249000</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-24930571/sorex_sorex_lingerie_lovely_series_baju_tidur_premium_satin_look_gorgeous_nightgown_brukat_bt_7008_full05_uy3lb726.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-155401690/blythe_blythe_premium_jayden_flannel_shirt_kemeja_kotak_kotak_lengan_panjang_pria_full18_itluztdu.jpeg</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-gorgeous-nightgown-brukat-bt-7008/ps--SOO-60051-00634?ds=SOO-60051-00634-00002&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIORipaXzN/Cai///2rmGlQVrU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00634</t>
+          <t>https://www.blibli.com/p/blythe-premium-jayden-flannel-shirt-kemeja-kotak-kotak-lengan-panjang-pria/ps--BLM-60037-01195?ds=BLM-60037-01195-00008&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444UhhhDHoqKmYsTFC9Iv89Ei/0YlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52Np6XO8WKdHoYeMogok9fdb2BUOOGusSvfBtxTrjv/cwqeaQg1dtTjyms/VfSkXqs=&amp;cnc=false&amp;pickupPointCode=PP-3525890&amp;pid1=BLM-60037-01195</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOO-60051-00012</t>
+          <t>KIK-70088-00020</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2320,20 +2320,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Kiyora</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+          <t>Kiyora Sydney Atasan Wanita - Pink Crème</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>37044</v>
+        <v>89000</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709188/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_m8u3eoep.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044786/kiyora_kiyora_sydney_atasan_wanita_-_pink_cr-me_full01_kunyukph.jpeg</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -2341,37 +2341,37 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00012?ds=SOO-60051-00012-00002&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOcJUl07vjZHSHboXNQRMjgVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00012</t>
+          <t>https://www.blibli.com/p/kiyora-sydney-atasan-wanita-pink-cr-me/ps--KIK-70088-00020?ds=KIK-70088-00020-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uT2r7fOYNS0fn24lYkspaBKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKAe+OCLJmeyKGF1EdpUJUnlfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00020</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOO-60051-00360</t>
+          <t>LIS-14924-00806</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Sorex Bra Kawat Busa Kait 2 Setara Cup B Bra Polos BH 11108</t>
+          <t>Lion Star Folding Hanger 24 Sticks Jemuran Baju</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>65660</v>
+        <v>64000</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10647376/sorex_sorex_bra_kawat_busa_kait_2_setara_cup_b_bra_polos_bh_11108_full03_j1xc7du0.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090270/lion_star_lion_star__folding_hanger_24_sticks_jemuran_baju_full01_o3vah5cz.jpg</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -2379,37 +2379,37 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-kawat-busa-kait-2-setara-cup-b-bra-polos-bh-11108/ps--SOO-60051-00360?ds=SOO-60051-00360-00012&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1R4AsY2zbEuPf0mEleNTFlvp6v2ww3rMJNM2z4cVX8YJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00360</t>
+          <t>https://www.blibli.com/p/lion-star-folding-hanger-24-sticks-jemuran-baju/ps--LIS-14924-00806?ds=LIS-14924-00806-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzw6DOMtn+gYi+5f5Iqa4pGT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00806</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOO-60051-00042</t>
+          <t>LIS-14924-00805</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+          <t>Lion Star Folding Hanger 16 Sticks Jemuran Baju</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>37044</v>
+        <v>49500</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7886901/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_g40b4t61.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148088190/lion_star_lion_star_folding_hanger_16_sticks_jemuran_baju_full03_igkn11o8.jpg</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -2417,37 +2417,37 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00042?ds=SOO-60051-00042-00001&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOPTsyyIDmFh47MtBFYuGtqVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00042</t>
+          <t>https://www.blibli.com/p/lion-star-folding-hanger-16-sticks-jemuran-baju/ps--LIS-14924-00805?ds=LIS-14924-00805-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00805</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOO-60051-00061</t>
+          <t>LIS-14924-00807</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Hamil Motif Katun Lembut Maternity Panty CD 1140</t>
+          <t>Lion Star Folding Hanger 30 Sticks Jemuran Baju</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33320</v>
+        <v>74500</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7895759/sorex_sorex_celana_dalam_hamil_motif_katun_lembut_maternity_panty_cd_1140_full02_j2ua28na.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090286/lion_star_lion_star_folding_hanger_30_sticks_jemuran_baju_full02_tv6sxt04.jpg</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -2455,37 +2455,37 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-hamil-motif-katun-lembut-maternity-panty-cd-1140/ps--SOO-60051-00061?ds=SOO-60051-00061-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HcTUF9bqmkuAK1tOmfkDJzySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE9Nv1SOi0krVWYDfqxiBKGaaf+79sqnkYv3mggmh/hvP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00061</t>
+          <t>https://www.blibli.com/p/lion-star-folding-hanger-30-sticks-jemuran-baju/ps--LIS-14924-00807?ds=LIS-14924-00807-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6+ofzQPca16/hNKbnSDAJ6/HAkxoVke7cxJ4LyInlLenUcuWlxDj3lNx/vI4M4PH+jqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00807</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOO-60051-00427</t>
+          <t>LIS-14924-00733</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Pita Mungil Miniset Y 1103</t>
+          <t>Lion Star Jemuran Baju / Laundry Hanger Tripod</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>30870</v>
+        <v>198600</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-11560139/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_pita_mungil_miniset_y_1103_full01_m3k9nvkz.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-127266381/lion_star_lion_star_jemuran_baju_-_laundry_hanger_tripod_full01_odf238gk.jpg</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -2493,14 +2493,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-pita-mungil-miniset-y-1103/ps--SOO-60051-00427?ds=SOO-60051-00427-00003&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EOacJbj2cXRya+Q0SCnBRoFYw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+GmfylN82DRKT97iLHHfPs20XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00427</t>
+          <t>https://www.blibli.com/p/lion-star-jemuran-baju-laundry-hanger-tripod/ps--LIS-14924-00733?ds=LIS-14924-00733-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JHLgoC/MYdp69cMUdWFnV1U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHI/2j+o1IQC0bIBUNNPAppAtZ8uEOn0Ql/eC8q/oWrwBcHn0AWNhN6m5BpKP78qwDE=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00733</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOO-60051-00274</t>
+          <t>9TW-60021-01565</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2510,96 +2510,96 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>9 to 12</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Midi Katun Mix 1179</t>
+          <t>9 to 12 Mia Linen Shirt Kemeja Lengan Panjang Linen Kantor Wanita</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26460</v>
+        <v>149000</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-8385514/sorex_sorex_cd_basic_midi_katun_mix_1179_full01_f8nmyoy6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-91217262/9_to_12_9_to_12_mia_linen_shirt_kemeja_wanita_full02_kcqs7mya.jpeg</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-midi-katun-mix-1179/ps--SOO-60051-00274?ds=SOO-60051-00274-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPzIOwJf81+FzoG8lPia/LMVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00274</t>
+          <t>https://www.blibli.com/p/9-to-12-mia-linen-shirt-kemeja-lengan-panjang-linen-kantor-wanita/ps--9TW-60021-01565?ds=9TW-60021-01565-00003&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushKGkIqt3bNpbYK+L444UhhhHxbrE1ojlIiyeznGUhdMUeWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxAAm0Ky79H2kukIikI3WbdDfjQtllH9FlUcG3SRRgUPwaH9/p2g1nm/YLqDhhmudNewKd+f0eOUHKyU4XgeKwfPg==&amp;cnc=false&amp;pickupPointCode=PP-3519985&amp;pid1=9TW-60021-01565</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOO-60051-00013</t>
+          <t>LIS-14924-00572</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Sorex Basic Super Soft 1255 Celana Dalam Wanita - Multicolor</t>
+          <t>Lion Star Jepitan Baju JB-1 Laundry Clips (20 Pcs)</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>22785</v>
+        <v>12500</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709258/sorex_sorex_basic_super_soft_1255_celana_dalam_wanita_-__multicolor_full01_t4dg2gm7.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-11691417/lion_star_lion_star_001_laundry_clips_full01_exf0fig2.jpg</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-basic-super-soft-1255-celana-dalam-wanita-multicolor/ps--SOO-60051-00013?ds=SOO-60051-00013-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q8xmBGsZhEvfPzU+A1f7vo+JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00013</t>
+          <t>https://www.blibli.com/p/lion-star-jepitan-baju-jb-1-laundry-clips-20-pcs/ps--LIS-14924-00572?ds=LIS-14924-00572-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeC/HAkxoVke7cxJ4LyInlLeONM/pwQSpw/TgMoD9qDeE1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt51SPFgCl9oi27QotXy+Xqg7ncDBNXS0U6F+cIYt7Ox4Ox3lyCL/Y5g/CNyUVVwECRc=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00572</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOO-60051-00295</t>
+          <t>DAO-70167-00003</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Dacco</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Basic Mini Super Soft Lembut Nyaman Dipakai CD 1257</t>
+          <t>Dacco Mama Pad 3D Breastpad [24 pcs]</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>19992</v>
+        <v>22000</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18327672/sorex_sorex_celana_dalam_wanita_basic_mini_super_soft_lembut_nyaman_dipakai_cd_1257_full02_cqx8djmw.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/92/MTA-127240561/dacco_dacco-mama-pad-breastpad-3d-isi-24pcs_full02.jpg</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -2607,37 +2607,37 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-mini-super-soft-lembut-nyaman-dipakai-cd-1257/ps--SOO-60051-00295?ds=SOO-60051-00295-00001&amp;source=SEARCH&amp;sid=70b4465ecfd9ebbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JSivqeb4HprTDVqcGV3PQCI/EEoP3uESdSpv1I9i7XJFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00295</t>
+          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-24-pcs/ps--DAO-70167-00003?ds=DAO-70167-00003-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+T2r7fOYNS0fn24lYkspaB/A9+ItZOLJU0KYEdc1CW5NldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00003</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOO-60051-00175</t>
+          <t>DAO-70167-00004</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Dacco</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sorex Bra Extra Comfort Busa Sedang Kawat Kait 3 Setara Cup B BH 3262</t>
+          <t>Dacco Mama Pad 3D Breastpad [56 pcs]</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>55125</v>
+        <v>45000</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7994480/sorex_sorex_bra_extra_comfort_busa_sedang_kawat_kait_3_setara_cup_b_bh_3262_full03_bpk5yj9s.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/95/MTA-127240590/dacco_dacco-mama-pad-breastpad-3d-isi-56pcs_full02.jpg</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -2645,14 +2645,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-sedang-kawat-kait-3-setara-cup-b-bh-3262/ps--SOO-60051-00175?ds=SOO-60051-00175-00014&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00175</t>
+          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-56-pcs/ps--DAO-70167-00004?ds=DAO-70167-00004-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBjgJtif7ZErD1A5G7Do9RH9ldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00004</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOO-60051-00010</t>
+          <t>KIK-70088-00045</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2662,111 +2662,111 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>KAORI</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sorex Cd Basic Bahan Super Soft 1251 Celana dalam Wanita</t>
+          <t>Kaori Seira Cardigan Outer Wanita - Bata</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>23667</v>
+        <v>75000</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7708515/sorex_sorex_cd_basic_bahan_super_soft_1251_celana_dalam_wanita_full03_t1r1rwvf.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93066052/kaori_kaori_seira_cardigan_outer_wanita_-_bata_full01_njcswb4w.jpeg</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-bahan-super-soft-1251-celana-dalam-wanita/ps--SOO-60051-00010?ds=SOO-60051-00010-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73OhY4+eXFWJ8a6ITW30cbFkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00010</t>
+          <t>https://www.blibli.com/p/kaori-seira-cardigan-outer-wanita-bata/ps--KIK-70088-00045?ds=KIK-70088-00045-00002&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCycpTyS3V4Bt86XaxsYSf7+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJvUe1T40+jFxsL3RTfsG+znMf7cp48yL26Dsz2eCVLdZfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00045</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOO-60051-00004</t>
+          <t>INP-60076-02184</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Mainan, Buku &amp; Stationery</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Akedo</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Basic Midi Soft &amp; Comfort CD 1228 Katun Mix Adem</t>
+          <t>Legends of Akedo PowerStorm S4 Giants Action Figure 15190 - Assorted</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26754</v>
+        <v>179000</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7700289/sorex_sorex_celana_dalam_wanita_basic_midi_soft_-_comfort_cd_1228_katun_mix_adem_full02_nnq90z7s.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-95198657/akedo_legends_of_akedo_powerstorm_s4_giants_action_figure_15190_-_assorted_full02_jykgck93.jpeg</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-midi-soft-comfort-cd-1228-katun-mix-adem/ps--SOO-60051-00004?ds=SOO-60051-00004-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy/kEEC5/YmxIZLZ3qqgiVystYhaTIOsJmPMG3J3j/VXFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00004</t>
+          <t>https://www.blibli.com/p/legends-of-akedo-powerstorm-s4-giants-action-figure-15190-assorted/ps--INP-60076-02184?ds=INP-60076-02184-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNylnry4OkDBy9LifrRfNVhITodBPeru5IipRxn8umZ90=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-02184</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOO-60051-00258</t>
+          <t>INP-60076-01330</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Mainan, Buku &amp; Stationery</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Happy Toon</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sorex CD 1230 Basic Katun WARNA</t>
+          <t>Happy Toon NB-03900 Family Small Toys Iron Basket Mainan Anak</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>21900</v>
+        <v>55000</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8247465/sorex_sorex_cd_1230_basic_katun_warna_full02_dcmpebfb.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-54407440/happy_toon_happy_toon_nb-03900_family_small_toys_iron_basket_mainan_anak_full06_extz21fi.jpg</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-1230-basic-katun-warna/ps--SOO-60051-00258?ds=SOO-60051-00258-00003&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goKIIGmm33viDj/+hYQaGlpdxFbcOmnv9bSync5a5kF4+lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00258</t>
+          <t>https://www.blibli.com/p/happy-toon-nb-03900-family-small-toys-iron-basket-mainan-anak/ps--INP-60076-01330?ds=INP-60076-01330-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdMvid824Op0k6a8gP8mZi4h3fZ0ly05AmuL0ur5cecCosM0GrDScBYeg5CPA4jmdc=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-01330</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOO-60051-00467</t>
+          <t>KIK-70088-00004</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2776,400 +2776,400 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Kiyora</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Sorex Bra Tanpa Kawat Busa Kait 3 Setara Cup B Bra Harian Casual Comfort BH 65001</t>
+          <t>Kiyora Claude Atasan Wanita - Hitam</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>52920</v>
+        <v>99000</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-12228968/sorex_sorex_bra_tanpa_kawat_busa_kait_3_setara_cup_b_bra_harian_casual_comfort_bh_65001_full02_br99daxr.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044758/kiyora_kiyora_claude_atasan_wanita_-_hitam_full01_vkgwv5e0.jpeg</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-busa-kait-3-setara-cup-b-bra-harian-casual-comfort-bh-65001/ps--SOO-60051-00467?ds=SOO-60051-00467-00002&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+iQM9MJM8LcOV1edc2sOTJmjateuiD2bQM1xoGRlYR/JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00467</t>
+          <t>https://www.blibli.com/p/kiyora-claude-atasan-wanita-hitam/ps--KIK-70088-00004?ds=KIK-70088-00004-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKODomkMVGOhLlHkEhAouZJtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00004</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOO-60051-00125</t>
+          <t>UNI-60025-01804</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>MOLTO</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Sorex Bra Extra Comfort Busa Tanpa Kawat Kait 2 Setara Cup B BH 9850</t>
+          <t>Molto Pelembut &amp; Pewangi Pakaian Softener Parfum Boost Himalayan Honeysuckle [650 mL] + Molto Trika Floral Bliss [300ml/2 Pcs] Free Jade Chielo Box</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>55125</v>
+        <v>33500</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-18247352/sorex_sorex_bra_extra_comfort_busa_tanpa_kawat_kait_2_setara_cup_b_bh_9850_full01_n9w2qvqq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/98/MTA-167406424/molto_molto_pelembut_-_pewangi_pakaian_softener_parfum_boost_himalayan_honeysuckle_-650_ml-_-_molto_trika_floral_bliss_-300ml-2_pcs-_free_jade_chielo_box_full01_fgiz6m7c.jpg</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-tanpa-kawat-kait-2-setara-cup-b-bh-9850/ps--SOO-60051-00125?ds=SOO-60051-00125-00009&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faV9hz/XQzSqIR3H2JQztKk1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00125</t>
+          <t>https://www.blibli.com/p/molto-pelembut-pewangi-pakaian-softener-parfum-boost-himalayan-honeysuckle-650-ml-molto-trika-floral-bliss-300ml-2-pcs-free-jade-chielo-box/ps--UNI-60025-01804?ds=UNI-60025-01804-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5G/HAkxoVke7cxJ4LyInlLeKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcC/9RBdAtddAWdo2jQOkvIlWIVM7ED7wPBObjNJjF4PkDPK2nt+P+WStgCBz6tDLJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01804&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOO-60051-00090</t>
+          <t>NAD-70194-00022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Nadeea</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Bra Sorex Tanpa Kawat Busa Sedang Cup Setara Cup B Casual Comfort 65003 Basic</t>
+          <t>Nadeea Jamilah Series Dress Dewasa - Black</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>54880</v>
+        <v>465000</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240575/sorex_bra_sorex_tanpa_kawat_busa_sedang_cup_setara_cup_b_casual_comfort_65003_basic_full02_jqezgsad.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167020003/nadeea_nadeea_jamilah_series_dress_dewasa_-_black_full01_i7gjfa9c.jpg</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bra-sorex-tanpa-kawat-busa-sedang-cup-setara-cup-b-casual-comfort-65003-basic/ps--SOO-60051-00090?ds=SOO-60051-00090-00005&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJWc8Qg5cJ1du71Plk4CIHX7JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00090</t>
+          <t>https://www.blibli.com/p/nadeea-jamilah-series-dress-dewasa-black/ps--NAD-70194-00022?ds=NAD-70194-00022-00003&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14s0wn7+82bYRdE+2sGGRS84WyZ4Fa53DKe1xs2SeZpyh5bKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00022&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOO-60051-00079</t>
+          <t>NAD-70194-00021</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Nadeea</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sorex Bra Tanpa Kawat Super Soft Busa Sedang Setara Cup B 17238 BH Harian Simple Polos</t>
+          <t>Nadeea Fatimah Series Dress Dewasa - Army</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>37240</v>
+        <v>395000</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240855/sorex_sorex_bra_tanpa_kawat_super_soft_busa_sedang_setara_cup_b_17238_bh_harian_simple_polos_full02_t2k386dq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167019838/nadeea_nadeea_fatimah_series_dress_dewasa_-_army_full01_qdyt3pad.jpg</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-super-soft-busa-sedang-setara-cup-b-17238-bh-harian-simple-polos/ps--SOO-60051-00079?ds=SOO-60051-00079-00012&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZukJoT8NV2nfifVvZEWfKxk9myWj6eICtISZacjXXHqNFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00079</t>
+          <t>https://www.blibli.com/p/nadeea-fatimah-series-dress-dewasa-army/ps--NAD-70194-00021?ds=NAD-70194-00021-00003&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM4380wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00021&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOO-60051-00356</t>
+          <t>UNI-60025-01784</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>RINSO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sorex CD Wanita Melange Collection 15023 BH 11105, 11106 dan 11115</t>
+          <t>Buy 2 - Rinso Detergent Cair Capsule Konsentrat Deterjen Matic Kapsul Sakura Blossom [168 G] Free Rinso Capsule Lavender Fresh [168 G]</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24990</v>
+        <v>97600</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10634356/sorex_sorex_cd_wanita_melange_collection_15023_bh_11105-_11106_dan_11115_full01_ftwsj520.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-166562849/rinso_buy_2_-_rinso_detergent_cair_capsule_konsentrat_deterjen_matic_kapsul_sakura_blossom_-168_g-_free_rinso_capsule_lavender_fresh_-168_g-_full16_efaa5k6d.jpg</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-wanita-melange-collection-15023-bh-11105-11106-dan-11115/ps--SOO-60051-00356?ds=SOO-60051-00356-00002&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4b+oLJqLy/XvDHMcpKt+HY6JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00356</t>
+          <t>https://www.blibli.com/p/buy-2-rinso-detergent-cair-capsule-konsentrat-deterjen-matic-kapsul-sakura-blossom-168-g-free-rinso-capsule-lavender-fresh-168-g/ps--UNI-60025-01784?ds=UNI-60025-01784-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/Pdgj1B/QYBV7GBvNoJs6tnh6wQ6PEr8y5kW/jpBoqaySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnyMru0AcvpJJckDx5fLB9bbI0w8dmNEBfvLU7Yuo2KuO0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01784&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOO-60051-00183</t>
+          <t>JAO-70150-00036</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sorex Corset ShapeUp Korset Celana Paha Highwaist Shapewear Stagen 13189</t>
+          <t>Javina Mahira Abaya Series - Maroon</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>93100</v>
+        <v>445000</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8072733/sorex_sorex_corset_shapeup_korset_celana_paha_highwaist_shapewear_stagen_13189_full01_j8iugqbd.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393203/javina_javina_mahira_abaya_series_-_maroon_full01_v7mv6ko3.jpg</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-shapeup-korset-celana-paha-highwaist-shapewear-stagen-13189/ps--SOO-60051-00183?ds=SOO-60051-00183-00002&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0udwtGfjMBHkzcQHN9WHgcmbE/LLJy7W3VwRB8pUx8xBI+SgwT0bjuIBd7LA3Wgh1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE6NhASY2tUdrki83wetKin+0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00183</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-maroon/ps--JAO-70150-00036?ds=JAO-70150-00036-00004&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS847UMMr9bs7lr/LvcGmfw73JbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00036&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOO-60051-00157</t>
+          <t>JAO-70150-00034</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sorex Corset Shapewear Korset Tulang Reguler Size Stagen 1052 Pengecil Perut</t>
+          <t>Javina Mahira Abaya Series - Black</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>78400</v>
+        <v>445000</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7975883/sorex_sorex_corset_shapewear_korset_tulang_reguler_size_stagen_1052_pengecil_perut_full01_q5k3eby6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393151/javina_javina_mahira_abaya_series_-_black_full01_fk49x92r.jpg</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-shapewear-korset-tulang-reguler-size-stagen-1052-pengecil-perut/ps--SOO-60051-00157?ds=SOO-60051-00157-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1v82AvnOYi0a9q7D8u1KCCX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00157</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-black/ps--JAO-70150-00034?ds=JAO-70150-00034-00004&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00034&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOO-60051-00497</t>
+          <t>JAO-70150-00037</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sorex Mystery Box Special Bra Cantik Kawat/Tanpa Kawat Setara cup B</t>
+          <t>Javina Mahira Abaya Series - White Grey</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>58800</v>
+        <v>445000</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-13765543/sorex_sorex_mystery_box_special_bra_cantik_kawat-tanpa_kawat__setara_cup_b_full03_h94hmgrl.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393243/javina_javina_mahira_abaya_series_-_white_grey_full01_jrnl83ek.jpg</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-mystery-box-special-bra-cantik-kawat-tanpa-kawat-setara-cup-b/ps--SOO-60051-00497?ds=SOO-60051-00497-00003&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b9l2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00497</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-white-grey/ps--JAO-70150-00037?ds=JAO-70150-00037-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84k38AQ6fHfgUaMI8dYOo1vlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00037&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOO-60051-00471</t>
+          <t>JAO-70150-00035</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Sorex 17232 Casual Style Bra - Cup B</t>
+          <t>Javina Mahira Abaya Series - Denim</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>39004</v>
+        <v>445000</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12493876/sorex_sorex_bra_busa_tanpa_kawat_kait_2_setara_cup_b_bh_harian_casual_style_bra_17232_full01_rx5utll6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393198/javina_javina_mahira_abaya_series_-_denim_full01_tsevq5at.jpg</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-17232-casual-style-bra-cup-b/ps--SOO-60051-00471?ds=SOO-60051-00471-00005&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/eggqgMiupqXxacM5eGPWfSu4IWA9I8NZxGRTYuIBep1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00471</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-denim/ps--JAO-70150-00035?ds=JAO-70150-00035-00002&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84JQFtqBINX0TZNUUazK+2eVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00035&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOO-60051-00280</t>
+          <t>NIE-12227-11677</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Cute Ribbon Brukat Bunga BT 7002</t>
+          <t>NIKE Men Basketball Jordan Essentials Holiday T-Shirt Kaos Basket Pria [FD7010-133]</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>102312</v>
+        <v>389000</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-8395621/sorex_sorex_lingerie_baju_tidur_premium_satin_look_cute_ribbon_brukat_bunga_bt_7002_full01_pbu0j5i7.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552999/nike_nike_men_basketball_jordan_essentials_holiday_t-shirt_kaos_basket_pria_-fd7010-133-_full02_lpte85hd.jpeg</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-cute-ribbon-brukat-bunga-bt-7002/ps--SOO-60051-00280?ds=SOO-60051-00280-00003&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9e2UdUDLB5ofwWKbsz373i7/ZVxa2kFaxpfYcDtaKNmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00280</t>
+          <t>https://www.blibli.com/p/nike-men-basketball-jordan-essentials-holiday-t-shirt-kaos-basket-pria-fd7010-133/ps--NIE-12227-11677?ds=NIE-12227-11677-00002&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzrqhn2WeenYl70j0tMOsyiGkIqt3bNpbYK+L444UhhhwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11677</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BAG-70027-00459</t>
+          <t>NIE-12227-11674</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Handuk Bayi | Handuk Anak | Sorex Towel 100 X 50</t>
+          <t>NIKE Men Running Dri-FIT Tee Trail T-Shirt Kaos Lari Pria [FN0826-010]</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>69400</v>
+        <v>325000</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//78/MTA-11021170/sorex_handuk_bayi_-_handuk_anak_-_sorex_towel_100_x_50_-_full01_3d2184d8.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552995/nike_nike_men_running_dri-fit_tee_trail_t-shirt_kaos_lari_pria_-fn0826-010-_full03_mpilnh7y.jpeg</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3177,37 +3177,37 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/handuk-bayi-handuk-anak-sorex-towel-100-x-50/ps--BAG-70027-00459?ds=BAG-70027-00459-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmDdmyk291xKlcwhaoJiafSwI6rvWM2fME09xrH8SZaRY=&amp;cnc=false&amp;pickupPointCode=PP-3172350&amp;pid1=BAG-70027-00459</t>
+          <t>https://www.blibli.com/p/nike-men-running-dri-fit-tee-trail-t-shirt-kaos-lari-pria-fn0826-010/ps--NIE-12227-11674?ds=NIE-12227-11674-00003&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCy2vnCdR/EtZOI/3G854fFo0wn7+82bYRdE+2sGGRS84ijsaMV2OlAUratgIjx1Jq1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDkaTmXM5ymgQU76aQtitcsKDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11674</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOO-60051-00552</t>
+          <t>NIE-12227-11673</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sorex CD wanita Midi Super Soft Adem Lembut CD 15232</t>
+          <t>NIKE Men Basketball Ja Max90 Long-Sleeve T-Shirt Kaos Basket Pria [FN0808-010]</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>20580</v>
+        <v>469000</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-20762030/sorex_sorex_cd_wanita_midi_super_soft_adem_lembut_cd_15232_full02_rfcio72k.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552996/nike_nike_men_basketball_ja_max90_long-sleeve_t-shirt_kaos_basket_pria_-fn0808-010-_full03_rbr4mdgj.jpeg</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -3215,37 +3215,37 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-wanita-midi-super-soft-adem-lembut-cd-15232/ps--SOO-60051-00552?ds=SOO-60051-00552-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2aqponFxzbpAb1YzoA8RzrTwV2wi/WgIu36XET8QmhnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00552</t>
+          <t>https://www.blibli.com/p/nike-men-basketball-ja-max90-long-sleeve-t-shirt-kaos-basket-pria-fn0808-010/ps--NIE-12227-11673?ds=NIE-12227-11673-00002&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14uGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11673</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOO-60051-00574</t>
+          <t>NIE-12227-11523</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Midi Basic Comfort Chic Adem Lembut Pori-pori CD 1260</t>
+          <t>NIKE Men Basketball Cleveland Cavaliers NBA T-shirt Basket [DR6369-680]</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>24255</v>
+        <v>359000</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-21977111/sorex_sorex_celana_dalam_wanita_midi_basic_comfort_chic_adem_lembut_pori-pori_cd_1260_full02_e9br0e3e.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429261/nike_nike_men_basketball_cleveland_cavaliers_nba_t-shirt_basket_-dr6369-680-_full03_u6z1ye0p.jpeg</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -3253,113 +3253,113 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-midi-basic-comfort-chic-adem-lembut-pori-pori-cd-1260/ps--SOO-60051-00574?ds=SOO-60051-00574-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4agIrFT0SP5wuYJuKSH3/MKIivnlZfmSl5m7OY9r1lyLVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00574</t>
+          <t>https://www.blibli.com/p/nike-men-basketball-cleveland-cavaliers-nba-t-shirt-basket-dr6369-680/ps--NIE-12227-11523?ds=NIE-12227-11523-00005&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGGkIqt3bNpbYK+L444UhhhzzZ/8U3KjGLexZ+hPeKg01esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3016028&amp;pid1=NIE-12227-11523</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BAK-24890-01845</t>
+          <t>HEL-60024-00658</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Heaven Lights</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sorex Stagen 8052 - Slimming Corset Korset Pelangsing</t>
+          <t>Heaven Lights Saiba Blouse - Royal Blue</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>69500</v>
+        <v>249000</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//91/MTA-8106732/sorex_sorex_stagen_8052_-_slimming_corset_korset_pelangsing_full02_k0q4f928.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/108/MTA-165507758/heaven_lights_heaven_lights_saiba_series_blouse_-_royal_blue_full02_pisk3vrj.jpg</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-stagen-8052-slimming-corset-korset-pelangsing/ps--BAK-24890-01845?ds=BAK-24890-01845-00004&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70O/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURovYCHtpJ9m77Mt/1K6pUZq5DmAz1A2e+8nO/jzyY+jFw=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01845&amp;tag=new</t>
+          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-royal-blue/ps--HEL-60024-00658?ds=HEL-60024-00658-00005&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh/BYfIayXYsLzJq+mx6RyfZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3525161&amp;pid1=HEL-60024-00658</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOO-60051-00415</t>
+          <t>NIE-12227-11638</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Basic Maxi Super Soft Polos CD 1250</t>
+          <t>NIKE Women Running Dri-FIT Swift Element UV Crew-Neck Top Pakaian Lari Wanita [FB4298-010]</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>22050</v>
+        <v>545000</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//92/MTA-11457236/sorex_sorex_cd_wanita_basic_maxi_super_soft_polos_cd_1250_full02_h25v300t.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429424/nike_nike_women_running_dri-fit_swift_element_uv_crew-neck_top_pakaian_lari_wanita_-fb4298-010-_full09_fqh7v9lc.jpeg</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-maxi-super-soft-polos-cd-1250/ps--SOO-60051-00415?ds=SOO-60051-00415-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+M7n3m+RcH5pfuq34yOwEpJ5DwTCoYZ7pKxqIR1psUuFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00415</t>
+          <t>https://www.blibli.com/p/nike-women-running-dri-fit-swift-element-uv-crew-neck-top-pakaian-lari-wanita-fb4298-010/ps--NIE-12227-11638?ds=NIE-12227-11638-00003&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJU0wn7+82bYRdE+2sGGRS84wOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDoiJJ1OU1JS2unXAZ1VoEmmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11638</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BAK-24890-01842</t>
+          <t>ADS-12698-13527</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sorex Corset 4431 Korset Pasca Melahirkan</t>
+          <t>adidas Men Football Jersey Training Messi Baju Bola Pria [IZ2996]</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>73500</v>
+        <v>425000</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//101/MTA-8077654/sorex_sorex_corset_4431_korset_pasca_melahirkan_full01_ejmfoega.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164875220/adidas_adidas_men_football_jersey_training_messi_baju_bola_pria_-iz2996-_full02_spr5ewl2.jpeg</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -3367,75 +3367,75 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-4431-korset-pasca-melahirkan/ps--BAK-24890-01842?ds=BAK-24890-01842-00004&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9nxsCWE66IToY6H/3TEJYi/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURo6N0sa75uwpeazB0wvCSQYtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01842</t>
+          <t>https://www.blibli.com/p/adidas-men-football-jersey-training-messi-baju-bola-pria-iz2996/ps--ADS-12698-13527?ds=ADS-12698-13527-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxIcZ42UdpGRIP9haxRfSXo0wn7+82bYRdE+2sGGRS84Mt/3c2rmpbvxfTWQ1SJQeFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13527</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MAM-60109-00113</t>
+          <t>HEL-60024-00657</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Heaven Lights</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>CD SOREX 1239 Celana Dalam Wanita</t>
+          <t>Heaven Lights Saiba Blouse - Plum</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>14500</v>
+        <v>249000</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-155195754/sorex_cd-sorex-1239-celana-dalam-wanita_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/99/MTA-165507009/heaven_lights_heaven_lights_saiba_series_blouse_-_plum_full01_o6nkay6z.jpg</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/cd-sorex-1239-celana-dalam-wanita/ps--MAM-60109-00113?ds=MAM-60109-00113-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushK/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3094603&amp;pid1=MAM-60109-00113</t>
+          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-plum/ps--HEL-60024-00657?ds=HEL-60024-00657-00002&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh3l+QY3wMrVJqg5NI5IcJapbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3501982&amp;pid1=HEL-60024-00657</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MOI-70007-00855</t>
+          <t>BEF-44369-01450</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Kesehatan &amp; Kecantikan</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Nivea</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sorex 1250 CD Celana Dalam Wanita - Maxi Panty - Super Soft | BISA PILIH WARNA</t>
+          <t>WHS - NIVEA Extra White Anti Age Body Serum [180mL/ Twinpack]</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>17127</v>
+        <v>105930</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-154953940/sorex_sorex_1250_cd_celana_dalam_wanita_-_maxi_panty_-_super_soft_-_bisa_pilih_warna_full01_jm7mqm90.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/102/MTA-164580356/nivea_nivea_body_serum_extra_white_anti_age_spf33_180ml_twinpack_full02_f5ecp6kb.jpg</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3443,37 +3443,37 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-1250-cd-celana-dalam-wanita-maxi-panty-super-soft-bisa-pilih-warna/ps--MOI-70007-00855?ds=MOI-70007-00855-00020&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+VDd0aEb2mnEzhIWyggW8h5Yw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00855</t>
+          <t>https://www.blibli.com/p/whs-nivea-extra-white-anti-age-body-serum-180ml-twinpack/ps--BEF-44369-01450?ds=BEF-44369-01450-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq/ovRQ0Z022L3Iu9yw6+ylB186d66YvaC2JQyxVan28sVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50HmOPOo9vK7ml77mG9hBQkQ2RD2hjh2mlEX+5RI/nJrbRlLYVOA1NrlZjxU92acsmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3013016&amp;pid1=BEF-44369-01450</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WIO-70008-00368</t>
+          <t>ADS-12698-13483</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>B501 | Celana Dalam Wanita Sorex - Sorex 1239</t>
+          <t>adidas Men Football Polo Shirt Manchester United Tiro 24 Baju Bola Pria [IT2028]</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>43860</v>
+        <v>552000</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/102/MTA-145016957/sorex_b501_-_celana_dalam_wanita_sorex_-__sorex_1239_full24_djih1f55.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114197/adidas_adidas_men_football_polo_shirt_manchester_united_tiro_24_baju_bola_pria_-it2028-_full03_ovnxbccg.jpeg</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3481,37 +3481,37 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/b501-celana-dalam-wanita-sorex-sorex-1239/ps--WIO-70008-00368?ds=WIO-70008-00368-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7D5EnLGW/JufRUomLn7UXUhvPhx3NWvvw1KpDH3qrKOEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00368</t>
+          <t>https://www.blibli.com/p/adidas-men-football-polo-shirt-manchester-united-tiro-24-baju-bola-pria-it2028/ps--ADS-12698-13483?ds=ADS-12698-13483-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9edfIwrMRf6gYe7nhVvn27vDN9u2pSChajLuMWmnt1nzFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13483</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>WIO-70008-00425</t>
+          <t>ADS-12698-13451</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>B165 - Sorex Camisol Tanktop Tali Lebar Renda Brukat Free Size</t>
+          <t>adidas Men Football Jersey Arsenal Home 24/25 Baju Bola Pria [IT6141]</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>69360</v>
+        <v>1020000</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/98/MTA-148414570/sorex_b165_-_sorex_camisol_tanktop_tali_lebar_renda_brukat__free_size_full04_fx3z1ejy.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114157/adidas_adidas_men_football_jersey_arsenal_home_24-25_baju_bola_pria_-it6141-_full05_f1ymtfqk.jpeg</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3519,113 +3519,113 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/b165-sorex-camisol-tanktop-tali-lebar-renda-brukat-free-size/ps--WIO-70008-00425?ds=WIO-70008-00425-00001&amp;source=SEARCH&amp;sid=9c62e7950bcad2e9&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70NR/YYwHagZb1LHNFss5QDsA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKOsT7WmHaYlyEM/a8kAvWoJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00425</t>
+          <t>https://www.blibli.com/p/adidas-men-football-jersey-arsenal-home-24-25-baju-bola-pria-it6141/ps--ADS-12698-13451?ds=ADS-12698-13451-00004&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq8BEYo4o198IKoVpkJZ1CNbAnAO3DeMVCIz5wjRuGXJuVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+UvM5rYQ2b7sWjAIjInNGfx9nPBIkgRjZAjSv9izhQ1pmwIpKMEQEhdOIn3G3lFnHYkG1UxvbL2nrGLalYS2G2RCnk+mz+9IdUNYHXY+enerZZHJddTpXmDglIJ8ujJq3&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13451</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>WIO-70008-00004</t>
+          <t>BAH-70197-00002</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Baby Hai</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>B549 | CELANA DALAM WANITA SOREX 1238 SIZE M - XXL</t>
+          <t>BABY HAI Rayya Series Ramadhan Abizar Series Color 2 - Baju Anak Laki - Laki Lengan Pendek Celana Panjang</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>17900</v>
+        <v>30100</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-10235637/sorex_b549_-_celana_dalam_wanita_sorex_1238_size_m_-_xxl_full03_dzx51bne.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//112/MTA-94766386/baby_hai_baby_hai_rayya_series_ramadhan_abizar_series_color_2_-_baju_anak_laki_-_laki_lengan_pendek_celana_panjang_full01_he26rnqh.jpg</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/b549-celana-dalam-wanita-sorex-1238-size-m-xxl/ps--WIO-70008-00004?ds=WIO-70008-00004-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WIIGmm33viDj/+hYQaGlpdnNcxv6ypS7E4ynJ64PnbwlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00004</t>
+          <t>https://www.blibli.com/p/baby-hai-rayya-series-ramadhan-abizar-series-color-2-baju-anak-laki-laki-lengan-pendek-celana-panjang/ps--BAH-70197-00002?ds=BAH-70197-00002-00007&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EMmbE/LLJy7W3VwRB8pUx8xE+ELff8mp6Jxh05BtXdSLlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWuSVd/bvsBAZ/8InAAmnjqC0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3529390&amp;pid1=BAH-70197-00002</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MOI-70007-00595</t>
+          <t>KOE-70078-00007</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>KOZE</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita - CD 1257 - Mini Panty - Super Soft - M - XXL</t>
+          <t>KOZE - Premium Comfort Green T-shirt - Kaos Polos Hijau</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>13464</v>
+        <v>49500</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-50903517/br-m036969-05088_sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-99600694/koze_koze_-_premium_comfort_green_t-shirt_-_kaos_polos_hijau_full01_eukw1txs.jpg</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl/ps--MOI-70007-00595?ds=MOI-70007-00595-00050&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIsG3614SFgY9ax7qJJTMRKNj/JAGGKMjevlfkFhtVG7gFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00595</t>
+          <t>https://www.blibli.com/p/koze-premium-comfort-green-t-shirt-kaos-polos-hijau/ps--KOE-70078-00007?ds=KOE-70078-00007-00004&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLe3ycwbRnPkH0lW7Gv/QJVMlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGp04hRlADTLARbcEgnz4dqM=&amp;cnc=false&amp;pickupPointCode=PP-3472636&amp;pid1=KOE-70078-00007</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOO-60051-01043</t>
+          <t>LGM-60021-00230</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>LGS</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Sorex Bra Seamless Tanpa Kawat Kait 2 Cup A-B Busa Tipis BH 65004</t>
+          <t>LGS Slim Fit Kaos Polo Pria - White Blue Green [JTS.325.M1846F.01.C]</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>61600</v>
+        <v>146000</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-159825520/sorex_sorex_bra_seamless_tanpa_kawat_kait_2_cup_a-b_busa_tipis_bh_65004_full02_ds94bo75.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//85/MTA-1520625/lgs_lgs-slim-fit-kaos-polo-pria---white-blue-green--jts-325-m1846f-01-c-_full02.jpg</t>
         </is>
       </c>
       <c r="G84" t="n">
@@ -3633,113 +3633,113 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-seamless-tanpa-kawat-kait-2-cup-a-b-busa-tipis-bh-65004/ps--SOO-60051-01043?ds=SOO-60051-01043-00017&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH5nh6wQ6PEr8y5kW/jpBoqaA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01043</t>
+          <t>https://www.blibli.com/p/lgs-slim-fit-kaos-polo-pria-white-blue-green-jts-325-m1846f-01-c/ps--LGM-60021-00230?ds=LGM-60021-00230-00003&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushIJcaEJLcqsH3r6UABTq0TLwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3034126&amp;pid1=LGM-60021-00230</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOO-60051-00995</t>
+          <t>ELM-60027-00165</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>ELLIPSES INC</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>(2 PCS) Sorex Man Lifetyle Boxer Pria Celana Dalam Cowo Adem Trunk LK 38285</t>
+          <t>ELLIPSESINC Kaos Oversize Wanita &amp; Pria BECCA EDITION</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>69000</v>
+        <v>35000</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/103/MTA-147676135/sorex_-2_pcs-_sorex_man_lifetyle_boxer_pria_celana_dalam_cowo_adem_trunk_lk_38285_full04_futs8yik.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//104/MTA-21988625/ellipses_inc_ellipsesinc_kaos_oversize_wanita_-_pria_becca_edition_full24_si0ww14j.jpg</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/2-pcs-sorex-man-lifetyle-boxer-pria-celana-dalam-cowo-adem-trunk-lk-38285/ps--SOO-60051-00995?ds=SOO-60051-00995-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OT2r7fOYNS0fn24lYkspaBA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00995</t>
+          <t>https://www.blibli.com/p/ellipsesinc-kaos-oversize-wanita-pria-becca-edition/ps--ELM-60027-00165?ds=ELM-60027-00165-00007&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGT2r7fOYNS0fn24lYkspaBeeU8gA9woEea/RtkRh7ZnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A8s4+rWZ7zCXM6RAaC0DCw0Kkkafi+cjIiXcB4olXgzyFWbDfLF/5KnLYCxjUA9SQsd5cgi/2OYPwjclFVcBAkX&amp;cnc=false&amp;pickupPointCode=PP-3085683&amp;pid1=ELM-60027-00165</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOO-60051-00861</t>
+          <t>EVO-70024-00183</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>EVERNEXT</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Katun Basic Cutting Midi Polos Shape Up CD 9075</t>
+          <t>EVERNEXT - DOMPET KUNCI KENDARAAN KEY WALLET ARCO GANTUNGAN KUNCI MOBIL MOTOR DOMPET KARTU DOMPET STNK</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>36800</v>
+        <v>45000</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112996396/sorex_sorex_celana_dalam_katun_basic_cutting_midi_polos_shape_up_cd_9075_full02_kdz4sy7w.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//117/MTA-78887691/evernext_evernext_-_dompet_kunci_kendaraan_key_wallet_arco_gantungan_kunci_mobil_motor_dompet_kartu_dompet_stnk_full11_f18edunq.jpg</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-katun-basic-cutting-midi-polos-shape-up-cd-9075/ps--SOO-60051-00861?ds=SOO-60051-00861-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFl2MnZWZ1TwAwuODpbBDUVuyoMNIQ+r4z5DJ9oW5/gjVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00861</t>
+          <t>https://www.blibli.com/p/evernext-dompet-kunci-kendaraan-key-wallet-arco-gantungan-kunci-mobil-motor-dompet-kartu-dompet-stnk/ps--EVO-70024-00183?ds=EVO-70024-00183-00002&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBgmMdlWBN8y5Inger9NURmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vafHKVkJci5PAC/hnMA2UzpLyTJdReOx9JfHVI27hOzzM=&amp;cnc=false&amp;pickupPointCode=PP-3357698&amp;pid1=EVO-70024-00183</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOO-60051-00769</t>
+          <t>HUP-60027-03538</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Hush Puppies</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Hamil Midi Maternity Panty Fit To L-XXL CD 1148</t>
+          <t>Hush Puppies Farro 2 Polo Shirt Pria</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>41895</v>
+        <v>224420</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-46523947/sorex_sorex_celana_dalam_wanita_hamil_midi_maternity_panty_fit_to_l-xxl_cd_1148_full01_r4vls97f.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-159627197/hush-puppies_hush-puppies-farro-2-polo-shirt-pria_full01.jpg</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -3747,90 +3747,90 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-fit-to-l-xxl-cd-1148/ps--SOO-60051-00769?ds=SOO-60051-00769-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxg8vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00769</t>
+          <t>https://www.blibli.com/p/hush-puppies-farro-2-polo-shirt-pria/ps--HUP-60027-03538?ds=HUP-60027-03538-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q97B/omnSKxUeafXYYVk6xbwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3095796&amp;pid1=HUP-60027-03538</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOO-60051-00568</t>
+          <t>BLI-15014-16569</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>JP Collection</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Cute Y 1006</t>
+          <t>JP Collection OBSP-0285-TWOWHEELS Kaos Anak Laki-Laki</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>20286</v>
+        <v>30970</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-21173323/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_cute_y_1006_full02_3b2ive6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//79/MTA-3103224/jp-collection_jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki_full16.jpg</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-cute-y-1006/ps--SOO-60051-00568?ds=SOO-60051-00568-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt0whBxl0y0A/lKFMfuSR+YzJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00568</t>
+          <t>https://www.blibli.com/p/jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki/ps--BLI-15014-16569?ds=BLI-15014-16569-00029&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7ENfepXUSJ3qMPK5468+MysuJLWhzdnoh86j6S/07IpFSVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWg3ctvKPtt4ygLDf9aZr0F60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3523009&amp;pid1=BLI-15014-16569</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOO-60051-00634</t>
+          <t>BLM-60037-01195</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>BLYTHE</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Gorgeous Nightgown Brukat BT 7008</t>
+          <t>Blythe Premium Jayden Flannel Shirt Kemeja Kotak Kotak Lengan Panjang Pria</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>116424</v>
+        <v>249000</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-24930571/sorex_sorex_lingerie_lovely_series_baju_tidur_premium_satin_look_gorgeous_nightgown_brukat_bt_7008_full05_uy3lb726.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-155401690/blythe_blythe_premium_jayden_flannel_shirt_kemeja_kotak_kotak_lengan_panjang_pria_full18_itluztdu.jpeg</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-gorgeous-nightgown-brukat-bt-7008/ps--SOO-60051-00634?ds=SOO-60051-00634-00002&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIORipaXzN/Cai///2rmGlQVrU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00634</t>
+          <t>https://www.blibli.com/p/blythe-premium-jayden-flannel-shirt-kemeja-kotak-kotak-lengan-panjang-pria/ps--BLM-60037-01195?ds=BLM-60037-01195-00008&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444UhhhDHoqKmYsTFC9Iv89Ei/0YlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52Np6XO8WKdHoYeMogok9fdb2BUOOGusSvfBtxTrjv/cwqeaQg1dtTjyms/VfSkXqs=&amp;cnc=false&amp;pickupPointCode=PP-3525890&amp;pid1=BLM-60037-01195</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOO-60051-00012</t>
+          <t>KIK-70088-00020</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3840,20 +3840,20 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Kiyora</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+          <t>Kiyora Sydney Atasan Wanita - Pink Crème</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>37044</v>
+        <v>89000</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709188/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_m8u3eoep.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044786/kiyora_kiyora_sydney_atasan_wanita_-_pink_cr-me_full01_kunyukph.jpeg</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -3861,37 +3861,37 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00012?ds=SOO-60051-00012-00002&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOcJUl07vjZHSHboXNQRMjgVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00012</t>
+          <t>https://www.blibli.com/p/kiyora-sydney-atasan-wanita-pink-cr-me/ps--KIK-70088-00020?ds=KIK-70088-00020-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uT2r7fOYNS0fn24lYkspaBKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKAe+OCLJmeyKGF1EdpUJUnlfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00020</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOO-60051-00360</t>
+          <t>LIS-14924-00806</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Sorex Bra Kawat Busa Kait 2 Setara Cup B Bra Polos BH 11108</t>
+          <t>Lion Star Folding Hanger 24 Sticks Jemuran Baju</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>65660</v>
+        <v>64000</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10647376/sorex_sorex_bra_kawat_busa_kait_2_setara_cup_b_bra_polos_bh_11108_full03_j1xc7du0.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090270/lion_star_lion_star__folding_hanger_24_sticks_jemuran_baju_full01_o3vah5cz.jpg</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -3899,37 +3899,37 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-kawat-busa-kait-2-setara-cup-b-bra-polos-bh-11108/ps--SOO-60051-00360?ds=SOO-60051-00360-00012&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1R4AsY2zbEuPf0mEleNTFlvp6v2ww3rMJNM2z4cVX8YJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00360</t>
+          <t>https://www.blibli.com/p/lion-star-folding-hanger-24-sticks-jemuran-baju/ps--LIS-14924-00806?ds=LIS-14924-00806-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzw6DOMtn+gYi+5f5Iqa4pGT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00806</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOO-60051-00042</t>
+          <t>LIS-14924-00805</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+          <t>Lion Star Folding Hanger 16 Sticks Jemuran Baju</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>37044</v>
+        <v>49500</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7886901/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_g40b4t61.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148088190/lion_star_lion_star_folding_hanger_16_sticks_jemuran_baju_full03_igkn11o8.jpg</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -3937,37 +3937,37 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00042?ds=SOO-60051-00042-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOPTsyyIDmFh47MtBFYuGtqVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00042</t>
+          <t>https://www.blibli.com/p/lion-star-folding-hanger-16-sticks-jemuran-baju/ps--LIS-14924-00805?ds=LIS-14924-00805-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00805</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOO-60051-00061</t>
+          <t>LIS-14924-00807</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Hamil Motif Katun Lembut Maternity Panty CD 1140</t>
+          <t>Lion Star Folding Hanger 30 Sticks Jemuran Baju</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>33320</v>
+        <v>74500</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7895759/sorex_sorex_celana_dalam_hamil_motif_katun_lembut_maternity_panty_cd_1140_full02_j2ua28na.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090286/lion_star_lion_star_folding_hanger_30_sticks_jemuran_baju_full02_tv6sxt04.jpg</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -3975,37 +3975,37 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-hamil-motif-katun-lembut-maternity-panty-cd-1140/ps--SOO-60051-00061?ds=SOO-60051-00061-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HcTUF9bqmkuAK1tOmfkDJzySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE9Nv1SOi0krVWYDfqxiBKGaaf+79sqnkYv3mggmh/hvP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00061</t>
+          <t>https://www.blibli.com/p/lion-star-folding-hanger-30-sticks-jemuran-baju/ps--LIS-14924-00807?ds=LIS-14924-00807-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6+ofzQPca16/hNKbnSDAJ6/HAkxoVke7cxJ4LyInlLenUcuWlxDj3lNx/vI4M4PH+jqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00807</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOO-60051-00427</t>
+          <t>LIS-14924-00733</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Pita Mungil Miniset Y 1103</t>
+          <t>Lion Star Jemuran Baju / Laundry Hanger Tripod</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30870</v>
+        <v>198600</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-11560139/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_pita_mungil_miniset_y_1103_full01_m3k9nvkz.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-127266381/lion_star_lion_star_jemuran_baju_-_laundry_hanger_tripod_full01_odf238gk.jpg</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4013,14 +4013,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-pita-mungil-miniset-y-1103/ps--SOO-60051-00427?ds=SOO-60051-00427-00003&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EOacJbj2cXRya+Q0SCnBRoFYw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+GmfylN82DRKT97iLHHfPs20XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00427</t>
+          <t>https://www.blibli.com/p/lion-star-jemuran-baju-laundry-hanger-tripod/ps--LIS-14924-00733?ds=LIS-14924-00733-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JHLgoC/MYdp69cMUdWFnV1U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHI/2j+o1IQC0bIBUNNPAppAtZ8uEOn0Ql/eC8q/oWrwBcHn0AWNhN6m5BpKP78qwDE=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00733</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOO-60051-00274</t>
+          <t>9TW-60021-01565</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4030,96 +4030,96 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>9 to 12</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Midi Katun Mix 1179</t>
+          <t>9 to 12 Mia Linen Shirt Kemeja Lengan Panjang Linen Kantor Wanita</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>26460</v>
+        <v>149000</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-8385514/sorex_sorex_cd_basic_midi_katun_mix_1179_full01_f8nmyoy6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-91217262/9_to_12_9_to_12_mia_linen_shirt_kemeja_wanita_full02_kcqs7mya.jpeg</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-midi-katun-mix-1179/ps--SOO-60051-00274?ds=SOO-60051-00274-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPzIOwJf81+FzoG8lPia/LMVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00274</t>
+          <t>https://www.blibli.com/p/9-to-12-mia-linen-shirt-kemeja-lengan-panjang-linen-kantor-wanita/ps--9TW-60021-01565?ds=9TW-60021-01565-00003&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushKGkIqt3bNpbYK+L444UhhhHxbrE1ojlIiyeznGUhdMUeWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxAAm0Ky79H2kukIikI3WbdDfjQtllH9FlUcG3SRRgUPwaH9/p2g1nm/YLqDhhmudNewKd+f0eOUHKyU4XgeKwfPg==&amp;cnc=false&amp;pickupPointCode=PP-3519985&amp;pid1=9TW-60021-01565</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOO-60051-00013</t>
+          <t>LIS-14924-00572</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Sorex Basic Super Soft 1255 Celana Dalam Wanita - Multicolor</t>
+          <t>Lion Star Jepitan Baju JB-1 Laundry Clips (20 Pcs)</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22785</v>
+        <v>12500</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709258/sorex_sorex_basic_super_soft_1255_celana_dalam_wanita_-__multicolor_full01_t4dg2gm7.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-11691417/lion_star_lion_star_001_laundry_clips_full01_exf0fig2.jpg</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-basic-super-soft-1255-celana-dalam-wanita-multicolor/ps--SOO-60051-00013?ds=SOO-60051-00013-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q8xmBGsZhEvfPzU+A1f7vo+JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00013</t>
+          <t>https://www.blibli.com/p/lion-star-jepitan-baju-jb-1-laundry-clips-20-pcs/ps--LIS-14924-00572?ds=LIS-14924-00572-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeC/HAkxoVke7cxJ4LyInlLeONM/pwQSpw/TgMoD9qDeE1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt51SPFgCl9oi27QotXy+Xqg7ncDBNXS0U6F+cIYt7Ox4Ox3lyCL/Y5g/CNyUVVwECRc=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00572</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOO-60051-00295</t>
+          <t>DAO-70167-00003</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Dacco</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Basic Mini Super Soft Lembut Nyaman Dipakai CD 1257</t>
+          <t>Dacco Mama Pad 3D Breastpad [24 pcs]</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>19992</v>
+        <v>22000</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18327672/sorex_sorex_celana_dalam_wanita_basic_mini_super_soft_lembut_nyaman_dipakai_cd_1257_full02_cqx8djmw.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/92/MTA-127240561/dacco_dacco-mama-pad-breastpad-3d-isi-24pcs_full02.jpg</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4127,37 +4127,37 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-mini-super-soft-lembut-nyaman-dipakai-cd-1257/ps--SOO-60051-00295?ds=SOO-60051-00295-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JSivqeb4HprTDVqcGV3PQCI/EEoP3uESdSpv1I9i7XJFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00295</t>
+          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-24-pcs/ps--DAO-70167-00003?ds=DAO-70167-00003-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+T2r7fOYNS0fn24lYkspaB/A9+ItZOLJU0KYEdc1CW5NldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00003</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOO-60051-00175</t>
+          <t>DAO-70167-00004</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Dacco</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Sorex Bra Extra Comfort Busa Sedang Kawat Kait 3 Setara Cup B BH 3262</t>
+          <t>Dacco Mama Pad 3D Breastpad [56 pcs]</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>55125</v>
+        <v>45000</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7994480/sorex_sorex_bra_extra_comfort_busa_sedang_kawat_kait_3_setara_cup_b_bh_3262_full03_bpk5yj9s.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/95/MTA-127240590/dacco_dacco-mama-pad-breastpad-3d-isi-56pcs_full02.jpg</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4165,14 +4165,14 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-sedang-kawat-kait-3-setara-cup-b-bh-3262/ps--SOO-60051-00175?ds=SOO-60051-00175-00014&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00175</t>
+          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-56-pcs/ps--DAO-70167-00004?ds=DAO-70167-00004-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBjgJtif7ZErD1A5G7Do9RH9ldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00004</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOO-60051-00010</t>
+          <t>KIK-70088-00045</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -4182,111 +4182,111 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>KAORI</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Sorex Cd Basic Bahan Super Soft 1251 Celana dalam Wanita</t>
+          <t>Kaori Seira Cardigan Outer Wanita - Bata</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>23667</v>
+        <v>75000</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7708515/sorex_sorex_cd_basic_bahan_super_soft_1251_celana_dalam_wanita_full03_t1r1rwvf.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93066052/kaori_kaori_seira_cardigan_outer_wanita_-_bata_full01_njcswb4w.jpeg</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-bahan-super-soft-1251-celana-dalam-wanita/ps--SOO-60051-00010?ds=SOO-60051-00010-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73OhY4+eXFWJ8a6ITW30cbFkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00010</t>
+          <t>https://www.blibli.com/p/kaori-seira-cardigan-outer-wanita-bata/ps--KIK-70088-00045?ds=KIK-70088-00045-00002&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCycpTyS3V4Bt86XaxsYSf7+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJvUe1T40+jFxsL3RTfsG+znMf7cp48yL26Dsz2eCVLdZfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00045</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOO-60051-00004</t>
+          <t>INP-60076-02184</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Mainan, Buku &amp; Stationery</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Akedo</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Basic Midi Soft &amp; Comfort CD 1228 Katun Mix Adem</t>
+          <t>Legends of Akedo PowerStorm S4 Giants Action Figure 15190 - Assorted</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26754</v>
+        <v>179000</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7700289/sorex_sorex_celana_dalam_wanita_basic_midi_soft_-_comfort_cd_1228_katun_mix_adem_full02_nnq90z7s.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-95198657/akedo_legends_of_akedo_powerstorm_s4_giants_action_figure_15190_-_assorted_full02_jykgck93.jpeg</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-midi-soft-comfort-cd-1228-katun-mix-adem/ps--SOO-60051-00004?ds=SOO-60051-00004-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy/kEEC5/YmxIZLZ3qqgiVystYhaTIOsJmPMG3J3j/VXFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00004</t>
+          <t>https://www.blibli.com/p/legends-of-akedo-powerstorm-s4-giants-action-figure-15190-assorted/ps--INP-60076-02184?ds=INP-60076-02184-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNylnry4OkDBy9LifrRfNVhITodBPeru5IipRxn8umZ90=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-02184</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOO-60051-00258</t>
+          <t>INP-60076-01330</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Mainan, Buku &amp; Stationery</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Happy Toon</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Sorex CD 1230 Basic Katun WARNA</t>
+          <t>Happy Toon NB-03900 Family Small Toys Iron Basket Mainan Anak</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>21900</v>
+        <v>55000</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8247465/sorex_sorex_cd_1230_basic_katun_warna_full02_dcmpebfb.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-54407440/happy_toon_happy_toon_nb-03900_family_small_toys_iron_basket_mainan_anak_full06_extz21fi.jpg</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-1230-basic-katun-warna/ps--SOO-60051-00258?ds=SOO-60051-00258-00003&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goKIIGmm33viDj/+hYQaGlpdxFbcOmnv9bSync5a5kF4+lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00258</t>
+          <t>https://www.blibli.com/p/happy-toon-nb-03900-family-small-toys-iron-basket-mainan-anak/ps--INP-60076-01330?ds=INP-60076-01330-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdMvid824Op0k6a8gP8mZi4h3fZ0ly05AmuL0ur5cecCosM0GrDScBYeg5CPA4jmdc=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-01330</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOO-60051-00467</t>
+          <t>KIK-70088-00004</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -4296,400 +4296,400 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Kiyora</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Sorex Bra Tanpa Kawat Busa Kait 3 Setara Cup B Bra Harian Casual Comfort BH 65001</t>
+          <t>Kiyora Claude Atasan Wanita - Hitam</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>52920</v>
+        <v>99000</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-12228968/sorex_sorex_bra_tanpa_kawat_busa_kait_3_setara_cup_b_bra_harian_casual_comfort_bh_65001_full02_br99daxr.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044758/kiyora_kiyora_claude_atasan_wanita_-_hitam_full01_vkgwv5e0.jpeg</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-busa-kait-3-setara-cup-b-bra-harian-casual-comfort-bh-65001/ps--SOO-60051-00467?ds=SOO-60051-00467-00002&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+iQM9MJM8LcOV1edc2sOTJmjateuiD2bQM1xoGRlYR/JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00467</t>
+          <t>https://www.blibli.com/p/kiyora-claude-atasan-wanita-hitam/ps--KIK-70088-00004?ds=KIK-70088-00004-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKODomkMVGOhLlHkEhAouZJtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00004</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SOO-60051-00125</t>
+          <t>UNI-60025-01804</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>MOLTO</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sorex Bra Extra Comfort Busa Tanpa Kawat Kait 2 Setara Cup B BH 9850</t>
+          <t>Molto Pelembut &amp; Pewangi Pakaian Softener Parfum Boost Himalayan Honeysuckle [650 mL] + Molto Trika Floral Bliss [300ml/2 Pcs] Free Jade Chielo Box</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>55125</v>
+        <v>33500</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-18247352/sorex_sorex_bra_extra_comfort_busa_tanpa_kawat_kait_2_setara_cup_b_bh_9850_full01_n9w2qvqq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/98/MTA-167406424/molto_molto_pelembut_-_pewangi_pakaian_softener_parfum_boost_himalayan_honeysuckle_-650_ml-_-_molto_trika_floral_bliss_-300ml-2_pcs-_free_jade_chielo_box_full01_fgiz6m7c.jpg</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-tanpa-kawat-kait-2-setara-cup-b-bh-9850/ps--SOO-60051-00125?ds=SOO-60051-00125-00009&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faV9hz/XQzSqIR3H2JQztKk1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00125</t>
+          <t>https://www.blibli.com/p/molto-pelembut-pewangi-pakaian-softener-parfum-boost-himalayan-honeysuckle-650-ml-molto-trika-floral-bliss-300ml-2-pcs-free-jade-chielo-box/ps--UNI-60025-01804?ds=UNI-60025-01804-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5G/HAkxoVke7cxJ4LyInlLeKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcC/9RBdAtddAWdo2jQOkvIlWIVM7ED7wPBObjNJjF4PkDPK2nt+P+WStgCBz6tDLJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01804&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SOO-60051-00090</t>
+          <t>NAD-70194-00022</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Nadeea</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Bra Sorex Tanpa Kawat Busa Sedang Cup Setara Cup B Casual Comfort 65003 Basic</t>
+          <t>Nadeea Jamilah Series Dress Dewasa - Black</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>54880</v>
+        <v>465000</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240575/sorex_bra_sorex_tanpa_kawat_busa_sedang_cup_setara_cup_b_casual_comfort_65003_basic_full02_jqezgsad.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167020003/nadeea_nadeea_jamilah_series_dress_dewasa_-_black_full01_i7gjfa9c.jpg</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bra-sorex-tanpa-kawat-busa-sedang-cup-setara-cup-b-casual-comfort-65003-basic/ps--SOO-60051-00090?ds=SOO-60051-00090-00005&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJWc8Qg5cJ1du71Plk4CIHX7JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00090</t>
+          <t>https://www.blibli.com/p/nadeea-jamilah-series-dress-dewasa-black/ps--NAD-70194-00022?ds=NAD-70194-00022-00003&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14s0wn7+82bYRdE+2sGGRS84WyZ4Fa53DKe1xs2SeZpyh5bKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00022&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SOO-60051-00079</t>
+          <t>NAD-70194-00021</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Nadeea</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Sorex Bra Tanpa Kawat Super Soft Busa Sedang Setara Cup B 17238 BH Harian Simple Polos</t>
+          <t>Nadeea Fatimah Series Dress Dewasa - Army</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>37240</v>
+        <v>395000</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240855/sorex_sorex_bra_tanpa_kawat_super_soft_busa_sedang_setara_cup_b_17238_bh_harian_simple_polos_full02_t2k386dq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167019838/nadeea_nadeea_fatimah_series_dress_dewasa_-_army_full01_qdyt3pad.jpg</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-super-soft-busa-sedang-setara-cup-b-17238-bh-harian-simple-polos/ps--SOO-60051-00079?ds=SOO-60051-00079-00012&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZukJoT8NV2nfifVvZEWfKxk9myWj6eICtISZacjXXHqNFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00079</t>
+          <t>https://www.blibli.com/p/nadeea-fatimah-series-dress-dewasa-army/ps--NAD-70194-00021?ds=NAD-70194-00021-00003&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM4380wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00021&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SOO-60051-00356</t>
+          <t>UNI-60025-01784</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>RINSO</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Sorex CD Wanita Melange Collection 15023 BH 11105, 11106 dan 11115</t>
+          <t>Buy 2 - Rinso Detergent Cair Capsule Konsentrat Deterjen Matic Kapsul Sakura Blossom [168 G] Free Rinso Capsule Lavender Fresh [168 G]</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>24990</v>
+        <v>97600</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10634356/sorex_sorex_cd_wanita_melange_collection_15023_bh_11105-_11106_dan_11115_full01_ftwsj520.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-166562849/rinso_buy_2_-_rinso_detergent_cair_capsule_konsentrat_deterjen_matic_kapsul_sakura_blossom_-168_g-_free_rinso_capsule_lavender_fresh_-168_g-_full16_efaa5k6d.jpg</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-wanita-melange-collection-15023-bh-11105-11106-dan-11115/ps--SOO-60051-00356?ds=SOO-60051-00356-00002&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4b+oLJqLy/XvDHMcpKt+HY6JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00356</t>
+          <t>https://www.blibli.com/p/buy-2-rinso-detergent-cair-capsule-konsentrat-deterjen-matic-kapsul-sakura-blossom-168-g-free-rinso-capsule-lavender-fresh-168-g/ps--UNI-60025-01784?ds=UNI-60025-01784-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/Pdgj1B/QYBV7GBvNoJs6tnh6wQ6PEr8y5kW/jpBoqaySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnyMru0AcvpJJckDx5fLB9bbI0w8dmNEBfvLU7Yuo2KuO0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01784&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SOO-60051-00183</t>
+          <t>JAO-70150-00036</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Sorex Corset ShapeUp Korset Celana Paha Highwaist Shapewear Stagen 13189</t>
+          <t>Javina Mahira Abaya Series - Maroon</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>93100</v>
+        <v>445000</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8072733/sorex_sorex_corset_shapeup_korset_celana_paha_highwaist_shapewear_stagen_13189_full01_j8iugqbd.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393203/javina_javina_mahira_abaya_series_-_maroon_full01_v7mv6ko3.jpg</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-shapeup-korset-celana-paha-highwaist-shapewear-stagen-13189/ps--SOO-60051-00183?ds=SOO-60051-00183-00002&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0udwtGfjMBHkzcQHN9WHgcmbE/LLJy7W3VwRB8pUx8xBI+SgwT0bjuIBd7LA3Wgh1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE6NhASY2tUdrki83wetKin+0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00183</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-maroon/ps--JAO-70150-00036?ds=JAO-70150-00036-00004&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS847UMMr9bs7lr/LvcGmfw73JbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00036&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOO-60051-00157</t>
+          <t>JAO-70150-00034</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Sorex Corset Shapewear Korset Tulang Reguler Size Stagen 1052 Pengecil Perut</t>
+          <t>Javina Mahira Abaya Series - Black</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>78400</v>
+        <v>445000</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7975883/sorex_sorex_corset_shapewear_korset_tulang_reguler_size_stagen_1052_pengecil_perut_full01_q5k3eby6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393151/javina_javina_mahira_abaya_series_-_black_full01_fk49x92r.jpg</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-shapewear-korset-tulang-reguler-size-stagen-1052-pengecil-perut/ps--SOO-60051-00157?ds=SOO-60051-00157-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1v82AvnOYi0a9q7D8u1KCCX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00157</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-black/ps--JAO-70150-00034?ds=JAO-70150-00034-00004&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00034&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SOO-60051-00497</t>
+          <t>JAO-70150-00037</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Sorex Mystery Box Special Bra Cantik Kawat/Tanpa Kawat Setara cup B</t>
+          <t>Javina Mahira Abaya Series - White Grey</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>58800</v>
+        <v>445000</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-13765543/sorex_sorex_mystery_box_special_bra_cantik_kawat-tanpa_kawat__setara_cup_b_full03_h94hmgrl.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393243/javina_javina_mahira_abaya_series_-_white_grey_full01_jrnl83ek.jpg</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-mystery-box-special-bra-cantik-kawat-tanpa-kawat-setara-cup-b/ps--SOO-60051-00497?ds=SOO-60051-00497-00003&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b9l2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00497</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-white-grey/ps--JAO-70150-00037?ds=JAO-70150-00037-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84k38AQ6fHfgUaMI8dYOo1vlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00037&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SOO-60051-00471</t>
+          <t>JAO-70150-00035</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Sorex 17232 Casual Style Bra - Cup B</t>
+          <t>Javina Mahira Abaya Series - Denim</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>39004</v>
+        <v>445000</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12493876/sorex_sorex_bra_busa_tanpa_kawat_kait_2_setara_cup_b_bh_harian_casual_style_bra_17232_full01_rx5utll6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393198/javina_javina_mahira_abaya_series_-_denim_full01_tsevq5at.jpg</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-17232-casual-style-bra-cup-b/ps--SOO-60051-00471?ds=SOO-60051-00471-00005&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/eggqgMiupqXxacM5eGPWfSu4IWA9I8NZxGRTYuIBep1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00471</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-denim/ps--JAO-70150-00035?ds=JAO-70150-00035-00002&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84JQFtqBINX0TZNUUazK+2eVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00035&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SOO-60051-00280</t>
+          <t>NIE-12227-11677</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Cute Ribbon Brukat Bunga BT 7002</t>
+          <t>NIKE Men Basketball Jordan Essentials Holiday T-Shirt Kaos Basket Pria [FD7010-133]</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>102312</v>
+        <v>389000</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-8395621/sorex_sorex_lingerie_baju_tidur_premium_satin_look_cute_ribbon_brukat_bunga_bt_7002_full01_pbu0j5i7.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552999/nike_nike_men_basketball_jordan_essentials_holiday_t-shirt_kaos_basket_pria_-fd7010-133-_full02_lpte85hd.jpeg</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-cute-ribbon-brukat-bunga-bt-7002/ps--SOO-60051-00280?ds=SOO-60051-00280-00003&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9e2UdUDLB5ofwWKbsz373i7/ZVxa2kFaxpfYcDtaKNmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00280</t>
+          <t>https://www.blibli.com/p/nike-men-basketball-jordan-essentials-holiday-t-shirt-kaos-basket-pria-fd7010-133/ps--NIE-12227-11677?ds=NIE-12227-11677-00002&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzrqhn2WeenYl70j0tMOsyiGkIqt3bNpbYK+L444UhhhwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11677</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BAG-70027-00459</t>
+          <t>NIE-12227-11674</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Handuk Bayi | Handuk Anak | Sorex Towel 100 X 50</t>
+          <t>NIKE Men Running Dri-FIT Tee Trail T-Shirt Kaos Lari Pria [FN0826-010]</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>69400</v>
+        <v>325000</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//78/MTA-11021170/sorex_handuk_bayi_-_handuk_anak_-_sorex_towel_100_x_50_-_full01_3d2184d8.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552995/nike_nike_men_running_dri-fit_tee_trail_t-shirt_kaos_lari_pria_-fn0826-010-_full03_mpilnh7y.jpeg</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -4697,37 +4697,37 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/handuk-bayi-handuk-anak-sorex-towel-100-x-50/ps--BAG-70027-00459?ds=BAG-70027-00459-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmDdmyk291xKlcwhaoJiafSwI6rvWM2fME09xrH8SZaRY=&amp;cnc=false&amp;pickupPointCode=PP-3172350&amp;pid1=BAG-70027-00459</t>
+          <t>https://www.blibli.com/p/nike-men-running-dri-fit-tee-trail-t-shirt-kaos-lari-pria-fn0826-010/ps--NIE-12227-11674?ds=NIE-12227-11674-00003&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCy2vnCdR/EtZOI/3G854fFo0wn7+82bYRdE+2sGGRS84ijsaMV2OlAUratgIjx1Jq1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDkaTmXM5ymgQU76aQtitcsKDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11674</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SOO-60051-00552</t>
+          <t>NIE-12227-11673</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Sorex CD wanita Midi Super Soft Adem Lembut CD 15232</t>
+          <t>NIKE Men Basketball Ja Max90 Long-Sleeve T-Shirt Kaos Basket Pria [FN0808-010]</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>20580</v>
+        <v>469000</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-20762030/sorex_sorex_cd_wanita_midi_super_soft_adem_lembut_cd_15232_full02_rfcio72k.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552996/nike_nike_men_basketball_ja_max90_long-sleeve_t-shirt_kaos_basket_pria_-fn0808-010-_full03_rbr4mdgj.jpeg</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -4735,37 +4735,37 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-wanita-midi-super-soft-adem-lembut-cd-15232/ps--SOO-60051-00552?ds=SOO-60051-00552-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2aqponFxzbpAb1YzoA8RzrTwV2wi/WgIu36XET8QmhnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00552</t>
+          <t>https://www.blibli.com/p/nike-men-basketball-ja-max90-long-sleeve-t-shirt-kaos-basket-pria-fn0808-010/ps--NIE-12227-11673?ds=NIE-12227-11673-00002&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14uGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11673</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SOO-60051-00574</t>
+          <t>NIE-12227-11523</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Midi Basic Comfort Chic Adem Lembut Pori-pori CD 1260</t>
+          <t>NIKE Men Basketball Cleveland Cavaliers NBA T-shirt Basket [DR6369-680]</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24255</v>
+        <v>359000</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-21977111/sorex_sorex_celana_dalam_wanita_midi_basic_comfort_chic_adem_lembut_pori-pori_cd_1260_full02_e9br0e3e.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429261/nike_nike_men_basketball_cleveland_cavaliers_nba_t-shirt_basket_-dr6369-680-_full03_u6z1ye0p.jpeg</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -4773,113 +4773,113 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-midi-basic-comfort-chic-adem-lembut-pori-pori-cd-1260/ps--SOO-60051-00574?ds=SOO-60051-00574-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4agIrFT0SP5wuYJuKSH3/MKIivnlZfmSl5m7OY9r1lyLVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00574</t>
+          <t>https://www.blibli.com/p/nike-men-basketball-cleveland-cavaliers-nba-t-shirt-basket-dr6369-680/ps--NIE-12227-11523?ds=NIE-12227-11523-00005&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGGkIqt3bNpbYK+L444UhhhzzZ/8U3KjGLexZ+hPeKg01esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3016028&amp;pid1=NIE-12227-11523</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>BAK-24890-01845</t>
+          <t>HEL-60024-00658</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Heaven Lights</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Sorex Stagen 8052 - Slimming Corset Korset Pelangsing</t>
+          <t>Heaven Lights Saiba Blouse - Royal Blue</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>69500</v>
+        <v>249000</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//91/MTA-8106732/sorex_sorex_stagen_8052_-_slimming_corset_korset_pelangsing_full02_k0q4f928.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/108/MTA-165507758/heaven_lights_heaven_lights_saiba_series_blouse_-_royal_blue_full02_pisk3vrj.jpg</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-stagen-8052-slimming-corset-korset-pelangsing/ps--BAK-24890-01845?ds=BAK-24890-01845-00004&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70O/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURovYCHtpJ9m77Mt/1K6pUZq5DmAz1A2e+8nO/jzyY+jFw=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01845&amp;tag=new</t>
+          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-royal-blue/ps--HEL-60024-00658?ds=HEL-60024-00658-00005&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh/BYfIayXYsLzJq+mx6RyfZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3525161&amp;pid1=HEL-60024-00658</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SOO-60051-00415</t>
+          <t>NIE-12227-11638</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Basic Maxi Super Soft Polos CD 1250</t>
+          <t>NIKE Women Running Dri-FIT Swift Element UV Crew-Neck Top Pakaian Lari Wanita [FB4298-010]</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>22050</v>
+        <v>545000</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//92/MTA-11457236/sorex_sorex_cd_wanita_basic_maxi_super_soft_polos_cd_1250_full02_h25v300t.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429424/nike_nike_women_running_dri-fit_swift_element_uv_crew-neck_top_pakaian_lari_wanita_-fb4298-010-_full09_fqh7v9lc.jpeg</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-maxi-super-soft-polos-cd-1250/ps--SOO-60051-00415?ds=SOO-60051-00415-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+M7n3m+RcH5pfuq34yOwEpJ5DwTCoYZ7pKxqIR1psUuFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00415</t>
+          <t>https://www.blibli.com/p/nike-women-running-dri-fit-swift-element-uv-crew-neck-top-pakaian-lari-wanita-fb4298-010/ps--NIE-12227-11638?ds=NIE-12227-11638-00003&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJU0wn7+82bYRdE+2sGGRS84wOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDoiJJ1OU1JS2unXAZ1VoEmmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11638</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BAK-24890-01842</t>
+          <t>ADS-12698-13527</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Sorex Corset 4431 Korset Pasca Melahirkan</t>
+          <t>adidas Men Football Jersey Training Messi Baju Bola Pria [IZ2996]</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>73500</v>
+        <v>425000</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//101/MTA-8077654/sorex_sorex_corset_4431_korset_pasca_melahirkan_full01_ejmfoega.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164875220/adidas_adidas_men_football_jersey_training_messi_baju_bola_pria_-iz2996-_full02_spr5ewl2.jpeg</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -4887,75 +4887,75 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-4431-korset-pasca-melahirkan/ps--BAK-24890-01842?ds=BAK-24890-01842-00004&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9nxsCWE66IToY6H/3TEJYi/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURo6N0sa75uwpeazB0wvCSQYtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01842</t>
+          <t>https://www.blibli.com/p/adidas-men-football-jersey-training-messi-baju-bola-pria-iz2996/ps--ADS-12698-13527?ds=ADS-12698-13527-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxIcZ42UdpGRIP9haxRfSXo0wn7+82bYRdE+2sGGRS84Mt/3c2rmpbvxfTWQ1SJQeFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13527</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>MAM-60109-00113</t>
+          <t>HEL-60024-00657</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Heaven Lights</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>CD SOREX 1239 Celana Dalam Wanita</t>
+          <t>Heaven Lights Saiba Blouse - Plum</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>14500</v>
+        <v>249000</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-155195754/sorex_cd-sorex-1239-celana-dalam-wanita_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/99/MTA-165507009/heaven_lights_heaven_lights_saiba_series_blouse_-_plum_full01_o6nkay6z.jpg</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/cd-sorex-1239-celana-dalam-wanita/ps--MAM-60109-00113?ds=MAM-60109-00113-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushK/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3094603&amp;pid1=MAM-60109-00113</t>
+          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-plum/ps--HEL-60024-00657?ds=HEL-60024-00657-00002&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh3l+QY3wMrVJqg5NI5IcJapbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3501982&amp;pid1=HEL-60024-00657</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MOI-70007-00855</t>
+          <t>BEF-44369-01450</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Kesehatan &amp; Kecantikan</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Nivea</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Sorex 1250 CD Celana Dalam Wanita - Maxi Panty - Super Soft | BISA PILIH WARNA</t>
+          <t>WHS - NIVEA Extra White Anti Age Body Serum [180mL/ Twinpack]</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17127</v>
+        <v>105930</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-154953940/sorex_sorex_1250_cd_celana_dalam_wanita_-_maxi_panty_-_super_soft_-_bisa_pilih_warna_full01_jm7mqm90.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/102/MTA-164580356/nivea_nivea_body_serum_extra_white_anti_age_spf33_180ml_twinpack_full02_f5ecp6kb.jpg</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -4963,37 +4963,37 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-1250-cd-celana-dalam-wanita-maxi-panty-super-soft-bisa-pilih-warna/ps--MOI-70007-00855?ds=MOI-70007-00855-00020&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+VDd0aEb2mnEzhIWyggW8h5Yw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00855</t>
+          <t>https://www.blibli.com/p/whs-nivea-extra-white-anti-age-body-serum-180ml-twinpack/ps--BEF-44369-01450?ds=BEF-44369-01450-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq/ovRQ0Z022L3Iu9yw6+ylB186d66YvaC2JQyxVan28sVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50HmOPOo9vK7ml77mG9hBQkQ2RD2hjh2mlEX+5RI/nJrbRlLYVOA1NrlZjxU92acsmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3013016&amp;pid1=BEF-44369-01450</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>WIO-70008-00368</t>
+          <t>ADS-12698-13483</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>B501 | Celana Dalam Wanita Sorex - Sorex 1239</t>
+          <t>adidas Men Football Polo Shirt Manchester United Tiro 24 Baju Bola Pria [IT2028]</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>43860</v>
+        <v>552000</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/102/MTA-145016957/sorex_b501_-_celana_dalam_wanita_sorex_-__sorex_1239_full24_djih1f55.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114197/adidas_adidas_men_football_polo_shirt_manchester_united_tiro_24_baju_bola_pria_-it2028-_full03_ovnxbccg.jpeg</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -5001,37 +5001,37 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/b501-celana-dalam-wanita-sorex-sorex-1239/ps--WIO-70008-00368?ds=WIO-70008-00368-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7D5EnLGW/JufRUomLn7UXUhvPhx3NWvvw1KpDH3qrKOEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00368</t>
+          <t>https://www.blibli.com/p/adidas-men-football-polo-shirt-manchester-united-tiro-24-baju-bola-pria-it2028/ps--ADS-12698-13483?ds=ADS-12698-13483-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9edfIwrMRf6gYe7nhVvn27vDN9u2pSChajLuMWmnt1nzFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13483</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>WIO-70008-00425</t>
+          <t>ADS-12698-13451</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>B165 - Sorex Camisol Tanktop Tali Lebar Renda Brukat Free Size</t>
+          <t>adidas Men Football Jersey Arsenal Home 24/25 Baju Bola Pria [IT6141]</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>69360</v>
+        <v>1020000</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/98/MTA-148414570/sorex_b165_-_sorex_camisol_tanktop_tali_lebar_renda_brukat__free_size_full04_fx3z1ejy.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114157/adidas_adidas_men_football_jersey_arsenal_home_24-25_baju_bola_pria_-it6141-_full05_f1ymtfqk.jpeg</t>
         </is>
       </c>
       <c r="G121" t="n">
@@ -5039,113 +5039,113 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/b165-sorex-camisol-tanktop-tali-lebar-renda-brukat-free-size/ps--WIO-70008-00425?ds=WIO-70008-00425-00001&amp;source=SEARCH&amp;sid=3848a3b9c652c261&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70NR/YYwHagZb1LHNFss5QDsA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKOsT7WmHaYlyEM/a8kAvWoJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00425</t>
+          <t>https://www.blibli.com/p/adidas-men-football-jersey-arsenal-home-24-25-baju-bola-pria-it6141/ps--ADS-12698-13451?ds=ADS-12698-13451-00004&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq8BEYo4o198IKoVpkJZ1CNbAnAO3DeMVCIz5wjRuGXJuVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+UvM5rYQ2b7sWjAIjInNGfx9nPBIkgRjZAjSv9izhQ1pmwIpKMEQEhdOIn3G3lFnHYkG1UxvbL2nrGLalYS2G2RCnk+mz+9IdUNYHXY+enerZZHJddTpXmDglIJ8ujJq3&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13451</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>WIO-70008-00004</t>
+          <t>BAH-70197-00002</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Baby Hai</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>B549 | CELANA DALAM WANITA SOREX 1238 SIZE M - XXL</t>
+          <t>BABY HAI Rayya Series Ramadhan Abizar Series Color 2 - Baju Anak Laki - Laki Lengan Pendek Celana Panjang</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>17900</v>
+        <v>30100</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-10235637/sorex_b549_-_celana_dalam_wanita_sorex_1238_size_m_-_xxl_full03_dzx51bne.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//112/MTA-94766386/baby_hai_baby_hai_rayya_series_ramadhan_abizar_series_color_2_-_baju_anak_laki_-_laki_lengan_pendek_celana_panjang_full01_he26rnqh.jpg</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/b549-celana-dalam-wanita-sorex-1238-size-m-xxl/ps--WIO-70008-00004?ds=WIO-70008-00004-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WIIGmm33viDj/+hYQaGlpdnNcxv6ypS7E4ynJ64PnbwlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00004</t>
+          <t>https://www.blibli.com/p/baby-hai-rayya-series-ramadhan-abizar-series-color-2-baju-anak-laki-laki-lengan-pendek-celana-panjang/ps--BAH-70197-00002?ds=BAH-70197-00002-00007&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EMmbE/LLJy7W3VwRB8pUx8xE+ELff8mp6Jxh05BtXdSLlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWuSVd/bvsBAZ/8InAAmnjqC0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3529390&amp;pid1=BAH-70197-00002</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MOI-70007-00595</t>
+          <t>KOE-70078-00007</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>KOZE</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita - CD 1257 - Mini Panty - Super Soft - M - XXL</t>
+          <t>KOZE - Premium Comfort Green T-shirt - Kaos Polos Hijau</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>13464</v>
+        <v>49500</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-50903517/br-m036969-05088_sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-99600694/koze_koze_-_premium_comfort_green_t-shirt_-_kaos_polos_hijau_full01_eukw1txs.jpg</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl/ps--MOI-70007-00595?ds=MOI-70007-00595-00050&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIsG3614SFgY9ax7qJJTMRKNj/JAGGKMjevlfkFhtVG7gFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00595</t>
+          <t>https://www.blibli.com/p/koze-premium-comfort-green-t-shirt-kaos-polos-hijau/ps--KOE-70078-00007?ds=KOE-70078-00007-00004&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLe3ycwbRnPkH0lW7Gv/QJVMlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGp04hRlADTLARbcEgnz4dqM=&amp;cnc=false&amp;pickupPointCode=PP-3472636&amp;pid1=KOE-70078-00007</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SOO-60051-01043</t>
+          <t>LGM-60021-00230</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>LGS</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Sorex Bra Seamless Tanpa Kawat Kait 2 Cup A-B Busa Tipis BH 65004</t>
+          <t>LGS Slim Fit Kaos Polo Pria - White Blue Green [JTS.325.M1846F.01.C]</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>61600</v>
+        <v>146000</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-159825520/sorex_sorex_bra_seamless_tanpa_kawat_kait_2_cup_a-b_busa_tipis_bh_65004_full02_ds94bo75.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//85/MTA-1520625/lgs_lgs-slim-fit-kaos-polo-pria---white-blue-green--jts-325-m1846f-01-c-_full02.jpg</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -5153,113 +5153,113 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-seamless-tanpa-kawat-kait-2-cup-a-b-busa-tipis-bh-65004/ps--SOO-60051-01043?ds=SOO-60051-01043-00017&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH5nh6wQ6PEr8y5kW/jpBoqaA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01043</t>
+          <t>https://www.blibli.com/p/lgs-slim-fit-kaos-polo-pria-white-blue-green-jts-325-m1846f-01-c/ps--LGM-60021-00230?ds=LGM-60021-00230-00003&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushIJcaEJLcqsH3r6UABTq0TLwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3034126&amp;pid1=LGM-60021-00230</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SOO-60051-00995</t>
+          <t>ELM-60027-00165</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Fashion Wanita</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>ELLIPSES INC</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>(2 PCS) Sorex Man Lifetyle Boxer Pria Celana Dalam Cowo Adem Trunk LK 38285</t>
+          <t>ELLIPSESINC Kaos Oversize Wanita &amp; Pria BECCA EDITION</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>69000</v>
+        <v>35000</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/103/MTA-147676135/sorex_-2_pcs-_sorex_man_lifetyle_boxer_pria_celana_dalam_cowo_adem_trunk_lk_38285_full04_futs8yik.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//104/MTA-21988625/ellipses_inc_ellipsesinc_kaos_oversize_wanita_-_pria_becca_edition_full24_si0ww14j.jpg</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/2-pcs-sorex-man-lifetyle-boxer-pria-celana-dalam-cowo-adem-trunk-lk-38285/ps--SOO-60051-00995?ds=SOO-60051-00995-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OT2r7fOYNS0fn24lYkspaBA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00995</t>
+          <t>https://www.blibli.com/p/ellipsesinc-kaos-oversize-wanita-pria-becca-edition/ps--ELM-60027-00165?ds=ELM-60027-00165-00007&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGT2r7fOYNS0fn24lYkspaBeeU8gA9woEea/RtkRh7ZnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A8s4+rWZ7zCXM6RAaC0DCw0Kkkafi+cjIiXcB4olXgzyFWbDfLF/5KnLYCxjUA9SQsd5cgi/2OYPwjclFVcBAkX&amp;cnc=false&amp;pickupPointCode=PP-3085683&amp;pid1=ELM-60027-00165</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOO-60051-00861</t>
+          <t>EVO-70024-00183</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>EVERNEXT</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Katun Basic Cutting Midi Polos Shape Up CD 9075</t>
+          <t>EVERNEXT - DOMPET KUNCI KENDARAAN KEY WALLET ARCO GANTUNGAN KUNCI MOBIL MOTOR DOMPET KARTU DOMPET STNK</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36800</v>
+        <v>45000</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112996396/sorex_sorex_celana_dalam_katun_basic_cutting_midi_polos_shape_up_cd_9075_full02_kdz4sy7w.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//117/MTA-78887691/evernext_evernext_-_dompet_kunci_kendaraan_key_wallet_arco_gantungan_kunci_mobil_motor_dompet_kartu_dompet_stnk_full11_f18edunq.jpg</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-katun-basic-cutting-midi-polos-shape-up-cd-9075/ps--SOO-60051-00861?ds=SOO-60051-00861-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFl2MnZWZ1TwAwuODpbBDUVuyoMNIQ+r4z5DJ9oW5/gjVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00861</t>
+          <t>https://www.blibli.com/p/evernext-dompet-kunci-kendaraan-key-wallet-arco-gantungan-kunci-mobil-motor-dompet-kartu-dompet-stnk/ps--EVO-70024-00183?ds=EVO-70024-00183-00002&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBgmMdlWBN8y5Inger9NURmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vafHKVkJci5PAC/hnMA2UzpLyTJdReOx9JfHVI27hOzzM=&amp;cnc=false&amp;pickupPointCode=PP-3357698&amp;pid1=EVO-70024-00183</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SOO-60051-00769</t>
+          <t>HUP-60027-03538</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Hush Puppies</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Hamil Midi Maternity Panty Fit To L-XXL CD 1148</t>
+          <t>Hush Puppies Farro 2 Polo Shirt Pria</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41895</v>
+        <v>224420</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-46523947/sorex_sorex_celana_dalam_wanita_hamil_midi_maternity_panty_fit_to_l-xxl_cd_1148_full01_r4vls97f.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-159627197/hush-puppies_hush-puppies-farro-2-polo-shirt-pria_full01.jpg</t>
         </is>
       </c>
       <c r="G127" t="n">
@@ -5267,90 +5267,90 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-fit-to-l-xxl-cd-1148/ps--SOO-60051-00769?ds=SOO-60051-00769-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxg8vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00769</t>
+          <t>https://www.blibli.com/p/hush-puppies-farro-2-polo-shirt-pria/ps--HUP-60027-03538?ds=HUP-60027-03538-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q97B/omnSKxUeafXYYVk6xbwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3095796&amp;pid1=HUP-60027-03538</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOO-60051-00568</t>
+          <t>BLI-15014-16569</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>JP Collection</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Cute Y 1006</t>
+          <t>JP Collection OBSP-0285-TWOWHEELS Kaos Anak Laki-Laki</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>20286</v>
+        <v>30970</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-21173323/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_cute_y_1006_full02_3b2ive6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//79/MTA-3103224/jp-collection_jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki_full16.jpg</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-cute-y-1006/ps--SOO-60051-00568?ds=SOO-60051-00568-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt0whBxl0y0A/lKFMfuSR+YzJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00568</t>
+          <t>https://www.blibli.com/p/jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki/ps--BLI-15014-16569?ds=BLI-15014-16569-00029&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7ENfepXUSJ3qMPK5468+MysuJLWhzdnoh86j6S/07IpFSVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWg3ctvKPtt4ygLDf9aZr0F60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3523009&amp;pid1=BLI-15014-16569</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOO-60051-00634</t>
+          <t>BLM-60037-01195</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Pria</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>BLYTHE</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Gorgeous Nightgown Brukat BT 7008</t>
+          <t>Blythe Premium Jayden Flannel Shirt Kemeja Kotak Kotak Lengan Panjang Pria</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>116424</v>
+        <v>249000</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-24930571/sorex_sorex_lingerie_lovely_series_baju_tidur_premium_satin_look_gorgeous_nightgown_brukat_bt_7008_full05_uy3lb726.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-155401690/blythe_blythe_premium_jayden_flannel_shirt_kemeja_kotak_kotak_lengan_panjang_pria_full18_itluztdu.jpeg</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-gorgeous-nightgown-brukat-bt-7008/ps--SOO-60051-00634?ds=SOO-60051-00634-00002&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIORipaXzN/Cai///2rmGlQVrU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00634</t>
+          <t>https://www.blibli.com/p/blythe-premium-jayden-flannel-shirt-kemeja-kotak-kotak-lengan-panjang-pria/ps--BLM-60037-01195?ds=BLM-60037-01195-00008&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444UhhhDHoqKmYsTFC9Iv89Ei/0YlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52Np6XO8WKdHoYeMogok9fdb2BUOOGusSvfBtxTrjv/cwqeaQg1dtTjyms/VfSkXqs=&amp;cnc=false&amp;pickupPointCode=PP-3525890&amp;pid1=BLM-60037-01195</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SOO-60051-00012</t>
+          <t>KIK-70088-00020</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -5360,20 +5360,20 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Kiyora</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+          <t>Kiyora Sydney Atasan Wanita - Pink Crème</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>37044</v>
+        <v>89000</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709188/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_m8u3eoep.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044786/kiyora_kiyora_sydney_atasan_wanita_-_pink_cr-me_full01_kunyukph.jpeg</t>
         </is>
       </c>
       <c r="G130" t="n">
@@ -5381,37 +5381,37 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00012?ds=SOO-60051-00012-00002&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOcJUl07vjZHSHboXNQRMjgVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00012</t>
+          <t>https://www.blibli.com/p/kiyora-sydney-atasan-wanita-pink-cr-me/ps--KIK-70088-00020?ds=KIK-70088-00020-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uT2r7fOYNS0fn24lYkspaBKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKAe+OCLJmeyKGF1EdpUJUnlfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00020</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SOO-60051-00360</t>
+          <t>LIS-14924-00806</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Sorex Bra Kawat Busa Kait 2 Setara Cup B Bra Polos BH 11108</t>
+          <t>Lion Star Folding Hanger 24 Sticks Jemuran Baju</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>65660</v>
+        <v>64000</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10647376/sorex_sorex_bra_kawat_busa_kait_2_setara_cup_b_bra_polos_bh_11108_full03_j1xc7du0.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090270/lion_star_lion_star__folding_hanger_24_sticks_jemuran_baju_full01_o3vah5cz.jpg</t>
         </is>
       </c>
       <c r="G131" t="n">
@@ -5419,37 +5419,37 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-kawat-busa-kait-2-setara-cup-b-bra-polos-bh-11108/ps--SOO-60051-00360?ds=SOO-60051-00360-00012&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1R4AsY2zbEuPf0mEleNTFlvp6v2ww3rMJNM2z4cVX8YJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00360</t>
+          <t>https://www.blibli.com/p/lion-star-folding-hanger-24-sticks-jemuran-baju/ps--LIS-14924-00806?ds=LIS-14924-00806-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzw6DOMtn+gYi+5f5Iqa4pGT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00806</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SOO-60051-00042</t>
+          <t>LIS-14924-00805</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
+          <t>Lion Star Folding Hanger 16 Sticks Jemuran Baju</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>37044</v>
+        <v>49500</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7886901/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_g40b4t61.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148088190/lion_star_lion_star_folding_hanger_16_sticks_jemuran_baju_full03_igkn11o8.jpg</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -5457,37 +5457,37 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00042?ds=SOO-60051-00042-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOPTsyyIDmFh47MtBFYuGtqVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00042</t>
+          <t>https://www.blibli.com/p/lion-star-folding-hanger-16-sticks-jemuran-baju/ps--LIS-14924-00805?ds=LIS-14924-00805-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00805</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SOO-60051-00061</t>
+          <t>LIS-14924-00807</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Hamil Motif Katun Lembut Maternity Panty CD 1140</t>
+          <t>Lion Star Folding Hanger 30 Sticks Jemuran Baju</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>33320</v>
+        <v>74500</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7895759/sorex_sorex_celana_dalam_hamil_motif_katun_lembut_maternity_panty_cd_1140_full02_j2ua28na.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090286/lion_star_lion_star_folding_hanger_30_sticks_jemuran_baju_full02_tv6sxt04.jpg</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -5495,37 +5495,37 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-hamil-motif-katun-lembut-maternity-panty-cd-1140/ps--SOO-60051-00061?ds=SOO-60051-00061-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HcTUF9bqmkuAK1tOmfkDJzySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE9Nv1SOi0krVWYDfqxiBKGaaf+79sqnkYv3mggmh/hvP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00061</t>
+          <t>https://www.blibli.com/p/lion-star-folding-hanger-30-sticks-jemuran-baju/ps--LIS-14924-00807?ds=LIS-14924-00807-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6+ofzQPca16/hNKbnSDAJ6/HAkxoVke7cxJ4LyInlLenUcuWlxDj3lNx/vI4M4PH+jqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00807</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SOO-60051-00427</t>
+          <t>LIS-14924-00733</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Pita Mungil Miniset Y 1103</t>
+          <t>Lion Star Jemuran Baju / Laundry Hanger Tripod</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>30870</v>
+        <v>198600</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-11560139/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_pita_mungil_miniset_y_1103_full01_m3k9nvkz.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-127266381/lion_star_lion_star_jemuran_baju_-_laundry_hanger_tripod_full01_odf238gk.jpg</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -5533,14 +5533,14 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-pita-mungil-miniset-y-1103/ps--SOO-60051-00427?ds=SOO-60051-00427-00003&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EOacJbj2cXRya+Q0SCnBRoFYw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+GmfylN82DRKT97iLHHfPs20XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00427</t>
+          <t>https://www.blibli.com/p/lion-star-jemuran-baju-laundry-hanger-tripod/ps--LIS-14924-00733?ds=LIS-14924-00733-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JHLgoC/MYdp69cMUdWFnV1U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHI/2j+o1IQC0bIBUNNPAppAtZ8uEOn0Ql/eC8q/oWrwBcHn0AWNhN6m5BpKP78qwDE=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00733</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SOO-60051-00274</t>
+          <t>9TW-60021-01565</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5550,96 +5550,96 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>9 to 12</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Sorex CD Basic Midi Katun Mix 1179</t>
+          <t>9 to 12 Mia Linen Shirt Kemeja Lengan Panjang Linen Kantor Wanita</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26460</v>
+        <v>149000</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-8385514/sorex_sorex_cd_basic_midi_katun_mix_1179_full01_f8nmyoy6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-91217262/9_to_12_9_to_12_mia_linen_shirt_kemeja_wanita_full02_kcqs7mya.jpeg</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-midi-katun-mix-1179/ps--SOO-60051-00274?ds=SOO-60051-00274-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPzIOwJf81+FzoG8lPia/LMVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00274</t>
+          <t>https://www.blibli.com/p/9-to-12-mia-linen-shirt-kemeja-lengan-panjang-linen-kantor-wanita/ps--9TW-60021-01565?ds=9TW-60021-01565-00003&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushKGkIqt3bNpbYK+L444UhhhHxbrE1ojlIiyeznGUhdMUeWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxAAm0Ky79H2kukIikI3WbdDfjQtllH9FlUcG3SRRgUPwaH9/p2g1nm/YLqDhhmudNewKd+f0eOUHKyU4XgeKwfPg==&amp;cnc=false&amp;pickupPointCode=PP-3519985&amp;pid1=9TW-60021-01565</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SOO-60051-00013</t>
+          <t>LIS-14924-00572</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Home &amp; Living</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Lion Star</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Sorex Basic Super Soft 1255 Celana Dalam Wanita - Multicolor</t>
+          <t>Lion Star Jepitan Baju JB-1 Laundry Clips (20 Pcs)</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>22785</v>
+        <v>12500</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709258/sorex_sorex_basic_super_soft_1255_celana_dalam_wanita_-__multicolor_full01_t4dg2gm7.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-11691417/lion_star_lion_star_001_laundry_clips_full01_exf0fig2.jpg</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-basic-super-soft-1255-celana-dalam-wanita-multicolor/ps--SOO-60051-00013?ds=SOO-60051-00013-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q8xmBGsZhEvfPzU+A1f7vo+JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00013</t>
+          <t>https://www.blibli.com/p/lion-star-jepitan-baju-jb-1-laundry-clips-20-pcs/ps--LIS-14924-00572?ds=LIS-14924-00572-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeC/HAkxoVke7cxJ4LyInlLeONM/pwQSpw/TgMoD9qDeE1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt51SPFgCl9oi27QotXy+Xqg7ncDBNXS0U6F+cIYt7Ox4Ox3lyCL/Y5g/CNyUVVwECRc=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00572</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SOO-60051-00295</t>
+          <t>DAO-70167-00003</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Dacco</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Basic Mini Super Soft Lembut Nyaman Dipakai CD 1257</t>
+          <t>Dacco Mama Pad 3D Breastpad [24 pcs]</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>19992</v>
+        <v>22000</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18327672/sorex_sorex_celana_dalam_wanita_basic_mini_super_soft_lembut_nyaman_dipakai_cd_1257_full02_cqx8djmw.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/92/MTA-127240561/dacco_dacco-mama-pad-breastpad-3d-isi-24pcs_full02.jpg</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -5647,37 +5647,37 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-mini-super-soft-lembut-nyaman-dipakai-cd-1257/ps--SOO-60051-00295?ds=SOO-60051-00295-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JSivqeb4HprTDVqcGV3PQCI/EEoP3uESdSpv1I9i7XJFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00295</t>
+          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-24-pcs/ps--DAO-70167-00003?ds=DAO-70167-00003-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+T2r7fOYNS0fn24lYkspaB/A9+ItZOLJU0KYEdc1CW5NldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00003</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SOO-60051-00175</t>
+          <t>DAO-70167-00004</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Ibu &amp; Anak</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Dacco</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Sorex Bra Extra Comfort Busa Sedang Kawat Kait 3 Setara Cup B BH 3262</t>
+          <t>Dacco Mama Pad 3D Breastpad [56 pcs]</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>55125</v>
+        <v>45000</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7994480/sorex_sorex_bra_extra_comfort_busa_sedang_kawat_kait_3_setara_cup_b_bh_3262_full03_bpk5yj9s.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/95/MTA-127240590/dacco_dacco-mama-pad-breastpad-3d-isi-56pcs_full02.jpg</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -5685,14 +5685,14 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-sedang-kawat-kait-3-setara-cup-b-bh-3262/ps--SOO-60051-00175?ds=SOO-60051-00175-00014&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00175</t>
+          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-56-pcs/ps--DAO-70167-00004?ds=DAO-70167-00004-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBjgJtif7ZErD1A5G7Do9RH9ldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00004</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SOO-60051-00010</t>
+          <t>KIK-70088-00045</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5702,111 +5702,111 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>KAORI</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Sorex Cd Basic Bahan Super Soft 1251 Celana dalam Wanita</t>
+          <t>Kaori Seira Cardigan Outer Wanita - Bata</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23667</v>
+        <v>75000</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7708515/sorex_sorex_cd_basic_bahan_super_soft_1251_celana_dalam_wanita_full03_t1r1rwvf.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93066052/kaori_kaori_seira_cardigan_outer_wanita_-_bata_full01_njcswb4w.jpeg</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-bahan-super-soft-1251-celana-dalam-wanita/ps--SOO-60051-00010?ds=SOO-60051-00010-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73OhY4+eXFWJ8a6ITW30cbFkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00010</t>
+          <t>https://www.blibli.com/p/kaori-seira-cardigan-outer-wanita-bata/ps--KIK-70088-00045?ds=KIK-70088-00045-00002&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCycpTyS3V4Bt86XaxsYSf7+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJvUe1T40+jFxsL3RTfsG+znMf7cp48yL26Dsz2eCVLdZfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00045</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SOO-60051-00004</t>
+          <t>INP-60076-02184</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Mainan, Buku &amp; Stationery</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Akedo</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Basic Midi Soft &amp; Comfort CD 1228 Katun Mix Adem</t>
+          <t>Legends of Akedo PowerStorm S4 Giants Action Figure 15190 - Assorted</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>26754</v>
+        <v>179000</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7700289/sorex_sorex_celana_dalam_wanita_basic_midi_soft_-_comfort_cd_1228_katun_mix_adem_full02_nnq90z7s.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-95198657/akedo_legends_of_akedo_powerstorm_s4_giants_action_figure_15190_-_assorted_full02_jykgck93.jpeg</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-midi-soft-comfort-cd-1228-katun-mix-adem/ps--SOO-60051-00004?ds=SOO-60051-00004-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy/kEEC5/YmxIZLZ3qqgiVystYhaTIOsJmPMG3J3j/VXFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00004</t>
+          <t>https://www.blibli.com/p/legends-of-akedo-powerstorm-s4-giants-action-figure-15190-assorted/ps--INP-60076-02184?ds=INP-60076-02184-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNylnry4OkDBy9LifrRfNVhITodBPeru5IipRxn8umZ90=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-02184</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SOO-60051-00258</t>
+          <t>INP-60076-01330</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Mainan, Buku &amp; Stationery</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Happy Toon</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Sorex CD 1230 Basic Katun WARNA</t>
+          <t>Happy Toon NB-03900 Family Small Toys Iron Basket Mainan Anak</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>21900</v>
+        <v>55000</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8247465/sorex_sorex_cd_1230_basic_katun_warna_full02_dcmpebfb.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-54407440/happy_toon_happy_toon_nb-03900_family_small_toys_iron_basket_mainan_anak_full06_extz21fi.jpg</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-1230-basic-katun-warna/ps--SOO-60051-00258?ds=SOO-60051-00258-00003&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goKIIGmm33viDj/+hYQaGlpdxFbcOmnv9bSync5a5kF4+lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00258</t>
+          <t>https://www.blibli.com/p/happy-toon-nb-03900-family-small-toys-iron-basket-mainan-anak/ps--INP-60076-01330?ds=INP-60076-01330-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdMvid824Op0k6a8gP8mZi4h3fZ0ly05AmuL0ur5cecCosM0GrDScBYeg5CPA4jmdc=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-01330</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SOO-60051-00467</t>
+          <t>KIK-70088-00004</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5816,400 +5816,400 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Kiyora</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Sorex Bra Tanpa Kawat Busa Kait 3 Setara Cup B Bra Harian Casual Comfort BH 65001</t>
+          <t>Kiyora Claude Atasan Wanita - Hitam</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>52920</v>
+        <v>99000</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-12228968/sorex_sorex_bra_tanpa_kawat_busa_kait_3_setara_cup_b_bra_harian_casual_comfort_bh_65001_full02_br99daxr.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044758/kiyora_kiyora_claude_atasan_wanita_-_hitam_full01_vkgwv5e0.jpeg</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-busa-kait-3-setara-cup-b-bra-harian-casual-comfort-bh-65001/ps--SOO-60051-00467?ds=SOO-60051-00467-00002&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+iQM9MJM8LcOV1edc2sOTJmjateuiD2bQM1xoGRlYR/JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00467</t>
+          <t>https://www.blibli.com/p/kiyora-claude-atasan-wanita-hitam/ps--KIK-70088-00004?ds=KIK-70088-00004-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKODomkMVGOhLlHkEhAouZJtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00004</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SOO-60051-00125</t>
+          <t>UNI-60025-01804</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>MOLTO</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Sorex Bra Extra Comfort Busa Tanpa Kawat Kait 2 Setara Cup B BH 9850</t>
+          <t>Molto Pelembut &amp; Pewangi Pakaian Softener Parfum Boost Himalayan Honeysuckle [650 mL] + Molto Trika Floral Bliss [300ml/2 Pcs] Free Jade Chielo Box</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>55125</v>
+        <v>33500</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-18247352/sorex_sorex_bra_extra_comfort_busa_tanpa_kawat_kait_2_setara_cup_b_bh_9850_full01_n9w2qvqq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/98/MTA-167406424/molto_molto_pelembut_-_pewangi_pakaian_softener_parfum_boost_himalayan_honeysuckle_-650_ml-_-_molto_trika_floral_bliss_-300ml-2_pcs-_free_jade_chielo_box_full01_fgiz6m7c.jpg</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-tanpa-kawat-kait-2-setara-cup-b-bh-9850/ps--SOO-60051-00125?ds=SOO-60051-00125-00009&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faV9hz/XQzSqIR3H2JQztKk1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00125</t>
+          <t>https://www.blibli.com/p/molto-pelembut-pewangi-pakaian-softener-parfum-boost-himalayan-honeysuckle-650-ml-molto-trika-floral-bliss-300ml-2-pcs-free-jade-chielo-box/ps--UNI-60025-01804?ds=UNI-60025-01804-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5G/HAkxoVke7cxJ4LyInlLeKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcC/9RBdAtddAWdo2jQOkvIlWIVM7ED7wPBObjNJjF4PkDPK2nt+P+WStgCBz6tDLJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01804&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SOO-60051-00090</t>
+          <t>NAD-70194-00022</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Nadeea</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Bra Sorex Tanpa Kawat Busa Sedang Cup Setara Cup B Casual Comfort 65003 Basic</t>
+          <t>Nadeea Jamilah Series Dress Dewasa - Black</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>54880</v>
+        <v>465000</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240575/sorex_bra_sorex_tanpa_kawat_busa_sedang_cup_setara_cup_b_casual_comfort_65003_basic_full02_jqezgsad.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167020003/nadeea_nadeea_jamilah_series_dress_dewasa_-_black_full01_i7gjfa9c.jpg</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/bra-sorex-tanpa-kawat-busa-sedang-cup-setara-cup-b-casual-comfort-65003-basic/ps--SOO-60051-00090?ds=SOO-60051-00090-00005&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJWc8Qg5cJ1du71Plk4CIHX7JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00090</t>
+          <t>https://www.blibli.com/p/nadeea-jamilah-series-dress-dewasa-black/ps--NAD-70194-00022?ds=NAD-70194-00022-00003&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14s0wn7+82bYRdE+2sGGRS84WyZ4Fa53DKe1xs2SeZpyh5bKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00022&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SOO-60051-00079</t>
+          <t>NAD-70194-00021</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Nadeea</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Sorex Bra Tanpa Kawat Super Soft Busa Sedang Setara Cup B 17238 BH Harian Simple Polos</t>
+          <t>Nadeea Fatimah Series Dress Dewasa - Army</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>37240</v>
+        <v>395000</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240855/sorex_sorex_bra_tanpa_kawat_super_soft_busa_sedang_setara_cup_b_17238_bh_harian_simple_polos_full02_t2k386dq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167019838/nadeea_nadeea_fatimah_series_dress_dewasa_-_army_full01_qdyt3pad.jpg</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-super-soft-busa-sedang-setara-cup-b-17238-bh-harian-simple-polos/ps--SOO-60051-00079?ds=SOO-60051-00079-00012&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZukJoT8NV2nfifVvZEWfKxk9myWj6eICtISZacjXXHqNFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00079</t>
+          <t>https://www.blibli.com/p/nadeea-fatimah-series-dress-dewasa-army/ps--NAD-70194-00021?ds=NAD-70194-00021-00003&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM4380wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00021&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SOO-60051-00356</t>
+          <t>UNI-60025-01784</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Bliblimart</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>RINSO</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Sorex CD Wanita Melange Collection 15023 BH 11105, 11106 dan 11115</t>
+          <t>Buy 2 - Rinso Detergent Cair Capsule Konsentrat Deterjen Matic Kapsul Sakura Blossom [168 G] Free Rinso Capsule Lavender Fresh [168 G]</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>24990</v>
+        <v>97600</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10634356/sorex_sorex_cd_wanita_melange_collection_15023_bh_11105-_11106_dan_11115_full01_ftwsj520.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-166562849/rinso_buy_2_-_rinso_detergent_cair_capsule_konsentrat_deterjen_matic_kapsul_sakura_blossom_-168_g-_free_rinso_capsule_lavender_fresh_-168_g-_full16_efaa5k6d.jpg</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-wanita-melange-collection-15023-bh-11105-11106-dan-11115/ps--SOO-60051-00356?ds=SOO-60051-00356-00002&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4b+oLJqLy/XvDHMcpKt+HY6JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00356</t>
+          <t>https://www.blibli.com/p/buy-2-rinso-detergent-cair-capsule-konsentrat-deterjen-matic-kapsul-sakura-blossom-168-g-free-rinso-capsule-lavender-fresh-168-g/ps--UNI-60025-01784?ds=UNI-60025-01784-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/Pdgj1B/QYBV7GBvNoJs6tnh6wQ6PEr8y5kW/jpBoqaySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnyMru0AcvpJJckDx5fLB9bbI0w8dmNEBfvLU7Yuo2KuO0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01784&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SOO-60051-00183</t>
+          <t>JAO-70150-00036</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Sorex Corset ShapeUp Korset Celana Paha Highwaist Shapewear Stagen 13189</t>
+          <t>Javina Mahira Abaya Series - Maroon</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>93100</v>
+        <v>445000</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8072733/sorex_sorex_corset_shapeup_korset_celana_paha_highwaist_shapewear_stagen_13189_full01_j8iugqbd.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393203/javina_javina_mahira_abaya_series_-_maroon_full01_v7mv6ko3.jpg</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-shapeup-korset-celana-paha-highwaist-shapewear-stagen-13189/ps--SOO-60051-00183?ds=SOO-60051-00183-00002&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0udwtGfjMBHkzcQHN9WHgcmbE/LLJy7W3VwRB8pUx8xBI+SgwT0bjuIBd7LA3Wgh1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE6NhASY2tUdrki83wetKin+0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00183</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-maroon/ps--JAO-70150-00036?ds=JAO-70150-00036-00004&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS847UMMr9bs7lr/LvcGmfw73JbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00036&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SOO-60051-00157</t>
+          <t>JAO-70150-00034</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Sorex Corset Shapewear Korset Tulang Reguler Size Stagen 1052 Pengecil Perut</t>
+          <t>Javina Mahira Abaya Series - Black</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>78400</v>
+        <v>445000</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7975883/sorex_sorex_corset_shapewear_korset_tulang_reguler_size_stagen_1052_pengecil_perut_full01_q5k3eby6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393151/javina_javina_mahira_abaya_series_-_black_full01_fk49x92r.jpg</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-shapewear-korset-tulang-reguler-size-stagen-1052-pengecil-perut/ps--SOO-60051-00157?ds=SOO-60051-00157-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1v82AvnOYi0a9q7D8u1KCCX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00157</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-black/ps--JAO-70150-00034?ds=JAO-70150-00034-00004&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00034&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SOO-60051-00497</t>
+          <t>JAO-70150-00037</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Sorex Mystery Box Special Bra Cantik Kawat/Tanpa Kawat Setara cup B</t>
+          <t>Javina Mahira Abaya Series - White Grey</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>58800</v>
+        <v>445000</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-13765543/sorex_sorex_mystery_box_special_bra_cantik_kawat-tanpa_kawat__setara_cup_b_full03_h94hmgrl.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393243/javina_javina_mahira_abaya_series_-_white_grey_full01_jrnl83ek.jpg</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-mystery-box-special-bra-cantik-kawat-tanpa-kawat-setara-cup-b/ps--SOO-60051-00497?ds=SOO-60051-00497-00003&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b9l2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00497</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-white-grey/ps--JAO-70150-00037?ds=JAO-70150-00037-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84k38AQ6fHfgUaMI8dYOo1vlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00037&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SOO-60051-00471</t>
+          <t>JAO-70150-00035</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Javina</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Sorex 17232 Casual Style Bra - Cup B</t>
+          <t>Javina Mahira Abaya Series - Denim</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>39004</v>
+        <v>445000</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12493876/sorex_sorex_bra_busa_tanpa_kawat_kait_2_setara_cup_b_bh_harian_casual_style_bra_17232_full01_rx5utll6.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393198/javina_javina_mahira_abaya_series_-_denim_full01_tsevq5at.jpg</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-17232-casual-style-bra-cup-b/ps--SOO-60051-00471?ds=SOO-60051-00471-00005&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/eggqgMiupqXxacM5eGPWfSu4IWA9I8NZxGRTYuIBep1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00471</t>
+          <t>https://www.blibli.com/p/javina-mahira-abaya-series-denim/ps--JAO-70150-00035?ds=JAO-70150-00035-00002&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84JQFtqBINX0TZNUUazK+2eVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00035&amp;tag=new</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SOO-60051-00280</t>
+          <t>NIE-12227-11677</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Cute Ribbon Brukat Bunga BT 7002</t>
+          <t>NIKE Men Basketball Jordan Essentials Holiday T-Shirt Kaos Basket Pria [FD7010-133]</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>102312</v>
+        <v>389000</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-8395621/sorex_sorex_lingerie_baju_tidur_premium_satin_look_cute_ribbon_brukat_bunga_bt_7002_full01_pbu0j5i7.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552999/nike_nike_men_basketball_jordan_essentials_holiday_t-shirt_kaos_basket_pria_-fd7010-133-_full02_lpte85hd.jpeg</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-cute-ribbon-brukat-bunga-bt-7002/ps--SOO-60051-00280?ds=SOO-60051-00280-00003&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9e2UdUDLB5ofwWKbsz373i7/ZVxa2kFaxpfYcDtaKNmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00280</t>
+          <t>https://www.blibli.com/p/nike-men-basketball-jordan-essentials-holiday-t-shirt-kaos-basket-pria-fd7010-133/ps--NIE-12227-11677?ds=NIE-12227-11677-00002&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzrqhn2WeenYl70j0tMOsyiGkIqt3bNpbYK+L444UhhhwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11677</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BAG-70027-00459</t>
+          <t>NIE-12227-11674</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Handuk Bayi | Handuk Anak | Sorex Towel 100 X 50</t>
+          <t>NIKE Men Running Dri-FIT Tee Trail T-Shirt Kaos Lari Pria [FN0826-010]</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>69400</v>
+        <v>325000</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//78/MTA-11021170/sorex_handuk_bayi_-_handuk_anak_-_sorex_towel_100_x_50_-_full01_3d2184d8.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552995/nike_nike_men_running_dri-fit_tee_trail_t-shirt_kaos_lari_pria_-fn0826-010-_full03_mpilnh7y.jpeg</t>
         </is>
       </c>
       <c r="G152" t="n">
@@ -6217,37 +6217,37 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/handuk-bayi-handuk-anak-sorex-towel-100-x-50/ps--BAG-70027-00459?ds=BAG-70027-00459-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmDdmyk291xKlcwhaoJiafSwI6rvWM2fME09xrH8SZaRY=&amp;cnc=false&amp;pickupPointCode=PP-3172350&amp;pid1=BAG-70027-00459</t>
+          <t>https://www.blibli.com/p/nike-men-running-dri-fit-tee-trail-t-shirt-kaos-lari-pria-fn0826-010/ps--NIE-12227-11674?ds=NIE-12227-11674-00003&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCy2vnCdR/EtZOI/3G854fFo0wn7+82bYRdE+2sGGRS84ijsaMV2OlAUratgIjx1Jq1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDkaTmXM5ymgQU76aQtitcsKDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11674</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SOO-60051-00552</t>
+          <t>NIE-12227-11673</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Sorex CD wanita Midi Super Soft Adem Lembut CD 15232</t>
+          <t>NIKE Men Basketball Ja Max90 Long-Sleeve T-Shirt Kaos Basket Pria [FN0808-010]</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>20580</v>
+        <v>469000</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-20762030/sorex_sorex_cd_wanita_midi_super_soft_adem_lembut_cd_15232_full02_rfcio72k.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552996/nike_nike_men_basketball_ja_max90_long-sleeve_t-shirt_kaos_basket_pria_-fn0808-010-_full03_rbr4mdgj.jpeg</t>
         </is>
       </c>
       <c r="G153" t="n">
@@ -6255,37 +6255,37 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-cd-wanita-midi-super-soft-adem-lembut-cd-15232/ps--SOO-60051-00552?ds=SOO-60051-00552-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2aqponFxzbpAb1YzoA8RzrTwV2wi/WgIu36XET8QmhnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00552</t>
+          <t>https://www.blibli.com/p/nike-men-basketball-ja-max90-long-sleeve-t-shirt-kaos-basket-pria-fn0808-010/ps--NIE-12227-11673?ds=NIE-12227-11673-00002&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14uGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11673</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SOO-60051-00574</t>
+          <t>NIE-12227-11523</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Midi Basic Comfort Chic Adem Lembut Pori-pori CD 1260</t>
+          <t>NIKE Men Basketball Cleveland Cavaliers NBA T-shirt Basket [DR6369-680]</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>24255</v>
+        <v>359000</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-21977111/sorex_sorex_celana_dalam_wanita_midi_basic_comfort_chic_adem_lembut_pori-pori_cd_1260_full02_e9br0e3e.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429261/nike_nike_men_basketball_cleveland_cavaliers_nba_t-shirt_basket_-dr6369-680-_full03_u6z1ye0p.jpeg</t>
         </is>
       </c>
       <c r="G154" t="n">
@@ -6293,113 +6293,113 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-midi-basic-comfort-chic-adem-lembut-pori-pori-cd-1260/ps--SOO-60051-00574?ds=SOO-60051-00574-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4agIrFT0SP5wuYJuKSH3/MKIivnlZfmSl5m7OY9r1lyLVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00574</t>
+          <t>https://www.blibli.com/p/nike-men-basketball-cleveland-cavaliers-nba-t-shirt-basket-dr6369-680/ps--NIE-12227-11523?ds=NIE-12227-11523-00005&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGGkIqt3bNpbYK+L444UhhhzzZ/8U3KjGLexZ+hPeKg01esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3016028&amp;pid1=NIE-12227-11523</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BAK-24890-01845</t>
+          <t>HEL-60024-00658</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Heaven Lights</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Sorex Stagen 8052 - Slimming Corset Korset Pelangsing</t>
+          <t>Heaven Lights Saiba Blouse - Royal Blue</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>69500</v>
+        <v>249000</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//91/MTA-8106732/sorex_sorex_stagen_8052_-_slimming_corset_korset_pelangsing_full02_k0q4f928.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/108/MTA-165507758/heaven_lights_heaven_lights_saiba_series_blouse_-_royal_blue_full02_pisk3vrj.jpg</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-stagen-8052-slimming-corset-korset-pelangsing/ps--BAK-24890-01845?ds=BAK-24890-01845-00004&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70O/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURovYCHtpJ9m77Mt/1K6pUZq5DmAz1A2e+8nO/jzyY+jFw=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01845&amp;tag=new</t>
+          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-royal-blue/ps--HEL-60024-00658?ds=HEL-60024-00658-00005&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh/BYfIayXYsLzJq+mx6RyfZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3525161&amp;pid1=HEL-60024-00658</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SOO-60051-00415</t>
+          <t>NIE-12227-11638</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>NIKE</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Sorex Celana Dalam Wanita Basic Maxi Super Soft Polos CD 1250</t>
+          <t>NIKE Women Running Dri-FIT Swift Element UV Crew-Neck Top Pakaian Lari Wanita [FB4298-010]</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>22050</v>
+        <v>545000</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//92/MTA-11457236/sorex_sorex_cd_wanita_basic_maxi_super_soft_polos_cd_1250_full02_h25v300t.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429424/nike_nike_women_running_dri-fit_swift_element_uv_crew-neck_top_pakaian_lari_wanita_-fb4298-010-_full09_fqh7v9lc.jpeg</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-maxi-super-soft-polos-cd-1250/ps--SOO-60051-00415?ds=SOO-60051-00415-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+M7n3m+RcH5pfuq34yOwEpJ5DwTCoYZ7pKxqIR1psUuFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00415</t>
+          <t>https://www.blibli.com/p/nike-women-running-dri-fit-swift-element-uv-crew-neck-top-pakaian-lari-wanita-fb4298-010/ps--NIE-12227-11638?ds=NIE-12227-11638-00003&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJU0wn7+82bYRdE+2sGGRS84wOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDoiJJ1OU1JS2unXAZ1VoEmmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11638</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BAK-24890-01842</t>
+          <t>ADS-12698-13527</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Sorex Corset 4431 Korset Pasca Melahirkan</t>
+          <t>adidas Men Football Jersey Training Messi Baju Bola Pria [IZ2996]</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>73500</v>
+        <v>425000</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//101/MTA-8077654/sorex_sorex_corset_4431_korset_pasca_melahirkan_full01_ejmfoega.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164875220/adidas_adidas_men_football_jersey_training_messi_baju_bola_pria_-iz2996-_full02_spr5ewl2.jpeg</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -6407,75 +6407,75 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-corset-4431-korset-pasca-melahirkan/ps--BAK-24890-01842?ds=BAK-24890-01842-00004&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9nxsCWE66IToY6H/3TEJYi/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURo6N0sa75uwpeazB0wvCSQYtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01842</t>
+          <t>https://www.blibli.com/p/adidas-men-football-jersey-training-messi-baju-bola-pria-iz2996/ps--ADS-12698-13527?ds=ADS-12698-13527-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxIcZ42UdpGRIP9haxRfSXo0wn7+82bYRdE+2sGGRS84Mt/3c2rmpbvxfTWQ1SJQeFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13527</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>MAM-60109-00113</t>
+          <t>HEL-60024-00657</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Fashion Muslim</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Heaven Lights</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>CD SOREX 1239 Celana Dalam Wanita</t>
+          <t>Heaven Lights Saiba Blouse - Plum</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>14500</v>
+        <v>249000</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-155195754/sorex_cd-sorex-1239-celana-dalam-wanita_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/99/MTA-165507009/heaven_lights_heaven_lights_saiba_series_blouse_-_plum_full01_o6nkay6z.jpg</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/cd-sorex-1239-celana-dalam-wanita/ps--MAM-60109-00113?ds=MAM-60109-00113-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushK/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3094603&amp;pid1=MAM-60109-00113</t>
+          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-plum/ps--HEL-60024-00657?ds=HEL-60024-00657-00002&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh3l+QY3wMrVJqg5NI5IcJapbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3501982&amp;pid1=HEL-60024-00657</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MOI-70007-00855</t>
+          <t>BEF-44369-01450</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Kesehatan &amp; Kecantikan</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>Nivea</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Sorex 1250 CD Celana Dalam Wanita - Maxi Panty - Super Soft | BISA PILIH WARNA</t>
+          <t>WHS - NIVEA Extra White Anti Age Body Serum [180mL/ Twinpack]</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>17127</v>
+        <v>105930</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-154953940/sorex_sorex_1250_cd_celana_dalam_wanita_-_maxi_panty_-_super_soft_-_bisa_pilih_warna_full01_jm7mqm90.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/102/MTA-164580356/nivea_nivea_body_serum_extra_white_anti_age_spf33_180ml_twinpack_full02_f5ecp6kb.jpg</t>
         </is>
       </c>
       <c r="G159" t="n">
@@ -6483,37 +6483,37 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/sorex-1250-cd-celana-dalam-wanita-maxi-panty-super-soft-bisa-pilih-warna/ps--MOI-70007-00855?ds=MOI-70007-00855-00020&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+VDd0aEb2mnEzhIWyggW8h5Yw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00855</t>
+          <t>https://www.blibli.com/p/whs-nivea-extra-white-anti-age-body-serum-180ml-twinpack/ps--BEF-44369-01450?ds=BEF-44369-01450-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq/ovRQ0Z022L3Iu9yw6+ylB186d66YvaC2JQyxVan28sVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50HmOPOo9vK7ml77mG9hBQkQ2RD2hjh2mlEX+5RI/nJrbRlLYVOA1NrlZjxU92acsmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3013016&amp;pid1=BEF-44369-01450</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>WIO-70008-00368</t>
+          <t>ADS-12698-13483</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>B501 | Celana Dalam Wanita Sorex - Sorex 1239</t>
+          <t>adidas Men Football Polo Shirt Manchester United Tiro 24 Baju Bola Pria [IT2028]</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>43860</v>
+        <v>552000</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/102/MTA-145016957/sorex_b501_-_celana_dalam_wanita_sorex_-__sorex_1239_full24_djih1f55.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114197/adidas_adidas_men_football_polo_shirt_manchester_united_tiro_24_baju_bola_pria_-it2028-_full03_ovnxbccg.jpeg</t>
         </is>
       </c>
       <c r="G160" t="n">
@@ -6521,37 +6521,37 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/b501-celana-dalam-wanita-sorex-sorex-1239/ps--WIO-70008-00368?ds=WIO-70008-00368-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7D5EnLGW/JufRUomLn7UXUhvPhx3NWvvw1KpDH3qrKOEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00368</t>
+          <t>https://www.blibli.com/p/adidas-men-football-polo-shirt-manchester-united-tiro-24-baju-bola-pria-it2028/ps--ADS-12698-13483?ds=ADS-12698-13483-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9edfIwrMRf6gYe7nhVvn27vDN9u2pSChajLuMWmnt1nzFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13483</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>WIO-70008-00425</t>
+          <t>ADS-12698-13451</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Sorex</t>
+          <t>adidas</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>B165 - Sorex Camisol Tanktop Tali Lebar Renda Brukat Free Size</t>
+          <t>adidas Men Football Jersey Arsenal Home 24/25 Baju Bola Pria [IT6141]</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>69360</v>
+        <v>1020000</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/98/MTA-148414570/sorex_b165_-_sorex_camisol_tanktop_tali_lebar_renda_brukat__free_size_full04_fx3z1ejy.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114157/adidas_adidas_men_football_jersey_arsenal_home_24-25_baju_bola_pria_-it6141-_full05_f1ymtfqk.jpeg</t>
         </is>
       </c>
       <c r="G161" t="n">
@@ -6559,1527 +6559,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/b165-sorex-camisol-tanktop-tali-lebar-renda-brukat-free-size/ps--WIO-70008-00425?ds=WIO-70008-00425-00001&amp;source=SEARCH&amp;sid=2d0455a48fb7285d&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70NR/YYwHagZb1LHNFss5QDsA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKOsT7WmHaYlyEM/a8kAvWoJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00425</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>WIO-70008-00004</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>B549 | CELANA DALAM WANITA SOREX 1238 SIZE M - XXL</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>17900</v>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-10235637/sorex_b549_-_celana_dalam_wanita_sorex_1238_size_m_-_xxl_full03_dzx51bne.jpg</t>
-        </is>
-      </c>
-      <c r="G162" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/b549-celana-dalam-wanita-sorex-1238-size-m-xxl/ps--WIO-70008-00004?ds=WIO-70008-00004-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WIIGmm33viDj/+hYQaGlpdnNcxv6ypS7E4ynJ64PnbwlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00004</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>MOI-70007-00595</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Sorex Celana Dalam Wanita - CD 1257 - Mini Panty - Super Soft - M - XXL</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>13464</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-50903517/br-m036969-05088_sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl_full01.jpg</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-cd-1257-mini-panty-super-soft-m-xxl/ps--MOI-70007-00595?ds=MOI-70007-00595-00050&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1cGXwSFpLJsXh2noxRjCIsG3614SFgY9ax7qJJTMRKNj/JAGGKMjevlfkFhtVG7gFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00595</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>SOO-60051-01043</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Sorex Bra Seamless Tanpa Kawat Kait 2 Cup A-B Busa Tipis BH 65004</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>61600</v>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/101/MTA-159825520/sorex_sorex_bra_seamless_tanpa_kawat_kait_2_cup_a-b_busa_tipis_bh_65004_full02_ds94bo75.jpg</t>
-        </is>
-      </c>
-      <c r="G164" t="n">
-        <v>5</v>
-      </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-bra-seamless-tanpa-kawat-kait-2-cup-a-b-busa-tipis-bh-65004/ps--SOO-60051-01043?ds=SOO-60051-01043-00017&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH5nh6wQ6PEr8y5kW/jpBoqaA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-01043</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>SOO-60051-00995</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>(2 PCS) Sorex Man Lifetyle Boxer Pria Celana Dalam Cowo Adem Trunk LK 38285</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>69000</v>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/103/MTA-147676135/sorex_-2_pcs-_sorex_man_lifetyle_boxer_pria_celana_dalam_cowo_adem_trunk_lk_38285_full04_futs8yik.jpg</t>
-        </is>
-      </c>
-      <c r="G165" t="n">
-        <v>5</v>
-      </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/2-pcs-sorex-man-lifetyle-boxer-pria-celana-dalam-cowo-adem-trunk-lk-38285/ps--SOO-60051-00995?ds=SOO-60051-00995-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OT2r7fOYNS0fn24lYkspaBA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfEjjW01Qnp2OSK0iQtfojJf8tZrf2s64VqZXfbnwqrhtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00995</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>SOO-60051-00861</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Sorex Celana Dalam Katun Basic Cutting Midi Polos Shape Up CD 9075</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>36800</v>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-112996396/sorex_sorex_celana_dalam_katun_basic_cutting_midi_polos_shape_up_cd_9075_full02_kdz4sy7w.jpg</t>
-        </is>
-      </c>
-      <c r="G166" t="n">
-        <v>5</v>
-      </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-katun-basic-cutting-midi-polos-shape-up-cd-9075/ps--SOO-60051-00861?ds=SOO-60051-00861-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzL10t6deH8IJLci3UQaGCFl2MnZWZ1TwAwuODpbBDUVuyoMNIQ+r4z5DJ9oW5/gjVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00861</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>SOO-60051-00769</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Ibu &amp; Anak</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Sorex Celana Dalam Wanita Hamil Midi Maternity Panty Fit To L-XXL CD 1148</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>41895</v>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-46523947/sorex_sorex_celana_dalam_wanita_hamil_midi_maternity_panty_fit_to_l-xxl_cd_1148_full01_r4vls97f.jpg</t>
-        </is>
-      </c>
-      <c r="G167" t="n">
-        <v>5</v>
-      </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-hamil-midi-maternity-panty-fit-to-l-xxl-cd-1148/ps--SOO-60051-00769?ds=SOO-60051-00769-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5nGzsCVntCT1sSfFwqgrxg8vkblbwv0+E1QlSs7EtdUJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfRtd5JisA+krezcArUVhBa3TrWgM/WffSFIKvZxBffSZ&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00769</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>SOO-60051-00568</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Cute Y 1006</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>20286</v>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-21173323/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_cute_y_1006_full02_3b2ive6.jpg</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>5</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-cute-y-1006/ps--SOO-60051-00568?ds=SOO-60051-00568-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt0whBxl0y0A/lKFMfuSR+YzJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00568</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>SOO-60051-00634</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Gorgeous Nightgown Brukat BT 7008</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>116424</v>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//95/MTA-24930571/sorex_sorex_lingerie_lovely_series_baju_tidur_premium_satin_look_gorgeous_nightgown_brukat_bt_7008_full05_uy3lb726.jpg</t>
-        </is>
-      </c>
-      <c r="G169" t="n">
-        <v>5</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-gorgeous-nightgown-brukat-bt-7008/ps--SOO-60051-00634?ds=SOO-60051-00634-00002&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIORipaXzN/Cai///2rmGlQVrU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00634</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>SOO-60051-00012</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>37044</v>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709188/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_m8u3eoep.jpg</t>
-        </is>
-      </c>
-      <c r="G170" t="n">
-        <v>5</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00012?ds=SOO-60051-00012-00002&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOcJUl07vjZHSHboXNQRMjgVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00012</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>SOO-60051-00042</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Sorex CD Basic Maxi Super Light Celana Dalam Wanita Extra Size Jumbo 1249</t>
-        </is>
-      </c>
-      <c r="E171" t="n">
-        <v>37044</v>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7886901/sorex_sorex_cd_basic_maxi_super_light_celana_dalam_wanita_extra_size_jumbo_1249_full02_g40b4t61.jpg</t>
-        </is>
-      </c>
-      <c r="G171" t="n">
-        <v>5</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-maxi-super-light-celana-dalam-wanita-extra-size-jumbo-1249/ps--SOO-60051-00042?ds=SOO-60051-00042-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZsQHMYoO9/9ygcijfF65PUOPTsyyIDmFh47MtBFYuGtqVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00042</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>SOO-60051-00360</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Sorex Bra Kawat Busa Kait 2 Setara Cup B Bra Polos BH 11108</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>65660</v>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10647376/sorex_sorex_bra_kawat_busa_kait_2_setara_cup_b_bra_polos_bh_11108_full03_j1xc7du0.jpg</t>
-        </is>
-      </c>
-      <c r="G172" t="n">
-        <v>5</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-bra-kawat-busa-kait-2-setara-cup-b-bra-polos-bh-11108/ps--SOO-60051-00360?ds=SOO-60051-00360-00012&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1R4AsY2zbEuPf0mEleNTFlvp6v2ww3rMJNM2z4cVX8YJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00360</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>SOO-60051-00061</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Ibu &amp; Anak</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Sorex Celana Dalam Hamil Motif Katun Lembut Maternity Panty CD 1140</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>33320</v>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7895759/sorex_sorex_celana_dalam_hamil_motif_katun_lembut_maternity_panty_cd_1140_full02_j2ua28na.jpg</t>
-        </is>
-      </c>
-      <c r="G173" t="n">
-        <v>5</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-hamil-motif-katun-lembut-maternity-panty-cd-1140/ps--SOO-60051-00061?ds=SOO-60051-00061-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5HcTUF9bqmkuAK1tOmfkDJzySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE9Nv1SOi0krVWYDfqxiBKGaaf+79sqnkYv3mggmh/hvP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00061</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>SOO-60051-00427</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Sorex Young Miniset Anak Remaja Step 1 Freesize Tanpa Kawat Pita Mungil Miniset Y 1103</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>30870</v>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-11560139/sorex_sorex_young_miniset_anak_remaja_step_1_freesize_tanpa_kawat_pita_mungil_miniset_y_1103_full01_m3k9nvkz.jpg</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>5</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-young-miniset-anak-remaja-step-1-freesize-tanpa-kawat-pita-mungil-miniset-y-1103/ps--SOO-60051-00427?ds=SOO-60051-00427-00003&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EOacJbj2cXRya+Q0SCnBRoFYw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+GmfylN82DRKT97iLHHfPs20XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00427</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>SOO-60051-00274</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Sorex CD Basic Midi Katun Mix 1179</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>26460</v>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-8385514/sorex_sorex_cd_basic_midi_katun_mix_1179_full01_f8nmyoy6.jpg</t>
-        </is>
-      </c>
-      <c r="G175" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-midi-katun-mix-1179/ps--SOO-60051-00274?ds=SOO-60051-00274-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPzIOwJf81+FzoG8lPia/LMVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00274</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>SOO-60051-00013</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Sorex Basic Super Soft 1255 Celana Dalam Wanita - Multicolor</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>22785</v>
-      </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7709258/sorex_sorex_basic_super_soft_1255_celana_dalam_wanita_-__multicolor_full01_t4dg2gm7.jpg</t>
-        </is>
-      </c>
-      <c r="G176" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-basic-super-soft-1255-celana-dalam-wanita-multicolor/ps--SOO-60051-00013?ds=SOO-60051-00013-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q8xmBGsZhEvfPzU+A1f7vo+JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00013</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>SOO-60051-00295</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Sorex Celana Dalam Wanita Basic Mini Super Soft Lembut Nyaman Dipakai CD 1257</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>19992</v>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18327672/sorex_sorex_celana_dalam_wanita_basic_mini_super_soft_lembut_nyaman_dipakai_cd_1257_full02_cqx8djmw.jpg</t>
-        </is>
-      </c>
-      <c r="G177" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-mini-super-soft-lembut-nyaman-dipakai-cd-1257/ps--SOO-60051-00295?ds=SOO-60051-00295-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JSivqeb4HprTDVqcGV3PQCI/EEoP3uESdSpv1I9i7XJFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00295</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>SOO-60051-00175</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Sorex Bra Extra Comfort Busa Sedang Kawat Kait 3 Setara Cup B BH 3262</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>55125</v>
-      </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7994480/sorex_sorex_bra_extra_comfort_busa_sedang_kawat_kait_3_setara_cup_b_bh_3262_full03_bpk5yj9s.jpeg</t>
-        </is>
-      </c>
-      <c r="G178" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-sedang-kawat-kait-3-setara-cup-b-bh-3262/ps--SOO-60051-00175?ds=SOO-60051-00175-00014&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00175</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>SOO-60051-00010</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Sorex Cd Basic Bahan Super Soft 1251 Celana dalam Wanita</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>23667</v>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7708515/sorex_sorex_cd_basic_bahan_super_soft_1251_celana_dalam_wanita_full03_t1r1rwvf.jpg</t>
-        </is>
-      </c>
-      <c r="G179" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-cd-basic-bahan-super-soft-1251-celana-dalam-wanita/ps--SOO-60051-00010?ds=SOO-60051-00010-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73OhY4+eXFWJ8a6ITW30cbFkJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00010</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>SOO-60051-00004</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Sorex Celana Dalam Wanita Basic Midi Soft &amp; Comfort CD 1228 Katun Mix Adem</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>26754</v>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7700289/sorex_sorex_celana_dalam_wanita_basic_midi_soft_-_comfort_cd_1228_katun_mix_adem_full02_nnq90z7s.jpg</t>
-        </is>
-      </c>
-      <c r="G180" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-midi-soft-comfort-cd-1228-katun-mix-adem/ps--SOO-60051-00004?ds=SOO-60051-00004-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwR0bgev9saiJ9QpuPsgXPy/kEEC5/YmxIZLZ3qqgiVystYhaTIOsJmPMG3J3j/VXFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00004</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>SOO-60051-00258</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Sorex CD 1230 Basic Katun WARNA</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>21900</v>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8247465/sorex_sorex_cd_1230_basic_katun_warna_full02_dcmpebfb.jpg</t>
-        </is>
-      </c>
-      <c r="G181" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-cd-1230-basic-katun-warna/ps--SOO-60051-00258?ds=SOO-60051-00258-00003&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+OZu5yoAs+ZwOIEQgV7goKIIGmm33viDj/+hYQaGlpdxFbcOmnv9bSync5a5kF4+lX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00258</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>SOO-60051-00467</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Sorex Bra Tanpa Kawat Busa Kait 3 Setara Cup B Bra Harian Casual Comfort BH 65001</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>52920</v>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-12228968/sorex_sorex_bra_tanpa_kawat_busa_kait_3_setara_cup_b_bra_harian_casual_comfort_bh_65001_full02_br99daxr.jpeg</t>
-        </is>
-      </c>
-      <c r="G182" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-busa-kait-3-setara-cup-b-bra-harian-casual-comfort-bh-65001/ps--SOO-60051-00467?ds=SOO-60051-00467-00002&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+iQM9MJM8LcOV1edc2sOTJmjateuiD2bQM1xoGRlYR/JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00467</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>SOO-60051-00125</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Sorex Bra Extra Comfort Busa Tanpa Kawat Kait 2 Setara Cup B BH 9850</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>55125</v>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-18247352/sorex_sorex_bra_extra_comfort_busa_tanpa_kawat_kait_2_setara_cup_b_bh_9850_full01_n9w2qvqq.jpg</t>
-        </is>
-      </c>
-      <c r="G183" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-bra-extra-comfort-busa-tanpa-kawat-kait-2-setara-cup-b-bh-9850/ps--SOO-60051-00125?ds=SOO-60051-00125-00009&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eYLh/3g9xopt0s/MYhR5faV9hz/XQzSqIR3H2JQztKk1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00125</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>SOO-60051-00090</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Bra Sorex Tanpa Kawat Busa Sedang Cup Setara Cup B Casual Comfort 65003 Basic</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>54880</v>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240575/sorex_bra_sorex_tanpa_kawat_busa_sedang_cup_setara_cup_b_casual_comfort_65003_basic_full02_jqezgsad.jpeg</t>
-        </is>
-      </c>
-      <c r="G184" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/bra-sorex-tanpa-kawat-busa-sedang-cup-setara-cup-b-casual-comfort-65003-basic/ps--SOO-60051-00090?ds=SOO-60051-00090-00005&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJWc8Qg5cJ1du71Plk4CIHX7JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00090</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>SOO-60051-00079</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Sorex Bra Tanpa Kawat Super Soft Busa Sedang Setara Cup B 17238 BH Harian Simple Polos</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>37240</v>
-      </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-18240855/sorex_sorex_bra_tanpa_kawat_super_soft_busa_sedang_setara_cup_b_17238_bh_harian_simple_polos_full02_t2k386dq.jpg</t>
-        </is>
-      </c>
-      <c r="G185" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-bra-tanpa-kawat-super-soft-busa-sedang-setara-cup-b-17238-bh-harian-simple-polos/ps--SOO-60051-00079?ds=SOO-60051-00079-00012&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/uzJZ4qiKCUsLXY6fa2mZukJoT8NV2nfifVvZEWfKxk9myWj6eICtISZacjXXHqNFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00079</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>SOO-60051-00356</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Sorex CD Wanita Melange Collection 15023 BH 11105, 11106 dan 11115</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>24990</v>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-10634356/sorex_sorex_cd_wanita_melange_collection_15023_bh_11105-_11106_dan_11115_full01_ftwsj520.jpg</t>
-        </is>
-      </c>
-      <c r="G186" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-cd-wanita-melange-collection-15023-bh-11105-11106-dan-11115/ps--SOO-60051-00356?ds=SOO-60051-00356-00002&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4b+oLJqLy/XvDHMcpKt+HY6JpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00356</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>SOO-60051-00183</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Ibu &amp; Anak</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Sorex Corset ShapeUp Korset Celana Paha Highwaist Shapewear Stagen 13189</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>93100</v>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-8072733/sorex_sorex_corset_shapeup_korset_celana_paha_highwaist_shapewear_stagen_13189_full01_j8iugqbd.jpg</t>
-        </is>
-      </c>
-      <c r="G187" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-corset-shapeup-korset-celana-paha-highwaist-shapewear-stagen-13189/ps--SOO-60051-00183?ds=SOO-60051-00183-00002&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0udwtGfjMBHkzcQHN9WHgcmbE/LLJy7W3VwRB8pUx8xBI+SgwT0bjuIBd7LA3Wgh1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHL0sDUxgUfSbD/FCrbn8/y99nd4IJQFE8q9uYAHxJmjE6NhASY2tUdrki83wetKin+0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00183</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>SOO-60051-00157</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Ibu &amp; Anak</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Sorex Corset Shapewear Korset Tulang Reguler Size Stagen 1052 Pengecil Perut</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>78400</v>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-7975883/sorex_sorex_corset_shapewear_korset_tulang_reguler_size_stagen_1052_pengecil_perut_full01_q5k3eby6.jpg</t>
-        </is>
-      </c>
-      <c r="G188" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-corset-shapewear-korset-tulang-reguler-size-stagen-1052-pengecil-perut/ps--SOO-60051-00157?ds=SOO-60051-00157-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1v82AvnOYi0a9q7D8u1KCCX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURoFNpMZjfoNazsAekWU+LFfVvw+oDo6sSWOOV3QxYLnzVfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00157</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>SOO-60051-00497</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Sorex Mystery Box Special Bra Cantik Kawat/Tanpa Kawat Setara cup B</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>58800</v>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-13765543/sorex_sorex_mystery_box_special_bra_cantik_kawat-tanpa_kawat__setara_cup_b_full03_h94hmgrl.jpg</t>
-        </is>
-      </c>
-      <c r="G189" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-mystery-box-special-bra-cantik-kawat-tanpa-kawat-setara-cup-b/ps--SOO-60051-00497?ds=SOO-60051-00497-00003&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0Io8iY7bS3QFgUrrRjl8b9l2MnZWZ1TwAwuODpbBDUVJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9sZi4HFMNt1hNudy6hVQGo9fyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00497</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>SOO-60051-00471</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Sorex 17232 Casual Style Bra - Cup B</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>39004</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-12493876/sorex_sorex_bra_busa_tanpa_kawat_kait_2_setara_cup_b_bh_harian_casual_style_bra_17232_full01_rx5utll6.jpg</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
-        <v>5</v>
-      </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-17232-casual-style-bra-cup-b/ps--SOO-60051-00471?ds=SOO-60051-00471-00005&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM43/eggqgMiupqXxacM5eGPWfSu4IWA9I8NZxGRTYuIBep1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+QhxzcMMGrA6bpqZJpF2tUCDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00471</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>SOO-60051-00280</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Sorex Lingerie Lovely Series Baju Tidur Premium Satin Look Cute Ribbon Brukat Bunga BT 7002</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>102312</v>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//97/MTA-8395621/sorex_sorex_lingerie_baju_tidur_premium_satin_look_cute_ribbon_brukat_bunga_bt_7002_full01_pbu0j5i7.jpg</t>
-        </is>
-      </c>
-      <c r="G191" t="n">
-        <v>4</v>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-lingerie-lovely-series-baju-tidur-premium-satin-look-cute-ribbon-brukat-bunga-bt-7002/ps--SOO-60051-00280?ds=SOO-60051-00280-00003&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq9e2UdUDLB5ofwWKbsz373i7/ZVxa2kFaxpfYcDtaKNmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+PA0N+dYDXaG8wXNJPvVud60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00280</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>BAG-70027-00459</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Ibu &amp; Anak</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Handuk Bayi | Handuk Anak | Sorex Towel 100 X 50</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>69400</v>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//78/MTA-11021170/sorex_handuk_bayi_-_handuk_anak_-_sorex_towel_100_x_50_-_full01_3d2184d8.jpg</t>
-        </is>
-      </c>
-      <c r="G192" t="n">
-        <v>5</v>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/handuk-bayi-handuk-anak-sorex-towel-100-x-50/ps--BAG-70027-00459?ds=BAG-70027-00459-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70OX0LAHVJZ7EB+ox4oiZlNaJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfUPfTcRHuI1P2DR2vMpEYmDdmyk291xKlcwhaoJiafSwI6rvWM2fME09xrH8SZaRY=&amp;cnc=false&amp;pickupPointCode=PP-3172350&amp;pid1=BAG-70027-00459</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>SOO-60051-00552</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Sorex CD wanita Midi Super Soft Adem Lembut CD 15232</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>20580</v>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-20762030/sorex_sorex_cd_wanita_midi_super_soft_adem_lembut_cd_15232_full02_rfcio72k.jpeg</t>
-        </is>
-      </c>
-      <c r="G193" t="n">
-        <v>5</v>
-      </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-cd-wanita-midi-super-soft-adem-lembut-cd-15232/ps--SOO-60051-00552?ds=SOO-60051-00552-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt2aqponFxzbpAb1YzoA8RzrTwV2wi/WgIu36XET8QmhnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00552</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>SOO-60051-00574</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Sorex Celana Dalam Wanita Midi Basic Comfort Chic Adem Lembut Pori-pori CD 1260</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>24255</v>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-21977111/sorex_sorex_celana_dalam_wanita_midi_basic_comfort_chic_adem_lembut_pori-pori_cd_1260_full02_e9br0e3e.jpg</t>
-        </is>
-      </c>
-      <c r="G194" t="n">
-        <v>5</v>
-      </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-midi-basic-comfort-chic-adem-lembut-pori-pori-cd-1260/ps--SOO-60051-00574?ds=SOO-60051-00574-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4agIrFT0SP5wuYJuKSH3/MKIivnlZfmSl5m7OY9r1lyLVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00574</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>BAK-24890-01845</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Ibu &amp; Anak</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Sorex Stagen 8052 - Slimming Corset Korset Pelangsing</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>69500</v>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//91/MTA-8106732/sorex_sorex_stagen_8052_-_slimming_corset_korset_pelangsing_full02_k0q4f928.jpg</t>
-        </is>
-      </c>
-      <c r="G195" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-stagen-8052-slimming-corset-korset-pelangsing/ps--BAK-24890-01845?ds=BAK-24890-01845-00004&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70O/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURovYCHtpJ9m77Mt/1K6pUZq5DmAz1A2e+8nO/jzyY+jFw=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01845&amp;tag=new</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>SOO-60051-00415</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Sorex Celana Dalam Wanita Basic Maxi Super Soft Polos CD 1250</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>22050</v>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//92/MTA-11457236/sorex_sorex_cd_wanita_basic_maxi_super_soft_polos_cd_1250_full02_h25v300t.jpg</t>
-        </is>
-      </c>
-      <c r="G196" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-celana-dalam-wanita-basic-maxi-super-soft-polos-cd-1250/ps--SOO-60051-00415?ds=SOO-60051-00415-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+M7n3m+RcH5pfuq34yOwEpJ5DwTCoYZ7pKxqIR1psUuFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52x/tp/x6eG5ji3JFb8hWgxWH525tg6GPPr8PhUtYVf+Yhq+WjxonGWxb+TvCwQTPaDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3126072&amp;pid1=SOO-60051-00415</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>BAK-24890-01842</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Ibu &amp; Anak</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Sorex Corset 4431 Korset Pasca Melahirkan</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>73500</v>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//101/MTA-8077654/sorex_sorex_corset_4431_korset_pasca_melahirkan_full01_ejmfoega.jpg</t>
-        </is>
-      </c>
-      <c r="G197" t="n">
-        <v>5</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-corset-4431-korset-pasca-melahirkan/ps--BAK-24890-01842?ds=BAK-24890-01842-00004&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9nxsCWE66IToY6H/3TEJYi/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdtbUEB2KN2y84saGW8FURo6N0sa75uwpeazB0wvCSQYtlkcl11OleYOCUgny6Mmrc=&amp;cnc=false&amp;pickupPointCode=PP-3001087&amp;pid1=BAK-24890-01842</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>MAM-60109-00113</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>CD SOREX 1239 Celana Dalam Wanita</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>14500</v>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/105/MTA-155195754/sorex_cd-sorex-1239-celana-dalam-wanita_full01.jpg</t>
-        </is>
-      </c>
-      <c r="G198" t="n">
-        <v>5</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/cd-sorex-1239-celana-dalam-wanita/ps--MAM-60109-00113?ds=MAM-60109-00113-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushK/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3094603&amp;pid1=MAM-60109-00113</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>MOI-70007-00855</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Sorex 1250 CD Celana Dalam Wanita - Maxi Panty - Super Soft | BISA PILIH WARNA</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>17127</v>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/104/MTA-154953940/sorex_sorex_1250_cd_celana_dalam_wanita_-_maxi_panty_-_super_soft_-_bisa_pilih_warna_full01_jm7mqm90.jpg</t>
-        </is>
-      </c>
-      <c r="G199" t="n">
-        <v>5</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/sorex-1250-cd-celana-dalam-wanita-maxi-panty-super-soft-bisa-pilih-warna/ps--MOI-70007-00855?ds=MOI-70007-00855-00020&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+VDd0aEb2mnEzhIWyggW8h5Yw+Fyfu9xukrsNZOCduRmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHLC06X8BZfWbuoyV1i+FIvCFi5ZGHXfeZdV+lqHHsOV+HEtgM9QLqeYaNZyYq5ey0C0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3157465&amp;pid1=MOI-70007-00855</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>WIO-70008-00368</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>B501 | Celana Dalam Wanita Sorex - Sorex 1239</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>43860</v>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/102/MTA-145016957/sorex_b501_-_celana_dalam_wanita_sorex_-__sorex_1239_full24_djih1f55.jpg</t>
-        </is>
-      </c>
-      <c r="G200" t="n">
-        <v>5</v>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/b501-celana-dalam-wanita-sorex-sorex-1239/ps--WIO-70008-00368?ds=WIO-70008-00368-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7D5EnLGW/JufRUomLn7UXUhvPhx3NWvvw1KpDH3qrKOEg3X3jytsJx+M8M3Wz5HMejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXfO/kFtVj4porywlY2UWbf6VMqwppbx5Qk9+27gygWs9lk0gjRbIbx9mhzaC4fFgmtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00368</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>WIO-70008-00425</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Sorex</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>B165 - Sorex Camisol Tanktop Tali Lebar Renda Brukat Free Size</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>69360</v>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/98/MTA-148414570/sorex_b165_-_sorex_camisol_tanktop_tali_lebar_renda_brukat__free_size_full04_fx3z1ejy.jpg</t>
-        </is>
-      </c>
-      <c r="G201" t="n">
-        <v>5</v>
-      </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/b165-sorex-camisol-tanktop-tali-lebar-renda-brukat-free-size/ps--WIO-70008-00425?ds=WIO-70008-00425-00001&amp;source=SEARCH&amp;sid=8bdb225df70bda0c&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCwNduFYwfvFwnmds8RU/70NR/YYwHagZb1LHNFss5QDsA+hoPN7IuiYgrYrEmVR4uujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKOsT7WmHaYlyEM/a8kAvWoJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3166223&amp;pid1=WIO-70008-00425</t>
+          <t>https://www.blibli.com/p/adidas-men-football-jersey-arsenal-home-24-25-baju-bola-pria-it6141/ps--ADS-12698-13451?ds=ADS-12698-13451-00004&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq8BEYo4o198IKoVpkJZ1CNbAnAO3DeMVCIz5wjRuGXJuVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+UvM5rYQ2b7sWjAIjInNGfx9nPBIkgRjZAjSv9izhQ1pmwIpKMEQEhdOIn3G3lFnHYkG1UxvbL2nrGLalYS2G2RCnk+mz+9IdUNYHXY+enerZZHJddTpXmDglIJ8ujJq3&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13451</t>
         </is>
       </c>
     </row>

--- a/ui_data/blibli.xlsx
+++ b/ui_data/blibli.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -432,13 +432,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
     <col width="58.33333333333334" customWidth="1" min="3" max="3"/>
-    <col width="149" customWidth="1" min="4" max="4"/>
-    <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="277" customWidth="1" min="6" max="6"/>
+    <col width="43" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="169" customWidth="1" min="6" max="6"/>
     <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="578" customWidth="1" min="8" max="8"/>
+    <col width="452" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -486,68 +486,68 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BAH-70197-00002</t>
+          <t>APF-70017-00306</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Baby Hai</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>BABY HAI Rayya Series Ramadhan Abizar Series Color 2 - Baju Anak Laki - Laki Lengan Pendek Celana Panjang</t>
+          <t>iPhone 15 Plus</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>30100</v>
+        <v>16249000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//112/MTA-94766386/baby_hai_baby_hai_rayya_series_ramadhan_abizar_series_color_2_-_baju_anak_laki_-_laki_lengan_pendek_celana_panjang_full01_he26rnqh.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-134607236/apple_iphone_15_plus_full01_dnx3khj2.jpg</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/baby-hai-rayya-series-ramadhan-abizar-series-color-2-baju-anak-laki-laki-lengan-pendek-celana-panjang/ps--BAH-70197-00002?ds=BAH-70197-00002-00007&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EMmbE/LLJy7W3VwRB8pUx8xE+ELff8mp6Jxh05BtXdSLlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWuSVd/bvsBAZ/8InAAmnjqC0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3529390&amp;pid1=BAH-70197-00002</t>
+          <t>https://www.blibli.com/p/iphone-15-plus/ps--APF-70017-00306?ds=APF-70017-00306-00001&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7Icmq1gsSXLUq8ZinzLw7svrE8PE1u25RQwz3jiAVHEzrYjezeG68kuQU2JwAmS3CT0vQZ302m3rK6TgUnYsM3HGfQaCoNPSOcAg9lLayKYW1iE2KLbEw2wtdH47KHnWcSJa4cuig6qHGKfhLhJsWRXdFQKB0YyTzLQnKPKgoBIDEy5OaSLKFUCZrcC2nCZ2A9vxKXDJKxXa4UX67tzbXhHa5RrB7iXPKdVfFfUbbpG&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00306</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KOE-70078-00007</t>
+          <t>APF-70017-00303</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>KOZE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>KOZE - Premium Comfort Green T-shirt - Kaos Polos Hijau</t>
+          <t>iPhone 15</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>49500</v>
+        <v>14249000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-99600694/koze_koze_-_premium_comfort_green_t-shirt_-_kaos_polos_hijau_full01_eukw1txs.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134607074/apple_iphone_15_full28_p54hkyv8.jpeg</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -555,151 +555,151 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/koze-premium-comfort-green-t-shirt-kaos-polos-hijau/ps--KOE-70078-00007?ds=KOE-70078-00007-00004&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLe3ycwbRnPkH0lW7Gv/QJVMlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGp04hRlADTLARbcEgnz4dqM=&amp;cnc=false&amp;pickupPointCode=PP-3472636&amp;pid1=KOE-70078-00007</t>
+          <t>https://www.blibli.com/p/iphone-15/ps--APF-70017-00303?ds=APF-70017-00303-00002&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushIvrE8PE1u25RQwz3jiAVHEdfazE/cmbbZEHoogSfCZI3fyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00303</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LGM-60021-00230</t>
+          <t>APF-70017-00310</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>LGS</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LGS Slim Fit Kaos Polo Pria - White Blue Green [JTS.325.M1846F.01.C]</t>
+          <t>iPhone 15 Pro</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>146000</v>
+        <v>19249000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//85/MTA-1520625/lgs_lgs-slim-fit-kaos-polo-pria---white-blue-green--jts-325-m1846f-01-c-_full02.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134609071/apple_iphone_15_pro_full25_jv2x5hnl.jpeg</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lgs-slim-fit-kaos-polo-pria-white-blue-green-jts-325-m1846f-01-c/ps--LGM-60021-00230?ds=LGM-60021-00230-00003&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushIJcaEJLcqsH3r6UABTq0TLwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3034126&amp;pid1=LGM-60021-00230</t>
+          <t>https://www.blibli.com/p/iphone-15-pro/ps--APF-70017-00310?ds=APF-70017-00310-00010&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1IvrE8PE1u25RQwz3jiAVHEV7sZTKEXaUIVR+JJXliyTHfyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3381860&amp;pid1=APF-70017-00310</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ELM-60027-00165</t>
+          <t>APF-70017-00003</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ELLIPSES INC</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ELLIPSESINC Kaos Oversize Wanita &amp; Pria BECCA EDITION</t>
+          <t>iPhone 13</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35000</v>
+        <v>10249000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//104/MTA-21988625/ellipses_inc_ellipsesinc_kaos_oversize_wanita_-_pria_becca_edition_full24_si0ww14j.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//100/MTA-53912377/apple_iphone_13_full15_gmhaz6il.jpg</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/ellipsesinc-kaos-oversize-wanita-pria-becca-edition/ps--ELM-60027-00165?ds=ELM-60027-00165-00007&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGT2r7fOYNS0fn24lYkspaBeeU8gA9woEea/RtkRh7ZnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A8s4+rWZ7zCXM6RAaC0DCw0Kkkafi+cjIiXcB4olXgzyFWbDfLF/5KnLYCxjUA9SQsd5cgi/2OYPwjclFVcBAkX&amp;cnc=false&amp;pickupPointCode=PP-3085683&amp;pid1=ELM-60027-00165</t>
+          <t>https://www.blibli.com/p/iphone-13/ps--APF-70017-00003?ds=APF-70017-00003-00015&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq8vrE8PE1u25RQwz3jiAVHEdxbGIE4CnOUy0H0Wj4fU5Qkz5AwQB40VvExfVpFKdnwJvdxpiiNfUeOruay3VzPrtRIEKTkr11TWevS5TI/onkBqEG1QeWUxw3k5hxYyMhEu7BjFUWoESEuRx5BdRqYxYtJwrUDqmOLrSZmWtBL0djy1o6e11zcfPagzZ/WazUlMwRFMRgcIAsLkYlBFbv7f&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00003</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EVO-70024-00183</t>
+          <t>APF-70017-00313</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EVERNEXT</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>EVERNEXT - DOMPET KUNCI KENDARAAN KEY WALLET ARCO GANTUNGAN KUNCI MOBIL MOTOR DOMPET KARTU DOMPET STNK</t>
+          <t>iPhone 15 Pro Max</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>45000</v>
+        <v>23249000</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//117/MTA-78887691/evernext_evernext_-_dompet_kunci_kendaraan_key_wallet_arco_gantungan_kunci_mobil_motor_dompet_kartu_dompet_stnk_full11_f18edunq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134610255/apple_iphone_15_pro_max_full27_s50t7e5t.jpeg</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/evernext-dompet-kunci-kendaraan-key-wallet-arco-gantungan-kunci-mobil-motor-dompet-kartu-dompet-stnk/ps--EVO-70024-00183?ds=EVO-70024-00183-00002&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBgmMdlWBN8y5Inger9NURmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vafHKVkJci5PAC/hnMA2UzpLyTJdReOx9JfHVI27hOzzM=&amp;cnc=false&amp;pickupPointCode=PP-3357698&amp;pid1=EVO-70024-00183</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max/ps--APF-70017-00313?ds=APF-70017-00313-00004&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73MvrE8PE1u25RQwz3jiAVHEtkzJZoE1+bGRU7vngG2ukHfyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00313</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HUP-60027-03538</t>
+          <t>APF-70017-00336</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hush Puppies</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hush Puppies Farro 2 Polo Shirt Pria</t>
+          <t>iPhone 15 Silicone Case</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>224420</v>
+        <v>999000</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-159627197/hush-puppies_hush-puppies-farro-2-polo-shirt-pria_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833622/apple_iphone_15_silicone_case_full15_vr357pub.jpeg</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -707,113 +707,113 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/hush-puppies-farro-2-polo-shirt-pria/ps--HUP-60027-03538?ds=HUP-60027-03538-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q97B/omnSKxUeafXYYVk6xbwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3095796&amp;pid1=HUP-60027-03538</t>
+          <t>https://www.blibli.com/p/iphone-15-silicone-case/ps--APF-70017-00336?ds=APF-70017-00336-00004&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00336</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLI-15014-16569</t>
+          <t>APF-70017-00337</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JP Collection</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>JP Collection OBSP-0285-TWOWHEELS Kaos Anak Laki-Laki</t>
+          <t>iPhone 15 Plus Silicone Case</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>30970</v>
+        <v>999000</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//79/MTA-3103224/jp-collection_jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki_full16.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-137833635/apple_iphone_15_plus_silicone_case_full05_rzuccntf.jpg</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki/ps--BLI-15014-16569?ds=BLI-15014-16569-00029&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7ENfepXUSJ3qMPK5468+MysuJLWhzdnoh86j6S/07IpFSVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWg3ctvKPtt4ygLDf9aZr0F60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3523009&amp;pid1=BLI-15014-16569</t>
+          <t>https://www.blibli.com/p/iphone-15-plus-silicone-case/ps--APF-70017-00337?ds=APF-70017-00337-00005&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00337</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BLM-60037-01195</t>
+          <t>APF-70017-00339</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>BLYTHE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Blythe Premium Jayden Flannel Shirt Kemeja Kotak Kotak Lengan Panjang Pria</t>
+          <t>iPhone 15 Pro Max Silicone Case</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>249000</v>
+        <v>999000</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-155401690/blythe_blythe_premium_jayden_flannel_shirt_kemeja_kotak_kotak_lengan_panjang_pria_full18_itluztdu.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833645/apple_iphone_15_pro_max_silicone_case_full35_tqvmfw0h.jpeg</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/blythe-premium-jayden-flannel-shirt-kemeja-kotak-kotak-lengan-panjang-pria/ps--BLM-60037-01195?ds=BLM-60037-01195-00008&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444UhhhDHoqKmYsTFC9Iv89Ei/0YlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52Np6XO8WKdHoYeMogok9fdb2BUOOGusSvfBtxTrjv/cwqeaQg1dtTjyms/VfSkXqs=&amp;cnc=false&amp;pickupPointCode=PP-3525890&amp;pid1=BLM-60037-01195</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-silicone-case/ps--APF-70017-00339?ds=APF-70017-00339-00006&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00339</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KIK-70088-00020</t>
+          <t>APF-70017-00332</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kiyora</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kiyora Sydney Atasan Wanita - Pink Crème</t>
+          <t>iPhone 15 Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>89000</v>
+        <v>999000</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044786/kiyora_kiyora_sydney_atasan_wanita_-_pink_cr-me_full01_kunyukph.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833594/apple_iphone_15_clear_case_with_magsafe_full04_bqrk81t6.jpeg</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -821,151 +821,151 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/kiyora-sydney-atasan-wanita-pink-cr-me/ps--KIK-70088-00020?ds=KIK-70088-00020-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uT2r7fOYNS0fn24lYkspaBKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKAe+OCLJmeyKGF1EdpUJUnlfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00020</t>
+          <t>https://www.blibli.com/p/iphone-15-clear-case-with-magsafe/ps--APF-70017-00332?ds=APF-70017-00332-00001&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00332</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LIS-14924-00806</t>
+          <t>APF-70017-00048</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Lion Star Folding Hanger 24 Sticks Jemuran Baju</t>
+          <t>iPhone 11</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>64000</v>
+        <v>6199000</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090270/lion_star_lion_star__folding_hanger_24_sticks_jemuran_baju_full01_o3vah5cz.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//96/MTA-55441923/apple_iphone_11_full03_td5mg95s.jpg</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-folding-hanger-24-sticks-jemuran-baju/ps--LIS-14924-00806?ds=LIS-14924-00806-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzw6DOMtn+gYi+5f5Iqa4pGT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00806</t>
+          <t>https://www.blibli.com/p/iphone-11/ps--APF-70017-00048?ds=APF-70017-00048-00003&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH6TghlAdPg2CjQYohEbdpVNycq4tJgT55gw64b9d6NV/iT0vQZ302m3rK6TgUnYsM3HGfQaCoNPSOcAg9lLayKYW1iE2KLbEw2wtdH47KHnWcSJa4cuig6qHGKfhLhJsWRXdFQKB0YyTzLQnKPKgoBIDEy5OaSLKFUCZrcC2nCZ2A9vxKXDJKxXa4UX67tzbXhHa5RrB7iXPKdVfFfUbbpG&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00048</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LIS-14924-00805</t>
+          <t>APF-70017-00286</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Komputer &amp; Gaming</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lion Star Folding Hanger 16 Sticks Jemuran Baju</t>
+          <t>MacBook Air (15 inci, M2, 2023)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>49500</v>
+        <v>19499000</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148088190/lion_star_lion_star_folding_hanger_16_sticks_jemuran_baju_full03_igkn11o8.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-124761180/apple_macbook_air_-15_inci-_m2-_2023-_full06_jbdwfhi9.jpeg</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-folding-hanger-16-sticks-jemuran-baju/ps--LIS-14924-00805?ds=LIS-14924-00805-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00805</t>
+          <t>https://www.blibli.com/p/macbook-air-15-inci-m2-2023/ps--APF-70017-00286?ds=APF-70017-00286-00003&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JlYoIjV2CuCuY+6FEE/4Ocz2DUkDP9qOWZs0sDno/LE7LBaB3tLseqCRU/10V6Qi4m/0gcuiAdTNyGqjLqLXjMVB0Z19F5S3OJm6xVPOQF+fYfYBdOaXUoSWEt7LUZrj8SCpv+JZQ7/xvnr91HkkCtjPlzlQ1BsZC2kuLWp2z7Hbyn+4JWrfKTxHPG0CjNymc=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00286</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LIS-14924-00807</t>
+          <t>APF-70017-00046</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lion Star Folding Hanger 30 Sticks Jemuran Baju</t>
+          <t>iPhone 12</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>74500</v>
+        <v>8999000</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090286/lion_star_lion_star_folding_hanger_30_sticks_jemuran_baju_full02_tv6sxt04.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-55441280/apple_iphone_12_full07_ew9x8bof.jpg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-folding-hanger-30-sticks-jemuran-baju/ps--LIS-14924-00807?ds=LIS-14924-00807-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6+ofzQPca16/hNKbnSDAJ6/HAkxoVke7cxJ4LyInlLenUcuWlxDj3lNx/vI4M4PH+jqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00807</t>
+          <t>https://www.blibli.com/p/iphone-12/ps--APF-70017-00046?ds=APF-70017-00046-00003&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uTghlAdPg2CjQYohEbdpVNpEgeoSwwIoWb47iX8zxnJ9ldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdsEU3r2OKINlzoKpMtuWDsZaC0WkFw58IzLOpWNSSbO1p4qnFDJB1cdj8jJUR+mIw&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00046</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>LIS-14924-00733</t>
+          <t>APF-70017-00131</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Lion Star Jemuran Baju / Laundry Hanger Tripod</t>
+          <t>MagSafe Charger</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>198600</v>
+        <v>899000</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-127266381/lion_star_lion_star_jemuran_baju_-_laundry_hanger_tripod_full01_odf238gk.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-58268542/apple_magsafe_charger_full05_lysixmjl.jpeg</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -973,189 +973,189 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-jemuran-baju-laundry-hanger-tripod/ps--LIS-14924-00733?ds=LIS-14924-00733-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JHLgoC/MYdp69cMUdWFnV1U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHI/2j+o1IQC0bIBUNNPAppAtZ8uEOn0Ql/eC8q/oWrwBcHn0AWNhN6m5BpKP78qwDE=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00733</t>
+          <t>https://www.blibli.com/p/magsafe-charger/ps--APF-70017-00131?ds=APF-70017-00131-00001&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uGkIqt3bNpbYK+L444UhhhrzvyxmXCYHwhh53Mu6uwhZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3381860&amp;pid1=APF-70017-00131</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9TW-60021-01565</t>
+          <t>APF-70017-00085</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9 to 12</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9 to 12 Mia Linen Shirt Kemeja Lengan Panjang Linen Kantor Wanita</t>
+          <t>iPhone 13 Pro Max</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>149000</v>
+        <v>20499000</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-91217262/9_to_12_9_to_12_mia_linen_shirt_kemeja_wanita_full02_kcqs7mya.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-55758860/apple_iphone_13_pro_max_full01_chcci7r6.jpg</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/9-to-12-mia-linen-shirt-kemeja-lengan-panjang-linen-kantor-wanita/ps--9TW-60021-01565?ds=9TW-60021-01565-00003&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushKGkIqt3bNpbYK+L444UhhhHxbrE1ojlIiyeznGUhdMUeWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxAAm0Ky79H2kukIikI3WbdDfjQtllH9FlUcG3SRRgUPwaH9/p2g1nm/YLqDhhmudNewKd+f0eOUHKyU4XgeKwfPg==&amp;cnc=false&amp;pickupPointCode=PP-3519985&amp;pid1=9TW-60021-01565</t>
+          <t>https://www.blibli.com/p/iphone-13-pro-max/ps--APF-70017-00085?ds=APF-70017-00085-00018&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt1lYoIjV2CuCuY+6FEE/4OcG9dJYXQNH3c8otm92KLJF40NhQKzZIN8gL1jFkUDixHl7vLUjrsdK1zyi0EGIrlc+lqfuLhCKzHK1PquGiDNtPDjsDbRwEIHOQBbswYIpWkKy39fi3Va6xY0tttu7XwbdCIjEVS4NKc4mYAdHVV7x6dpprdJbrIvFhvGBsAjyZ60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00085</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LIS-14924-00572</t>
+          <t>APF-70017-00045</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Lion Star Jepitan Baju JB-1 Laundry Clips (20 Pcs)</t>
+          <t>iPhone 13 Pro</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12500</v>
+        <v>24999000</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-11691417/lion_star_lion_star_001_laundry_clips_full01_exf0fig2.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//96/MTA-55440374/apple_iphone_13_pro_full01_b04adat2.jpg</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-jepitan-baju-jb-1-laundry-clips-20-pcs/ps--LIS-14924-00572?ds=LIS-14924-00572-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeC/HAkxoVke7cxJ4LyInlLeONM/pwQSpw/TgMoD9qDeE1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt51SPFgCl9oi27QotXy+Xqg7ncDBNXS0U6F+cIYt7Ox4Ox3lyCL/Y5g/CNyUVVwECRc=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00572</t>
+          <t>https://www.blibli.com/p/iphone-13-pro/ps--APF-70017-00045?ds=APF-70017-00045-00016&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4Z04n9snaCuoRGNTJBD90saz6OVeH3rdWiUoFIOCn3o3Y0NhQKzZIN8gL1jFkUDixHl7vLUjrsdK1zyi0EGIrlclK2zlO2aKDky1A2Jb0GH6REJUS6iZCZYBrw/vSDnZsJ5bzPYvzhwgcSRqReRQnHZssQD4zT1TELgTrwTywo5vKd2zlbgOMydKFrikUCiHiA=&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00045</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DAO-70167-00003</t>
+          <t>APF-70017-00340</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Dacco</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dacco Mama Pad 3D Breastpad [24 pcs]</t>
+          <t>iPhone 15 FineWoven Case</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>22000</v>
+        <v>1149000</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/92/MTA-127240561/dacco_dacco-mama-pad-breastpad-3d-isi-24pcs_full02.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833659/apple_iphone_15_finewoven_case_full10_u67byf68.jpeg</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-24-pcs/ps--DAO-70167-00003?ds=DAO-70167-00003-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+T2r7fOYNS0fn24lYkspaB/A9+ItZOLJU0KYEdc1CW5NldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00003</t>
+          <t>https://www.blibli.com/p/iphone-15-finewoven-case/ps--APF-70017-00340?ds=APF-70017-00340-00003&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBpg7QOhsgjrF+al2+p+u3kFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00340</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DAO-70167-00004</t>
+          <t>APF-70017-00342</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dacco</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dacco Mama Pad 3D Breastpad [56 pcs]</t>
+          <t>iPhone 15 Pro FineWoven Case</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>45000</v>
+        <v>1149000</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/95/MTA-127240590/dacco_dacco-mama-pad-breastpad-3d-isi-56pcs_full02.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833683/apple_iphone_15_pro_finewoven_case_full06_dxao3nsd.jpeg</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-56-pcs/ps--DAO-70167-00004?ds=DAO-70167-00004-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBjgJtif7ZErD1A5G7Do9RH9ldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00004</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-finewoven-case/ps--APF-70017-00342?ds=APF-70017-00342-00001&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBfjR068KHPSQZ85QRu+ua05bKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00342</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KIK-70088-00045</t>
+          <t>APF-70017-00343</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>KAORI</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Kaori Seira Cardigan Outer Wanita - Bata</t>
+          <t>iPhone 15 Pro Max FineWoven Case</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>75000</v>
+        <v>1149000</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93066052/kaori_kaori_seira_cardigan_outer_wanita_-_bata_full01_njcswb4w.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833689/apple_iphone_15_pro_max_finewoven_case_full12_lk7ukml6.jpeg</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1163,75 +1163,75 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/kaori-seira-cardigan-outer-wanita-bata/ps--KIK-70088-00045?ds=KIK-70088-00045-00002&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCycpTyS3V4Bt86XaxsYSf7+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJvUe1T40+jFxsL3RTfsG+znMf7cp48yL26Dsz2eCVLdZfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00045</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-finewoven-case/ps--APF-70017-00343?ds=APF-70017-00343-00004&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBQH6i0lIUSmR22orkXBAr8ZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00343</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INP-60076-02184</t>
+          <t>APF-70017-00334</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mainan, Buku &amp; Stationery</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Akedo</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Legends of Akedo PowerStorm S4 Giants Action Figure 15190 - Assorted</t>
+          <t>iPhone 15 Pro Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>179000</v>
+        <v>999000</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-95198657/akedo_legends_of_akedo_powerstorm_s4_giants_action_figure_15190_-_assorted_full02_jykgck93.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833609/apple_iphone_15_pro_clear_case_with_magsafe_full06_j07yenup.jpeg</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/legends-of-akedo-powerstorm-s4-giants-action-figure-15190-assorted/ps--INP-60076-02184?ds=INP-60076-02184-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNylnry4OkDBy9LifrRfNVhITodBPeru5IipRxn8umZ90=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-02184</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-clear-case-with-magsafe/ps--APF-70017-00334?ds=APF-70017-00334-00001&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhfpqCNyIIM8Kl5K4rY8/LuVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00334</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INP-60076-01330</t>
+          <t>APF-70017-00333</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mainan, Buku &amp; Stationery</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Happy Toon</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Happy Toon NB-03900 Family Small Toys Iron Basket Mainan Anak</t>
+          <t>iPhone 15 Plus Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>55000</v>
+        <v>999000</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-54407440/happy_toon_happy_toon_nb-03900_family_small_toys_iron_basket_mainan_anak_full06_extz21fi.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833606/apple_iphone_15_plus_clear_case_with_magsafe_full05_m2408lv7.jpeg</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1239,113 +1239,113 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/happy-toon-nb-03900-family-small-toys-iron-basket-mainan-anak/ps--INP-60076-01330?ds=INP-60076-01330-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdMvid824Op0k6a8gP8mZi4h3fZ0ly05AmuL0ur5cecCosM0GrDScBYeg5CPA4jmdc=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-01330</t>
+          <t>https://www.blibli.com/p/iphone-15-plus-clear-case-with-magsafe/ps--APF-70017-00333?ds=APF-70017-00333-00001&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhDN9u2pSChajLuMWmnt1nzFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00333</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KIK-70088-00004</t>
+          <t>APF-70017-00335</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kiyora</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Kiyora Claude Atasan Wanita - Hitam</t>
+          <t>iPhone 15 Pro Max Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>99000</v>
+        <v>999000</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044758/kiyora_kiyora_claude_atasan_wanita_-_hitam_full01_vkgwv5e0.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833612/apple_iphone_15_pro_max_clear_case_with_magsafe_full07_g5v66bq8.jpeg</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/kiyora-claude-atasan-wanita-hitam/ps--KIK-70088-00004?ds=KIK-70088-00004-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKODomkMVGOhLlHkEhAouZJtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00004</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-clear-case-with-magsafe/ps--APF-70017-00335?ds=APF-70017-00335-00001&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444Uhhh/3E34WmsadpdNZCKPSkeRZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00335</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UNI-60025-01804</t>
+          <t>APF-70017-00135</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MOLTO</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Molto Pelembut &amp; Pewangi Pakaian Softener Parfum Boost Himalayan Honeysuckle [650 mL] + Molto Trika Floral Bliss [300ml/2 Pcs] Free Jade Chielo Box</t>
+          <t>iPhone Leather Wallet with MagSafe</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>33500</v>
+        <v>1299000</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/98/MTA-167406424/molto_molto_pelembut_-_pewangi_pakaian_softener_parfum_boost_himalayan_honeysuckle_-650_ml-_-_molto_trika_floral_bliss_-300ml-2_pcs-_free_jade_chielo_box_full01_fgiz6m7c.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-58276282/apple_iphone_leather_wallet_with_magsafe_full01_cespmkb1.jpg</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/molto-pelembut-pewangi-pakaian-softener-parfum-boost-himalayan-honeysuckle-650-ml-molto-trika-floral-bliss-300ml-2-pcs-free-jade-chielo-box/ps--UNI-60025-01804?ds=UNI-60025-01804-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5G/HAkxoVke7cxJ4LyInlLeKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcC/9RBdAtddAWdo2jQOkvIlWIVM7ED7wPBObjNJjF4PkDPK2nt+P+WStgCBz6tDLJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01804&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-leather-wallet-with-magsafe/ps--APF-70017-00135?ds=APF-70017-00135-00001&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeCTghlAdPg2CjQYohEbdpVNpg7QOhsgjrF+al2+p+u3kFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527678&amp;pid1=APF-70017-00135</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NAD-70194-00022</t>
+          <t>APF-70017-00442</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Nadeea</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nadeea Jamilah Series Dress Dewasa - Black</t>
+          <t>Thunderbolt 4 (USB-C) Pro Cable (1m)</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>465000</v>
+        <v>1099000</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167020003/nadeea_nadeea_jamilah_series_dress_dewasa_-_black_full01_i7gjfa9c.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/108/MTA-148991931/apple_thunderbolt_4_pro_cable_-1-8_m-_full01_odh4x692.jpg</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1353,265 +1353,265 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nadeea-jamilah-series-dress-dewasa-black/ps--NAD-70194-00022?ds=NAD-70194-00022-00003&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14s0wn7+82bYRdE+2sGGRS84WyZ4Fa53DKe1xs2SeZpyh5bKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00022&amp;tag=new</t>
+          <t>https://www.blibli.com/p/thunderbolt-4-usb-c-pro-cable-1m/ps--APF-70017-00442?ds=APF-70017-00442-00001&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq+TghlAdPg2CjQYohEbdpVNa5ApKnrg2e22hkeOIMdo91X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00442</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NAD-70194-00021</t>
+          <t>APF-70017-00345</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nadeea</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nadeea Fatimah Series Dress Dewasa - Army</t>
+          <t>Apple EarPods (USB-C)</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>395000</v>
+        <v>329000</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167019838/nadeea_nadeea_fatimah_series_dress_dewasa_-_army_full01_qdyt3pad.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-138904841/apple_apple_earpods_-usb-c-_full01_pt4xshb0.jpg</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nadeea-fatimah-series-dress-dewasa-army/ps--NAD-70194-00021?ds=NAD-70194-00021-00003&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM4380wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00021&amp;tag=new</t>
+          <t>https://www.blibli.com/p/apple-earpods-usb-c/ps--APF-70017-00345?ds=APF-70017-00345-00001&amp;source=SEARCH&amp;sid=3f3421844b1a4425&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCy2vnCdR/EtZOI/3G854fFqGkIqt3bNpbYK+L444UhhhO6vXhIqd5wm3EnZ065grfpbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527836&amp;pid1=APF-70017-00345</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UNI-60025-01784</t>
+          <t>APF-70017-00306</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>RINSO</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Buy 2 - Rinso Detergent Cair Capsule Konsentrat Deterjen Matic Kapsul Sakura Blossom [168 G] Free Rinso Capsule Lavender Fresh [168 G]</t>
+          <t>iPhone 15 Plus</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>97600</v>
+        <v>16249000</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-166562849/rinso_buy_2_-_rinso_detergent_cair_capsule_konsentrat_deterjen_matic_kapsul_sakura_blossom_-168_g-_free_rinso_capsule_lavender_fresh_-168_g-_full16_efaa5k6d.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-134607236/apple_iphone_15_plus_full01_dnx3khj2.jpg</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/buy-2-rinso-detergent-cair-capsule-konsentrat-deterjen-matic-kapsul-sakura-blossom-168-g-free-rinso-capsule-lavender-fresh-168-g/ps--UNI-60025-01784?ds=UNI-60025-01784-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/Pdgj1B/QYBV7GBvNoJs6tnh6wQ6PEr8y5kW/jpBoqaySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnyMru0AcvpJJckDx5fLB9bbI0w8dmNEBfvLU7Yuo2KuO0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01784&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15-plus/ps--APF-70017-00306?ds=APF-70017-00306-00001&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7Icmq1gsSXLUq8ZinzLw7svrE8PE1u25RQwz3jiAVHEzrYjezeG68kuQU2JwAmS3CT0vQZ302m3rK6TgUnYsM3HGfQaCoNPSOcAg9lLayKYW1iE2KLbEw2wtdH47KHnWcSJa4cuig6qHGKfhLhJsWRXdFQKB0YyTzLQnKPKgoBIDEy5OaSLKFUCZrcC2nCZ2A9vxKXDJKxXa4UX67tzbXhHa5RrB7iXPKdVfFfUbbpG&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00306</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JAO-70150-00036</t>
+          <t>APF-70017-00303</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Javina</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Javina Mahira Abaya Series - Maroon</t>
+          <t>iPhone 15</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>445000</v>
+        <v>14249000</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393203/javina_javina_mahira_abaya_series_-_maroon_full01_v7mv6ko3.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134607074/apple_iphone_15_full28_p54hkyv8.jpeg</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-maroon/ps--JAO-70150-00036?ds=JAO-70150-00036-00004&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS847UMMr9bs7lr/LvcGmfw73JbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00036&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15/ps--APF-70017-00303?ds=APF-70017-00303-00002&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushIvrE8PE1u25RQwz3jiAVHEdfazE/cmbbZEHoogSfCZI3fyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00303</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JAO-70150-00035</t>
+          <t>APF-70017-00310</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Javina</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Javina Mahira Abaya Series - Denim</t>
+          <t>iPhone 15 Pro</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>445000</v>
+        <v>19249000</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393198/javina_javina_mahira_abaya_series_-_denim_full01_tsevq5at.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134609071/apple_iphone_15_pro_full25_jv2x5hnl.jpeg</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-denim/ps--JAO-70150-00035?ds=JAO-70150-00035-00002&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84JQFtqBINX0TZNUUazK+2eVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00035&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15-pro/ps--APF-70017-00310?ds=APF-70017-00310-00010&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1IvrE8PE1u25RQwz3jiAVHEV7sZTKEXaUIVR+JJXliyTHfyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3381860&amp;pid1=APF-70017-00310</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>JAO-70150-00034</t>
+          <t>APF-70017-00003</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Javina</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Javina Mahira Abaya Series - Black</t>
+          <t>iPhone 13</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>445000</v>
+        <v>10249000</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393151/javina_javina_mahira_abaya_series_-_black_full01_fk49x92r.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//100/MTA-53912377/apple_iphone_13_full15_gmhaz6il.jpg</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-black/ps--JAO-70150-00034?ds=JAO-70150-00034-00004&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00034&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-13/ps--APF-70017-00003?ds=APF-70017-00003-00015&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq8vrE8PE1u25RQwz3jiAVHEdxbGIE4CnOUy0H0Wj4fU5Qkz5AwQB40VvExfVpFKdnwJvdxpiiNfUeOruay3VzPrtRIEKTkr11TWevS5TI/onkBqEG1QeWUxw3k5hxYyMhEu7BjFUWoESEuRx5BdRqYxYtJwrUDqmOLrSZmWtBL0djy1o6e11zcfPagzZ/WazUlMwRFMRgcIAsLkYlBFbv7f&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00003</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>JAO-70150-00037</t>
+          <t>APF-70017-00313</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Javina</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Javina Mahira Abaya Series - White Grey</t>
+          <t>iPhone 15 Pro Max</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>445000</v>
+        <v>23249000</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393243/javina_javina_mahira_abaya_series_-_white_grey_full01_jrnl83ek.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134610255/apple_iphone_15_pro_max_full27_s50t7e5t.jpeg</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-white-grey/ps--JAO-70150-00037?ds=JAO-70150-00037-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84k38AQ6fHfgUaMI8dYOo1vlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00037&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max/ps--APF-70017-00313?ds=APF-70017-00313-00004&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73MvrE8PE1u25RQwz3jiAVHEtkzJZoE1+bGRU7vngG2ukHfyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00313</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NIE-12227-11677</t>
+          <t>APF-70017-00336</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NIKE Men Basketball Jordan Essentials Holiday T-Shirt Kaos Basket Pria [FD7010-133]</t>
+          <t>iPhone 15 Silicone Case</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>389000</v>
+        <v>999000</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552999/nike_nike_men_basketball_jordan_essentials_holiday_t-shirt_kaos_basket_pria_-fd7010-133-_full02_lpte85hd.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833622/apple_iphone_15_silicone_case_full15_vr357pub.jpeg</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1619,37 +1619,37 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-men-basketball-jordan-essentials-holiday-t-shirt-kaos-basket-pria-fd7010-133/ps--NIE-12227-11677?ds=NIE-12227-11677-00002&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzrqhn2WeenYl70j0tMOsyiGkIqt3bNpbYK+L444UhhhwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11677</t>
+          <t>https://www.blibli.com/p/iphone-15-silicone-case/ps--APF-70017-00336?ds=APF-70017-00336-00004&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00336</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>NIE-12227-11674</t>
+          <t>APF-70017-00337</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NIKE Men Running Dri-FIT Tee Trail T-Shirt Kaos Lari Pria [FN0826-010]</t>
+          <t>iPhone 15 Plus Silicone Case</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>325000</v>
+        <v>999000</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552995/nike_nike_men_running_dri-fit_tee_trail_t-shirt_kaos_lari_pria_-fn0826-010-_full03_mpilnh7y.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-137833635/apple_iphone_15_plus_silicone_case_full05_rzuccntf.jpg</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1657,37 +1657,37 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-men-running-dri-fit-tee-trail-t-shirt-kaos-lari-pria-fn0826-010/ps--NIE-12227-11674?ds=NIE-12227-11674-00003&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCy2vnCdR/EtZOI/3G854fFo0wn7+82bYRdE+2sGGRS84ijsaMV2OlAUratgIjx1Jq1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDkaTmXM5ymgQU76aQtitcsKDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11674</t>
+          <t>https://www.blibli.com/p/iphone-15-plus-silicone-case/ps--APF-70017-00337?ds=APF-70017-00337-00005&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00337</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NIE-12227-11673</t>
+          <t>APF-70017-00339</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NIKE Men Basketball Ja Max90 Long-Sleeve T-Shirt Kaos Basket Pria [FN0808-010]</t>
+          <t>iPhone 15 Pro Max Silicone Case</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>469000</v>
+        <v>999000</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552996/nike_nike_men_basketball_ja_max90_long-sleeve_t-shirt_kaos_basket_pria_-fn0808-010-_full03_rbr4mdgj.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833645/apple_iphone_15_pro_max_silicone_case_full35_tqvmfw0h.jpeg</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -1695,37 +1695,37 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-men-basketball-ja-max90-long-sleeve-t-shirt-kaos-basket-pria-fn0808-010/ps--NIE-12227-11673?ds=NIE-12227-11673-00002&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14uGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11673</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-silicone-case/ps--APF-70017-00339?ds=APF-70017-00339-00006&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00339</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NIE-12227-11523</t>
+          <t>APF-70017-00332</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NIKE Men Basketball Cleveland Cavaliers NBA T-shirt Basket [DR6369-680]</t>
+          <t>iPhone 15 Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>359000</v>
+        <v>999000</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429261/nike_nike_men_basketball_cleveland_cavaliers_nba_t-shirt_basket_-dr6369-680-_full03_u6z1ye0p.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833594/apple_iphone_15_clear_case_with_magsafe_full04_bqrk81t6.jpeg</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -1733,265 +1733,265 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-men-basketball-cleveland-cavaliers-nba-t-shirt-basket-dr6369-680/ps--NIE-12227-11523?ds=NIE-12227-11523-00005&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGGkIqt3bNpbYK+L444UhhhzzZ/8U3KjGLexZ+hPeKg01esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3016028&amp;pid1=NIE-12227-11523</t>
+          <t>https://www.blibli.com/p/iphone-15-clear-case-with-magsafe/ps--APF-70017-00332?ds=APF-70017-00332-00001&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00332</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HEL-60024-00658</t>
+          <t>APF-70017-00048</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Heaven Lights</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Heaven Lights Saiba Blouse - Royal Blue</t>
+          <t>iPhone 11</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>249000</v>
+        <v>6199000</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/108/MTA-165507758/heaven_lights_heaven_lights_saiba_series_blouse_-_royal_blue_full02_pisk3vrj.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//96/MTA-55441923/apple_iphone_11_full03_td5mg95s.jpg</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-royal-blue/ps--HEL-60024-00658?ds=HEL-60024-00658-00005&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh/BYfIayXYsLzJq+mx6RyfZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3525161&amp;pid1=HEL-60024-00658</t>
+          <t>https://www.blibli.com/p/iphone-11/ps--APF-70017-00048?ds=APF-70017-00048-00003&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH6TghlAdPg2CjQYohEbdpVNycq4tJgT55gw64b9d6NV/iT0vQZ302m3rK6TgUnYsM3HGfQaCoNPSOcAg9lLayKYW1iE2KLbEw2wtdH47KHnWcSJa4cuig6qHGKfhLhJsWRXdFQKB0YyTzLQnKPKgoBIDEy5OaSLKFUCZrcC2nCZ2A9vxKXDJKxXa4UX67tzbXhHa5RrB7iXPKdVfFfUbbpG&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00048</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NIE-12227-11638</t>
+          <t>APF-70017-00286</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Komputer &amp; Gaming</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NIKE Women Running Dri-FIT Swift Element UV Crew-Neck Top Pakaian Lari Wanita [FB4298-010]</t>
+          <t>MacBook Air (15 inci, M2, 2023)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>545000</v>
+        <v>19499000</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429424/nike_nike_women_running_dri-fit_swift_element_uv_crew-neck_top_pakaian_lari_wanita_-fb4298-010-_full09_fqh7v9lc.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-124761180/apple_macbook_air_-15_inci-_m2-_2023-_full06_jbdwfhi9.jpeg</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-women-running-dri-fit-swift-element-uv-crew-neck-top-pakaian-lari-wanita-fb4298-010/ps--NIE-12227-11638?ds=NIE-12227-11638-00003&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJU0wn7+82bYRdE+2sGGRS84wOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDoiJJ1OU1JS2unXAZ1VoEmmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11638</t>
+          <t>https://www.blibli.com/p/macbook-air-15-inci-m2-2023/ps--APF-70017-00286?ds=APF-70017-00286-00003&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JlYoIjV2CuCuY+6FEE/4Ocz2DUkDP9qOWZs0sDno/LE7LBaB3tLseqCRU/10V6Qi4m/0gcuiAdTNyGqjLqLXjMVB0Z19F5S3OJm6xVPOQF+fYfYBdOaXUoSWEt7LUZrj8SCpv+JZQ7/xvnr91HkkCtjPlzlQ1BsZC2kuLWp2z7Hbyn+4JWrfKTxHPG0CjNymc=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00286</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ADS-12698-13527</t>
+          <t>APF-70017-00046</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>adidas Men Football Jersey Training Messi Baju Bola Pria [IZ2996]</t>
+          <t>iPhone 12</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>425000</v>
+        <v>8999000</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164875220/adidas_adidas_men_football_jersey_training_messi_baju_bola_pria_-iz2996-_full02_spr5ewl2.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-55441280/apple_iphone_12_full07_ew9x8bof.jpg</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/adidas-men-football-jersey-training-messi-baju-bola-pria-iz2996/ps--ADS-12698-13527?ds=ADS-12698-13527-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxIcZ42UdpGRIP9haxRfSXo0wn7+82bYRdE+2sGGRS84Mt/3c2rmpbvxfTWQ1SJQeFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13527</t>
+          <t>https://www.blibli.com/p/iphone-12/ps--APF-70017-00046?ds=APF-70017-00046-00003&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uTghlAdPg2CjQYohEbdpVNpEgeoSwwIoWb47iX8zxnJ9ldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdsEU3r2OKINlzoKpMtuWDsZaC0WkFw58IzLOpWNSSbO1p4qnFDJB1cdj8jJUR+mIw&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00046</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HEL-60024-00657</t>
+          <t>APF-70017-00131</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Heaven Lights</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Heaven Lights Saiba Blouse - Plum</t>
+          <t>MagSafe Charger</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>249000</v>
+        <v>899000</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/99/MTA-165507009/heaven_lights_heaven_lights_saiba_series_blouse_-_plum_full01_o6nkay6z.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-58268542/apple_magsafe_charger_full05_lysixmjl.jpeg</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-plum/ps--HEL-60024-00657?ds=HEL-60024-00657-00002&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh3l+QY3wMrVJqg5NI5IcJapbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3501982&amp;pid1=HEL-60024-00657</t>
+          <t>https://www.blibli.com/p/magsafe-charger/ps--APF-70017-00131?ds=APF-70017-00131-00001&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uGkIqt3bNpbYK+L444UhhhrzvyxmXCYHwhh53Mu6uwhZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3381860&amp;pid1=APF-70017-00131</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BEF-44369-01450</t>
+          <t>APF-70017-00085</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Kesehatan &amp; Kecantikan</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Nivea</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>WHS - NIVEA Extra White Anti Age Body Serum [180mL/ Twinpack]</t>
+          <t>iPhone 13 Pro Max</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>105930</v>
+        <v>20499000</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/102/MTA-164580356/nivea_nivea_body_serum_extra_white_anti_age_spf33_180ml_twinpack_full02_f5ecp6kb.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-55758860/apple_iphone_13_pro_max_full01_chcci7r6.jpg</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/whs-nivea-extra-white-anti-age-body-serum-180ml-twinpack/ps--BEF-44369-01450?ds=BEF-44369-01450-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq/ovRQ0Z022L3Iu9yw6+ylB186d66YvaC2JQyxVan28sVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50HmOPOo9vK7ml77mG9hBQkQ2RD2hjh2mlEX+5RI/nJrbRlLYVOA1NrlZjxU92acsmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3013016&amp;pid1=BEF-44369-01450</t>
+          <t>https://www.blibli.com/p/iphone-13-pro-max/ps--APF-70017-00085?ds=APF-70017-00085-00018&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt1lYoIjV2CuCuY+6FEE/4OcG9dJYXQNH3c8otm92KLJF40NhQKzZIN8gL1jFkUDixHl7vLUjrsdK1zyi0EGIrlc+lqfuLhCKzHK1PquGiDNtPDjsDbRwEIHOQBbswYIpWkKy39fi3Va6xY0tttu7XwbdCIjEVS4NKc4mYAdHVV7x6dpprdJbrIvFhvGBsAjyZ60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00085</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ADS-12698-13483</t>
+          <t>APF-70017-00045</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>adidas Men Football Polo Shirt Manchester United Tiro 24 Baju Bola Pria [IT2028]</t>
+          <t>iPhone 13 Pro</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>552000</v>
+        <v>24999000</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114197/adidas_adidas_men_football_polo_shirt_manchester_united_tiro_24_baju_bola_pria_-it2028-_full03_ovnxbccg.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//96/MTA-55440374/apple_iphone_13_pro_full01_b04adat2.jpg</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/adidas-men-football-polo-shirt-manchester-united-tiro-24-baju-bola-pria-it2028/ps--ADS-12698-13483?ds=ADS-12698-13483-00001&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9edfIwrMRf6gYe7nhVvn27vDN9u2pSChajLuMWmnt1nzFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13483</t>
+          <t>https://www.blibli.com/p/iphone-13-pro/ps--APF-70017-00045?ds=APF-70017-00045-00016&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4Z04n9snaCuoRGNTJBD90saz6OVeH3rdWiUoFIOCn3o3Y0NhQKzZIN8gL1jFkUDixHl7vLUjrsdK1zyi0EGIrlclK2zlO2aKDky1A2Jb0GH6REJUS6iZCZYBrw/vSDnZsJ5bzPYvzhwgcSRqReRQnHZssQD4zT1TELgTrwTywo5vKd2zlbgOMydKFrikUCiHiA=&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00045</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ADS-12698-13451</t>
+          <t>APF-70017-00340</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>adidas Men Football Jersey Arsenal Home 24/25 Baju Bola Pria [IT6141]</t>
+          <t>iPhone 15 FineWoven Case</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1020000</v>
+        <v>1149000</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114157/adidas_adidas_men_football_jersey_arsenal_home_24-25_baju_bola_pria_-it6141-_full05_f1ymtfqk.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833659/apple_iphone_15_finewoven_case_full10_u67byf68.jpeg</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -1999,531 +1999,531 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/adidas-men-football-jersey-arsenal-home-24-25-baju-bola-pria-it6141/ps--ADS-12698-13451?ds=ADS-12698-13451-00004&amp;source=SEARCH&amp;sid=85164dddd0cb2a86&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq8BEYo4o198IKoVpkJZ1CNbAnAO3DeMVCIz5wjRuGXJuVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+UvM5rYQ2b7sWjAIjInNGfx9nPBIkgRjZAjSv9izhQ1pmwIpKMEQEhdOIn3G3lFnHYkG1UxvbL2nrGLalYS2G2RCnk+mz+9IdUNYHXY+enerZZHJddTpXmDglIJ8ujJq3&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13451</t>
+          <t>https://www.blibli.com/p/iphone-15-finewoven-case/ps--APF-70017-00340?ds=APF-70017-00340-00003&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBpg7QOhsgjrF+al2+p+u3kFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00340</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BAH-70197-00002</t>
+          <t>APF-70017-00342</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Baby Hai</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>BABY HAI Rayya Series Ramadhan Abizar Series Color 2 - Baju Anak Laki - Laki Lengan Pendek Celana Panjang</t>
+          <t>iPhone 15 Pro FineWoven Case</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>30100</v>
+        <v>1149000</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//112/MTA-94766386/baby_hai_baby_hai_rayya_series_ramadhan_abizar_series_color_2_-_baju_anak_laki_-_laki_lengan_pendek_celana_panjang_full01_he26rnqh.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833683/apple_iphone_15_pro_finewoven_case_full06_dxao3nsd.jpeg</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/baby-hai-rayya-series-ramadhan-abizar-series-color-2-baju-anak-laki-laki-lengan-pendek-celana-panjang/ps--BAH-70197-00002?ds=BAH-70197-00002-00007&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EMmbE/LLJy7W3VwRB8pUx8xE+ELff8mp6Jxh05BtXdSLlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWuSVd/bvsBAZ/8InAAmnjqC0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3529390&amp;pid1=BAH-70197-00002</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-finewoven-case/ps--APF-70017-00342?ds=APF-70017-00342-00001&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBfjR068KHPSQZ85QRu+ua05bKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00342</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>KOE-70078-00007</t>
+          <t>APF-70017-00343</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>KOZE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>KOZE - Premium Comfort Green T-shirt - Kaos Polos Hijau</t>
+          <t>iPhone 15 Pro Max FineWoven Case</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>49500</v>
+        <v>1149000</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-99600694/koze_koze_-_premium_comfort_green_t-shirt_-_kaos_polos_hijau_full01_eukw1txs.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833689/apple_iphone_15_pro_max_finewoven_case_full12_lk7ukml6.jpeg</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/koze-premium-comfort-green-t-shirt-kaos-polos-hijau/ps--KOE-70078-00007?ds=KOE-70078-00007-00004&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLe3ycwbRnPkH0lW7Gv/QJVMlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGp04hRlADTLARbcEgnz4dqM=&amp;cnc=false&amp;pickupPointCode=PP-3472636&amp;pid1=KOE-70078-00007</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-finewoven-case/ps--APF-70017-00343?ds=APF-70017-00343-00004&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBQH6i0lIUSmR22orkXBAr8ZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00343</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LGM-60021-00230</t>
+          <t>APF-70017-00334</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LGS</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LGS Slim Fit Kaos Polo Pria - White Blue Green [JTS.325.M1846F.01.C]</t>
+          <t>iPhone 15 Pro Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>146000</v>
+        <v>999000</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//85/MTA-1520625/lgs_lgs-slim-fit-kaos-polo-pria---white-blue-green--jts-325-m1846f-01-c-_full02.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833609/apple_iphone_15_pro_clear_case_with_magsafe_full06_j07yenup.jpeg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lgs-slim-fit-kaos-polo-pria-white-blue-green-jts-325-m1846f-01-c/ps--LGM-60021-00230?ds=LGM-60021-00230-00003&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushIJcaEJLcqsH3r6UABTq0TLwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3034126&amp;pid1=LGM-60021-00230</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-clear-case-with-magsafe/ps--APF-70017-00334?ds=APF-70017-00334-00001&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhfpqCNyIIM8Kl5K4rY8/LuVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00334</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ELM-60027-00165</t>
+          <t>APF-70017-00333</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ELLIPSES INC</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ELLIPSESINC Kaos Oversize Wanita &amp; Pria BECCA EDITION</t>
+          <t>iPhone 15 Plus Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>35000</v>
+        <v>999000</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//104/MTA-21988625/ellipses_inc_ellipsesinc_kaos_oversize_wanita_-_pria_becca_edition_full24_si0ww14j.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833606/apple_iphone_15_plus_clear_case_with_magsafe_full05_m2408lv7.jpeg</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/ellipsesinc-kaos-oversize-wanita-pria-becca-edition/ps--ELM-60027-00165?ds=ELM-60027-00165-00007&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGT2r7fOYNS0fn24lYkspaBeeU8gA9woEea/RtkRh7ZnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A8s4+rWZ7zCXM6RAaC0DCw0Kkkafi+cjIiXcB4olXgzyFWbDfLF/5KnLYCxjUA9SQsd5cgi/2OYPwjclFVcBAkX&amp;cnc=false&amp;pickupPointCode=PP-3085683&amp;pid1=ELM-60027-00165</t>
+          <t>https://www.blibli.com/p/iphone-15-plus-clear-case-with-magsafe/ps--APF-70017-00333?ds=APF-70017-00333-00001&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhDN9u2pSChajLuMWmnt1nzFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00333</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EVO-70024-00183</t>
+          <t>APF-70017-00335</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>EVERNEXT</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>EVERNEXT - DOMPET KUNCI KENDARAAN KEY WALLET ARCO GANTUNGAN KUNCI MOBIL MOTOR DOMPET KARTU DOMPET STNK</t>
+          <t>iPhone 15 Pro Max Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>45000</v>
+        <v>999000</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//117/MTA-78887691/evernext_evernext_-_dompet_kunci_kendaraan_key_wallet_arco_gantungan_kunci_mobil_motor_dompet_kartu_dompet_stnk_full11_f18edunq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833612/apple_iphone_15_pro_max_clear_case_with_magsafe_full07_g5v66bq8.jpeg</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/evernext-dompet-kunci-kendaraan-key-wallet-arco-gantungan-kunci-mobil-motor-dompet-kartu-dompet-stnk/ps--EVO-70024-00183?ds=EVO-70024-00183-00002&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBgmMdlWBN8y5Inger9NURmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vafHKVkJci5PAC/hnMA2UzpLyTJdReOx9JfHVI27hOzzM=&amp;cnc=false&amp;pickupPointCode=PP-3357698&amp;pid1=EVO-70024-00183</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-clear-case-with-magsafe/ps--APF-70017-00335?ds=APF-70017-00335-00001&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444Uhhh/3E34WmsadpdNZCKPSkeRZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00335</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HUP-60027-03538</t>
+          <t>APF-70017-00135</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hush Puppies</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Hush Puppies Farro 2 Polo Shirt Pria</t>
+          <t>iPhone Leather Wallet with MagSafe</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>224420</v>
+        <v>1299000</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-159627197/hush-puppies_hush-puppies-farro-2-polo-shirt-pria_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-58276282/apple_iphone_leather_wallet_with_magsafe_full01_cespmkb1.jpg</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/hush-puppies-farro-2-polo-shirt-pria/ps--HUP-60027-03538?ds=HUP-60027-03538-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q97B/omnSKxUeafXYYVk6xbwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3095796&amp;pid1=HUP-60027-03538</t>
+          <t>https://www.blibli.com/p/iphone-leather-wallet-with-magsafe/ps--APF-70017-00135?ds=APF-70017-00135-00001&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeCTghlAdPg2CjQYohEbdpVNpg7QOhsgjrF+al2+p+u3kFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527678&amp;pid1=APF-70017-00135</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BLI-15014-16569</t>
+          <t>APF-70017-00442</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>JP Collection</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>JP Collection OBSP-0285-TWOWHEELS Kaos Anak Laki-Laki</t>
+          <t>Thunderbolt 4 (USB-C) Pro Cable (1m)</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30970</v>
+        <v>1099000</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//79/MTA-3103224/jp-collection_jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki_full16.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/108/MTA-148991931/apple_thunderbolt_4_pro_cable_-1-8_m-_full01_odh4x692.jpg</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki/ps--BLI-15014-16569?ds=BLI-15014-16569-00029&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7ENfepXUSJ3qMPK5468+MysuJLWhzdnoh86j6S/07IpFSVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWg3ctvKPtt4ygLDf9aZr0F60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3523009&amp;pid1=BLI-15014-16569</t>
+          <t>https://www.blibli.com/p/thunderbolt-4-usb-c-pro-cable-1m/ps--APF-70017-00442?ds=APF-70017-00442-00001&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq+TghlAdPg2CjQYohEbdpVNa5ApKnrg2e22hkeOIMdo91X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00442</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BLM-60037-01195</t>
+          <t>APF-70017-00345</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>BLYTHE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Blythe Premium Jayden Flannel Shirt Kemeja Kotak Kotak Lengan Panjang Pria</t>
+          <t>Apple EarPods (USB-C)</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>249000</v>
+        <v>329000</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-155401690/blythe_blythe_premium_jayden_flannel_shirt_kemeja_kotak_kotak_lengan_panjang_pria_full18_itluztdu.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-138904841/apple_apple_earpods_-usb-c-_full01_pt4xshb0.jpg</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/blythe-premium-jayden-flannel-shirt-kemeja-kotak-kotak-lengan-panjang-pria/ps--BLM-60037-01195?ds=BLM-60037-01195-00008&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444UhhhDHoqKmYsTFC9Iv89Ei/0YlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52Np6XO8WKdHoYeMogok9fdb2BUOOGusSvfBtxTrjv/cwqeaQg1dtTjyms/VfSkXqs=&amp;cnc=false&amp;pickupPointCode=PP-3525890&amp;pid1=BLM-60037-01195</t>
+          <t>https://www.blibli.com/p/apple-earpods-usb-c/ps--APF-70017-00345?ds=APF-70017-00345-00001&amp;source=SEARCH&amp;sid=d41c8384c37b8407&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCy2vnCdR/EtZOI/3G854fFqGkIqt3bNpbYK+L444UhhhO6vXhIqd5wm3EnZ065grfpbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527836&amp;pid1=APF-70017-00345</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>KIK-70088-00020</t>
+          <t>APF-70017-00306</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Kiyora</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Kiyora Sydney Atasan Wanita - Pink Crème</t>
+          <t>iPhone 15 Plus</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>89000</v>
+        <v>16249000</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044786/kiyora_kiyora_sydney_atasan_wanita_-_pink_cr-me_full01_kunyukph.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-134607236/apple_iphone_15_plus_full01_dnx3khj2.jpg</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/kiyora-sydney-atasan-wanita-pink-cr-me/ps--KIK-70088-00020?ds=KIK-70088-00020-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uT2r7fOYNS0fn24lYkspaBKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKAe+OCLJmeyKGF1EdpUJUnlfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00020</t>
+          <t>https://www.blibli.com/p/iphone-15-plus/ps--APF-70017-00306?ds=APF-70017-00306-00001&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7Icmq1gsSXLUq8ZinzLw7svrE8PE1u25RQwz3jiAVHEzrYjezeG68kuQU2JwAmS3CT0vQZ302m3rK6TgUnYsM3HGfQaCoNPSOcAg9lLayKYW1iE2KLbEw2wtdH47KHnWcSJa4cuig6qHGKfhLhJsWRXdFQKB0YyTzLQnKPKgoBIDEy5OaSLKFUCZrcC2nCZ2A9vxKXDJKxXa4UX67tzbXhHa5RrB7iXPKdVfFfUbbpG&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00306</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LIS-14924-00806</t>
+          <t>APF-70017-00303</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Lion Star Folding Hanger 24 Sticks Jemuran Baju</t>
+          <t>iPhone 15</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>64000</v>
+        <v>14249000</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090270/lion_star_lion_star__folding_hanger_24_sticks_jemuran_baju_full01_o3vah5cz.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134607074/apple_iphone_15_full28_p54hkyv8.jpeg</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-folding-hanger-24-sticks-jemuran-baju/ps--LIS-14924-00806?ds=LIS-14924-00806-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzw6DOMtn+gYi+5f5Iqa4pGT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00806</t>
+          <t>https://www.blibli.com/p/iphone-15/ps--APF-70017-00303?ds=APF-70017-00303-00002&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushIvrE8PE1u25RQwz3jiAVHEdfazE/cmbbZEHoogSfCZI3fyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00303</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LIS-14924-00805</t>
+          <t>APF-70017-00310</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Lion Star Folding Hanger 16 Sticks Jemuran Baju</t>
+          <t>iPhone 15 Pro</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>49500</v>
+        <v>19249000</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148088190/lion_star_lion_star_folding_hanger_16_sticks_jemuran_baju_full03_igkn11o8.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134609071/apple_iphone_15_pro_full25_jv2x5hnl.jpeg</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-folding-hanger-16-sticks-jemuran-baju/ps--LIS-14924-00805?ds=LIS-14924-00805-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00805</t>
+          <t>https://www.blibli.com/p/iphone-15-pro/ps--APF-70017-00310?ds=APF-70017-00310-00010&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1IvrE8PE1u25RQwz3jiAVHEV7sZTKEXaUIVR+JJXliyTHfyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3381860&amp;pid1=APF-70017-00310</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LIS-14924-00807</t>
+          <t>APF-70017-00003</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Lion Star Folding Hanger 30 Sticks Jemuran Baju</t>
+          <t>iPhone 13</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>74500</v>
+        <v>10249000</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090286/lion_star_lion_star_folding_hanger_30_sticks_jemuran_baju_full02_tv6sxt04.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//100/MTA-53912377/apple_iphone_13_full15_gmhaz6il.jpg</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-folding-hanger-30-sticks-jemuran-baju/ps--LIS-14924-00807?ds=LIS-14924-00807-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6+ofzQPca16/hNKbnSDAJ6/HAkxoVke7cxJ4LyInlLenUcuWlxDj3lNx/vI4M4PH+jqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00807</t>
+          <t>https://www.blibli.com/p/iphone-13/ps--APF-70017-00003?ds=APF-70017-00003-00015&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq8vrE8PE1u25RQwz3jiAVHEdxbGIE4CnOUy0H0Wj4fU5Qkz5AwQB40VvExfVpFKdnwJvdxpiiNfUeOruay3VzPrtRIEKTkr11TWevS5TI/onkBqEG1QeWUxw3k5hxYyMhEu7BjFUWoESEuRx5BdRqYxYtJwrUDqmOLrSZmWtBL0djy1o6e11zcfPagzZ/WazUlMwRFMRgcIAsLkYlBFbv7f&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00003</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>LIS-14924-00733</t>
+          <t>APF-70017-00313</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Lion Star Jemuran Baju / Laundry Hanger Tripod</t>
+          <t>iPhone 15 Pro Max</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>198600</v>
+        <v>23249000</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-127266381/lion_star_lion_star_jemuran_baju_-_laundry_hanger_tripod_full01_odf238gk.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134610255/apple_iphone_15_pro_max_full27_s50t7e5t.jpeg</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-jemuran-baju-laundry-hanger-tripod/ps--LIS-14924-00733?ds=LIS-14924-00733-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JHLgoC/MYdp69cMUdWFnV1U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHI/2j+o1IQC0bIBUNNPAppAtZ8uEOn0Ql/eC8q/oWrwBcHn0AWNhN6m5BpKP78qwDE=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00733</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max/ps--APF-70017-00313?ds=APF-70017-00313-00004&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73MvrE8PE1u25RQwz3jiAVHEtkzJZoE1+bGRU7vngG2ukHfyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00313</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9TW-60021-01565</t>
+          <t>APF-70017-00336</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>9 to 12</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>9 to 12 Mia Linen Shirt Kemeja Lengan Panjang Linen Kantor Wanita</t>
+          <t>iPhone 15 Silicone Case</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>149000</v>
+        <v>999000</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-91217262/9_to_12_9_to_12_mia_linen_shirt_kemeja_wanita_full02_kcqs7mya.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833622/apple_iphone_15_silicone_case_full15_vr357pub.jpeg</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -2531,37 +2531,37 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/9-to-12-mia-linen-shirt-kemeja-lengan-panjang-linen-kantor-wanita/ps--9TW-60021-01565?ds=9TW-60021-01565-00003&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushKGkIqt3bNpbYK+L444UhhhHxbrE1ojlIiyeznGUhdMUeWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxAAm0Ky79H2kukIikI3WbdDfjQtllH9FlUcG3SRRgUPwaH9/p2g1nm/YLqDhhmudNewKd+f0eOUHKyU4XgeKwfPg==&amp;cnc=false&amp;pickupPointCode=PP-3519985&amp;pid1=9TW-60021-01565</t>
+          <t>https://www.blibli.com/p/iphone-15-silicone-case/ps--APF-70017-00336?ds=APF-70017-00336-00004&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00336</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LIS-14924-00572</t>
+          <t>APF-70017-00337</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Lion Star Jepitan Baju JB-1 Laundry Clips (20 Pcs)</t>
+          <t>iPhone 15 Plus Silicone Case</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>12500</v>
+        <v>999000</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-11691417/lion_star_lion_star_001_laundry_clips_full01_exf0fig2.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-137833635/apple_iphone_15_plus_silicone_case_full05_rzuccntf.jpg</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -2569,341 +2569,341 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-jepitan-baju-jb-1-laundry-clips-20-pcs/ps--LIS-14924-00572?ds=LIS-14924-00572-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeC/HAkxoVke7cxJ4LyInlLeONM/pwQSpw/TgMoD9qDeE1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt51SPFgCl9oi27QotXy+Xqg7ncDBNXS0U6F+cIYt7Ox4Ox3lyCL/Y5g/CNyUVVwECRc=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00572</t>
+          <t>https://www.blibli.com/p/iphone-15-plus-silicone-case/ps--APF-70017-00337?ds=APF-70017-00337-00005&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00337</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DAO-70167-00003</t>
+          <t>APF-70017-00339</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dacco</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Dacco Mama Pad 3D Breastpad [24 pcs]</t>
+          <t>iPhone 15 Pro Max Silicone Case</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>22000</v>
+        <v>999000</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/92/MTA-127240561/dacco_dacco-mama-pad-breastpad-3d-isi-24pcs_full02.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833645/apple_iphone_15_pro_max_silicone_case_full35_tqvmfw0h.jpeg</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-24-pcs/ps--DAO-70167-00003?ds=DAO-70167-00003-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+T2r7fOYNS0fn24lYkspaB/A9+ItZOLJU0KYEdc1CW5NldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00003</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-silicone-case/ps--APF-70017-00339?ds=APF-70017-00339-00006&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00339</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DAO-70167-00004</t>
+          <t>APF-70017-00332</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Dacco</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Dacco Mama Pad 3D Breastpad [56 pcs]</t>
+          <t>iPhone 15 Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45000</v>
+        <v>999000</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/95/MTA-127240590/dacco_dacco-mama-pad-breastpad-3d-isi-56pcs_full02.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833594/apple_iphone_15_clear_case_with_magsafe_full04_bqrk81t6.jpeg</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-56-pcs/ps--DAO-70167-00004?ds=DAO-70167-00004-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBjgJtif7ZErD1A5G7Do9RH9ldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00004</t>
+          <t>https://www.blibli.com/p/iphone-15-clear-case-with-magsafe/ps--APF-70017-00332?ds=APF-70017-00332-00001&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00332</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>KIK-70088-00045</t>
+          <t>APF-70017-00048</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>KAORI</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Kaori Seira Cardigan Outer Wanita - Bata</t>
+          <t>iPhone 11</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>75000</v>
+        <v>6199000</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93066052/kaori_kaori_seira_cardigan_outer_wanita_-_bata_full01_njcswb4w.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//96/MTA-55441923/apple_iphone_11_full03_td5mg95s.jpg</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/kaori-seira-cardigan-outer-wanita-bata/ps--KIK-70088-00045?ds=KIK-70088-00045-00002&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCycpTyS3V4Bt86XaxsYSf7+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJvUe1T40+jFxsL3RTfsG+znMf7cp48yL26Dsz2eCVLdZfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00045</t>
+          <t>https://www.blibli.com/p/iphone-11/ps--APF-70017-00048?ds=APF-70017-00048-00003&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH6TghlAdPg2CjQYohEbdpVNycq4tJgT55gw64b9d6NV/iT0vQZ302m3rK6TgUnYsM3HGfQaCoNPSOcAg9lLayKYW1iE2KLbEw2wtdH47KHnWcSJa4cuig6qHGKfhLhJsWRXdFQKB0YyTzLQnKPKgoBIDEy5OaSLKFUCZrcC2nCZ2A9vxKXDJKxXa4UX67tzbXhHa5RrB7iXPKdVfFfUbbpG&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00048</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>INP-60076-02184</t>
+          <t>APF-70017-00286</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mainan, Buku &amp; Stationery</t>
+          <t>Komputer &amp; Gaming</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Akedo</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Legends of Akedo PowerStorm S4 Giants Action Figure 15190 - Assorted</t>
+          <t>MacBook Air (15 inci, M2, 2023)</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>179000</v>
+        <v>19499000</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-95198657/akedo_legends_of_akedo_powerstorm_s4_giants_action_figure_15190_-_assorted_full02_jykgck93.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-124761180/apple_macbook_air_-15_inci-_m2-_2023-_full06_jbdwfhi9.jpeg</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/legends-of-akedo-powerstorm-s4-giants-action-figure-15190-assorted/ps--INP-60076-02184?ds=INP-60076-02184-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNylnry4OkDBy9LifrRfNVhITodBPeru5IipRxn8umZ90=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-02184</t>
+          <t>https://www.blibli.com/p/macbook-air-15-inci-m2-2023/ps--APF-70017-00286?ds=APF-70017-00286-00003&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JlYoIjV2CuCuY+6FEE/4Ocz2DUkDP9qOWZs0sDno/LE7LBaB3tLseqCRU/10V6Qi4m/0gcuiAdTNyGqjLqLXjMVB0Z19F5S3OJm6xVPOQF+fYfYBdOaXUoSWEt7LUZrj8SCpv+JZQ7/xvnr91HkkCtjPlzlQ1BsZC2kuLWp2z7Hbyn+4JWrfKTxHPG0CjNymc=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00286</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>INP-60076-01330</t>
+          <t>APF-70017-00046</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mainan, Buku &amp; Stationery</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Happy Toon</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Happy Toon NB-03900 Family Small Toys Iron Basket Mainan Anak</t>
+          <t>iPhone 12</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>55000</v>
+        <v>8999000</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-54407440/happy_toon_happy_toon_nb-03900_family_small_toys_iron_basket_mainan_anak_full06_extz21fi.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-55441280/apple_iphone_12_full07_ew9x8bof.jpg</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/happy-toon-nb-03900-family-small-toys-iron-basket-mainan-anak/ps--INP-60076-01330?ds=INP-60076-01330-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdMvid824Op0k6a8gP8mZi4h3fZ0ly05AmuL0ur5cecCosM0GrDScBYeg5CPA4jmdc=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-01330</t>
+          <t>https://www.blibli.com/p/iphone-12/ps--APF-70017-00046?ds=APF-70017-00046-00003&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uTghlAdPg2CjQYohEbdpVNpEgeoSwwIoWb47iX8zxnJ9ldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdsEU3r2OKINlzoKpMtuWDsZaC0WkFw58IzLOpWNSSbO1p4qnFDJB1cdj8jJUR+mIw&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00046</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>KIK-70088-00004</t>
+          <t>APF-70017-00131</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kiyora</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Kiyora Claude Atasan Wanita - Hitam</t>
+          <t>MagSafe Charger</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>99000</v>
+        <v>899000</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044758/kiyora_kiyora_claude_atasan_wanita_-_hitam_full01_vkgwv5e0.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-58268542/apple_magsafe_charger_full05_lysixmjl.jpeg</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/kiyora-claude-atasan-wanita-hitam/ps--KIK-70088-00004?ds=KIK-70088-00004-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKODomkMVGOhLlHkEhAouZJtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00004</t>
+          <t>https://www.blibli.com/p/magsafe-charger/ps--APF-70017-00131?ds=APF-70017-00131-00001&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uGkIqt3bNpbYK+L444UhhhrzvyxmXCYHwhh53Mu6uwhZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3381860&amp;pid1=APF-70017-00131</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>UNI-60025-01804</t>
+          <t>APF-70017-00085</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>MOLTO</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Molto Pelembut &amp; Pewangi Pakaian Softener Parfum Boost Himalayan Honeysuckle [650 mL] + Molto Trika Floral Bliss [300ml/2 Pcs] Free Jade Chielo Box</t>
+          <t>iPhone 13 Pro Max</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33500</v>
+        <v>20499000</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/98/MTA-167406424/molto_molto_pelembut_-_pewangi_pakaian_softener_parfum_boost_himalayan_honeysuckle_-650_ml-_-_molto_trika_floral_bliss_-300ml-2_pcs-_free_jade_chielo_box_full01_fgiz6m7c.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-55758860/apple_iphone_13_pro_max_full01_chcci7r6.jpg</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/molto-pelembut-pewangi-pakaian-softener-parfum-boost-himalayan-honeysuckle-650-ml-molto-trika-floral-bliss-300ml-2-pcs-free-jade-chielo-box/ps--UNI-60025-01804?ds=UNI-60025-01804-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5G/HAkxoVke7cxJ4LyInlLeKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcC/9RBdAtddAWdo2jQOkvIlWIVM7ED7wPBObjNJjF4PkDPK2nt+P+WStgCBz6tDLJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01804&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-13-pro-max/ps--APF-70017-00085?ds=APF-70017-00085-00018&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt1lYoIjV2CuCuY+6FEE/4OcG9dJYXQNH3c8otm92KLJF40NhQKzZIN8gL1jFkUDixHl7vLUjrsdK1zyi0EGIrlc+lqfuLhCKzHK1PquGiDNtPDjsDbRwEIHOQBbswYIpWkKy39fi3Va6xY0tttu7XwbdCIjEVS4NKc4mYAdHVV7x6dpprdJbrIvFhvGBsAjyZ60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00085</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NAD-70194-00022</t>
+          <t>APF-70017-00045</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Nadeea</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Nadeea Jamilah Series Dress Dewasa - Black</t>
+          <t>iPhone 13 Pro</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>465000</v>
+        <v>24999000</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167020003/nadeea_nadeea_jamilah_series_dress_dewasa_-_black_full01_i7gjfa9c.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//96/MTA-55440374/apple_iphone_13_pro_full01_b04adat2.jpg</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nadeea-jamilah-series-dress-dewasa-black/ps--NAD-70194-00022?ds=NAD-70194-00022-00003&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14s0wn7+82bYRdE+2sGGRS84WyZ4Fa53DKe1xs2SeZpyh5bKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00022&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-13-pro/ps--APF-70017-00045?ds=APF-70017-00045-00016&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4Z04n9snaCuoRGNTJBD90saz6OVeH3rdWiUoFIOCn3o3Y0NhQKzZIN8gL1jFkUDixHl7vLUjrsdK1zyi0EGIrlclK2zlO2aKDky1A2Jb0GH6REJUS6iZCZYBrw/vSDnZsJ5bzPYvzhwgcSRqReRQnHZssQD4zT1TELgTrwTywo5vKd2zlbgOMydKFrikUCiHiA=&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00045</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NAD-70194-00021</t>
+          <t>APF-70017-00340</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Nadeea</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Nadeea Fatimah Series Dress Dewasa - Army</t>
+          <t>iPhone 15 FineWoven Case</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>395000</v>
+        <v>1149000</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167019838/nadeea_nadeea_fatimah_series_dress_dewasa_-_army_full01_qdyt3pad.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833659/apple_iphone_15_finewoven_case_full10_u67byf68.jpeg</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -2911,75 +2911,75 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nadeea-fatimah-series-dress-dewasa-army/ps--NAD-70194-00021?ds=NAD-70194-00021-00003&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM4380wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00021&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15-finewoven-case/ps--APF-70017-00340?ds=APF-70017-00340-00003&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBpg7QOhsgjrF+al2+p+u3kFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00340</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>UNI-60025-01784</t>
+          <t>APF-70017-00342</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>RINSO</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Buy 2 - Rinso Detergent Cair Capsule Konsentrat Deterjen Matic Kapsul Sakura Blossom [168 G] Free Rinso Capsule Lavender Fresh [168 G]</t>
+          <t>iPhone 15 Pro FineWoven Case</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>97600</v>
+        <v>1149000</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-166562849/rinso_buy_2_-_rinso_detergent_cair_capsule_konsentrat_deterjen_matic_kapsul_sakura_blossom_-168_g-_free_rinso_capsule_lavender_fresh_-168_g-_full16_efaa5k6d.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833683/apple_iphone_15_pro_finewoven_case_full06_dxao3nsd.jpeg</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/buy-2-rinso-detergent-cair-capsule-konsentrat-deterjen-matic-kapsul-sakura-blossom-168-g-free-rinso-capsule-lavender-fresh-168-g/ps--UNI-60025-01784?ds=UNI-60025-01784-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/Pdgj1B/QYBV7GBvNoJs6tnh6wQ6PEr8y5kW/jpBoqaySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnyMru0AcvpJJckDx5fLB9bbI0w8dmNEBfvLU7Yuo2KuO0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01784&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-finewoven-case/ps--APF-70017-00342?ds=APF-70017-00342-00001&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBfjR068KHPSQZ85QRu+ua05bKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00342</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JAO-70150-00036</t>
+          <t>APF-70017-00343</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Javina</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Javina Mahira Abaya Series - Maroon</t>
+          <t>iPhone 15 Pro Max FineWoven Case</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>445000</v>
+        <v>1149000</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393203/javina_javina_mahira_abaya_series_-_maroon_full01_v7mv6ko3.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833689/apple_iphone_15_pro_max_finewoven_case_full12_lk7ukml6.jpeg</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -2987,189 +2987,189 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-maroon/ps--JAO-70150-00036?ds=JAO-70150-00036-00004&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS847UMMr9bs7lr/LvcGmfw73JbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00036&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-finewoven-case/ps--APF-70017-00343?ds=APF-70017-00343-00004&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBQH6i0lIUSmR22orkXBAr8ZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00343</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>JAO-70150-00034</t>
+          <t>APF-70017-00334</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Javina</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Javina Mahira Abaya Series - Black</t>
+          <t>iPhone 15 Pro Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>445000</v>
+        <v>999000</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393151/javina_javina_mahira_abaya_series_-_black_full01_fk49x92r.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833609/apple_iphone_15_pro_clear_case_with_magsafe_full06_j07yenup.jpeg</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-black/ps--JAO-70150-00034?ds=JAO-70150-00034-00004&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00034&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-clear-case-with-magsafe/ps--APF-70017-00334?ds=APF-70017-00334-00001&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhfpqCNyIIM8Kl5K4rY8/LuVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00334</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>JAO-70150-00037</t>
+          <t>APF-70017-00333</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Javina</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Javina Mahira Abaya Series - White Grey</t>
+          <t>iPhone 15 Plus Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>445000</v>
+        <v>999000</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393243/javina_javina_mahira_abaya_series_-_white_grey_full01_jrnl83ek.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833606/apple_iphone_15_plus_clear_case_with_magsafe_full05_m2408lv7.jpeg</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-white-grey/ps--JAO-70150-00037?ds=JAO-70150-00037-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84k38AQ6fHfgUaMI8dYOo1vlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00037&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15-plus-clear-case-with-magsafe/ps--APF-70017-00333?ds=APF-70017-00333-00001&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhDN9u2pSChajLuMWmnt1nzFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00333</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>JAO-70150-00035</t>
+          <t>APF-70017-00335</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Javina</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Javina Mahira Abaya Series - Denim</t>
+          <t>iPhone 15 Pro Max Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>445000</v>
+        <v>999000</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393198/javina_javina_mahira_abaya_series_-_denim_full01_tsevq5at.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833612/apple_iphone_15_pro_max_clear_case_with_magsafe_full07_g5v66bq8.jpeg</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-denim/ps--JAO-70150-00035?ds=JAO-70150-00035-00002&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84JQFtqBINX0TZNUUazK+2eVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00035&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-clear-case-with-magsafe/ps--APF-70017-00335?ds=APF-70017-00335-00001&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444Uhhh/3E34WmsadpdNZCKPSkeRZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00335</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NIE-12227-11677</t>
+          <t>APF-70017-00135</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NIKE Men Basketball Jordan Essentials Holiday T-Shirt Kaos Basket Pria [FD7010-133]</t>
+          <t>iPhone Leather Wallet with MagSafe</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>389000</v>
+        <v>1299000</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552999/nike_nike_men_basketball_jordan_essentials_holiday_t-shirt_kaos_basket_pria_-fd7010-133-_full02_lpte85hd.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-58276282/apple_iphone_leather_wallet_with_magsafe_full01_cespmkb1.jpg</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-men-basketball-jordan-essentials-holiday-t-shirt-kaos-basket-pria-fd7010-133/ps--NIE-12227-11677?ds=NIE-12227-11677-00002&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzrqhn2WeenYl70j0tMOsyiGkIqt3bNpbYK+L444UhhhwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11677</t>
+          <t>https://www.blibli.com/p/iphone-leather-wallet-with-magsafe/ps--APF-70017-00135?ds=APF-70017-00135-00001&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeCTghlAdPg2CjQYohEbdpVNpg7QOhsgjrF+al2+p+u3kFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527678&amp;pid1=APF-70017-00135</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NIE-12227-11674</t>
+          <t>APF-70017-00442</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>NIKE Men Running Dri-FIT Tee Trail T-Shirt Kaos Lari Pria [FN0826-010]</t>
+          <t>Thunderbolt 4 (USB-C) Pro Cable (1m)</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>325000</v>
+        <v>1099000</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552995/nike_nike_men_running_dri-fit_tee_trail_t-shirt_kaos_lari_pria_-fn0826-010-_full03_mpilnh7y.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/108/MTA-148991931/apple_thunderbolt_4_pro_cable_-1-8_m-_full01_odh4x692.jpg</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -3177,227 +3177,227 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-men-running-dri-fit-tee-trail-t-shirt-kaos-lari-pria-fn0826-010/ps--NIE-12227-11674?ds=NIE-12227-11674-00003&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCy2vnCdR/EtZOI/3G854fFo0wn7+82bYRdE+2sGGRS84ijsaMV2OlAUratgIjx1Jq1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDkaTmXM5ymgQU76aQtitcsKDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11674</t>
+          <t>https://www.blibli.com/p/thunderbolt-4-usb-c-pro-cable-1m/ps--APF-70017-00442?ds=APF-70017-00442-00001&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq+TghlAdPg2CjQYohEbdpVNa5ApKnrg2e22hkeOIMdo91X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00442</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NIE-12227-11673</t>
+          <t>APF-70017-00345</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>NIKE Men Basketball Ja Max90 Long-Sleeve T-Shirt Kaos Basket Pria [FN0808-010]</t>
+          <t>Apple EarPods (USB-C)</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>469000</v>
+        <v>329000</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552996/nike_nike_men_basketball_ja_max90_long-sleeve_t-shirt_kaos_basket_pria_-fn0808-010-_full03_rbr4mdgj.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-138904841/apple_apple_earpods_-usb-c-_full01_pt4xshb0.jpg</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-men-basketball-ja-max90-long-sleeve-t-shirt-kaos-basket-pria-fn0808-010/ps--NIE-12227-11673?ds=NIE-12227-11673-00002&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14uGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11673</t>
+          <t>https://www.blibli.com/p/apple-earpods-usb-c/ps--APF-70017-00345?ds=APF-70017-00345-00001&amp;source=SEARCH&amp;sid=83696142fb5a125a&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCy2vnCdR/EtZOI/3G854fFqGkIqt3bNpbYK+L444UhhhO6vXhIqd5wm3EnZ065grfpbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527836&amp;pid1=APF-70017-00345</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NIE-12227-11523</t>
+          <t>APF-70017-00306</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NIKE Men Basketball Cleveland Cavaliers NBA T-shirt Basket [DR6369-680]</t>
+          <t>iPhone 15 Plus</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>359000</v>
+        <v>16249000</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429261/nike_nike_men_basketball_cleveland_cavaliers_nba_t-shirt_basket_-dr6369-680-_full03_u6z1ye0p.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-134607236/apple_iphone_15_plus_full01_dnx3khj2.jpg</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-men-basketball-cleveland-cavaliers-nba-t-shirt-basket-dr6369-680/ps--NIE-12227-11523?ds=NIE-12227-11523-00005&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGGkIqt3bNpbYK+L444UhhhzzZ/8U3KjGLexZ+hPeKg01esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3016028&amp;pid1=NIE-12227-11523</t>
+          <t>https://www.blibli.com/p/iphone-15-plus/ps--APF-70017-00306?ds=APF-70017-00306-00001&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7Icmq1gsSXLUq8ZinzLw7svrE8PE1u25RQwz3jiAVHEzrYjezeG68kuQU2JwAmS3CT0vQZ302m3rK6TgUnYsM3HGfQaCoNPSOcAg9lLayKYW1iE2KLbEw2wtdH47KHnWcSJa4cuig6qHGKfhLhJsWRXdFQKB0YyTzLQnKPKgoBIDEy5OaSLKFUCZrcC2nCZ2A9vxKXDJKxXa4UX67tzbXhHa5RrB7iXPKdVfFfUbbpG&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00306</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HEL-60024-00658</t>
+          <t>APF-70017-00303</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Heaven Lights</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Heaven Lights Saiba Blouse - Royal Blue</t>
+          <t>iPhone 15</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>249000</v>
+        <v>14249000</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/108/MTA-165507758/heaven_lights_heaven_lights_saiba_series_blouse_-_royal_blue_full02_pisk3vrj.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134607074/apple_iphone_15_full28_p54hkyv8.jpeg</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-royal-blue/ps--HEL-60024-00658?ds=HEL-60024-00658-00005&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh/BYfIayXYsLzJq+mx6RyfZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3525161&amp;pid1=HEL-60024-00658</t>
+          <t>https://www.blibli.com/p/iphone-15/ps--APF-70017-00303?ds=APF-70017-00303-00002&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushIvrE8PE1u25RQwz3jiAVHEdfazE/cmbbZEHoogSfCZI3fyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00303</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NIE-12227-11638</t>
+          <t>APF-70017-00310</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NIKE Women Running Dri-FIT Swift Element UV Crew-Neck Top Pakaian Lari Wanita [FB4298-010]</t>
+          <t>iPhone 15 Pro</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>545000</v>
+        <v>19249000</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429424/nike_nike_women_running_dri-fit_swift_element_uv_crew-neck_top_pakaian_lari_wanita_-fb4298-010-_full09_fqh7v9lc.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134609071/apple_iphone_15_pro_full25_jv2x5hnl.jpeg</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-women-running-dri-fit-swift-element-uv-crew-neck-top-pakaian-lari-wanita-fb4298-010/ps--NIE-12227-11638?ds=NIE-12227-11638-00003&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJU0wn7+82bYRdE+2sGGRS84wOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDoiJJ1OU1JS2unXAZ1VoEmmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11638</t>
+          <t>https://www.blibli.com/p/iphone-15-pro/ps--APF-70017-00310?ds=APF-70017-00310-00010&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1IvrE8PE1u25RQwz3jiAVHEV7sZTKEXaUIVR+JJXliyTHfyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3381860&amp;pid1=APF-70017-00310</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ADS-12698-13527</t>
+          <t>APF-70017-00003</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>adidas Men Football Jersey Training Messi Baju Bola Pria [IZ2996]</t>
+          <t>iPhone 13</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>425000</v>
+        <v>10249000</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164875220/adidas_adidas_men_football_jersey_training_messi_baju_bola_pria_-iz2996-_full02_spr5ewl2.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//100/MTA-53912377/apple_iphone_13_full15_gmhaz6il.jpg</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/adidas-men-football-jersey-training-messi-baju-bola-pria-iz2996/ps--ADS-12698-13527?ds=ADS-12698-13527-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxIcZ42UdpGRIP9haxRfSXo0wn7+82bYRdE+2sGGRS84Mt/3c2rmpbvxfTWQ1SJQeFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13527</t>
+          <t>https://www.blibli.com/p/iphone-13/ps--APF-70017-00003?ds=APF-70017-00003-00015&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq8vrE8PE1u25RQwz3jiAVHEdxbGIE4CnOUy0H0Wj4fU5Qkz5AwQB40VvExfVpFKdnwJvdxpiiNfUeOruay3VzPrtRIEKTkr11TWevS5TI/onkBqEG1QeWUxw3k5hxYyMhEu7BjFUWoESEuRx5BdRqYxYtJwrUDqmOLrSZmWtBL0djy1o6e11zcfPagzZ/WazUlMwRFMRgcIAsLkYlBFbv7f&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00003</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HEL-60024-00657</t>
+          <t>APF-70017-00313</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Heaven Lights</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Heaven Lights Saiba Blouse - Plum</t>
+          <t>iPhone 15 Pro Max</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>249000</v>
+        <v>23249000</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/99/MTA-165507009/heaven_lights_heaven_lights_saiba_series_blouse_-_plum_full01_o6nkay6z.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134610255/apple_iphone_15_pro_max_full27_s50t7e5t.jpeg</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -3405,37 +3405,37 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-plum/ps--HEL-60024-00657?ds=HEL-60024-00657-00002&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh3l+QY3wMrVJqg5NI5IcJapbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3501982&amp;pid1=HEL-60024-00657</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max/ps--APF-70017-00313?ds=APF-70017-00313-00004&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73MvrE8PE1u25RQwz3jiAVHEtkzJZoE1+bGRU7vngG2ukHfyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00313</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BEF-44369-01450</t>
+          <t>APF-70017-00336</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Kesehatan &amp; Kecantikan</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Nivea</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>WHS - NIVEA Extra White Anti Age Body Serum [180mL/ Twinpack]</t>
+          <t>iPhone 15 Silicone Case</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>105930</v>
+        <v>999000</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/102/MTA-164580356/nivea_nivea_body_serum_extra_white_anti_age_spf33_180ml_twinpack_full02_f5ecp6kb.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833622/apple_iphone_15_silicone_case_full15_vr357pub.jpeg</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -3443,37 +3443,37 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/whs-nivea-extra-white-anti-age-body-serum-180ml-twinpack/ps--BEF-44369-01450?ds=BEF-44369-01450-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq/ovRQ0Z022L3Iu9yw6+ylB186d66YvaC2JQyxVan28sVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50HmOPOo9vK7ml77mG9hBQkQ2RD2hjh2mlEX+5RI/nJrbRlLYVOA1NrlZjxU92acsmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3013016&amp;pid1=BEF-44369-01450</t>
+          <t>https://www.blibli.com/p/iphone-15-silicone-case/ps--APF-70017-00336?ds=APF-70017-00336-00004&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00336</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ADS-12698-13483</t>
+          <t>APF-70017-00337</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>adidas Men Football Polo Shirt Manchester United Tiro 24 Baju Bola Pria [IT2028]</t>
+          <t>iPhone 15 Plus Silicone Case</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>552000</v>
+        <v>999000</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114197/adidas_adidas_men_football_polo_shirt_manchester_united_tiro_24_baju_bola_pria_-it2028-_full03_ovnxbccg.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-137833635/apple_iphone_15_plus_silicone_case_full05_rzuccntf.jpg</t>
         </is>
       </c>
       <c r="G80" t="n">
@@ -3481,37 +3481,37 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/adidas-men-football-polo-shirt-manchester-united-tiro-24-baju-bola-pria-it2028/ps--ADS-12698-13483?ds=ADS-12698-13483-00001&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9edfIwrMRf6gYe7nhVvn27vDN9u2pSChajLuMWmnt1nzFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13483</t>
+          <t>https://www.blibli.com/p/iphone-15-plus-silicone-case/ps--APF-70017-00337?ds=APF-70017-00337-00005&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00337</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ADS-12698-13451</t>
+          <t>APF-70017-00339</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>adidas Men Football Jersey Arsenal Home 24/25 Baju Bola Pria [IT6141]</t>
+          <t>iPhone 15 Pro Max Silicone Case</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1020000</v>
+        <v>999000</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114157/adidas_adidas_men_football_jersey_arsenal_home_24-25_baju_bola_pria_-it6141-_full05_f1ymtfqk.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833645/apple_iphone_15_pro_max_silicone_case_full35_tqvmfw0h.jpeg</t>
         </is>
       </c>
       <c r="G81" t="n">
@@ -3519,37 +3519,37 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/adidas-men-football-jersey-arsenal-home-24-25-baju-bola-pria-it6141/ps--ADS-12698-13451?ds=ADS-12698-13451-00004&amp;source=SEARCH&amp;sid=e092cef0f78d3ab3&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq8BEYo4o198IKoVpkJZ1CNbAnAO3DeMVCIz5wjRuGXJuVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+UvM5rYQ2b7sWjAIjInNGfx9nPBIkgRjZAjSv9izhQ1pmwIpKMEQEhdOIn3G3lFnHYkG1UxvbL2nrGLalYS2G2RCnk+mz+9IdUNYHXY+enerZZHJddTpXmDglIJ8ujJq3&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13451</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-silicone-case/ps--APF-70017-00339?ds=APF-70017-00339-00006&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00339</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BAH-70197-00002</t>
+          <t>APF-70017-00332</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Baby Hai</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>BABY HAI Rayya Series Ramadhan Abizar Series Color 2 - Baju Anak Laki - Laki Lengan Pendek Celana Panjang</t>
+          <t>iPhone 15 Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>30100</v>
+        <v>999000</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//112/MTA-94766386/baby_hai_baby_hai_rayya_series_ramadhan_abizar_series_color_2_-_baju_anak_laki_-_laki_lengan_pendek_celana_panjang_full01_he26rnqh.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833594/apple_iphone_15_clear_case_with_magsafe_full04_bqrk81t6.jpeg</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -3557,37 +3557,37 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/baby-hai-rayya-series-ramadhan-abizar-series-color-2-baju-anak-laki-laki-lengan-pendek-celana-panjang/ps--BAH-70197-00002?ds=BAH-70197-00002-00007&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EMmbE/LLJy7W3VwRB8pUx8xE+ELff8mp6Jxh05BtXdSLlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWuSVd/bvsBAZ/8InAAmnjqC0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3529390&amp;pid1=BAH-70197-00002</t>
+          <t>https://www.blibli.com/p/iphone-15-clear-case-with-magsafe/ps--APF-70017-00332?ds=APF-70017-00332-00001&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00332</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>KOE-70078-00007</t>
+          <t>APF-70017-00048</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>KOZE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>KOZE - Premium Comfort Green T-shirt - Kaos Polos Hijau</t>
+          <t>iPhone 11</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>49500</v>
+        <v>6199000</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-99600694/koze_koze_-_premium_comfort_green_t-shirt_-_kaos_polos_hijau_full01_eukw1txs.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//96/MTA-55441923/apple_iphone_11_full03_td5mg95s.jpg</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -3595,303 +3595,303 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/koze-premium-comfort-green-t-shirt-kaos-polos-hijau/ps--KOE-70078-00007?ds=KOE-70078-00007-00004&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLe3ycwbRnPkH0lW7Gv/QJVMlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGp04hRlADTLARbcEgnz4dqM=&amp;cnc=false&amp;pickupPointCode=PP-3472636&amp;pid1=KOE-70078-00007</t>
+          <t>https://www.blibli.com/p/iphone-11/ps--APF-70017-00048?ds=APF-70017-00048-00003&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH6TghlAdPg2CjQYohEbdpVNycq4tJgT55gw64b9d6NV/iT0vQZ302m3rK6TgUnYsM3HGfQaCoNPSOcAg9lLayKYW1iE2KLbEw2wtdH47KHnWcSJa4cuig6qHGKfhLhJsWRXdFQKB0YyTzLQnKPKgoBIDEy5OaSLKFUCZrcC2nCZ2A9vxKXDJKxXa4UX67tzbXhHa5RrB7iXPKdVfFfUbbpG&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00048</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>LGM-60021-00230</t>
+          <t>APF-70017-00286</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Komputer &amp; Gaming</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>LGS</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LGS Slim Fit Kaos Polo Pria - White Blue Green [JTS.325.M1846F.01.C]</t>
+          <t>MacBook Air (15 inci, M2, 2023)</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>146000</v>
+        <v>19499000</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//85/MTA-1520625/lgs_lgs-slim-fit-kaos-polo-pria---white-blue-green--jts-325-m1846f-01-c-_full02.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-124761180/apple_macbook_air_-15_inci-_m2-_2023-_full06_jbdwfhi9.jpeg</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lgs-slim-fit-kaos-polo-pria-white-blue-green-jts-325-m1846f-01-c/ps--LGM-60021-00230?ds=LGM-60021-00230-00003&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushIJcaEJLcqsH3r6UABTq0TLwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3034126&amp;pid1=LGM-60021-00230</t>
+          <t>https://www.blibli.com/p/macbook-air-15-inci-m2-2023/ps--APF-70017-00286?ds=APF-70017-00286-00003&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JlYoIjV2CuCuY+6FEE/4Ocz2DUkDP9qOWZs0sDno/LE7LBaB3tLseqCRU/10V6Qi4m/0gcuiAdTNyGqjLqLXjMVB0Z19F5S3OJm6xVPOQF+fYfYBdOaXUoSWEt7LUZrj8SCpv+JZQ7/xvnr91HkkCtjPlzlQ1BsZC2kuLWp2z7Hbyn+4JWrfKTxHPG0CjNymc=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00286</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ELM-60027-00165</t>
+          <t>APF-70017-00046</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ELLIPSES INC</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ELLIPSESINC Kaos Oversize Wanita &amp; Pria BECCA EDITION</t>
+          <t>iPhone 12</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>35000</v>
+        <v>8999000</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//104/MTA-21988625/ellipses_inc_ellipsesinc_kaos_oversize_wanita_-_pria_becca_edition_full24_si0ww14j.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-55441280/apple_iphone_12_full07_ew9x8bof.jpg</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/ellipsesinc-kaos-oversize-wanita-pria-becca-edition/ps--ELM-60027-00165?ds=ELM-60027-00165-00007&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGT2r7fOYNS0fn24lYkspaBeeU8gA9woEea/RtkRh7ZnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A8s4+rWZ7zCXM6RAaC0DCw0Kkkafi+cjIiXcB4olXgzyFWbDfLF/5KnLYCxjUA9SQsd5cgi/2OYPwjclFVcBAkX&amp;cnc=false&amp;pickupPointCode=PP-3085683&amp;pid1=ELM-60027-00165</t>
+          <t>https://www.blibli.com/p/iphone-12/ps--APF-70017-00046?ds=APF-70017-00046-00003&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uTghlAdPg2CjQYohEbdpVNpEgeoSwwIoWb47iX8zxnJ9ldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdsEU3r2OKINlzoKpMtuWDsZaC0WkFw58IzLOpWNSSbO1p4qnFDJB1cdj8jJUR+mIw&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00046</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EVO-70024-00183</t>
+          <t>APF-70017-00131</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>EVERNEXT</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>EVERNEXT - DOMPET KUNCI KENDARAAN KEY WALLET ARCO GANTUNGAN KUNCI MOBIL MOTOR DOMPET KARTU DOMPET STNK</t>
+          <t>MagSafe Charger</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>45000</v>
+        <v>899000</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//117/MTA-78887691/evernext_evernext_-_dompet_kunci_kendaraan_key_wallet_arco_gantungan_kunci_mobil_motor_dompet_kartu_dompet_stnk_full11_f18edunq.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-58268542/apple_magsafe_charger_full05_lysixmjl.jpeg</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/evernext-dompet-kunci-kendaraan-key-wallet-arco-gantungan-kunci-mobil-motor-dompet-kartu-dompet-stnk/ps--EVO-70024-00183?ds=EVO-70024-00183-00002&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBgmMdlWBN8y5Inger9NURmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vafHKVkJci5PAC/hnMA2UzpLyTJdReOx9JfHVI27hOzzM=&amp;cnc=false&amp;pickupPointCode=PP-3357698&amp;pid1=EVO-70024-00183</t>
+          <t>https://www.blibli.com/p/magsafe-charger/ps--APF-70017-00131?ds=APF-70017-00131-00001&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uGkIqt3bNpbYK+L444UhhhrzvyxmXCYHwhh53Mu6uwhZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3381860&amp;pid1=APF-70017-00131</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HUP-60027-03538</t>
+          <t>APF-70017-00085</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Hush Puppies</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Hush Puppies Farro 2 Polo Shirt Pria</t>
+          <t>iPhone 13 Pro Max</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>224420</v>
+        <v>20499000</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-159627197/hush-puppies_hush-puppies-farro-2-polo-shirt-pria_full01.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-55758860/apple_iphone_13_pro_max_full01_chcci7r6.jpg</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/hush-puppies-farro-2-polo-shirt-pria/ps--HUP-60027-03538?ds=HUP-60027-03538-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q97B/omnSKxUeafXYYVk6xbwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3095796&amp;pid1=HUP-60027-03538</t>
+          <t>https://www.blibli.com/p/iphone-13-pro-max/ps--APF-70017-00085?ds=APF-70017-00085-00018&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt1lYoIjV2CuCuY+6FEE/4OcG9dJYXQNH3c8otm92KLJF40NhQKzZIN8gL1jFkUDixHl7vLUjrsdK1zyi0EGIrlc+lqfuLhCKzHK1PquGiDNtPDjsDbRwEIHOQBbswYIpWkKy39fi3Va6xY0tttu7XwbdCIjEVS4NKc4mYAdHVV7x6dpprdJbrIvFhvGBsAjyZ60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00085</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BLI-15014-16569</t>
+          <t>APF-70017-00045</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JP Collection</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>JP Collection OBSP-0285-TWOWHEELS Kaos Anak Laki-Laki</t>
+          <t>iPhone 13 Pro</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>30970</v>
+        <v>24999000</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//79/MTA-3103224/jp-collection_jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki_full16.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//96/MTA-55440374/apple_iphone_13_pro_full01_b04adat2.jpg</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki/ps--BLI-15014-16569?ds=BLI-15014-16569-00029&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7ENfepXUSJ3qMPK5468+MysuJLWhzdnoh86j6S/07IpFSVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWg3ctvKPtt4ygLDf9aZr0F60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3523009&amp;pid1=BLI-15014-16569</t>
+          <t>https://www.blibli.com/p/iphone-13-pro/ps--APF-70017-00045?ds=APF-70017-00045-00016&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4Z04n9snaCuoRGNTJBD90saz6OVeH3rdWiUoFIOCn3o3Y0NhQKzZIN8gL1jFkUDixHl7vLUjrsdK1zyi0EGIrlclK2zlO2aKDky1A2Jb0GH6REJUS6iZCZYBrw/vSDnZsJ5bzPYvzhwgcSRqReRQnHZssQD4zT1TELgTrwTywo5vKd2zlbgOMydKFrikUCiHiA=&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00045</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BLM-60037-01195</t>
+          <t>APF-70017-00340</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Fashion Pria</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>BLYTHE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Blythe Premium Jayden Flannel Shirt Kemeja Kotak Kotak Lengan Panjang Pria</t>
+          <t>iPhone 15 FineWoven Case</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>249000</v>
+        <v>1149000</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-155401690/blythe_blythe_premium_jayden_flannel_shirt_kemeja_kotak_kotak_lengan_panjang_pria_full18_itluztdu.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833659/apple_iphone_15_finewoven_case_full10_u67byf68.jpeg</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/blythe-premium-jayden-flannel-shirt-kemeja-kotak-kotak-lengan-panjang-pria/ps--BLM-60037-01195?ds=BLM-60037-01195-00008&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444UhhhDHoqKmYsTFC9Iv89Ei/0YlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52Np6XO8WKdHoYeMogok9fdb2BUOOGusSvfBtxTrjv/cwqeaQg1dtTjyms/VfSkXqs=&amp;cnc=false&amp;pickupPointCode=PP-3525890&amp;pid1=BLM-60037-01195</t>
+          <t>https://www.blibli.com/p/iphone-15-finewoven-case/ps--APF-70017-00340?ds=APF-70017-00340-00003&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBpg7QOhsgjrF+al2+p+u3kFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00340</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>KIK-70088-00020</t>
+          <t>APF-70017-00342</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Kiyora</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Kiyora Sydney Atasan Wanita - Pink Crème</t>
+          <t>iPhone 15 Pro FineWoven Case</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>89000</v>
+        <v>1149000</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044786/kiyora_kiyora_sydney_atasan_wanita_-_pink_cr-me_full01_kunyukph.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833683/apple_iphone_15_pro_finewoven_case_full06_dxao3nsd.jpeg</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/kiyora-sydney-atasan-wanita-pink-cr-me/ps--KIK-70088-00020?ds=KIK-70088-00020-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uT2r7fOYNS0fn24lYkspaBKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKAe+OCLJmeyKGF1EdpUJUnlfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00020</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-finewoven-case/ps--APF-70017-00342?ds=APF-70017-00342-00001&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBfjR068KHPSQZ85QRu+ua05bKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00342</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>LIS-14924-00806</t>
+          <t>APF-70017-00343</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Lion Star Folding Hanger 24 Sticks Jemuran Baju</t>
+          <t>iPhone 15 Pro Max FineWoven Case</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>64000</v>
+        <v>1149000</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090270/lion_star_lion_star__folding_hanger_24_sticks_jemuran_baju_full01_o3vah5cz.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833689/apple_iphone_15_pro_max_finewoven_case_full12_lk7ukml6.jpeg</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -3899,75 +3899,75 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-folding-hanger-24-sticks-jemuran-baju/ps--LIS-14924-00806?ds=LIS-14924-00806-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzw6DOMtn+gYi+5f5Iqa4pGT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00806</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-finewoven-case/ps--APF-70017-00343?ds=APF-70017-00343-00004&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBQH6i0lIUSmR22orkXBAr8ZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00343</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>LIS-14924-00805</t>
+          <t>APF-70017-00334</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Lion Star Folding Hanger 16 Sticks Jemuran Baju</t>
+          <t>iPhone 15 Pro Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>49500</v>
+        <v>999000</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148088190/lion_star_lion_star_folding_hanger_16_sticks_jemuran_baju_full03_igkn11o8.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833609/apple_iphone_15_pro_clear_case_with_magsafe_full06_j07yenup.jpeg</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-folding-hanger-16-sticks-jemuran-baju/ps--LIS-14924-00805?ds=LIS-14924-00805-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00805</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-clear-case-with-magsafe/ps--APF-70017-00334?ds=APF-70017-00334-00001&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhfpqCNyIIM8Kl5K4rY8/LuVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00334</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LIS-14924-00807</t>
+          <t>APF-70017-00333</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Lion Star Folding Hanger 30 Sticks Jemuran Baju</t>
+          <t>iPhone 15 Plus Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>74500</v>
+        <v>999000</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090286/lion_star_lion_star_folding_hanger_30_sticks_jemuran_baju_full02_tv6sxt04.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833606/apple_iphone_15_plus_clear_case_with_magsafe_full05_m2408lv7.jpeg</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -3975,37 +3975,37 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-folding-hanger-30-sticks-jemuran-baju/ps--LIS-14924-00807?ds=LIS-14924-00807-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6+ofzQPca16/hNKbnSDAJ6/HAkxoVke7cxJ4LyInlLenUcuWlxDj3lNx/vI4M4PH+jqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00807</t>
+          <t>https://www.blibli.com/p/iphone-15-plus-clear-case-with-magsafe/ps--APF-70017-00333?ds=APF-70017-00333-00001&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhDN9u2pSChajLuMWmnt1nzFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00333</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LIS-14924-00733</t>
+          <t>APF-70017-00335</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Lion Star Jemuran Baju / Laundry Hanger Tripod</t>
+          <t>iPhone 15 Pro Max Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>198600</v>
+        <v>999000</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-127266381/lion_star_lion_star_jemuran_baju_-_laundry_hanger_tripod_full01_odf238gk.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833612/apple_iphone_15_pro_max_clear_case_with_magsafe_full07_g5v66bq8.jpeg</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -4013,75 +4013,75 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-jemuran-baju-laundry-hanger-tripod/ps--LIS-14924-00733?ds=LIS-14924-00733-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JHLgoC/MYdp69cMUdWFnV1U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHI/2j+o1IQC0bIBUNNPAppAtZ8uEOn0Ql/eC8q/oWrwBcHn0AWNhN6m5BpKP78qwDE=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00733</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-clear-case-with-magsafe/ps--APF-70017-00335?ds=APF-70017-00335-00001&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444Uhhh/3E34WmsadpdNZCKPSkeRZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00335</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>9TW-60021-01565</t>
+          <t>APF-70017-00135</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>9 to 12</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>9 to 12 Mia Linen Shirt Kemeja Lengan Panjang Linen Kantor Wanita</t>
+          <t>iPhone Leather Wallet with MagSafe</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>149000</v>
+        <v>1299000</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-91217262/9_to_12_9_to_12_mia_linen_shirt_kemeja_wanita_full02_kcqs7mya.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-58276282/apple_iphone_leather_wallet_with_magsafe_full01_cespmkb1.jpg</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/9-to-12-mia-linen-shirt-kemeja-lengan-panjang-linen-kantor-wanita/ps--9TW-60021-01565?ds=9TW-60021-01565-00003&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushKGkIqt3bNpbYK+L444UhhhHxbrE1ojlIiyeznGUhdMUeWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxAAm0Ky79H2kukIikI3WbdDfjQtllH9FlUcG3SRRgUPwaH9/p2g1nm/YLqDhhmudNewKd+f0eOUHKyU4XgeKwfPg==&amp;cnc=false&amp;pickupPointCode=PP-3519985&amp;pid1=9TW-60021-01565</t>
+          <t>https://www.blibli.com/p/iphone-leather-wallet-with-magsafe/ps--APF-70017-00135?ds=APF-70017-00135-00001&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeCTghlAdPg2CjQYohEbdpVNpg7QOhsgjrF+al2+p+u3kFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527678&amp;pid1=APF-70017-00135</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>LIS-14924-00572</t>
+          <t>APF-70017-00442</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Home &amp; Living</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Lion Star</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Lion Star Jepitan Baju JB-1 Laundry Clips (20 Pcs)</t>
+          <t>Thunderbolt 4 (USB-C) Pro Cable (1m)</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>12500</v>
+        <v>1099000</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-11691417/lion_star_lion_star_001_laundry_clips_full01_exf0fig2.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/108/MTA-148991931/apple_thunderbolt_4_pro_cable_-1-8_m-_full01_odh4x692.jpg</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -4089,37 +4089,37 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/lion-star-jepitan-baju-jb-1-laundry-clips-20-pcs/ps--LIS-14924-00572?ds=LIS-14924-00572-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeC/HAkxoVke7cxJ4LyInlLeONM/pwQSpw/TgMoD9qDeE1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt51SPFgCl9oi27QotXy+Xqg7ncDBNXS0U6F+cIYt7Ox4Ox3lyCL/Y5g/CNyUVVwECRc=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00572</t>
+          <t>https://www.blibli.com/p/thunderbolt-4-usb-c-pro-cable-1m/ps--APF-70017-00442?ds=APF-70017-00442-00001&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq+TghlAdPg2CjQYohEbdpVNa5ApKnrg2e22hkeOIMdo91X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00442</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DAO-70167-00003</t>
+          <t>APF-70017-00345</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Dacco</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Dacco Mama Pad 3D Breastpad [24 pcs]</t>
+          <t>Apple EarPods (USB-C)</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>22000</v>
+        <v>329000</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/92/MTA-127240561/dacco_dacco-mama-pad-breastpad-3d-isi-24pcs_full02.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-138904841/apple_apple_earpods_-usb-c-_full01_pt4xshb0.jpg</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -4127,37 +4127,37 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-24-pcs/ps--DAO-70167-00003?ds=DAO-70167-00003-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+T2r7fOYNS0fn24lYkspaB/A9+ItZOLJU0KYEdc1CW5NldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00003</t>
+          <t>https://www.blibli.com/p/apple-earpods-usb-c/ps--APF-70017-00345?ds=APF-70017-00345-00001&amp;source=SEARCH&amp;sid=27f30cde0eae2c19&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCy2vnCdR/EtZOI/3G854fFqGkIqt3bNpbYK+L444UhhhO6vXhIqd5wm3EnZ065grfpbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527836&amp;pid1=APF-70017-00345</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DAO-70167-00004</t>
+          <t>APF-70017-00306</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Ibu &amp; Anak</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Dacco</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Dacco Mama Pad 3D Breastpad [56 pcs]</t>
+          <t>iPhone 15 Plus</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>45000</v>
+        <v>16249000</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/95/MTA-127240590/dacco_dacco-mama-pad-breastpad-3d-isi-56pcs_full02.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-134607236/apple_iphone_15_plus_full01_dnx3khj2.jpg</t>
         </is>
       </c>
       <c r="G98" t="n">
@@ -4165,189 +4165,189 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-56-pcs/ps--DAO-70167-00004?ds=DAO-70167-00004-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBjgJtif7ZErD1A5G7Do9RH9ldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00004</t>
+          <t>https://www.blibli.com/p/iphone-15-plus/ps--APF-70017-00306?ds=APF-70017-00306-00001&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7Icmq1gsSXLUq8ZinzLw7svrE8PE1u25RQwz3jiAVHEzrYjezeG68kuQU2JwAmS3CT0vQZ302m3rK6TgUnYsM3HGfQaCoNPSOcAg9lLayKYW1iE2KLbEw2wtdH47KHnWcSJa4cuig6qHGKfhLhJsWRXdFQKB0YyTzLQnKPKgoBIDEy5OaSLKFUCZrcC2nCZ2A9vxKXDJKxXa4UX67tzbXhHa5RrB7iXPKdVfFfUbbpG&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00306</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>KIK-70088-00045</t>
+          <t>APF-70017-00303</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>KAORI</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Kaori Seira Cardigan Outer Wanita - Bata</t>
+          <t>iPhone 15</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>75000</v>
+        <v>14249000</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93066052/kaori_kaori_seira_cardigan_outer_wanita_-_bata_full01_njcswb4w.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134607074/apple_iphone_15_full28_p54hkyv8.jpeg</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/kaori-seira-cardigan-outer-wanita-bata/ps--KIK-70088-00045?ds=KIK-70088-00045-00002&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCycpTyS3V4Bt86XaxsYSf7+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJvUe1T40+jFxsL3RTfsG+znMf7cp48yL26Dsz2eCVLdZfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00045</t>
+          <t>https://www.blibli.com/p/iphone-15/ps--APF-70017-00303?ds=APF-70017-00303-00002&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushIvrE8PE1u25RQwz3jiAVHEdfazE/cmbbZEHoogSfCZI3fyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00303</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>INP-60076-02184</t>
+          <t>APF-70017-00310</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Mainan, Buku &amp; Stationery</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Akedo</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Legends of Akedo PowerStorm S4 Giants Action Figure 15190 - Assorted</t>
+          <t>iPhone 15 Pro</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>179000</v>
+        <v>19249000</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-95198657/akedo_legends_of_akedo_powerstorm_s4_giants_action_figure_15190_-_assorted_full02_jykgck93.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134609071/apple_iphone_15_pro_full25_jv2x5hnl.jpeg</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/legends-of-akedo-powerstorm-s4-giants-action-figure-15190-assorted/ps--INP-60076-02184?ds=INP-60076-02184-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNylnry4OkDBy9LifrRfNVhITodBPeru5IipRxn8umZ90=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-02184</t>
+          <t>https://www.blibli.com/p/iphone-15-pro/ps--APF-70017-00310?ds=APF-70017-00310-00010&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1IvrE8PE1u25RQwz3jiAVHEV7sZTKEXaUIVR+JJXliyTHfyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3381860&amp;pid1=APF-70017-00310</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>INP-60076-01330</t>
+          <t>APF-70017-00003</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Mainan, Buku &amp; Stationery</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Happy Toon</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Happy Toon NB-03900 Family Small Toys Iron Basket Mainan Anak</t>
+          <t>iPhone 13</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>55000</v>
+        <v>10249000</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-54407440/happy_toon_happy_toon_nb-03900_family_small_toys_iron_basket_mainan_anak_full06_extz21fi.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//100/MTA-53912377/apple_iphone_13_full15_gmhaz6il.jpg</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/happy-toon-nb-03900-family-small-toys-iron-basket-mainan-anak/ps--INP-60076-01330?ds=INP-60076-01330-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdMvid824Op0k6a8gP8mZi4h3fZ0ly05AmuL0ur5cecCosM0GrDScBYeg5CPA4jmdc=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-01330</t>
+          <t>https://www.blibli.com/p/iphone-13/ps--APF-70017-00003?ds=APF-70017-00003-00015&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq8vrE8PE1u25RQwz3jiAVHEdxbGIE4CnOUy0H0Wj4fU5Qkz5AwQB40VvExfVpFKdnwJvdxpiiNfUeOruay3VzPrtRIEKTkr11TWevS5TI/onkBqEG1QeWUxw3k5hxYyMhEu7BjFUWoESEuRx5BdRqYxYtJwrUDqmOLrSZmWtBL0djy1o6e11zcfPagzZ/WazUlMwRFMRgcIAsLkYlBFbv7f&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00003</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>KIK-70088-00004</t>
+          <t>APF-70017-00313</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fashion Wanita</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Kiyora</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Kiyora Claude Atasan Wanita - Hitam</t>
+          <t>iPhone 15 Pro Max</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>99000</v>
+        <v>23249000</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044758/kiyora_kiyora_claude_atasan_wanita_-_hitam_full01_vkgwv5e0.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-134610255/apple_iphone_15_pro_max_full27_s50t7e5t.jpeg</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/kiyora-claude-atasan-wanita-hitam/ps--KIK-70088-00004?ds=KIK-70088-00004-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKODomkMVGOhLlHkEhAouZJtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00004</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max/ps--APF-70017-00313?ds=APF-70017-00313-00004&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6tKRkdMY5WBMzsytzOk73MvrE8PE1u25RQwz3jiAVHEtkzJZoE1+bGRU7vngG2ukHfyku9C2smSO87tWOLTo3lj/PcY0ZifRUPCggg+cOBnkCegtjCYoTVHs5L371UZ+pWIlPQj+rOjV1JHPFhtRn8ZkbG25GxqIFBPI20iQz3IbHVBMlasoy9ix9P8XGVv6hEhDV4kDjcFUcqhzvfNt8M=&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00313</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>UNI-60025-01804</t>
+          <t>APF-70017-00336</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>MOLTO</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Molto Pelembut &amp; Pewangi Pakaian Softener Parfum Boost Himalayan Honeysuckle [650 mL] + Molto Trika Floral Bliss [300ml/2 Pcs] Free Jade Chielo Box</t>
+          <t>iPhone 15 Silicone Case</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33500</v>
+        <v>999000</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/98/MTA-167406424/molto_molto_pelembut_-_pewangi_pakaian_softener_parfum_boost_himalayan_honeysuckle_-650_ml-_-_molto_trika_floral_bliss_-300ml-2_pcs-_free_jade_chielo_box_full01_fgiz6m7c.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833622/apple_iphone_15_silicone_case_full15_vr357pub.jpeg</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -4355,37 +4355,37 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/molto-pelembut-pewangi-pakaian-softener-parfum-boost-himalayan-honeysuckle-650-ml-molto-trika-floral-bliss-300ml-2-pcs-free-jade-chielo-box/ps--UNI-60025-01804?ds=UNI-60025-01804-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5G/HAkxoVke7cxJ4LyInlLeKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcC/9RBdAtddAWdo2jQOkvIlWIVM7ED7wPBObjNJjF4PkDPK2nt+P+WStgCBz6tDLJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01804&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15-silicone-case/ps--APF-70017-00336?ds=APF-70017-00336-00004&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00336</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NAD-70194-00022</t>
+          <t>APF-70017-00337</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Nadeea</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Nadeea Jamilah Series Dress Dewasa - Black</t>
+          <t>iPhone 15 Plus Silicone Case</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>465000</v>
+        <v>999000</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167020003/nadeea_nadeea_jamilah_series_dress_dewasa_-_black_full01_i7gjfa9c.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-137833635/apple_iphone_15_plus_silicone_case_full05_rzuccntf.jpg</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -4393,37 +4393,37 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nadeea-jamilah-series-dress-dewasa-black/ps--NAD-70194-00022?ds=NAD-70194-00022-00003&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14s0wn7+82bYRdE+2sGGRS84WyZ4Fa53DKe1xs2SeZpyh5bKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00022&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15-plus-silicone-case/ps--APF-70017-00337?ds=APF-70017-00337-00005&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00337</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NAD-70194-00021</t>
+          <t>APF-70017-00339</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Nadeea</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Nadeea Fatimah Series Dress Dewasa - Army</t>
+          <t>iPhone 15 Pro Max Silicone Case</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>395000</v>
+        <v>999000</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167019838/nadeea_nadeea_fatimah_series_dress_dewasa_-_army_full01_qdyt3pad.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833645/apple_iphone_15_pro_max_silicone_case_full35_tqvmfw0h.jpeg</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -4431,37 +4431,37 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nadeea-fatimah-series-dress-dewasa-army/ps--NAD-70194-00021?ds=NAD-70194-00021-00003&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM4380wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00021&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-silicone-case/ps--APF-70017-00339?ds=APF-70017-00339-00006&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00339</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>UNI-60025-01784</t>
+          <t>APF-70017-00332</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Bliblimart</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>RINSO</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Buy 2 - Rinso Detergent Cair Capsule Konsentrat Deterjen Matic Kapsul Sakura Blossom [168 G] Free Rinso Capsule Lavender Fresh [168 G]</t>
+          <t>iPhone 15 Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>97600</v>
+        <v>999000</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-166562849/rinso_buy_2_-_rinso_detergent_cair_capsule_konsentrat_deterjen_matic_kapsul_sakura_blossom_-168_g-_free_rinso_capsule_lavender_fresh_-168_g-_full16_efaa5k6d.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833594/apple_iphone_15_clear_case_with_magsafe_full04_bqrk81t6.jpeg</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -4469,265 +4469,265 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/buy-2-rinso-detergent-cair-capsule-konsentrat-deterjen-matic-kapsul-sakura-blossom-168-g-free-rinso-capsule-lavender-fresh-168-g/ps--UNI-60025-01784?ds=UNI-60025-01784-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/Pdgj1B/QYBV7GBvNoJs6tnh6wQ6PEr8y5kW/jpBoqaySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnyMru0AcvpJJckDx5fLB9bbI0w8dmNEBfvLU7Yuo2KuO0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01784&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-15-clear-case-with-magsafe/ps--APF-70017-00332?ds=APF-70017-00332-00001&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00332</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>JAO-70150-00036</t>
+          <t>APF-70017-00048</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Javina</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Javina Mahira Abaya Series - Maroon</t>
+          <t>iPhone 11</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>445000</v>
+        <v>6199000</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393203/javina_javina_mahira_abaya_series_-_maroon_full01_v7mv6ko3.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//96/MTA-55441923/apple_iphone_11_full03_td5mg95s.jpg</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-maroon/ps--JAO-70150-00036?ds=JAO-70150-00036-00004&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS847UMMr9bs7lr/LvcGmfw73JbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00036&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-11/ps--APF-70017-00048?ds=APF-70017-00048-00003&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8wDol3ZkqhTHXjds9fEyH6TghlAdPg2CjQYohEbdpVNycq4tJgT55gw64b9d6NV/iT0vQZ302m3rK6TgUnYsM3HGfQaCoNPSOcAg9lLayKYW1iE2KLbEw2wtdH47KHnWcSJa4cuig6qHGKfhLhJsWRXdFQKB0YyTzLQnKPKgoBIDEy5OaSLKFUCZrcC2nCZ2A9vxKXDJKxXa4UX67tzbXhHa5RrB7iXPKdVfFfUbbpG&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00048</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>JAO-70150-00034</t>
+          <t>APF-70017-00286</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Komputer &amp; Gaming</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Javina</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Javina Mahira Abaya Series - Black</t>
+          <t>MacBook Air (15 inci, M2, 2023)</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>445000</v>
+        <v>19499000</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393151/javina_javina_mahira_abaya_series_-_black_full01_fk49x92r.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-124761180/apple_macbook_air_-15_inci-_m2-_2023-_full06_jbdwfhi9.jpeg</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-black/ps--JAO-70150-00034?ds=JAO-70150-00034-00004&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00034&amp;tag=new</t>
+          <t>https://www.blibli.com/p/macbook-air-15-inci-m2-2023/ps--APF-70017-00286?ds=APF-70017-00286-00003&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JlYoIjV2CuCuY+6FEE/4Ocz2DUkDP9qOWZs0sDno/LE7LBaB3tLseqCRU/10V6Qi4m/0gcuiAdTNyGqjLqLXjMVB0Z19F5S3OJm6xVPOQF+fYfYBdOaXUoSWEt7LUZrj8SCpv+JZQ7/xvnr91HkkCtjPlzlQ1BsZC2kuLWp2z7Hbyn+4JWrfKTxHPG0CjNymc=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00286</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>JAO-70150-00037</t>
+          <t>APF-70017-00046</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Javina</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Javina Mahira Abaya Series - White Grey</t>
+          <t>iPhone 12</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>445000</v>
+        <v>8999000</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393243/javina_javina_mahira_abaya_series_-_white_grey_full01_jrnl83ek.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-55441280/apple_iphone_12_full07_ew9x8bof.jpg</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-white-grey/ps--JAO-70150-00037?ds=JAO-70150-00037-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84k38AQ6fHfgUaMI8dYOo1vlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00037&amp;tag=new</t>
+          <t>https://www.blibli.com/p/iphone-12/ps--APF-70017-00046?ds=APF-70017-00046-00003&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uTghlAdPg2CjQYohEbdpVNpEgeoSwwIoWb47iX8zxnJ9ldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdsEU3r2OKINlzoKpMtuWDsZaC0WkFw58IzLOpWNSSbO1p4qnFDJB1cdj8jJUR+mIw&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00046</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>JAO-70150-00035</t>
+          <t>APF-70017-00131</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Javina</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Javina Mahira Abaya Series - Denim</t>
+          <t>MagSafe Charger</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>445000</v>
+        <v>899000</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393198/javina_javina_mahira_abaya_series_-_denim_full01_tsevq5at.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-58268542/apple_magsafe_charger_full05_lysixmjl.jpeg</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-denim/ps--JAO-70150-00035?ds=JAO-70150-00035-00002&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84JQFtqBINX0TZNUUazK+2eVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00035&amp;tag=new</t>
+          <t>https://www.blibli.com/p/magsafe-charger/ps--APF-70017-00131?ds=APF-70017-00131-00001&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uGkIqt3bNpbYK+L444UhhhrzvyxmXCYHwhh53Mu6uwhZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3381860&amp;pid1=APF-70017-00131</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NIE-12227-11677</t>
+          <t>APF-70017-00085</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>NIKE Men Basketball Jordan Essentials Holiday T-Shirt Kaos Basket Pria [FD7010-133]</t>
+          <t>iPhone 13 Pro Max</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>389000</v>
+        <v>20499000</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552999/nike_nike_men_basketball_jordan_essentials_holiday_t-shirt_kaos_basket_pria_-fd7010-133-_full02_lpte85hd.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-55758860/apple_iphone_13_pro_max_full01_chcci7r6.jpg</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-men-basketball-jordan-essentials-holiday-t-shirt-kaos-basket-pria-fd7010-133/ps--NIE-12227-11677?ds=NIE-12227-11677-00002&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzrqhn2WeenYl70j0tMOsyiGkIqt3bNpbYK+L444UhhhwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11677</t>
+          <t>https://www.blibli.com/p/iphone-13-pro-max/ps--APF-70017-00085?ds=APF-70017-00085-00018&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxzohPZzaxyiJv5ug5c6gt1lYoIjV2CuCuY+6FEE/4OcG9dJYXQNH3c8otm92KLJF40NhQKzZIN8gL1jFkUDixHl7vLUjrsdK1zyi0EGIrlc+lqfuLhCKzHK1PquGiDNtPDjsDbRwEIHOQBbswYIpWkKy39fi3Va6xY0tttu7XwbdCIjEVS4NKc4mYAdHVV7x6dpprdJbrIvFhvGBsAjyZ60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00085</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NIE-12227-11674</t>
+          <t>APF-70017-00045</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>NIKE Men Running Dri-FIT Tee Trail T-Shirt Kaos Lari Pria [FN0826-010]</t>
+          <t>iPhone 13 Pro</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>325000</v>
+        <v>24999000</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552995/nike_nike_men_running_dri-fit_tee_trail_t-shirt_kaos_lari_pria_-fn0826-010-_full03_mpilnh7y.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//96/MTA-55440374/apple_iphone_13_pro_full01_b04adat2.jpg</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-men-running-dri-fit-tee-trail-t-shirt-kaos-lari-pria-fn0826-010/ps--NIE-12227-11674?ds=NIE-12227-11674-00003&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCy2vnCdR/EtZOI/3G854fFo0wn7+82bYRdE+2sGGRS84ijsaMV2OlAUratgIjx1Jq1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDkaTmXM5ymgQU76aQtitcsKDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11674</t>
+          <t>https://www.blibli.com/p/iphone-13-pro/ps--APF-70017-00045?ds=APF-70017-00045-00016&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4Z04n9snaCuoRGNTJBD90saz6OVeH3rdWiUoFIOCn3o3Y0NhQKzZIN8gL1jFkUDixHl7vLUjrsdK1zyi0EGIrlclK2zlO2aKDky1A2Jb0GH6REJUS6iZCZYBrw/vSDnZsJ5bzPYvzhwgcSRqReRQnHZssQD4zT1TELgTrwTywo5vKd2zlbgOMydKFrikUCiHiA=&amp;cnc=false&amp;pickupPointCode=PP-3527840&amp;pid1=APF-70017-00045</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NIE-12227-11673</t>
+          <t>APF-70017-00340</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NIKE Men Basketball Ja Max90 Long-Sleeve T-Shirt Kaos Basket Pria [FN0808-010]</t>
+          <t>iPhone 15 FineWoven Case</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>469000</v>
+        <v>1149000</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552996/nike_nike_men_basketball_ja_max90_long-sleeve_t-shirt_kaos_basket_pria_-fn0808-010-_full03_rbr4mdgj.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833659/apple_iphone_15_finewoven_case_full10_u67byf68.jpeg</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -4735,75 +4735,75 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-men-basketball-ja-max90-long-sleeve-t-shirt-kaos-basket-pria-fn0808-010/ps--NIE-12227-11673?ds=NIE-12227-11673-00002&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14uGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11673</t>
+          <t>https://www.blibli.com/p/iphone-15-finewoven-case/ps--APF-70017-00340?ds=APF-70017-00340-00003&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBpg7QOhsgjrF+al2+p+u3kFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00340</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NIE-12227-11523</t>
+          <t>APF-70017-00342</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NIKE Men Basketball Cleveland Cavaliers NBA T-shirt Basket [DR6369-680]</t>
+          <t>iPhone 15 Pro FineWoven Case</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>359000</v>
+        <v>1149000</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429261/nike_nike_men_basketball_cleveland_cavaliers_nba_t-shirt_basket_-dr6369-680-_full03_u6z1ye0p.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833683/apple_iphone_15_pro_finewoven_case_full06_dxao3nsd.jpeg</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-men-basketball-cleveland-cavaliers-nba-t-shirt-basket-dr6369-680/ps--NIE-12227-11523?ds=NIE-12227-11523-00005&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGGkIqt3bNpbYK+L444UhhhzzZ/8U3KjGLexZ+hPeKg01esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3016028&amp;pid1=NIE-12227-11523</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-finewoven-case/ps--APF-70017-00342?ds=APF-70017-00342-00001&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBfjR068KHPSQZ85QRu+ua05bKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00342</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HEL-60024-00658</t>
+          <t>APF-70017-00343</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Heaven Lights</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Heaven Lights Saiba Blouse - Royal Blue</t>
+          <t>iPhone 15 Pro Max FineWoven Case</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>249000</v>
+        <v>1149000</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/108/MTA-165507758/heaven_lights_heaven_lights_saiba_series_blouse_-_royal_blue_full02_pisk3vrj.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833689/apple_iphone_15_pro_max_finewoven_case_full12_lk7ukml6.jpeg</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -4811,75 +4811,75 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-royal-blue/ps--HEL-60024-00658?ds=HEL-60024-00658-00005&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh/BYfIayXYsLzJq+mx6RyfZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3525161&amp;pid1=HEL-60024-00658</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-finewoven-case/ps--APF-70017-00343?ds=APF-70017-00343-00004&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8SIe2ciyRlMxs7fEcgiIOT3nlp8bclZXCycVAj9E7KBQH6i0lIUSmR22orkXBAr8ZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00343</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NIE-12227-11638</t>
+          <t>APF-70017-00334</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>NIKE</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NIKE Women Running Dri-FIT Swift Element UV Crew-Neck Top Pakaian Lari Wanita [FB4298-010]</t>
+          <t>iPhone 15 Pro Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>545000</v>
+        <v>999000</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429424/nike_nike_women_running_dri-fit_swift_element_uv_crew-neck_top_pakaian_lari_wanita_-fb4298-010-_full09_fqh7v9lc.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833609/apple_iphone_15_pro_clear_case_with_magsafe_full06_j07yenup.jpeg</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/nike-women-running-dri-fit-swift-element-uv-crew-neck-top-pakaian-lari-wanita-fb4298-010/ps--NIE-12227-11638?ds=NIE-12227-11638-00003&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJU0wn7+82bYRdE+2sGGRS84wOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDoiJJ1OU1JS2unXAZ1VoEmmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11638</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-clear-case-with-magsafe/ps--APF-70017-00334?ds=APF-70017-00334-00001&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhfpqCNyIIM8Kl5K4rY8/LuVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00334</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ADS-12698-13527</t>
+          <t>APF-70017-00333</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>adidas Men Football Jersey Training Messi Baju Bola Pria [IZ2996]</t>
+          <t>iPhone 15 Plus Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>425000</v>
+        <v>999000</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164875220/adidas_adidas_men_football_jersey_training_messi_baju_bola_pria_-iz2996-_full02_spr5ewl2.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833606/apple_iphone_15_plus_clear_case_with_magsafe_full05_m2408lv7.jpeg</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -4887,113 +4887,113 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/adidas-men-football-jersey-training-messi-baju-bola-pria-iz2996/ps--ADS-12698-13527?ds=ADS-12698-13527-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxIcZ42UdpGRIP9haxRfSXo0wn7+82bYRdE+2sGGRS84Mt/3c2rmpbvxfTWQ1SJQeFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13527</t>
+          <t>https://www.blibli.com/p/iphone-15-plus-clear-case-with-magsafe/ps--APF-70017-00333?ds=APF-70017-00333-00001&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444UhhhDN9u2pSChajLuMWmnt1nzFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHISlLL3nc4hAUOcyeiML86PAbcTP41zUAXKcNpltq0UJFNIEqd0udvYJ+j4Opwo31U=&amp;cnc=false&amp;pickupPointCode=PP-3527596&amp;pid1=APF-70017-00333</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HEL-60024-00657</t>
+          <t>APF-70017-00335</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Fashion Muslim</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Heaven Lights</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Heaven Lights Saiba Blouse - Plum</t>
+          <t>iPhone 15 Pro Max Clear Case with MagSafe</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>249000</v>
+        <v>999000</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/99/MTA-165507009/heaven_lights_heaven_lights_saiba_series_blouse_-_plum_full01_o6nkay6z.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-137833612/apple_iphone_15_pro_max_clear_case_with_magsafe_full07_g5v66bq8.jpeg</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-plum/ps--HEL-60024-00657?ds=HEL-60024-00657-00002&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh3l+QY3wMrVJqg5NI5IcJapbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3501982&amp;pid1=HEL-60024-00657</t>
+          <t>https://www.blibli.com/p/iphone-15-pro-max-clear-case-with-magsafe/ps--APF-70017-00335?ds=APF-70017-00335-00001&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyGkIqt3bNpbYK+L444Uhhh/3E34WmsadpdNZCKPSkeRZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00335</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BEF-44369-01450</t>
+          <t>APF-70017-00135</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Kesehatan &amp; Kecantikan</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Nivea</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>WHS - NIVEA Extra White Anti Age Body Serum [180mL/ Twinpack]</t>
+          <t>iPhone Leather Wallet with MagSafe</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>105930</v>
+        <v>1299000</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/102/MTA-164580356/nivea_nivea_body_serum_extra_white_anti_age_spf33_180ml_twinpack_full02_f5ecp6kb.jpg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//103/MTA-58276282/apple_iphone_leather_wallet_with_magsafe_full01_cespmkb1.jpg</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/whs-nivea-extra-white-anti-age-body-serum-180ml-twinpack/ps--BEF-44369-01450?ds=BEF-44369-01450-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq/ovRQ0Z022L3Iu9yw6+ylB186d66YvaC2JQyxVan28sVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50HmOPOo9vK7ml77mG9hBQkQ2RD2hjh2mlEX+5RI/nJrbRlLYVOA1NrlZjxU92acsmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3013016&amp;pid1=BEF-44369-01450</t>
+          <t>https://www.blibli.com/p/iphone-leather-wallet-with-magsafe/ps--APF-70017-00135?ds=APF-70017-00135-00001&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeCTghlAdPg2CjQYohEbdpVNpg7QOhsgjrF+al2+p+u3kFX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527678&amp;pid1=APF-70017-00135</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ADS-12698-13483</t>
+          <t>APF-70017-00442</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>adidas Men Football Polo Shirt Manchester United Tiro 24 Baju Bola Pria [IT2028]</t>
+          <t>Thunderbolt 4 (USB-C) Pro Cable (1m)</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>552000</v>
+        <v>1099000</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114197/adidas_adidas_men_football_polo_shirt_manchester_united_tiro_24_baju_bola_pria_-it2028-_full03_ovnxbccg.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/108/MTA-148991931/apple_thunderbolt_4_pro_cable_-1-8_m-_full01_odh4x692.jpg</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -5001,1565 +5001,45 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/adidas-men-football-polo-shirt-manchester-united-tiro-24-baju-bola-pria-it2028/ps--ADS-12698-13483?ds=ADS-12698-13483-00001&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9edfIwrMRf6gYe7nhVvn27vDN9u2pSChajLuMWmnt1nzFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13483</t>
+          <t>https://www.blibli.com/p/thunderbolt-4-usb-c-pro-cable-1m/ps--APF-70017-00442?ds=APF-70017-00442-00001&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq+TghlAdPg2CjQYohEbdpVNa5ApKnrg2e22hkeOIMdo91X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52PTaJa61ZourzquQtoo/whKkFE337u38UxZG8Q3ZKRniijxwDfwzRnNaZ4db6gvW4=&amp;cnc=false&amp;pickupPointCode=PP-3527590&amp;pid1=APF-70017-00442</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ADS-12698-13451</t>
+          <t>APF-70017-00345</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
+          <t>Handphone &amp; Tablet</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>adidas</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>adidas Men Football Jersey Arsenal Home 24/25 Baju Bola Pria [IT6141]</t>
+          <t>Apple EarPods (USB-C)</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1020000</v>
+        <v>329000</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114157/adidas_adidas_men_football_jersey_arsenal_home_24-25_baju_bola_pria_-it6141-_full05_f1ymtfqk.jpeg</t>
+          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-138904841/apple_apple_earpods_-usb-c-_full01_pt4xshb0.jpg</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>https://www.blibli.com/p/adidas-men-football-jersey-arsenal-home-24-25-baju-bola-pria-it6141/ps--ADS-12698-13451?ds=ADS-12698-13451-00004&amp;source=SEARCH&amp;sid=d6edaa89a27ae09e&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq8BEYo4o198IKoVpkJZ1CNbAnAO3DeMVCIz5wjRuGXJuVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+UvM5rYQ2b7sWjAIjInNGfx9nPBIkgRjZAjSv9izhQ1pmwIpKMEQEhdOIn3G3lFnHYkG1UxvbL2nrGLalYS2G2RCnk+mz+9IdUNYHXY+enerZZHJddTpXmDglIJ8ujJq3&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13451</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>BAH-70197-00002</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Ibu &amp; Anak</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Baby Hai</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>BABY HAI Rayya Series Ramadhan Abizar Series Color 2 - Baju Anak Laki - Laki Lengan Pendek Celana Panjang</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>30100</v>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//112/MTA-94766386/baby_hai_baby_hai_rayya_series_ramadhan_abizar_series_color_2_-_baju_anak_laki_-_laki_lengan_pendek_celana_panjang_full01_he26rnqh.jpg</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>5</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/baby-hai-rayya-series-ramadhan-abizar-series-color-2-baju-anak-laki-laki-lengan-pendek-celana-panjang/ps--BAH-70197-00002?ds=BAH-70197-00002-00007&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7EMmbE/LLJy7W3VwRB8pUx8xE+ELff8mp6Jxh05BtXdSLlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWuSVd/bvsBAZ/8InAAmnjqC0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3529390&amp;pid1=BAH-70197-00002</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>KOE-70078-00007</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>KOZE</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>KOZE - Premium Comfort Green T-shirt - Kaos Polos Hijau</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>49500</v>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-99600694/koze_koze_-_premium_comfort_green_t-shirt_-_kaos_polos_hijau_full01_eukw1txs.jpg</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/koze-premium-comfort-green-t-shirt-kaos-polos-hijau/ps--KOE-70078-00007?ds=KOE-70078-00007-00004&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLe3ycwbRnPkH0lW7Gv/QJVMlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGp04hRlADTLARbcEgnz4dqM=&amp;cnc=false&amp;pickupPointCode=PP-3472636&amp;pid1=KOE-70078-00007</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>LGM-60021-00230</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>LGS</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>LGS Slim Fit Kaos Polo Pria - White Blue Green [JTS.325.M1846F.01.C]</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>146000</v>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//85/MTA-1520625/lgs_lgs-slim-fit-kaos-polo-pria---white-blue-green--jts-325-m1846f-01-c-_full02.jpg</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
-        <v>5</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/lgs-slim-fit-kaos-polo-pria-white-blue-green-jts-325-m1846f-01-c/ps--LGM-60021-00230?ds=LGM-60021-00230-00003&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushIJcaEJLcqsH3r6UABTq0TLwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3034126&amp;pid1=LGM-60021-00230</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>ELM-60027-00165</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>ELLIPSES INC</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>ELLIPSESINC Kaos Oversize Wanita &amp; Pria BECCA EDITION</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>35000</v>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//104/MTA-21988625/ellipses_inc_ellipsesinc_kaos_oversize_wanita_-_pria_becca_edition_full24_si0ww14j.jpg</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/ellipsesinc-kaos-oversize-wanita-pria-becca-edition/ps--ELM-60027-00165?ds=ELM-60027-00165-00007&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGT2r7fOYNS0fn24lYkspaBeeU8gA9woEea/RtkRh7ZnFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A8s4+rWZ7zCXM6RAaC0DCw0Kkkafi+cjIiXcB4olXgzyFWbDfLF/5KnLYCxjUA9SQsd5cgi/2OYPwjclFVcBAkX&amp;cnc=false&amp;pickupPointCode=PP-3085683&amp;pid1=ELM-60027-00165</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>EVO-70024-00183</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>EVERNEXT</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>EVERNEXT - DOMPET KUNCI KENDARAAN KEY WALLET ARCO GANTUNGAN KUNCI MOBIL MOTOR DOMPET KARTU DOMPET STNK</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>45000</v>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//117/MTA-78887691/evernext_evernext_-_dompet_kunci_kendaraan_key_wallet_arco_gantungan_kunci_mobil_motor_dompet_kartu_dompet_stnk_full11_f18edunq.jpg</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/evernext-dompet-kunci-kendaraan-key-wallet-arco-gantungan-kunci-mobil-motor-dompet-kartu-dompet-stnk/ps--EVO-70024-00183?ds=EVO-70024-00183-00002&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBgmMdlWBN8y5Inger9NURmlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vafHKVkJci5PAC/hnMA2UzpLyTJdReOx9JfHVI27hOzzM=&amp;cnc=false&amp;pickupPointCode=PP-3357698&amp;pid1=EVO-70024-00183</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>HUP-60027-03538</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Hush Puppies</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>Hush Puppies Farro 2 Polo Shirt Pria</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>224420</v>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-159627197/hush-puppies_hush-puppies-farro-2-polo-shirt-pria_full01.jpg</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>5</v>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/hush-puppies-farro-2-polo-shirt-pria/ps--HUP-60027-03538?ds=HUP-60027-03538-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q97B/omnSKxUeafXYYVk6xbwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HuiZ47Lpn6Wymqd3CV70A+/lyaCEV2cLuob29BhL/vaHavpJhnrFyjMUxAslPraGqvsOvSXfYahxc/9GQG6e4o=&amp;cnc=false&amp;pickupPointCode=PP-3095796&amp;pid1=HUP-60027-03538</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>BLI-15014-16569</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Ibu &amp; Anak</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>JP Collection</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>JP Collection OBSP-0285-TWOWHEELS Kaos Anak Laki-Laki</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>30970</v>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//79/MTA-3103224/jp-collection_jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki_full16.jpg</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/jp-collection-obsp-0285-twowheels-kaos-anak-laki-laki/ps--BLI-15014-16569?ds=BLI-15014-16569-00029&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+G4LZi2pi3YNLiDQiX+7ENfepXUSJ3qMPK5468+MysuJLWhzdnoh86j6S/07IpFSVesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKfaKzJ8ivPUq1GZ3FAd1eV9tmNWLRkA5d4lNdGbn2yWg3ctvKPtt4ygLDf9aZr0F60XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3523009&amp;pid1=BLI-15014-16569</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>BLM-60037-01195</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Fashion Pria</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>BLYTHE</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>Blythe Premium Jayden Flannel Shirt Kemeja Kotak Kotak Lengan Panjang Pria</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>249000</v>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-155401690/blythe_blythe_premium_jayden_flannel_shirt_kemeja_kotak_kotak_lengan_panjang_pria_full18_itluztdu.jpeg</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/blythe-premium-jayden-flannel-shirt-kemeja-kotak-kotak-lengan-panjang-pria/ps--BLM-60037-01195?ds=BLM-60037-01195-00008&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444UhhhDHoqKmYsTFC9Iv89Ei/0YlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt52Np6XO8WKdHoYeMogok9fdb2BUOOGusSvfBtxTrjv/cwqeaQg1dtTjyms/VfSkXqs=&amp;cnc=false&amp;pickupPointCode=PP-3525890&amp;pid1=BLM-60037-01195</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>KIK-70088-00020</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Kiyora</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Kiyora Sydney Atasan Wanita - Pink Crème</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>89000</v>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044786/kiyora_kiyora_sydney_atasan_wanita_-_pink_cr-me_full01_kunyukph.jpeg</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>5</v>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/kiyora-sydney-atasan-wanita-pink-cr-me/ps--KIK-70088-00020?ds=KIK-70088-00020-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9XGAMfrhUMip/eqTpDTn+uT2r7fOYNS0fn24lYkspaBKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKAe+OCLJmeyKGF1EdpUJUnlfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00020</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>LIS-14924-00806</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Home &amp; Living</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Lion Star</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Lion Star Folding Hanger 24 Sticks Jemuran Baju</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>64000</v>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090270/lion_star_lion_star__folding_hanger_24_sticks_jemuran_baju_full01_o3vah5cz.jpg</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>5</v>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/lion-star-folding-hanger-24-sticks-jemuran-baju/ps--LIS-14924-00806?ds=LIS-14924-00806-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzw6DOMtn+gYi+5f5Iqa4pGT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00806</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>LIS-14924-00805</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Home &amp; Living</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Lion Star</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>Lion Star Folding Hanger 16 Sticks Jemuran Baju</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>49500</v>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148088190/lion_star_lion_star_folding_hanger_16_sticks_jemuran_baju_full03_igkn11o8.jpg</t>
-        </is>
-      </c>
-      <c r="G132" t="n">
-        <v>5</v>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/lion-star-folding-hanger-16-sticks-jemuran-baju/ps--LIS-14924-00805?ds=LIS-14924-00805-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC+p/AVA0mwbANsVpLR+XCRm/HAkxoVke7cxJ4LyInlLeJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00805</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>LIS-14924-00807</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Home &amp; Living</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Lion Star</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>Lion Star Folding Hanger 30 Sticks Jemuran Baju</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>74500</v>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-148090286/lion_star_lion_star_folding_hanger_30_sticks_jemuran_baju_full02_tv6sxt04.jpg</t>
-        </is>
-      </c>
-      <c r="G133" t="n">
-        <v>5</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/lion-star-folding-hanger-30-sticks-jemuran-baju/ps--LIS-14924-00807?ds=LIS-14924-00807-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC6+ofzQPca16/hNKbnSDAJ6/HAkxoVke7cxJ4LyInlLenUcuWlxDj3lNx/vI4M4PH+jqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcDYBqN2haM+Z8V6bY1AEcLc8W5lWIQZcu0rAngceVKqQqT8ZStw7S5MZItrOJv2R8=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00807</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>LIS-14924-00733</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Home &amp; Living</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Lion Star</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Lion Star Jemuran Baju / Laundry Hanger Tripod</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>198600</v>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-127266381/lion_star_lion_star_jemuran_baju_-_laundry_hanger_tripod_full01_odf238gk.jpg</t>
-        </is>
-      </c>
-      <c r="G134" t="n">
-        <v>5</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/lion-star-jemuran-baju-laundry-hanger-tripod/ps--LIS-14924-00733?ds=LIS-14924-00733-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCyyDdutSjnAKjW/qtRSWe1JHLgoC/MYdp69cMUdWFnV1U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHI/2j+o1IQC0bIBUNNPAppAtZ8uEOn0Ql/eC8q/oWrwBcHn0AWNhN6m5BpKP78qwDE=&amp;cnc=false&amp;pickupPointCode=LIS-14924-001&amp;pid1=LIS-14924-00733</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>9TW-60021-01565</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>9 to 12</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>9 to 12 Mia Linen Shirt Kemeja Lengan Panjang Linen Kantor Wanita</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>149000</v>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/MTA-91217262/9_to_12_9_to_12_mia_linen_shirt_kemeja_wanita_full02_kcqs7mya.jpeg</t>
-        </is>
-      </c>
-      <c r="G135" t="n">
-        <v>5</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/9-to-12-mia-linen-shirt-kemeja-lengan-panjang-linen-kantor-wanita/ps--9TW-60021-01565?ds=9TW-60021-01565-00003&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC5ve/n9i6faHZpUkF2NushKGkIqt3bNpbYK+L444UhhhHxbrE1ojlIiyeznGUhdMUeWk7L/WjZW4V3T1+QzDEpiZTqX+08YMFPt67oXduO/veDye5g4cJG51p5fjAlqNKr3Qa6Aw9nJN8ZS3vPJl9087KBj1oW91VVdgmsyeMwxAAm0Ky79H2kukIikI3WbdDfjQtllH9FlUcG3SRRgUPwaH9/p2g1nm/YLqDhhmudNewKd+f0eOUHKyU4XgeKwfPg==&amp;cnc=false&amp;pickupPointCode=PP-3519985&amp;pid1=9TW-60021-01565</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>LIS-14924-00572</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Home &amp; Living</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Lion Star</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Lion Star Jepitan Baju JB-1 Laundry Clips (20 Pcs)</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>12500</v>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-11691417/lion_star_lion_star_001_laundry_clips_full01_exf0fig2.jpg</t>
-        </is>
-      </c>
-      <c r="G136" t="n">
-        <v>5</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/lion-star-jepitan-baju-jb-1-laundry-clips-20-pcs/ps--LIS-14924-00572?ds=LIS-14924-00572-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2QNmx+r+f1ujpt2oEeckeC/HAkxoVke7cxJ4LyInlLeONM/pwQSpw/TgMoD9qDeE1X6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt51SPFgCl9oi27QotXy+Xqg7ncDBNXS0U6F+cIYt7Ox4Ox3lyCL/Y5g/CNyUVVwECRc=&amp;cnc=false&amp;pickupPointCode=PP-3523019&amp;pid1=LIS-14924-00572</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>DAO-70167-00003</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Ibu &amp; Anak</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Dacco</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Dacco Mama Pad 3D Breastpad [24 pcs]</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>22000</v>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/92/MTA-127240561/dacco_dacco-mama-pad-breastpad-3d-isi-24pcs_full02.jpg</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-24-pcs/ps--DAO-70167-00003?ds=DAO-70167-00003-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzcTLm2yJwfE+vqixRWQ5q+T2r7fOYNS0fn24lYkspaB/A9+ItZOLJU0KYEdc1CW5NldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00003</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>DAO-70167-00004</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Ibu &amp; Anak</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Dacco</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Dacco Mama Pad 3D Breastpad [56 pcs]</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>45000</v>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/95/MTA-127240590/dacco_dacco-mama-pad-breastpad-3d-isi-56pcs_full02.jpg</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/dacco-mama-pad-3d-breastpad-56-pcs/ps--DAO-70167-00004?ds=DAO-70167-00004-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC3dMFCi0+0h2Q7yp/RTOlfeT2r7fOYNS0fn24lYkspaBjgJtif7ZErD1A5G7Do9RH9ldH9pXtqj8cRFTERUal3Bpz33rJJwAjBRbAFmAxRYrR2JC8yefRRKTBapN1Wd/InPP1hTAELZMPkG2ugw4qQC9MlocLc/g5WkcBM2SJQmdWG052Y5a7q9tHaaCfymHIssLVTxveQMiKSu6+7BIDlP8z/HXOmEiRF6RHc6l+uwY&amp;cnc=false&amp;pickupPointCode=PP-3498992&amp;pid1=DAO-70167-00004</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>KIK-70088-00045</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>KAORI</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Kaori Seira Cardigan Outer Wanita - Bata</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>75000</v>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93066052/kaori_kaori_seira_cardigan_outer_wanita_-_bata_full01_njcswb4w.jpeg</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
-        <v>5</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/kaori-seira-cardigan-outer-wanita-bata/ps--KIK-70088-00045?ds=KIK-70088-00045-00002&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCycpTyS3V4Bt86XaxsYSf7+T2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJvUe1T40+jFxsL3RTfsG+znMf7cp48yL26Dsz2eCVLdZfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00045</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>INP-60076-02184</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Mainan, Buku &amp; Stationery</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Akedo</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>Legends of Akedo PowerStorm S4 Giants Action Figure 15190 - Assorted</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>179000</v>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-95198657/akedo_legends_of_akedo_powerstorm_s4_giants_action_figure_15190_-_assorted_full02_jykgck93.jpeg</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
-        <v>5</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/legends-of-akedo-powerstorm-s4-giants-action-figure-15190-assorted/ps--INP-60076-02184?ds=INP-60076-02184-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC1ifcoeXCfsl309abOwHy+WGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHK76SVnWEJx+v2C4ypfwXRNylnry4OkDBy9LifrRfNVhITodBPeru5IipRxn8umZ90=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-02184</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>INP-60076-01330</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Mainan, Buku &amp; Stationery</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Happy Toon</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>Happy Toon NB-03900 Family Small Toys Iron Basket Mainan Anak</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>55000</v>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//93/MTA-54407440/happy_toon_happy_toon_nb-03900_family_small_toys_iron_basket_mainan_anak_full06_extz21fi.jpg</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
-        <v>5</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/happy-toon-nb-03900-family-small-toys-iron-basket-mainan-anak/ps--INP-60076-01330?ds=INP-60076-01330-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9eT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdMvid824Op0k6a8gP8mZi4h3fZ0ly05AmuL0ur5cecCosM0GrDScBYeg5CPA4jmdc=&amp;cnc=false&amp;pickupPointCode=PP-3526541&amp;pid1=INP-60076-01330</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>KIK-70088-00004</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Fashion Wanita</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Kiyora</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>Kiyora Claude Atasan Wanita - Hitam</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>99000</v>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium//catalog-image/MTA-93044758/kiyora_kiyora_claude_atasan_wanita_-_hitam_full01_vkgwv5e0.jpeg</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/kiyora-claude-atasan-wanita-hitam/ps--KIK-70088-00004?ds=KIK-70088-00004-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC2XuNNHwI4Wu2llNpf1IcHyT2r7fOYNS0fn24lYkspaBJpxUsLAohHVwJa3vwtOUsujqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXdoQA/r3VcFpUuGJxEpahjJLZtzRg/xvlrMSrm2yyYkKODomkMVGOhLlHkEhAouZJtfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3497947&amp;pid1=KIK-70088-00004</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>UNI-60025-01804</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Bliblimart</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>MOLTO</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>Molto Pelembut &amp; Pewangi Pakaian Softener Parfum Boost Himalayan Honeysuckle [650 mL] + Molto Trika Floral Bliss [300ml/2 Pcs] Free Jade Chielo Box</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>33500</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/98/MTA-167406424/molto_molto_pelembut_-_pewangi_pakaian_softener_parfum_boost_himalayan_honeysuckle_-650_ml-_-_molto_trika_floral_bliss_-300ml-2_pcs-_free_jade_chielo_box_full01_fgiz6m7c.jpg</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>5</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/molto-pelembut-pewangi-pakaian-softener-parfum-boost-himalayan-honeysuckle-650-ml-molto-trika-floral-bliss-300ml-2-pcs-free-jade-chielo-box/ps--UNI-60025-01804?ds=UNI-60025-01804-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ZIN0KweYTfTnX/ul7fF5G/HAkxoVke7cxJ4LyInlLeKJn9h4w27QeeplXx/bodWejqrM/mjls6JQDzIHvTluMiB4zoBbkTKkiVxxU6hr74PdxTHKZBV9wukrN4w82/yWp5HoWHuYDNl07Gpt+tmXcC/9RBdAtddAWdo2jQOkvIlWIVM7ED7wPBObjNJjF4PkDPK2nt+P+WStgCBz6tDLJfyUcjpfQtbDHqJqFsTE07&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01804&amp;tag=new</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>NAD-70194-00022</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Fashion Muslim</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Nadeea</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>Nadeea Jamilah Series Dress Dewasa - Black</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>465000</v>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167020003/nadeea_nadeea_jamilah_series_dress_dewasa_-_black_full01_i7gjfa9c.jpg</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>5</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/nadeea-jamilah-series-dress-dewasa-black/ps--NAD-70194-00022?ds=NAD-70194-00022-00003&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14s0wn7+82bYRdE+2sGGRS84WyZ4Fa53DKe1xs2SeZpyh5bKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00022&amp;tag=new</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>NAD-70194-00021</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Fashion Muslim</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Nadeea</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>Nadeea Fatimah Series Dress Dewasa - Army</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>395000</v>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-167019838/nadeea_nadeea_fatimah_series_dress_dewasa_-_army_full01_qdyt3pad.jpg</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
-        <v>5</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/nadeea-fatimah-series-dress-dewasa-army/ps--NAD-70194-00021?ds=NAD-70194-00021-00003&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC8ABEbUv77oGEmdGsuoM4380wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3521772&amp;pid1=NAD-70194-00021&amp;tag=new</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>UNI-60025-01784</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Bliblimart</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>RINSO</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Buy 2 - Rinso Detergent Cair Capsule Konsentrat Deterjen Matic Kapsul Sakura Blossom [168 G] Free Rinso Capsule Lavender Fresh [168 G]</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>97600</v>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/110/MTA-166562849/rinso_buy_2_-_rinso_detergent_cair_capsule_konsentrat_deterjen_matic_kapsul_sakura_blossom_-168_g-_free_rinso_capsule_lavender_fresh_-168_g-_full16_efaa5k6d.jpg</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
-        <v>5</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/buy-2-rinso-detergent-cair-capsule-konsentrat-deterjen-matic-kapsul-sakura-blossom-168-g-free-rinso-capsule-lavender-fresh-168-g/ps--UNI-60025-01784?ds=UNI-60025-01784-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/Pdgj1B/QYBV7GBvNoJs6tnh6wQ6PEr8y5kW/jpBoqaySa6/7XNQWhdwPhzxdMAE1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHId8q/CTKnimReTmKzpYHZnyMru0AcvpJJckDx5fLB9bbI0w8dmNEBfvLU7Yuo2KuO0XBPM8Ib69hRyb0y0TLR/&amp;cnc=false&amp;pickupPointCode=PP-3040410&amp;pid1=UNI-60025-01784&amp;tag=new</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>JAO-70150-00036</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Fashion Muslim</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Javina</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Javina Mahira Abaya Series - Maroon</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>445000</v>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393203/javina_javina_mahira_abaya_series_-_maroon_full01_v7mv6ko3.jpg</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>5</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-maroon/ps--JAO-70150-00036?ds=JAO-70150-00036-00004&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS847UMMr9bs7lr/LvcGmfw73JbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIxMv+Z54iezuvUVtpdUHL7BnSQnnElsl9k0CzNLhz+rU=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00036&amp;tag=new</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>JAO-70150-00034</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Fashion Muslim</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Javina</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Javina Mahira Abaya Series - Black</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>445000</v>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393151/javina_javina_mahira_abaya_series_-_black_full01_fk49x92r.jpg</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-black/ps--JAO-70150-00034?ds=JAO-70150-00034-00004&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84U+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9D3zP/3jXSVAsNO6CVkKiBbHhwvx3ifXg1BsOX37zBUHKMkazNgVNUI24kTL4hKKLZQAWiC68StDWHcdv6AULBykVxsVtt1u7+lViZLq4OWe0=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00034&amp;tag=new</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>JAO-70150-00037</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Fashion Muslim</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Javina</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Javina Mahira Abaya Series - White Grey</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>445000</v>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393243/javina_javina_mahira_abaya_series_-_white_grey_full01_jrnl83ek.jpg</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-white-grey/ps--JAO-70150-00037?ds=JAO-70150-00037-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84k38AQ6fHfgUaMI8dYOo1vlX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00037&amp;tag=new</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>JAO-70150-00035</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Fashion Muslim</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Javina</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Javina Mahira Abaya Series - Denim</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>445000</v>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-166393198/javina_javina_mahira_abaya_series_-_denim_full01_tsevq5at.jpg</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/javina-mahira-abaya-series-denim/ps--JAO-70150-00035?ds=JAO-70150-00035-00002&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/yWWkfvbmGmkfSwUzmXNKM0wn7+82bYRdE+2sGGRS84JQFtqBINX0TZNUUazK+2eVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt533PA5ngMW2E+T1Egui9IsW8GJBm3E+XBZSCVtZmp3rE7SzJiJrVN+5kEyYY5dHEwg=&amp;cnc=false&amp;pickupPointCode=PP-3530072&amp;pid1=JAO-70150-00035&amp;tag=new</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>NIE-12227-11677</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>NIKE</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>NIKE Men Basketball Jordan Essentials Holiday T-Shirt Kaos Basket Pria [FD7010-133]</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>389000</v>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552999/nike_nike_men_basketball_jordan_essentials_holiday_t-shirt_kaos_basket_pria_-fd7010-133-_full02_lpte85hd.jpeg</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
-        <v>5</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/nike-men-basketball-jordan-essentials-holiday-t-shirt-kaos-basket-pria-fd7010-133/ps--NIE-12227-11677?ds=NIE-12227-11677-00002&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCzrqhn2WeenYl70j0tMOsyiGkIqt3bNpbYK+L444UhhhwOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11677</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>NIE-12227-11674</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>NIKE</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>NIKE Men Running Dri-FIT Tee Trail T-Shirt Kaos Lari Pria [FN0826-010]</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>325000</v>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552995/nike_nike_men_running_dri-fit_tee_trail_t-shirt_kaos_lari_pria_-fn0826-010-_full03_mpilnh7y.jpeg</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
-        <v>5</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/nike-men-running-dri-fit-tee-trail-t-shirt-kaos-lari-pria-fn0826-010/ps--NIE-12227-11674?ds=NIE-12227-11674-00003&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCy2vnCdR/EtZOI/3G854fFo0wn7+82bYRdE+2sGGRS84ijsaMV2OlAUratgIjx1Jq1esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDkaTmXM5ymgQU76aQtitcsKDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11674</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>NIE-12227-11673</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>NIKE</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>NIKE Men Basketball Ja Max90 Long-Sleeve T-Shirt Kaos Basket Pria [FN0808-010]</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>469000</v>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165552996/nike_nike_men_basketball_ja_max90_long-sleeve_t-shirt_kaos_basket_pria_-fn0808-010-_full03_rbr4mdgj.jpeg</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>5</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/nike-men-basketball-ja-max90-long-sleeve-t-shirt-kaos-basket-pria-fn0808-010/ps--NIE-12227-11673?ds=NIE-12227-11673-00002&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxMBO06F3DG/I/RxYUVI14uGkIqt3bNpbYK+L444UhhhU+qNVzNAHCfEDldNFubAdFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11673</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>NIE-12227-11523</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>NIKE</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>NIKE Men Basketball Cleveland Cavaliers NBA T-shirt Basket [DR6369-680]</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>359000</v>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429261/nike_nike_men_basketball_cleveland_cavaliers_nba_t-shirt_basket_-dr6369-680-_full03_u6z1ye0p.jpeg</t>
-        </is>
-      </c>
-      <c r="G154" t="n">
-        <v>5</v>
-      </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/nike-men-basketball-cleveland-cavaliers-nba-t-shirt-basket-dr6369-680/ps--NIE-12227-11523?ds=NIE-12227-11523-00005&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC7uWdf8oWYVqFa8kN7IOdiGGkIqt3bNpbYK+L444UhhhzzZ/8U3KjGLexZ+hPeKg01esavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfoI0tgc+w44ObFhb+dLEFwQJnrsvSRpEToF0KJ5Fcrs8eDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3016028&amp;pid1=NIE-12227-11523</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>HEL-60024-00658</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Fashion Muslim</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Heaven Lights</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Heaven Lights Saiba Blouse - Royal Blue</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>249000</v>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/108/MTA-165507758/heaven_lights_heaven_lights_saiba_series_blouse_-_royal_blue_full02_pisk3vrj.jpg</t>
-        </is>
-      </c>
-      <c r="G155" t="n">
-        <v>5</v>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-royal-blue/ps--HEL-60024-00658?ds=HEL-60024-00658-00005&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh/BYfIayXYsLzJq+mx6RyfZbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3525161&amp;pid1=HEL-60024-00658</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>NIE-12227-11638</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>NIKE</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>NIKE Women Running Dri-FIT Swift Element UV Crew-Neck Top Pakaian Lari Wanita [FB4298-010]</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>545000</v>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-165429424/nike_nike_women_running_dri-fit_swift_element_uv_crew-neck_top_pakaian_lari_wanita_-fb4298-010-_full09_fqh7v9lc.jpeg</t>
-        </is>
-      </c>
-      <c r="G156" t="n">
-        <v>5</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/nike-women-running-dri-fit-swift-element-uv-crew-neck-top-pakaian-lari-wanita-fb4298-010/ps--NIE-12227-11638?ds=NIE-12227-11638-00003&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC9AkQpPvNielOwWvOvbJVJU0wn7+82bYRdE+2sGGRS84wOuwn8PMdUs21zBM0LtaAlesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/L4i6JvphFV1ZL/sW0XLu2kkO/esjvqoogVKmoFC5IfolouBECXZJM5fw2H9lFaTDoiJJ1OU1JS2unXAZ1VoEmmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3523650&amp;pid1=NIE-12227-11638</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>ADS-12698-13527</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>adidas</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>adidas Men Football Jersey Training Messi Baju Bola Pria [IZ2996]</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>425000</v>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164875220/adidas_adidas_men_football_jersey_training_messi_baju_bola_pria_-iz2996-_full02_spr5ewl2.jpeg</t>
-        </is>
-      </c>
-      <c r="G157" t="n">
-        <v>5</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/adidas-men-football-jersey-training-messi-baju-bola-pria-iz2996/ps--ADS-12698-13527?ds=ADS-12698-13527-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCxIcZ42UdpGRIP9haxRfSXo0wn7+82bYRdE+2sGGRS84Mt/3c2rmpbvxfTWQ1SJQeFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13527</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>HEL-60024-00657</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Fashion Muslim</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Heaven Lights</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Heaven Lights Saiba Blouse - Plum</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>249000</v>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/99/MTA-165507009/heaven_lights_heaven_lights_saiba_series_blouse_-_plum_full01_o6nkay6z.jpg</t>
-        </is>
-      </c>
-      <c r="G158" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/heaven-lights-saiba-blouse-plum/ps--HEL-60024-00657?ds=HEL-60024-00657-00002&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0rd1rndxbAlG8VCZRwhI4aGkIqt3bNpbYK+L444Uhhh3l+QY3wMrVJqg5NI5IcJapbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV61i8Xfr9MUwD5bHCvYmTvIkLo7oMAbSsBihaIyq0vyzi/NtcQWc9egD+NqAZGyXsU=&amp;cnc=false&amp;pickupPointCode=PP-3501982&amp;pid1=HEL-60024-00657</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>BEF-44369-01450</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Kesehatan &amp; Kecantikan</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Nivea</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>WHS - NIVEA Extra White Anti Age Body Serum [180mL/ Twinpack]</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>105930</v>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/102/MTA-164580356/nivea_nivea_body_serum_extra_white_anti_age_spf33_180ml_twinpack_full02_f5ecp6kb.jpg</t>
-        </is>
-      </c>
-      <c r="G159" t="n">
-        <v>5</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/whs-nivea-extra-white-anti-age-body-serum-180ml-twinpack/ps--BEF-44369-01450?ds=BEF-44369-01450-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq/ovRQ0Z022L3Iu9yw6+ylB186d66YvaC2JQyxVan28sVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+BSFd02BuHmZWh0L7R6dhksB+tPNv9ITp+8ttAFmGt50HmOPOo9vK7ml77mG9hBQkQ2RD2hjh2mlEX+5RI/nJrbRlLYVOA1NrlZjxU92acsmDEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3013016&amp;pid1=BEF-44369-01450</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>ADS-12698-13483</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>adidas</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>adidas Men Football Polo Shirt Manchester United Tiro 24 Baju Bola Pria [IT2028]</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>552000</v>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114197/adidas_adidas_men_football_polo_shirt_manchester_united_tiro_24_baju_bola_pria_-it2028-_full03_ovnxbccg.jpeg</t>
-        </is>
-      </c>
-      <c r="G160" t="n">
-        <v>5</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/adidas-men-football-polo-shirt-manchester-united-tiro-24-baju-bola-pria-it2028/ps--ADS-12698-13483?ds=ADS-12698-13483-00001&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC/HCzbecjA7sTaIoP2qZn9edfIwrMRf6gYe7nhVvn27vDN9u2pSChajLuMWmnt1nzFesavfRnEsmWNUn9y9IGTPNbQv3e9jt8aL3d1v2xu9DKSzHz/PIkE4dvMq7nfYD/HvV9+qS4WpIi4/e48SpylAkO/esjvqoogVKmoFC5Ifon3ZuR9AbxKwLb13qE7lntw4HjeaDkg88UyRq1GwHd+ODEC3cLXX0wtGQFaK7Z8yP&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13483</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>ADS-12698-13451</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Olahraga &amp; Aktivitas Luar Ruang</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>adidas</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>adidas Men Football Jersey Arsenal Home 24/25 Baju Bola Pria [IT6141]</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>1020000</v>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>https://www.static-src.com/wcsstore/Indraprastha/images/catalog/medium/catalog-image/MTA-164114157/adidas_adidas_men_football_jersey_arsenal_home_24-25_baju_bola_pria_-it6141-_full05_f1ymtfqk.jpeg</t>
-        </is>
-      </c>
-      <c r="G161" t="n">
-        <v>5</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>https://www.blibli.com/p/adidas-men-football-jersey-arsenal-home-24-25-baju-bola-pria-it6141/ps--ADS-12698-13451?ds=ADS-12698-13451-00004&amp;source=SEARCH&amp;sid=62a0a24c115768aa&amp;metaData=SnHZRCX7NPLsJ+ExPEFNC0ry844Ce9aEHITmMYpiMq8BEYo4o198IKoVpkJZ1CNbAnAO3DeMVCIz5wjRuGXJuVX6YqNL/N38iJlYkQlI2HD9cnB7A9Br96VNOoae/H1+UvM5rYQ2b7sWjAIjInNGfx9nPBIkgRjZAjSv9izhQ1pmwIpKMEQEhdOIn3G3lFnHYkG1UxvbL2nrGLalYS2G2RCnk+mz+9IdUNYHXY+enerZZHJddTpXmDglIJ8ujJq3&amp;cnc=false&amp;pickupPointCode=PP-3525566&amp;pid1=ADS-12698-13451</t>
+          <t>https://www.blibli.com/p/apple-earpods-usb-c/ps--APF-70017-00345?ds=APF-70017-00345-00001&amp;source=SEARCH&amp;sid=9df5b5c398933fbc&amp;metaData=SnHZRCX7NPLsJ+ExPEFNCy2vnCdR/EtZOI/3G854fFqGkIqt3bNpbYK+L444UhhhO6vXhIqd5wm3EnZ065grfpbKIFVX5lKVfE28/P1rwwdP0HfjxNkfgWHG5INuEdtbni/RfXtjO+mLEBi1JvU4oOf9OamnFrvil6IltQoJVV5mSvpGrhFxLayVmM7dmhGYI4cbRVDSmWMHKwbWFEXvN9KTa0D82GYTbQE4W8vpk04=&amp;cnc=false&amp;pickupPointCode=PP-3527836&amp;pid1=APF-70017-00345</t>
         </is>
       </c>
     </row>
